--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221766</v>
+        <v>6221640</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,58 +1957,58 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="L17">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N17">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P17">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2017,16 +2017,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6221640</v>
+        <v>6221766</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,58 +2046,58 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="L18">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O18">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="Q18">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2106,16 +2106,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC18">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6221642</v>
+        <v>6221639</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,40 +2135,40 @@
         <v>44999.5</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="N19">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O19">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R19">
         <v>1.9</v>
@@ -2177,31 +2177,31 @@
         <v>1.9</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB19">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6221639</v>
+        <v>6221642</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,40 +2224,40 @@
         <v>44999.5</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="N20">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
         <v>1.9</v>
@@ -2266,31 +2266,31 @@
         <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y20">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6221645</v>
+        <v>6221769</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,55 +2847,55 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
       </c>
       <c r="K27">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="L27">
+        <v>3.4</v>
+      </c>
+      <c r="M27">
         <v>4</v>
       </c>
-      <c r="M27">
-        <v>5</v>
-      </c>
       <c r="N27">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
         <v>4</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
+        <v>1.95</v>
+      </c>
+      <c r="V27">
         <v>1.85</v>
-      </c>
-      <c r="V27">
-        <v>1.95</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2910,10 +2910,10 @@
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB27">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6221769</v>
+        <v>6221645</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,55 +2936,55 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
       </c>
       <c r="K28">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="O28">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
         <v>4</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
         <v>1.8</v>
       </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
+        <v>1.85</v>
+      </c>
+      <c r="V28">
         <v>1.95</v>
-      </c>
-      <c r="V28">
-        <v>1.85</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2999,10 +2999,10 @@
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB28">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221655</v>
+        <v>6221774</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,76 +3826,76 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K38">
+        <v>2.6</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>2.5</v>
+      </c>
+      <c r="N38">
+        <v>2.7</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
         <v>2.4</v>
       </c>
-      <c r="L38">
-        <v>3.1</v>
-      </c>
-      <c r="M38">
-        <v>2.7</v>
-      </c>
-      <c r="N38">
-        <v>1.95</v>
-      </c>
-      <c r="O38">
-        <v>3.4</v>
-      </c>
-      <c r="P38">
-        <v>3.4</v>
-      </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6221774</v>
+        <v>6221655</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K39">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N39">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S39">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W39">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB39">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -16185,7 +16185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,76 +16197,76 @@
         <v>45228.25</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
+        <v>3</v>
+      </c>
+      <c r="J177" t="s">
+        <v>44</v>
+      </c>
+      <c r="K177">
+        <v>2.75</v>
+      </c>
+      <c r="L177">
+        <v>3.1</v>
+      </c>
+      <c r="M177">
+        <v>2.375</v>
+      </c>
+      <c r="N177">
+        <v>2.625</v>
+      </c>
+      <c r="O177">
+        <v>3.2</v>
+      </c>
+      <c r="P177">
+        <v>2.45</v>
+      </c>
+      <c r="Q177">
         <v>0</v>
       </c>
-      <c r="J177" t="s">
-        <v>45</v>
-      </c>
-      <c r="K177">
-        <v>3</v>
-      </c>
-      <c r="L177">
-        <v>3</v>
-      </c>
-      <c r="M177">
-        <v>2.25</v>
-      </c>
-      <c r="N177">
-        <v>3.1</v>
-      </c>
-      <c r="O177">
-        <v>3.1</v>
-      </c>
-      <c r="P177">
-        <v>2.15</v>
-      </c>
-      <c r="Q177">
-        <v>0.25</v>
-      </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T177">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z177">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC177">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16274,7 +16274,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6221752</v>
+        <v>6221815</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16286,76 +16286,76 @@
         <v>45228.25</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K178">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M178">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N178">
+        <v>3.1</v>
+      </c>
+      <c r="O178">
+        <v>3.1</v>
+      </c>
+      <c r="P178">
+        <v>2.15</v>
+      </c>
+      <c r="Q178">
+        <v>0.25</v>
+      </c>
+      <c r="R178">
         <v>1.85</v>
       </c>
-      <c r="O178">
-        <v>3.2</v>
-      </c>
-      <c r="P178">
-        <v>4</v>
-      </c>
-      <c r="Q178">
+      <c r="S178">
+        <v>1.95</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
+        <v>1.8</v>
+      </c>
+      <c r="V178">
+        <v>2</v>
+      </c>
+      <c r="W178">
+        <v>-1</v>
+      </c>
+      <c r="X178">
+        <v>2.1</v>
+      </c>
+      <c r="Y178">
+        <v>-1</v>
+      </c>
+      <c r="Z178">
+        <v>0.425</v>
+      </c>
+      <c r="AA178">
         <v>-0.5</v>
       </c>
-      <c r="R178">
-        <v>1.9</v>
-      </c>
-      <c r="S178">
-        <v>1.9</v>
-      </c>
-      <c r="T178">
-        <v>2</v>
-      </c>
-      <c r="U178">
-        <v>1.775</v>
-      </c>
-      <c r="V178">
-        <v>2.025</v>
-      </c>
-      <c r="W178">
-        <v>-1</v>
-      </c>
-      <c r="X178">
-        <v>-1</v>
-      </c>
-      <c r="Y178">
-        <v>3</v>
-      </c>
-      <c r="Z178">
-        <v>-1</v>
-      </c>
-      <c r="AA178">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB178">
         <v>-1</v>
       </c>
       <c r="AC178">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16363,7 +16363,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16375,55 +16375,55 @@
         <v>45228.25</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
       <c r="I179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>44</v>
       </c>
       <c r="K179">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L179">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N179">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O179">
         <v>3.2</v>
       </c>
       <c r="P179">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W179">
         <v>-1</v>
@@ -16432,19 +16432,19 @@
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB179">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="180" spans="1:29">

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221641</v>
+        <v>6221640</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,55 +1868,55 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L16">
         <v>4.333</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N16">
         <v>1.333</v>
       </c>
       <c r="O16">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P16">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q16">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
         <v>0.333</v>
@@ -1928,16 +1928,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221640</v>
+        <v>6221641</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,55 +1957,55 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="L17">
         <v>4.333</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>1.333</v>
       </c>
       <c r="O17">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P17">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q17">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R17">
+        <v>1.925</v>
+      </c>
+      <c r="S17">
+        <v>1.875</v>
+      </c>
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
         <v>1.75</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.95</v>
-      </c>
-      <c r="T17">
-        <v>2.5</v>
-      </c>
-      <c r="U17">
-        <v>1.9</v>
-      </c>
-      <c r="V17">
-        <v>1.9</v>
       </c>
       <c r="W17">
         <v>0.333</v>
@@ -2017,16 +2017,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC17">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6221639</v>
+        <v>6221642</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,40 +2135,40 @@
         <v>44999.5</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="N19">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
         <v>1.9</v>
@@ -2177,31 +2177,31 @@
         <v>1.9</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y19">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6221642</v>
+        <v>6221639</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,40 +2224,40 @@
         <v>44999.5</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="N20">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O20">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R20">
         <v>1.9</v>
@@ -2266,31 +2266,31 @@
         <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6221769</v>
+        <v>6221645</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,55 +2847,55 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
       </c>
       <c r="K27">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
         <v>4</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
         <v>1.8</v>
       </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
+        <v>1.85</v>
+      </c>
+      <c r="V27">
         <v>1.95</v>
-      </c>
-      <c r="V27">
-        <v>1.85</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2910,10 +2910,10 @@
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB27">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6221645</v>
+        <v>6221769</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,55 +2936,55 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
       </c>
       <c r="K28">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="L28">
+        <v>3.4</v>
+      </c>
+      <c r="M28">
         <v>4</v>
       </c>
-      <c r="M28">
-        <v>5</v>
-      </c>
       <c r="N28">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
         <v>4</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
+        <v>1.95</v>
+      </c>
+      <c r="V28">
         <v>1.85</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2999,10 +2999,10 @@
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221774</v>
+        <v>6221655</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,76 +3826,76 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K38">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M38">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N38">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S38">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6221655</v>
+        <v>6221774</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
         <v>0</v>
       </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K39">
+        <v>2.6</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>2.5</v>
+      </c>
+      <c r="N39">
+        <v>2.7</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
         <v>2.4</v>
       </c>
-      <c r="L39">
-        <v>3.1</v>
-      </c>
-      <c r="M39">
-        <v>2.7</v>
-      </c>
-      <c r="N39">
-        <v>1.95</v>
-      </c>
-      <c r="O39">
-        <v>3.4</v>
-      </c>
-      <c r="P39">
-        <v>3.4</v>
-      </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,58 +8276,58 @@
         <v>45101.375</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H88">
         <v>3</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>43</v>
       </c>
       <c r="K88">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L88">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M88">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N88">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O88">
+        <v>5.5</v>
+      </c>
+      <c r="P88">
+        <v>11</v>
+      </c>
+      <c r="Q88">
+        <v>-2</v>
+      </c>
+      <c r="R88">
+        <v>1.975</v>
+      </c>
+      <c r="S88">
+        <v>1.825</v>
+      </c>
+      <c r="T88">
         <v>3</v>
       </c>
-      <c r="P88">
-        <v>3.2</v>
-      </c>
-      <c r="Q88">
-        <v>-0.25</v>
-      </c>
-      <c r="R88">
-        <v>1.875</v>
-      </c>
-      <c r="S88">
-        <v>1.925</v>
-      </c>
-      <c r="T88">
-        <v>2.25</v>
-      </c>
       <c r="U88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8336,13 +8336,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,58 +8365,58 @@
         <v>45101.375</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H89">
         <v>3</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>43</v>
       </c>
       <c r="K89">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L89">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N89">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O89">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P89">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q89">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8425,13 +8425,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -16185,7 +16185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,55 +16197,55 @@
         <v>45228.25</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
         <v>44</v>
       </c>
       <c r="K177">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L177">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M177">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N177">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O177">
         <v>3.2</v>
       </c>
       <c r="P177">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W177">
         <v>-1</v>
@@ -16254,19 +16254,19 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16274,7 +16274,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16286,76 +16286,76 @@
         <v>45228.25</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178">
+        <v>3</v>
+      </c>
+      <c r="J178" t="s">
+        <v>44</v>
+      </c>
+      <c r="K178">
+        <v>2.75</v>
+      </c>
+      <c r="L178">
+        <v>3.1</v>
+      </c>
+      <c r="M178">
+        <v>2.375</v>
+      </c>
+      <c r="N178">
+        <v>2.625</v>
+      </c>
+      <c r="O178">
+        <v>3.2</v>
+      </c>
+      <c r="P178">
+        <v>2.45</v>
+      </c>
+      <c r="Q178">
         <v>0</v>
       </c>
-      <c r="J178" t="s">
-        <v>45</v>
-      </c>
-      <c r="K178">
-        <v>3</v>
-      </c>
-      <c r="L178">
-        <v>3</v>
-      </c>
-      <c r="M178">
-        <v>2.25</v>
-      </c>
-      <c r="N178">
-        <v>3.1</v>
-      </c>
-      <c r="O178">
-        <v>3.1</v>
-      </c>
-      <c r="P178">
-        <v>2.15</v>
-      </c>
-      <c r="Q178">
-        <v>0.25</v>
-      </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T178">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V178">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z178">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC178">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16363,7 +16363,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6221752</v>
+        <v>6221815</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16375,76 +16375,76 @@
         <v>45228.25</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K179">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M179">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N179">
+        <v>3.1</v>
+      </c>
+      <c r="O179">
+        <v>3.1</v>
+      </c>
+      <c r="P179">
+        <v>2.15</v>
+      </c>
+      <c r="Q179">
+        <v>0.25</v>
+      </c>
+      <c r="R179">
         <v>1.85</v>
       </c>
-      <c r="O179">
-        <v>3.2</v>
-      </c>
-      <c r="P179">
-        <v>4</v>
-      </c>
-      <c r="Q179">
+      <c r="S179">
+        <v>1.95</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
+        <v>1.8</v>
+      </c>
+      <c r="V179">
+        <v>2</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>2.1</v>
+      </c>
+      <c r="Y179">
+        <v>-1</v>
+      </c>
+      <c r="Z179">
+        <v>0.425</v>
+      </c>
+      <c r="AA179">
         <v>-0.5</v>
       </c>
-      <c r="R179">
-        <v>1.9</v>
-      </c>
-      <c r="S179">
-        <v>1.9</v>
-      </c>
-      <c r="T179">
-        <v>2</v>
-      </c>
-      <c r="U179">
-        <v>1.775</v>
-      </c>
-      <c r="V179">
-        <v>2.025</v>
-      </c>
-      <c r="W179">
-        <v>-1</v>
-      </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
-      <c r="Y179">
-        <v>3</v>
-      </c>
-      <c r="Z179">
-        <v>-1</v>
-      </c>
-      <c r="AA179">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:29">

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221640</v>
+        <v>6221641</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,55 +1868,55 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="L16">
         <v>4.333</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>1.333</v>
       </c>
       <c r="O16">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P16">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q16">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R16">
+        <v>1.925</v>
+      </c>
+      <c r="S16">
+        <v>1.875</v>
+      </c>
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
         <v>1.75</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>1.95</v>
-      </c>
-      <c r="T16">
-        <v>2.5</v>
-      </c>
-      <c r="U16">
-        <v>1.9</v>
-      </c>
-      <c r="V16">
-        <v>1.9</v>
       </c>
       <c r="W16">
         <v>0.333</v>
@@ -1928,16 +1928,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC16">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221641</v>
+        <v>6221640</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,55 +1957,55 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L17">
         <v>4.333</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>1.333</v>
       </c>
       <c r="O17">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P17">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q17">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
         <v>0.333</v>
@@ -2017,16 +2017,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6221645</v>
+        <v>6221769</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,55 +2847,55 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
       </c>
       <c r="K27">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="L27">
+        <v>3.4</v>
+      </c>
+      <c r="M27">
         <v>4</v>
       </c>
-      <c r="M27">
-        <v>5</v>
-      </c>
       <c r="N27">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
         <v>4</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
+        <v>1.95</v>
+      </c>
+      <c r="V27">
         <v>1.85</v>
-      </c>
-      <c r="V27">
-        <v>1.95</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2910,10 +2910,10 @@
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB27">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6221769</v>
+        <v>6221645</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,55 +2936,55 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
       </c>
       <c r="K28">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="O28">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
         <v>4</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
         <v>1.8</v>
       </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
+        <v>1.85</v>
+      </c>
+      <c r="V28">
         <v>1.95</v>
-      </c>
-      <c r="V28">
-        <v>1.85</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2999,10 +2999,10 @@
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB28">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221655</v>
+        <v>6221774</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,76 +3826,76 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K38">
+        <v>2.6</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>2.5</v>
+      </c>
+      <c r="N38">
+        <v>2.7</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
         <v>2.4</v>
       </c>
-      <c r="L38">
-        <v>3.1</v>
-      </c>
-      <c r="M38">
-        <v>2.7</v>
-      </c>
-      <c r="N38">
-        <v>1.95</v>
-      </c>
-      <c r="O38">
-        <v>3.4</v>
-      </c>
-      <c r="P38">
-        <v>3.4</v>
-      </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6221774</v>
+        <v>6221655</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K39">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N39">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S39">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W39">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB39">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6221661</v>
+        <v>6221658</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,73 +4627,73 @@
         <v>45039.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>2</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
+        <v>2.625</v>
+      </c>
+      <c r="N47">
+        <v>2.4</v>
+      </c>
+      <c r="O47">
         <v>3.1</v>
       </c>
-      <c r="N47">
-        <v>1.833</v>
-      </c>
-      <c r="O47">
-        <v>3.5</v>
-      </c>
       <c r="P47">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q47">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
         <v>2.25</v>
       </c>
       <c r="U47">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W47">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB47">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4704,7 +4704,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6221658</v>
+        <v>6221661</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4716,73 +4716,73 @@
         <v>45039.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K48">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N48">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="O48">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P48">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X48">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6221684</v>
+        <v>6726053</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,10 +7742,10 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7757,43 +7757,43 @@
         <v>43</v>
       </c>
       <c r="K82">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L82">
+        <v>3.2</v>
+      </c>
+      <c r="M82">
+        <v>2.5</v>
+      </c>
+      <c r="N82">
+        <v>1.8</v>
+      </c>
+      <c r="O82">
+        <v>3</v>
+      </c>
+      <c r="P82">
         <v>4.2</v>
       </c>
-      <c r="M82">
-        <v>4.5</v>
-      </c>
-      <c r="N82">
-        <v>1.222</v>
-      </c>
-      <c r="O82">
-        <v>5.5</v>
-      </c>
-      <c r="P82">
-        <v>9</v>
-      </c>
       <c r="Q82">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U82">
+        <v>1.875</v>
+      </c>
+      <c r="V82">
         <v>1.925</v>
       </c>
-      <c r="V82">
-        <v>1.875</v>
-      </c>
       <c r="W82">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7802,16 +7802,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6726053</v>
+        <v>6221684</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,10 +7831,10 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7846,43 +7846,43 @@
         <v>43</v>
       </c>
       <c r="K83">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L83">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M83">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N83">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P83">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U83">
+        <v>1.925</v>
+      </c>
+      <c r="V83">
         <v>1.875</v>
       </c>
-      <c r="V83">
-        <v>1.925</v>
-      </c>
       <c r="W83">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7891,16 +7891,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,58 +7920,58 @@
         <v>45080.5</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>43</v>
       </c>
       <c r="K84">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M84">
+        <v>3.5</v>
+      </c>
+      <c r="N84">
+        <v>1.333</v>
+      </c>
+      <c r="O84">
         <v>4.75</v>
       </c>
-      <c r="N84">
-        <v>1.5</v>
-      </c>
-      <c r="O84">
-        <v>4</v>
-      </c>
       <c r="P84">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W84">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7980,16 +7980,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,58 +8009,58 @@
         <v>45080.5</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>43</v>
       </c>
       <c r="K85">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L85">
+        <v>3.8</v>
+      </c>
+      <c r="M85">
+        <v>4.75</v>
+      </c>
+      <c r="N85">
+        <v>1.5</v>
+      </c>
+      <c r="O85">
         <v>4</v>
       </c>
-      <c r="M85">
-        <v>3.5</v>
-      </c>
-      <c r="N85">
-        <v>1.333</v>
-      </c>
-      <c r="O85">
-        <v>4.75</v>
-      </c>
       <c r="P85">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q85">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8069,16 +8069,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8887,7 +8887,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8899,55 +8899,55 @@
         <v>45108.375</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
         <v>44</v>
       </c>
       <c r="K95">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N95">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P95">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q95">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8956,16 +8956,16 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8976,7 +8976,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8988,55 +8988,55 @@
         <v>45108.375</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>44</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L96">
+        <v>3.5</v>
+      </c>
+      <c r="M96">
+        <v>1.666</v>
+      </c>
+      <c r="N96">
+        <v>4.2</v>
+      </c>
+      <c r="O96">
         <v>3.4</v>
       </c>
-      <c r="M96">
-        <v>3.1</v>
-      </c>
-      <c r="N96">
-        <v>2.2</v>
-      </c>
-      <c r="O96">
-        <v>3.3</v>
-      </c>
       <c r="P96">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9045,16 +9045,16 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -11913,7 +11913,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11925,64 +11925,64 @@
         <v>45151.5</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K129">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M129">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="N129">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O129">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P129">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R129">
+        <v>1.725</v>
+      </c>
+      <c r="S129">
+        <v>2.075</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
+        <v>1.875</v>
+      </c>
+      <c r="V129">
         <v>1.925</v>
       </c>
-      <c r="S129">
-        <v>1.875</v>
-      </c>
-      <c r="T129">
-        <v>2.5</v>
-      </c>
-      <c r="U129">
-        <v>1.9</v>
-      </c>
-      <c r="V129">
-        <v>1.9</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z129">
         <v>0</v>
@@ -11991,10 +11991,10 @@
         <v>-0</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC129">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,64 +12014,64 @@
         <v>45151.5</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L130">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M130">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N130">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O130">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P130">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y130">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>0</v>
@@ -12080,10 +12080,10 @@
         <v>-0</v>
       </c>
       <c r="AB130">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -15028,7 +15028,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15040,76 +15040,76 @@
         <v>45200.25</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K164">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L164">
         <v>3.1</v>
       </c>
       <c r="M164">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N164">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P164">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q164">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
         <v>1.8</v>
-      </c>
-      <c r="S164">
-        <v>2</v>
       </c>
       <c r="T164">
         <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
         <v>0.8</v>
       </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC164">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15117,7 +15117,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15129,76 +15129,76 @@
         <v>45200.25</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K165">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L165">
         <v>3.1</v>
       </c>
       <c r="M165">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N165">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O165">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P165">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q165">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S165">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T165">
         <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA165">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15295,7 +15295,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6221811</v>
+        <v>6221810</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15307,76 +15307,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K167">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L167">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M167">
+        <v>3.8</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167">
+        <v>3.1</v>
+      </c>
+      <c r="P167">
+        <v>3.5</v>
+      </c>
+      <c r="Q167">
+        <v>-0.5</v>
+      </c>
+      <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
         <v>1.8</v>
       </c>
-      <c r="N167">
-        <v>3.8</v>
-      </c>
-      <c r="O167">
-        <v>3.6</v>
-      </c>
-      <c r="P167">
-        <v>1.75</v>
-      </c>
-      <c r="Q167">
-        <v>0.75</v>
-      </c>
-      <c r="R167">
-        <v>1.8</v>
-      </c>
-      <c r="S167">
-        <v>2</v>
-      </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V167">
         <v>1.975</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X167">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15384,7 +15384,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6221810</v>
+        <v>6221811</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15396,76 +15396,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K168">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L168">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M168">
+        <v>1.8</v>
+      </c>
+      <c r="N168">
         <v>3.8</v>
       </c>
-      <c r="N168">
-        <v>2</v>
-      </c>
       <c r="O168">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P168">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S168">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T168">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
         <v>1.975</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -16185,7 +16185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,56 +16197,56 @@
         <v>45228.25</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
         <v>44</v>
       </c>
       <c r="K177">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M177">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N177">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O177">
         <v>3.2</v>
       </c>
       <c r="P177">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>1.8</v>
+      </c>
+      <c r="T177">
+        <v>2.5</v>
+      </c>
+      <c r="U177">
         <v>1.9</v>
       </c>
-      <c r="S177">
+      <c r="V177">
         <v>1.9</v>
       </c>
-      <c r="T177">
-        <v>2</v>
-      </c>
-      <c r="U177">
-        <v>1.775</v>
-      </c>
-      <c r="V177">
-        <v>2.025</v>
-      </c>
       <c r="W177">
         <v>-1</v>
       </c>
@@ -16254,19 +16254,19 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
+        <v>0.8</v>
+      </c>
+      <c r="AB177">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB177">
-        <v>-1</v>
-      </c>
       <c r="AC177">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16274,7 +16274,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6221753</v>
+        <v>6221815</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16286,76 +16286,76 @@
         <v>45228.25</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>45</v>
+      </c>
+      <c r="K178">
         <v>3</v>
       </c>
-      <c r="J178" t="s">
-        <v>44</v>
-      </c>
-      <c r="K178">
-        <v>2.75</v>
-      </c>
       <c r="L178">
+        <v>3</v>
+      </c>
+      <c r="M178">
+        <v>2.25</v>
+      </c>
+      <c r="N178">
         <v>3.1</v>
       </c>
-      <c r="M178">
-        <v>2.375</v>
-      </c>
-      <c r="N178">
-        <v>2.625</v>
-      </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P178">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S178">
+        <v>1.95</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
         <v>1.8</v>
       </c>
-      <c r="T178">
-        <v>2.5</v>
-      </c>
-      <c r="U178">
-        <v>1.9</v>
-      </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y178">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA178">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16363,7 +16363,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6221815</v>
+        <v>6221752</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16375,76 +16375,76 @@
         <v>45228.25</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K179">
+        <v>1.833</v>
+      </c>
+      <c r="L179">
+        <v>3.2</v>
+      </c>
+      <c r="M179">
+        <v>4</v>
+      </c>
+      <c r="N179">
+        <v>1.85</v>
+      </c>
+      <c r="O179">
+        <v>3.2</v>
+      </c>
+      <c r="P179">
+        <v>4</v>
+      </c>
+      <c r="Q179">
+        <v>-0.5</v>
+      </c>
+      <c r="R179">
+        <v>1.9</v>
+      </c>
+      <c r="S179">
+        <v>1.9</v>
+      </c>
+      <c r="T179">
+        <v>2</v>
+      </c>
+      <c r="U179">
+        <v>1.775</v>
+      </c>
+      <c r="V179">
+        <v>2.025</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
         <v>3</v>
       </c>
-      <c r="L179">
-        <v>3</v>
-      </c>
-      <c r="M179">
-        <v>2.25</v>
-      </c>
-      <c r="N179">
-        <v>3.1</v>
-      </c>
-      <c r="O179">
-        <v>3.1</v>
-      </c>
-      <c r="P179">
-        <v>2.15</v>
-      </c>
-      <c r="Q179">
-        <v>0.25</v>
-      </c>
-      <c r="R179">
-        <v>1.85</v>
-      </c>
-      <c r="S179">
-        <v>1.95</v>
-      </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
-      <c r="U179">
-        <v>1.8</v>
-      </c>
-      <c r="V179">
-        <v>2</v>
-      </c>
-      <c r="W179">
-        <v>-1</v>
-      </c>
-      <c r="X179">
-        <v>2.1</v>
-      </c>
-      <c r="Y179">
-        <v>-1</v>
-      </c>
       <c r="Z179">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16452,7 +16452,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6221754</v>
+        <v>6221816</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16464,76 +16464,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K180">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L180">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N180">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O180">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R180">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T180">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X180">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16541,7 +16541,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6221755</v>
+        <v>6221814</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16553,76 +16553,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
         <v>45</v>
       </c>
       <c r="K181">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L181">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M181">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N181">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O181">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P181">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q181">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R181">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S181">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V181">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA181">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB181">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16630,7 +16630,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6221814</v>
+        <v>6221755</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16642,76 +16642,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
         <v>45</v>
       </c>
       <c r="K182">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L182">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M182">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N182">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O182">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P182">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R182">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S182">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T182">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB182">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC182">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16719,7 +16719,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6221816</v>
+        <v>6221754</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16731,76 +16731,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H183">
         <v>1</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K183">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L183">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M183">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N183">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O183">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P183">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q183">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R183">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S183">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U183">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W183">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC183">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221638</v>
+        <v>6221765</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,55 +1245,55 @@
         <v>44994.20833333334</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="N9">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q9">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R9">
-        <v>1.65</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>2.2</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1302,19 +1302,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.571</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>1.2</v>
+        <v>0.925</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221765</v>
+        <v>6221638</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1334,55 +1334,55 @@
         <v>44994.20833333334</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>44</v>
       </c>
       <c r="K10">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="L10">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="N10">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P10">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>1.65</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>2.2</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1391,19 +1391,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.6659999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.925</v>
+        <v>1.2</v>
       </c>
       <c r="AB10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221641</v>
+        <v>6221766</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,13 +1868,13 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1883,43 +1883,43 @@
         <v>43</v>
       </c>
       <c r="K16">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="L16">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O16">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q16">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1928,16 +1928,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221640</v>
+        <v>6221641</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,55 +1957,55 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="L17">
         <v>4.333</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>1.333</v>
       </c>
       <c r="O17">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P17">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q17">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R17">
+        <v>1.925</v>
+      </c>
+      <c r="S17">
+        <v>1.875</v>
+      </c>
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
         <v>1.75</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.95</v>
-      </c>
-      <c r="T17">
-        <v>2.5</v>
-      </c>
-      <c r="U17">
-        <v>1.9</v>
-      </c>
-      <c r="V17">
-        <v>1.9</v>
       </c>
       <c r="W17">
         <v>0.333</v>
@@ -2017,16 +2017,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC17">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6221766</v>
+        <v>6221640</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,58 +2046,58 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="L18">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N18">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P18">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2106,16 +2106,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6221769</v>
+        <v>6221645</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,55 +2847,55 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
       </c>
       <c r="K27">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
         <v>4</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
         <v>1.8</v>
       </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
+        <v>1.85</v>
+      </c>
+      <c r="V27">
         <v>1.95</v>
-      </c>
-      <c r="V27">
-        <v>1.85</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2910,10 +2910,10 @@
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB27">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6221645</v>
+        <v>6221769</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,55 +2936,55 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
       </c>
       <c r="K28">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="L28">
+        <v>3.4</v>
+      </c>
+      <c r="M28">
         <v>4</v>
       </c>
-      <c r="M28">
-        <v>5</v>
-      </c>
       <c r="N28">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
         <v>4</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
+        <v>1.95</v>
+      </c>
+      <c r="V28">
         <v>1.85</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2999,10 +2999,10 @@
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221774</v>
+        <v>6221655</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,76 +3826,76 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K38">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M38">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N38">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S38">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6221655</v>
+        <v>6221774</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
         <v>0</v>
       </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K39">
+        <v>2.6</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>2.5</v>
+      </c>
+      <c r="N39">
+        <v>2.7</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
         <v>2.4</v>
       </c>
-      <c r="L39">
-        <v>3.1</v>
-      </c>
-      <c r="M39">
-        <v>2.7</v>
-      </c>
-      <c r="N39">
-        <v>1.95</v>
-      </c>
-      <c r="O39">
-        <v>3.4</v>
-      </c>
-      <c r="P39">
-        <v>3.4</v>
-      </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6221662</v>
+        <v>6221666</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,76 +4983,76 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>2</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K51">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
       <c r="L51">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="O51">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
+        <v>1.875</v>
+      </c>
+      <c r="S51">
         <v>1.925</v>
       </c>
-      <c r="S51">
-        <v>1.875</v>
-      </c>
       <c r="T51">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6221666</v>
+        <v>6221662</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H52">
         <v>2</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K52">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M52">
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="N52">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R52">
+        <v>1.925</v>
+      </c>
+      <c r="S52">
         <v>1.875</v>
       </c>
-      <c r="S52">
-        <v>1.925</v>
-      </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
+        <v>2</v>
+      </c>
+      <c r="V52">
         <v>1.8</v>
       </c>
-      <c r="V52">
-        <v>2</v>
-      </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -6306,7 +6306,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6221673</v>
+        <v>6221674</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6318,73 +6318,73 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L66">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M66">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N66">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O66">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.9</v>
+      </c>
+      <c r="T66">
+        <v>2.25</v>
+      </c>
+      <c r="U66">
         <v>1.925</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.875</v>
       </c>
-      <c r="T66">
-        <v>2.5</v>
-      </c>
-      <c r="U66">
-        <v>1.975</v>
-      </c>
-      <c r="V66">
-        <v>1.825</v>
-      </c>
       <c r="W66">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z66">
+        <v>-1</v>
+      </c>
+      <c r="AA66">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB66">
         <v>0.925</v>
-      </c>
-      <c r="AA66">
-        <v>-1</v>
-      </c>
-      <c r="AB66">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6221674</v>
+        <v>6221673</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,73 +6407,73 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>43</v>
+      </c>
+      <c r="K67">
+        <v>2.1</v>
+      </c>
+      <c r="L67">
+        <v>3.25</v>
+      </c>
+      <c r="M67">
         <v>3</v>
       </c>
-      <c r="J67" t="s">
-        <v>44</v>
-      </c>
-      <c r="K67">
+      <c r="N67">
+        <v>2.1</v>
+      </c>
+      <c r="O67">
+        <v>3.3</v>
+      </c>
+      <c r="P67">
+        <v>3</v>
+      </c>
+      <c r="Q67">
+        <v>-0.25</v>
+      </c>
+      <c r="R67">
+        <v>1.925</v>
+      </c>
+      <c r="S67">
+        <v>1.875</v>
+      </c>
+      <c r="T67">
         <v>2.5</v>
       </c>
-      <c r="L67">
-        <v>3.2</v>
-      </c>
-      <c r="M67">
-        <v>2.5</v>
-      </c>
-      <c r="N67">
-        <v>2.5</v>
-      </c>
-      <c r="O67">
-        <v>3.2</v>
-      </c>
-      <c r="P67">
-        <v>2.5</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>1.9</v>
-      </c>
-      <c r="S67">
-        <v>1.9</v>
-      </c>
-      <c r="T67">
-        <v>2.25</v>
-      </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6726053</v>
+        <v>6221684</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,10 +7742,10 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7757,43 +7757,43 @@
         <v>43</v>
       </c>
       <c r="K82">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L82">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M82">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N82">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P82">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q82">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U82">
+        <v>1.925</v>
+      </c>
+      <c r="V82">
         <v>1.875</v>
       </c>
-      <c r="V82">
-        <v>1.925</v>
-      </c>
       <c r="W82">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7802,16 +7802,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6221684</v>
+        <v>6726053</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,10 +7831,10 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7846,43 +7846,43 @@
         <v>43</v>
       </c>
       <c r="K83">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L83">
+        <v>3.2</v>
+      </c>
+      <c r="M83">
+        <v>2.5</v>
+      </c>
+      <c r="N83">
+        <v>1.8</v>
+      </c>
+      <c r="O83">
+        <v>3</v>
+      </c>
+      <c r="P83">
         <v>4.2</v>
       </c>
-      <c r="M83">
-        <v>4.5</v>
-      </c>
-      <c r="N83">
-        <v>1.222</v>
-      </c>
-      <c r="O83">
-        <v>5.5</v>
-      </c>
-      <c r="P83">
-        <v>9</v>
-      </c>
       <c r="Q83">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
+        <v>1.875</v>
+      </c>
+      <c r="V83">
         <v>1.925</v>
       </c>
-      <c r="V83">
-        <v>1.875</v>
-      </c>
       <c r="W83">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7891,16 +7891,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,58 +7920,58 @@
         <v>45080.5</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>43</v>
       </c>
       <c r="K84">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L84">
+        <v>3.8</v>
+      </c>
+      <c r="M84">
+        <v>4.75</v>
+      </c>
+      <c r="N84">
+        <v>1.5</v>
+      </c>
+      <c r="O84">
         <v>4</v>
       </c>
-      <c r="M84">
-        <v>3.5</v>
-      </c>
-      <c r="N84">
-        <v>1.333</v>
-      </c>
-      <c r="O84">
-        <v>4.75</v>
-      </c>
       <c r="P84">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q84">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7980,16 +7980,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,58 +8009,58 @@
         <v>45080.5</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>43</v>
       </c>
       <c r="K85">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M85">
+        <v>3.5</v>
+      </c>
+      <c r="N85">
+        <v>1.333</v>
+      </c>
+      <c r="O85">
         <v>4.75</v>
       </c>
-      <c r="N85">
-        <v>1.5</v>
-      </c>
-      <c r="O85">
-        <v>4</v>
-      </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S85">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8069,16 +8069,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8887,7 +8887,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8899,55 +8899,55 @@
         <v>45108.375</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>44</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L95">
+        <v>3.5</v>
+      </c>
+      <c r="M95">
+        <v>1.666</v>
+      </c>
+      <c r="N95">
+        <v>4.2</v>
+      </c>
+      <c r="O95">
         <v>3.4</v>
       </c>
-      <c r="M95">
-        <v>3.1</v>
-      </c>
-      <c r="N95">
-        <v>2.2</v>
-      </c>
-      <c r="O95">
-        <v>3.3</v>
-      </c>
       <c r="P95">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8956,16 +8956,16 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB95">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8976,7 +8976,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8988,55 +8988,55 @@
         <v>45108.375</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
         <v>44</v>
       </c>
       <c r="K96">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N96">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P96">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q96">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9045,16 +9045,16 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB96">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6221712</v>
+        <v>6221708</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,76 +10768,76 @@
         <v>45136.5</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L116">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N116">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O116">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
+        <v>1.75</v>
+      </c>
+      <c r="S116">
         <v>1.95</v>
       </c>
-      <c r="S116">
-        <v>1.85</v>
-      </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6221708</v>
+        <v>6221712</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,76 +10857,76 @@
         <v>45136.5</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K117">
+        <v>2.1</v>
+      </c>
+      <c r="L117">
+        <v>3.25</v>
+      </c>
+      <c r="M117">
         <v>3</v>
       </c>
-      <c r="L117">
-        <v>3.4</v>
-      </c>
-      <c r="M117">
-        <v>2.05</v>
-      </c>
       <c r="N117">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P117">
+        <v>2.9</v>
+      </c>
+      <c r="Q117">
+        <v>-0.25</v>
+      </c>
+      <c r="R117">
         <v>1.95</v>
       </c>
-      <c r="Q117">
-        <v>0.5</v>
-      </c>
-      <c r="R117">
-        <v>1.75</v>
-      </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X117">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11913,7 +11913,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11925,64 +11925,64 @@
         <v>45151.5</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K129">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L129">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N129">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O129">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P129">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R129">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y129">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>0</v>
@@ -11991,10 +11991,10 @@
         <v>-0</v>
       </c>
       <c r="AB129">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,64 +12014,64 @@
         <v>45151.5</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K130">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="L130">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M130">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="N130">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O130">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P130">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R130">
+        <v>1.725</v>
+      </c>
+      <c r="S130">
+        <v>2.075</v>
+      </c>
+      <c r="T130">
+        <v>2.25</v>
+      </c>
+      <c r="U130">
+        <v>1.875</v>
+      </c>
+      <c r="V130">
         <v>1.925</v>
       </c>
-      <c r="S130">
-        <v>1.875</v>
-      </c>
-      <c r="T130">
-        <v>2.5</v>
-      </c>
-      <c r="U130">
-        <v>1.9</v>
-      </c>
-      <c r="V130">
-        <v>1.9</v>
-      </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z130">
         <v>0</v>
@@ -12080,10 +12080,10 @@
         <v>-0</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -15295,7 +15295,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6221810</v>
+        <v>6221811</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15307,76 +15307,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K167">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L167">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M167">
+        <v>1.8</v>
+      </c>
+      <c r="N167">
         <v>3.8</v>
       </c>
-      <c r="N167">
-        <v>2</v>
-      </c>
       <c r="O167">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R167">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S167">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T167">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
         <v>1.975</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15384,7 +15384,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6221811</v>
+        <v>6221810</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15396,76 +15396,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K168">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L168">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M168">
+        <v>3.8</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168">
+        <v>3.1</v>
+      </c>
+      <c r="P168">
+        <v>3.5</v>
+      </c>
+      <c r="Q168">
+        <v>-0.5</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
         <v>1.8</v>
       </c>
-      <c r="N168">
-        <v>3.8</v>
-      </c>
-      <c r="O168">
-        <v>3.6</v>
-      </c>
-      <c r="P168">
-        <v>1.75</v>
-      </c>
-      <c r="Q168">
-        <v>0.75</v>
-      </c>
-      <c r="R168">
-        <v>1.8</v>
-      </c>
-      <c r="S168">
-        <v>2</v>
-      </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V168">
         <v>1.975</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X168">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15651,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,76 +15663,76 @@
         <v>45220.375</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I171">
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K171">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L171">
         <v>3.4</v>
       </c>
       <c r="M171">
+        <v>6</v>
+      </c>
+      <c r="N171">
+        <v>1.444</v>
+      </c>
+      <c r="O171">
+        <v>4.2</v>
+      </c>
+      <c r="P171">
         <v>6.5</v>
       </c>
-      <c r="N171">
-        <v>1.333</v>
-      </c>
-      <c r="O171">
-        <v>4.5</v>
-      </c>
-      <c r="P171">
-        <v>7.5</v>
-      </c>
       <c r="Q171">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R171">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S171">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T171">
         <v>3</v>
       </c>
       <c r="U171">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W171">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15740,7 +15740,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15752,76 +15752,76 @@
         <v>45220.375</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I172">
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K172">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L172">
         <v>3.4</v>
       </c>
       <c r="M172">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N172">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O172">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P172">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q172">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S172">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T172">
         <v>3</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V172">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X172">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC172">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16185,7 +16185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,55 +16197,55 @@
         <v>45228.25</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
         <v>44</v>
       </c>
       <c r="K177">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L177">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M177">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N177">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O177">
         <v>3.2</v>
       </c>
       <c r="P177">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W177">
         <v>-1</v>
@@ -16254,19 +16254,19 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16274,7 +16274,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16286,76 +16286,76 @@
         <v>45228.25</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178">
+        <v>3</v>
+      </c>
+      <c r="J178" t="s">
+        <v>44</v>
+      </c>
+      <c r="K178">
+        <v>2.75</v>
+      </c>
+      <c r="L178">
+        <v>3.1</v>
+      </c>
+      <c r="M178">
+        <v>2.375</v>
+      </c>
+      <c r="N178">
+        <v>2.625</v>
+      </c>
+      <c r="O178">
+        <v>3.2</v>
+      </c>
+      <c r="P178">
+        <v>2.45</v>
+      </c>
+      <c r="Q178">
         <v>0</v>
       </c>
-      <c r="J178" t="s">
-        <v>45</v>
-      </c>
-      <c r="K178">
-        <v>3</v>
-      </c>
-      <c r="L178">
-        <v>3</v>
-      </c>
-      <c r="M178">
-        <v>2.25</v>
-      </c>
-      <c r="N178">
-        <v>3.1</v>
-      </c>
-      <c r="O178">
-        <v>3.1</v>
-      </c>
-      <c r="P178">
-        <v>2.15</v>
-      </c>
-      <c r="Q178">
-        <v>0.25</v>
-      </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T178">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V178">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z178">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC178">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16363,7 +16363,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6221752</v>
+        <v>6221815</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16375,76 +16375,76 @@
         <v>45228.25</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K179">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M179">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N179">
+        <v>3.1</v>
+      </c>
+      <c r="O179">
+        <v>3.1</v>
+      </c>
+      <c r="P179">
+        <v>2.15</v>
+      </c>
+      <c r="Q179">
+        <v>0.25</v>
+      </c>
+      <c r="R179">
         <v>1.85</v>
       </c>
-      <c r="O179">
-        <v>3.2</v>
-      </c>
-      <c r="P179">
-        <v>4</v>
-      </c>
-      <c r="Q179">
+      <c r="S179">
+        <v>1.95</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
+        <v>1.8</v>
+      </c>
+      <c r="V179">
+        <v>2</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>2.1</v>
+      </c>
+      <c r="Y179">
+        <v>-1</v>
+      </c>
+      <c r="Z179">
+        <v>0.425</v>
+      </c>
+      <c r="AA179">
         <v>-0.5</v>
       </c>
-      <c r="R179">
-        <v>1.9</v>
-      </c>
-      <c r="S179">
-        <v>1.9</v>
-      </c>
-      <c r="T179">
-        <v>2</v>
-      </c>
-      <c r="U179">
-        <v>1.775</v>
-      </c>
-      <c r="V179">
-        <v>2.025</v>
-      </c>
-      <c r="W179">
-        <v>-1</v>
-      </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
-      <c r="Y179">
-        <v>3</v>
-      </c>
-      <c r="Z179">
-        <v>-1</v>
-      </c>
-      <c r="AA179">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16452,7 +16452,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6221816</v>
+        <v>6221754</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16464,76 +16464,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K180">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M180">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N180">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P180">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q180">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S180">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC180">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16719,7 +16719,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6221754</v>
+        <v>6221816</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16731,76 +16731,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H183">
         <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K183">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L183">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M183">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N183">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O183">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="P183">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q183">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R183">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S183">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T183">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U183">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X183">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="AA183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221765</v>
+        <v>6221638</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,55 +1245,55 @@
         <v>44994.20833333334</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="K9">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="N9">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q9">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R9">
-        <v>1.875</v>
+        <v>1.65</v>
       </c>
       <c r="S9">
-        <v>1.925</v>
+        <v>2.2</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1302,19 +1302,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.6659999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.925</v>
+        <v>1.2</v>
       </c>
       <c r="AB9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221638</v>
+        <v>6221765</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1334,55 +1334,55 @@
         <v>44994.20833333334</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="s">
         <v>44</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M10">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q10">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R10">
-        <v>1.65</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>2.2</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1391,19 +1391,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.571</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>1.2</v>
+        <v>0.925</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221766</v>
+        <v>6221640</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,58 +1868,58 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="L16">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N16">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P16">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1928,16 +1928,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221641</v>
+        <v>6221766</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,13 +1957,13 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1972,43 +1972,43 @@
         <v>43</v>
       </c>
       <c r="K17">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="L17">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O17">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q17">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2017,16 +2017,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6221640</v>
+        <v>6221641</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,55 +2046,55 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="L18">
         <v>4.333</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>1.333</v>
       </c>
       <c r="O18">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P18">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q18">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R18">
+        <v>1.925</v>
+      </c>
+      <c r="S18">
+        <v>1.875</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
         <v>1.75</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.95</v>
-      </c>
-      <c r="T18">
-        <v>2.5</v>
-      </c>
-      <c r="U18">
-        <v>1.9</v>
-      </c>
-      <c r="V18">
-        <v>1.9</v>
       </c>
       <c r="W18">
         <v>0.333</v>
@@ -2106,16 +2106,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC18">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6221642</v>
+        <v>6221639</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,40 +2135,40 @@
         <v>44999.5</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="N19">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O19">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R19">
         <v>1.9</v>
@@ -2177,31 +2177,31 @@
         <v>1.9</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB19">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6221639</v>
+        <v>6221642</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,40 +2224,40 @@
         <v>44999.5</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="N20">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
         <v>1.9</v>
@@ -2266,31 +2266,31 @@
         <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y20">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,58 +7920,58 @@
         <v>45080.5</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>43</v>
       </c>
       <c r="K84">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M84">
+        <v>3.5</v>
+      </c>
+      <c r="N84">
+        <v>1.333</v>
+      </c>
+      <c r="O84">
         <v>4.75</v>
       </c>
-      <c r="N84">
-        <v>1.5</v>
-      </c>
-      <c r="O84">
-        <v>4</v>
-      </c>
       <c r="P84">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W84">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7980,16 +7980,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,58 +8009,58 @@
         <v>45080.5</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>43</v>
       </c>
       <c r="K85">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L85">
+        <v>3.8</v>
+      </c>
+      <c r="M85">
+        <v>4.75</v>
+      </c>
+      <c r="N85">
+        <v>1.5</v>
+      </c>
+      <c r="O85">
         <v>4</v>
       </c>
-      <c r="M85">
-        <v>3.5</v>
-      </c>
-      <c r="N85">
-        <v>1.333</v>
-      </c>
-      <c r="O85">
-        <v>4.75</v>
-      </c>
       <c r="P85">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q85">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8069,16 +8069,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -16452,7 +16452,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6221754</v>
+        <v>6221816</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16464,76 +16464,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K180">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L180">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N180">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O180">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R180">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T180">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X180">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16541,7 +16541,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6221814</v>
+        <v>6221754</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16553,10 +16553,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16568,61 +16568,61 @@
         <v>45</v>
       </c>
       <c r="K181">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L181">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N181">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O181">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="P181">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S181">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T181">
         <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V181">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AA181">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB181">
         <v>-0.5</v>
       </c>
       <c r="AC181">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16719,7 +16719,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6221816</v>
+        <v>6221814</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16731,76 +16731,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H183">
         <v>1</v>
       </c>
       <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" t="s">
+        <v>45</v>
+      </c>
+      <c r="K183">
+        <v>2.3</v>
+      </c>
+      <c r="L183">
+        <v>3.1</v>
+      </c>
+      <c r="M183">
+        <v>2.8</v>
+      </c>
+      <c r="N183">
+        <v>2.3</v>
+      </c>
+      <c r="O183">
+        <v>3.1</v>
+      </c>
+      <c r="P183">
+        <v>2.8</v>
+      </c>
+      <c r="Q183">
         <v>0</v>
       </c>
-      <c r="J183" t="s">
-        <v>43</v>
-      </c>
-      <c r="K183">
-        <v>3.4</v>
-      </c>
-      <c r="L183">
-        <v>3.4</v>
-      </c>
-      <c r="M183">
-        <v>1.909</v>
-      </c>
-      <c r="N183">
-        <v>4.2</v>
-      </c>
-      <c r="O183">
-        <v>4</v>
-      </c>
-      <c r="P183">
-        <v>1.571</v>
-      </c>
-      <c r="Q183">
-        <v>0.75</v>
-      </c>
       <c r="R183">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S183">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U183">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V183">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W183">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC183">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221638</v>
+        <v>6221765</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,55 +1245,55 @@
         <v>44994.20833333334</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="N9">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q9">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R9">
-        <v>1.65</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>2.2</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1302,19 +1302,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.571</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>1.2</v>
+        <v>0.925</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221765</v>
+        <v>6221638</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1334,55 +1334,55 @@
         <v>44994.20833333334</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>44</v>
       </c>
       <c r="K10">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="L10">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="N10">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P10">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>1.65</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>2.2</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1391,19 +1391,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.6659999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.925</v>
+        <v>1.2</v>
       </c>
       <c r="AB10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221766</v>
+        <v>6221641</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,13 +1957,13 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1972,43 +1972,43 @@
         <v>43</v>
       </c>
       <c r="K17">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="L17">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N17">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P17">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
         <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2017,16 +2017,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6221641</v>
+        <v>6221766</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,13 +2046,13 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2061,43 +2061,43 @@
         <v>43</v>
       </c>
       <c r="K18">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="L18">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O18">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q18">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2106,16 +2106,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6221639</v>
+        <v>6221642</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,40 +2135,40 @@
         <v>44999.5</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="N19">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
         <v>1.9</v>
@@ -2177,31 +2177,31 @@
         <v>1.9</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y19">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6221642</v>
+        <v>6221639</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,40 +2224,40 @@
         <v>44999.5</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="N20">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O20">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R20">
         <v>1.9</v>
@@ -2266,31 +2266,31 @@
         <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6221645</v>
+        <v>6221769</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,55 +2847,55 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
       </c>
       <c r="K27">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="L27">
+        <v>3.4</v>
+      </c>
+      <c r="M27">
         <v>4</v>
       </c>
-      <c r="M27">
-        <v>5</v>
-      </c>
       <c r="N27">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
         <v>4</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
+        <v>1.95</v>
+      </c>
+      <c r="V27">
         <v>1.85</v>
-      </c>
-      <c r="V27">
-        <v>1.95</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2910,10 +2910,10 @@
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB27">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6221769</v>
+        <v>6221645</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,55 +2936,55 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
       </c>
       <c r="K28">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="O28">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
         <v>4</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
         <v>1.8</v>
       </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
+        <v>1.85</v>
+      </c>
+      <c r="V28">
         <v>1.95</v>
-      </c>
-      <c r="V28">
-        <v>1.85</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2999,10 +2999,10 @@
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB28">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221655</v>
+        <v>6221774</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,76 +3826,76 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K38">
+        <v>2.6</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>2.5</v>
+      </c>
+      <c r="N38">
+        <v>2.7</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
         <v>2.4</v>
       </c>
-      <c r="L38">
-        <v>3.1</v>
-      </c>
-      <c r="M38">
-        <v>2.7</v>
-      </c>
-      <c r="N38">
-        <v>1.95</v>
-      </c>
-      <c r="O38">
-        <v>3.4</v>
-      </c>
-      <c r="P38">
-        <v>3.4</v>
-      </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6221774</v>
+        <v>6221655</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K39">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N39">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S39">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W39">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB39">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -6306,7 +6306,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6221674</v>
+        <v>6221673</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6318,73 +6318,73 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>43</v>
+      </c>
+      <c r="K66">
+        <v>2.1</v>
+      </c>
+      <c r="L66">
+        <v>3.25</v>
+      </c>
+      <c r="M66">
         <v>3</v>
       </c>
-      <c r="J66" t="s">
-        <v>44</v>
-      </c>
-      <c r="K66">
+      <c r="N66">
+        <v>2.1</v>
+      </c>
+      <c r="O66">
+        <v>3.3</v>
+      </c>
+      <c r="P66">
+        <v>3</v>
+      </c>
+      <c r="Q66">
+        <v>-0.25</v>
+      </c>
+      <c r="R66">
+        <v>1.925</v>
+      </c>
+      <c r="S66">
+        <v>1.875</v>
+      </c>
+      <c r="T66">
         <v>2.5</v>
       </c>
-      <c r="L66">
-        <v>3.2</v>
-      </c>
-      <c r="M66">
-        <v>2.5</v>
-      </c>
-      <c r="N66">
-        <v>2.5</v>
-      </c>
-      <c r="O66">
-        <v>3.2</v>
-      </c>
-      <c r="P66">
-        <v>2.5</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>1.9</v>
-      </c>
-      <c r="S66">
-        <v>1.9</v>
-      </c>
-      <c r="T66">
-        <v>2.25</v>
-      </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6221673</v>
+        <v>6221674</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,73 +6407,73 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L67">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N67">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O67">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R67">
+        <v>1.9</v>
+      </c>
+      <c r="S67">
+        <v>1.9</v>
+      </c>
+      <c r="T67">
+        <v>2.25</v>
+      </c>
+      <c r="U67">
         <v>1.925</v>
       </c>
-      <c r="S67">
+      <c r="V67">
         <v>1.875</v>
       </c>
-      <c r="T67">
-        <v>2.5</v>
-      </c>
-      <c r="U67">
-        <v>1.975</v>
-      </c>
-      <c r="V67">
-        <v>1.825</v>
-      </c>
       <c r="W67">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z67">
+        <v>-1</v>
+      </c>
+      <c r="AA67">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB67">
         <v>0.925</v>
-      </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
-      <c r="AB67">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6221684</v>
+        <v>6726053</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,10 +7742,10 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7757,43 +7757,43 @@
         <v>43</v>
       </c>
       <c r="K82">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L82">
+        <v>3.2</v>
+      </c>
+      <c r="M82">
+        <v>2.5</v>
+      </c>
+      <c r="N82">
+        <v>1.8</v>
+      </c>
+      <c r="O82">
+        <v>3</v>
+      </c>
+      <c r="P82">
         <v>4.2</v>
       </c>
-      <c r="M82">
-        <v>4.5</v>
-      </c>
-      <c r="N82">
-        <v>1.222</v>
-      </c>
-      <c r="O82">
-        <v>5.5</v>
-      </c>
-      <c r="P82">
-        <v>9</v>
-      </c>
       <c r="Q82">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U82">
+        <v>1.875</v>
+      </c>
+      <c r="V82">
         <v>1.925</v>
       </c>
-      <c r="V82">
-        <v>1.875</v>
-      </c>
       <c r="W82">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7802,16 +7802,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6726053</v>
+        <v>6221684</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,10 +7831,10 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7846,43 +7846,43 @@
         <v>43</v>
       </c>
       <c r="K83">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L83">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M83">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N83">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P83">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U83">
+        <v>1.925</v>
+      </c>
+      <c r="V83">
         <v>1.875</v>
       </c>
-      <c r="V83">
-        <v>1.925</v>
-      </c>
       <c r="W83">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7891,16 +7891,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -9688,7 +9688,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9700,76 +9700,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M104">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N104">
+        <v>2.1</v>
+      </c>
+      <c r="O104">
         <v>3.1</v>
       </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
       <c r="P104">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q104">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
+        <v>1.95</v>
+      </c>
+      <c r="T104">
+        <v>2.25</v>
+      </c>
+      <c r="U104">
         <v>1.975</v>
       </c>
-      <c r="T104">
-        <v>2.5</v>
-      </c>
-      <c r="U104">
-        <v>1.75</v>
-      </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y104">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
+        <v>0.475</v>
+      </c>
+      <c r="AB104">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9777,7 +9777,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9789,76 +9789,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K105">
+        <v>3.6</v>
+      </c>
+      <c r="L105">
+        <v>3.5</v>
+      </c>
+      <c r="M105">
+        <v>1.8</v>
+      </c>
+      <c r="N105">
         <v>3.1</v>
       </c>
-      <c r="L105">
-        <v>3.2</v>
-      </c>
-      <c r="M105">
-        <v>2.1</v>
-      </c>
-      <c r="N105">
-        <v>2.1</v>
-      </c>
       <c r="O105">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
+        <v>1.975</v>
+      </c>
+      <c r="T105">
+        <v>2.5</v>
+      </c>
+      <c r="U105">
+        <v>1.75</v>
+      </c>
+      <c r="V105">
         <v>1.95</v>
       </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>1.975</v>
-      </c>
-      <c r="V105">
-        <v>1.725</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -11913,7 +11913,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11925,64 +11925,64 @@
         <v>45151.5</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K129">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M129">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="N129">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O129">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P129">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R129">
+        <v>1.725</v>
+      </c>
+      <c r="S129">
+        <v>2.075</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
+        <v>1.875</v>
+      </c>
+      <c r="V129">
         <v>1.925</v>
       </c>
-      <c r="S129">
-        <v>1.875</v>
-      </c>
-      <c r="T129">
-        <v>2.5</v>
-      </c>
-      <c r="U129">
-        <v>1.9</v>
-      </c>
-      <c r="V129">
-        <v>1.9</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z129">
         <v>0</v>
@@ -11991,10 +11991,10 @@
         <v>-0</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC129">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,64 +12014,64 @@
         <v>45151.5</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L130">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M130">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N130">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O130">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P130">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y130">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>0</v>
@@ -12080,10 +12080,10 @@
         <v>-0</v>
       </c>
       <c r="AB130">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6221729</v>
+        <v>6221732</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,49 +13082,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M142">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N142">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P142">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
         <v>1.9</v>
@@ -13133,16 +13133,16 @@
         <v>1.9</v>
       </c>
       <c r="W142">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA142">
         <v>-1</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6221732</v>
+        <v>6221729</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,49 +13171,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K143">
+        <v>2.9</v>
+      </c>
+      <c r="L143">
         <v>3.3</v>
       </c>
-      <c r="L143">
-        <v>3.25</v>
-      </c>
       <c r="M143">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N143">
+        <v>1.75</v>
+      </c>
+      <c r="O143">
         <v>3.5</v>
       </c>
-      <c r="O143">
-        <v>3.25</v>
-      </c>
       <c r="P143">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q143">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
         <v>1.9</v>
@@ -13222,16 +13222,16 @@
         <v>1.9</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X143">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA143">
         <v>-1</v>
@@ -15028,7 +15028,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15040,76 +15040,76 @@
         <v>45200.25</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K164">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L164">
         <v>3.1</v>
       </c>
       <c r="M164">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N164">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O164">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q164">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S164">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T164">
         <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA164">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15117,7 +15117,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15129,76 +15129,76 @@
         <v>45200.25</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K165">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L165">
         <v>3.1</v>
       </c>
       <c r="M165">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N165">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O165">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P165">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q165">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R165">
+        <v>2</v>
+      </c>
+      <c r="S165">
         <v>1.8</v>
-      </c>
-      <c r="S165">
-        <v>2</v>
       </c>
       <c r="T165">
         <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V165">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
         <v>0.8</v>
       </c>
-      <c r="AA165">
-        <v>-1</v>
-      </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC165">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15295,7 +15295,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6221811</v>
+        <v>6221810</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15307,76 +15307,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K167">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L167">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M167">
+        <v>3.8</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167">
+        <v>3.1</v>
+      </c>
+      <c r="P167">
+        <v>3.5</v>
+      </c>
+      <c r="Q167">
+        <v>-0.5</v>
+      </c>
+      <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
         <v>1.8</v>
       </c>
-      <c r="N167">
-        <v>3.8</v>
-      </c>
-      <c r="O167">
-        <v>3.6</v>
-      </c>
-      <c r="P167">
-        <v>1.75</v>
-      </c>
-      <c r="Q167">
-        <v>0.75</v>
-      </c>
-      <c r="R167">
-        <v>1.8</v>
-      </c>
-      <c r="S167">
-        <v>2</v>
-      </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V167">
         <v>1.975</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X167">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC167">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15384,7 +15384,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6221810</v>
+        <v>6221811</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15396,76 +15396,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K168">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L168">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M168">
+        <v>1.8</v>
+      </c>
+      <c r="N168">
         <v>3.8</v>
       </c>
-      <c r="N168">
-        <v>2</v>
-      </c>
       <c r="O168">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P168">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S168">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T168">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V168">
         <v>1.975</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15651,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,76 +15663,76 @@
         <v>45220.375</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I171">
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K171">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L171">
         <v>3.4</v>
       </c>
       <c r="M171">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N171">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O171">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P171">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q171">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S171">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T171">
         <v>3</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V171">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X171">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC171">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15740,7 +15740,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15752,76 +15752,76 @@
         <v>45220.375</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H172">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K172">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L172">
         <v>3.4</v>
       </c>
       <c r="M172">
+        <v>6</v>
+      </c>
+      <c r="N172">
+        <v>1.444</v>
+      </c>
+      <c r="O172">
+        <v>4.2</v>
+      </c>
+      <c r="P172">
         <v>6.5</v>
       </c>
-      <c r="N172">
-        <v>1.333</v>
-      </c>
-      <c r="O172">
-        <v>4.5</v>
-      </c>
-      <c r="P172">
-        <v>7.5</v>
-      </c>
       <c r="Q172">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R172">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S172">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T172">
         <v>3</v>
       </c>
       <c r="U172">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB172">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16185,7 +16185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,56 +16197,56 @@
         <v>45228.25</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
         <v>44</v>
       </c>
       <c r="K177">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M177">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N177">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O177">
         <v>3.2</v>
       </c>
       <c r="P177">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>1.8</v>
+      </c>
+      <c r="T177">
+        <v>2.5</v>
+      </c>
+      <c r="U177">
         <v>1.9</v>
       </c>
-      <c r="S177">
+      <c r="V177">
         <v>1.9</v>
       </c>
-      <c r="T177">
-        <v>2</v>
-      </c>
-      <c r="U177">
-        <v>1.775</v>
-      </c>
-      <c r="V177">
-        <v>2.025</v>
-      </c>
       <c r="W177">
         <v>-1</v>
       </c>
@@ -16254,19 +16254,19 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
+        <v>0.8</v>
+      </c>
+      <c r="AB177">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB177">
-        <v>-1</v>
-      </c>
       <c r="AC177">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16274,7 +16274,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16286,55 +16286,55 @@
         <v>45228.25</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>44</v>
       </c>
       <c r="K178">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L178">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M178">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N178">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O178">
         <v>3.2</v>
       </c>
       <c r="P178">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W178">
         <v>-1</v>
@@ -16343,19 +16343,19 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16452,7 +16452,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6221816</v>
+        <v>6221814</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16464,76 +16464,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180" t="s">
+        <v>45</v>
+      </c>
+      <c r="K180">
+        <v>2.3</v>
+      </c>
+      <c r="L180">
+        <v>3.1</v>
+      </c>
+      <c r="M180">
+        <v>2.8</v>
+      </c>
+      <c r="N180">
+        <v>2.3</v>
+      </c>
+      <c r="O180">
+        <v>3.1</v>
+      </c>
+      <c r="P180">
+        <v>2.8</v>
+      </c>
+      <c r="Q180">
         <v>0</v>
       </c>
-      <c r="J180" t="s">
-        <v>43</v>
-      </c>
-      <c r="K180">
-        <v>3.4</v>
-      </c>
-      <c r="L180">
-        <v>3.4</v>
-      </c>
-      <c r="M180">
-        <v>1.909</v>
-      </c>
-      <c r="N180">
-        <v>4.2</v>
-      </c>
-      <c r="O180">
-        <v>4</v>
-      </c>
-      <c r="P180">
-        <v>1.571</v>
-      </c>
-      <c r="Q180">
-        <v>0.75</v>
-      </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S180">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC180">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16541,7 +16541,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6221754</v>
+        <v>6221816</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16553,76 +16553,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K181">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L181">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N181">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O181">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R181">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V181">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X181">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16719,7 +16719,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6221814</v>
+        <v>6221754</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16731,10 +16731,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16746,61 +16746,61 @@
         <v>45</v>
       </c>
       <c r="K183">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L183">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M183">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N183">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O183">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="P183">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q183">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R183">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S183">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T183">
         <v>2.25</v>
       </c>
       <c r="U183">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AA183">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB183">
         <v>-0.5</v>
       </c>
       <c r="AC183">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221765</v>
+        <v>6221638</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,55 +1245,55 @@
         <v>44994.20833333334</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="K9">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="N9">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q9">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R9">
-        <v>1.875</v>
+        <v>1.65</v>
       </c>
       <c r="S9">
-        <v>1.925</v>
+        <v>2.2</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1302,19 +1302,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.6659999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.925</v>
+        <v>1.2</v>
       </c>
       <c r="AB9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221638</v>
+        <v>6221765</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1334,55 +1334,55 @@
         <v>44994.20833333334</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="s">
         <v>44</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M10">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q10">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R10">
-        <v>1.65</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>2.2</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1391,19 +1391,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.571</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>1.2</v>
+        <v>0.925</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6221642</v>
+        <v>6221639</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,40 +2135,40 @@
         <v>44999.5</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="N19">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O19">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R19">
         <v>1.9</v>
@@ -2177,31 +2177,31 @@
         <v>1.9</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB19">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6221639</v>
+        <v>6221642</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,40 +2224,40 @@
         <v>44999.5</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="N20">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
         <v>1.9</v>
@@ -2266,31 +2266,31 @@
         <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y20">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6221666</v>
+        <v>6221662</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,76 +4983,76 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H51">
         <v>2</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M51">
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="N51">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P51">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
+        <v>1.925</v>
+      </c>
+      <c r="S51">
         <v>1.875</v>
       </c>
-      <c r="S51">
-        <v>1.925</v>
-      </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U51">
+        <v>2</v>
+      </c>
+      <c r="V51">
         <v>1.8</v>
       </c>
-      <c r="V51">
-        <v>2</v>
-      </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6221662</v>
+        <v>6221666</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K52">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
       <c r="L52">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="N52">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="O52">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q52">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
+        <v>1.875</v>
+      </c>
+      <c r="S52">
         <v>1.925</v>
       </c>
-      <c r="S52">
-        <v>1.875</v>
-      </c>
       <c r="T52">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB52">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC52">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -6306,7 +6306,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6221673</v>
+        <v>6221674</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6318,73 +6318,73 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L66">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M66">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N66">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O66">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.9</v>
+      </c>
+      <c r="T66">
+        <v>2.25</v>
+      </c>
+      <c r="U66">
         <v>1.925</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.875</v>
       </c>
-      <c r="T66">
-        <v>2.5</v>
-      </c>
-      <c r="U66">
-        <v>1.975</v>
-      </c>
-      <c r="V66">
-        <v>1.825</v>
-      </c>
       <c r="W66">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z66">
+        <v>-1</v>
+      </c>
+      <c r="AA66">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB66">
         <v>0.925</v>
-      </c>
-      <c r="AA66">
-        <v>-1</v>
-      </c>
-      <c r="AB66">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6221674</v>
+        <v>6221673</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,73 +6407,73 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>43</v>
+      </c>
+      <c r="K67">
+        <v>2.1</v>
+      </c>
+      <c r="L67">
+        <v>3.25</v>
+      </c>
+      <c r="M67">
         <v>3</v>
       </c>
-      <c r="J67" t="s">
-        <v>44</v>
-      </c>
-      <c r="K67">
+      <c r="N67">
+        <v>2.1</v>
+      </c>
+      <c r="O67">
+        <v>3.3</v>
+      </c>
+      <c r="P67">
+        <v>3</v>
+      </c>
+      <c r="Q67">
+        <v>-0.25</v>
+      </c>
+      <c r="R67">
+        <v>1.925</v>
+      </c>
+      <c r="S67">
+        <v>1.875</v>
+      </c>
+      <c r="T67">
         <v>2.5</v>
       </c>
-      <c r="L67">
-        <v>3.2</v>
-      </c>
-      <c r="M67">
-        <v>2.5</v>
-      </c>
-      <c r="N67">
-        <v>2.5</v>
-      </c>
-      <c r="O67">
-        <v>3.2</v>
-      </c>
-      <c r="P67">
-        <v>2.5</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>1.9</v>
-      </c>
-      <c r="S67">
-        <v>1.9</v>
-      </c>
-      <c r="T67">
-        <v>2.25</v>
-      </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6726053</v>
+        <v>6221684</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,10 +7742,10 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7757,43 +7757,43 @@
         <v>43</v>
       </c>
       <c r="K82">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L82">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M82">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N82">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P82">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q82">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U82">
+        <v>1.925</v>
+      </c>
+      <c r="V82">
         <v>1.875</v>
       </c>
-      <c r="V82">
-        <v>1.925</v>
-      </c>
       <c r="W82">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7802,16 +7802,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6221684</v>
+        <v>6726053</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,10 +7831,10 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7846,43 +7846,43 @@
         <v>43</v>
       </c>
       <c r="K83">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L83">
+        <v>3.2</v>
+      </c>
+      <c r="M83">
+        <v>2.5</v>
+      </c>
+      <c r="N83">
+        <v>1.8</v>
+      </c>
+      <c r="O83">
+        <v>3</v>
+      </c>
+      <c r="P83">
         <v>4.2</v>
       </c>
-      <c r="M83">
-        <v>4.5</v>
-      </c>
-      <c r="N83">
-        <v>1.222</v>
-      </c>
-      <c r="O83">
-        <v>5.5</v>
-      </c>
-      <c r="P83">
-        <v>9</v>
-      </c>
       <c r="Q83">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
+        <v>1.875</v>
+      </c>
+      <c r="V83">
         <v>1.925</v>
       </c>
-      <c r="V83">
-        <v>1.875</v>
-      </c>
       <c r="W83">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7891,16 +7891,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8887,7 +8887,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8899,55 +8899,55 @@
         <v>45108.375</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
         <v>44</v>
       </c>
       <c r="K95">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N95">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P95">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q95">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8956,16 +8956,16 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8976,7 +8976,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8988,55 +8988,55 @@
         <v>45108.375</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>44</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L96">
+        <v>3.5</v>
+      </c>
+      <c r="M96">
+        <v>1.666</v>
+      </c>
+      <c r="N96">
+        <v>4.2</v>
+      </c>
+      <c r="O96">
         <v>3.4</v>
       </c>
-      <c r="M96">
-        <v>3.1</v>
-      </c>
-      <c r="N96">
-        <v>2.2</v>
-      </c>
-      <c r="O96">
-        <v>3.3</v>
-      </c>
       <c r="P96">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9045,16 +9045,16 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9688,7 +9688,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9700,76 +9700,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K104">
+        <v>3.6</v>
+      </c>
+      <c r="L104">
+        <v>3.5</v>
+      </c>
+      <c r="M104">
+        <v>1.8</v>
+      </c>
+      <c r="N104">
         <v>3.1</v>
       </c>
-      <c r="L104">
-        <v>3.2</v>
-      </c>
-      <c r="M104">
-        <v>2.1</v>
-      </c>
-      <c r="N104">
-        <v>2.1</v>
-      </c>
       <c r="O104">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
+        <v>1.975</v>
+      </c>
+      <c r="T104">
+        <v>2.5</v>
+      </c>
+      <c r="U104">
+        <v>1.75</v>
+      </c>
+      <c r="V104">
         <v>1.95</v>
       </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>1.975</v>
-      </c>
-      <c r="V104">
-        <v>1.725</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9777,7 +9777,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9789,76 +9789,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K105">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M105">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N105">
+        <v>2.1</v>
+      </c>
+      <c r="O105">
         <v>3.1</v>
       </c>
-      <c r="O105">
-        <v>3.5</v>
-      </c>
       <c r="P105">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
+        <v>1.95</v>
+      </c>
+      <c r="T105">
+        <v>2.25</v>
+      </c>
+      <c r="U105">
         <v>1.975</v>
       </c>
-      <c r="T105">
-        <v>2.5</v>
-      </c>
-      <c r="U105">
-        <v>1.75</v>
-      </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y105">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA105">
+        <v>0.475</v>
+      </c>
+      <c r="AB105">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB105">
-        <v>-1</v>
-      </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -15651,7 +15651,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15663,76 +15663,76 @@
         <v>45220.375</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I171">
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K171">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L171">
         <v>3.4</v>
       </c>
       <c r="M171">
+        <v>6</v>
+      </c>
+      <c r="N171">
+        <v>1.444</v>
+      </c>
+      <c r="O171">
+        <v>4.2</v>
+      </c>
+      <c r="P171">
         <v>6.5</v>
       </c>
-      <c r="N171">
-        <v>1.333</v>
-      </c>
-      <c r="O171">
-        <v>4.5</v>
-      </c>
-      <c r="P171">
-        <v>7.5</v>
-      </c>
       <c r="Q171">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R171">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S171">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T171">
         <v>3</v>
       </c>
       <c r="U171">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W171">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15740,7 +15740,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15752,76 +15752,76 @@
         <v>45220.375</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I172">
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K172">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L172">
         <v>3.4</v>
       </c>
       <c r="M172">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N172">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O172">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P172">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q172">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S172">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T172">
         <v>3</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V172">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X172">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC172">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16185,7 +16185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6221753</v>
+        <v>6221815</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,76 +16197,76 @@
         <v>45228.25</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177" t="s">
+        <v>45</v>
+      </c>
+      <c r="K177">
         <v>3</v>
       </c>
-      <c r="J177" t="s">
-        <v>44</v>
-      </c>
-      <c r="K177">
-        <v>2.75</v>
-      </c>
       <c r="L177">
+        <v>3</v>
+      </c>
+      <c r="M177">
+        <v>2.25</v>
+      </c>
+      <c r="N177">
         <v>3.1</v>
       </c>
-      <c r="M177">
-        <v>2.375</v>
-      </c>
-      <c r="N177">
-        <v>2.625</v>
-      </c>
       <c r="O177">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P177">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
+        <v>1.95</v>
+      </c>
+      <c r="T177">
+        <v>2.25</v>
+      </c>
+      <c r="U177">
         <v>1.8</v>
       </c>
-      <c r="T177">
-        <v>2.5</v>
-      </c>
-      <c r="U177">
-        <v>1.9</v>
-      </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y177">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA177">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16274,7 +16274,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16286,56 +16286,56 @@
         <v>45228.25</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J178" t="s">
         <v>44</v>
       </c>
       <c r="K178">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M178">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N178">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O178">
         <v>3.2</v>
       </c>
       <c r="P178">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q178">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>1.8</v>
+      </c>
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
         <v>1.9</v>
       </c>
-      <c r="S178">
+      <c r="V178">
         <v>1.9</v>
       </c>
-      <c r="T178">
-        <v>2</v>
-      </c>
-      <c r="U178">
-        <v>1.775</v>
-      </c>
-      <c r="V178">
-        <v>2.025</v>
-      </c>
       <c r="W178">
         <v>-1</v>
       </c>
@@ -16343,19 +16343,19 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
+        <v>0.8</v>
+      </c>
+      <c r="AB178">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB178">
-        <v>-1</v>
-      </c>
       <c r="AC178">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16363,7 +16363,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6221815</v>
+        <v>6221752</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16375,76 +16375,76 @@
         <v>45228.25</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K179">
+        <v>1.833</v>
+      </c>
+      <c r="L179">
+        <v>3.2</v>
+      </c>
+      <c r="M179">
+        <v>4</v>
+      </c>
+      <c r="N179">
+        <v>1.85</v>
+      </c>
+      <c r="O179">
+        <v>3.2</v>
+      </c>
+      <c r="P179">
+        <v>4</v>
+      </c>
+      <c r="Q179">
+        <v>-0.5</v>
+      </c>
+      <c r="R179">
+        <v>1.9</v>
+      </c>
+      <c r="S179">
+        <v>1.9</v>
+      </c>
+      <c r="T179">
+        <v>2</v>
+      </c>
+      <c r="U179">
+        <v>1.775</v>
+      </c>
+      <c r="V179">
+        <v>2.025</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
         <v>3</v>
       </c>
-      <c r="L179">
-        <v>3</v>
-      </c>
-      <c r="M179">
-        <v>2.25</v>
-      </c>
-      <c r="N179">
-        <v>3.1</v>
-      </c>
-      <c r="O179">
-        <v>3.1</v>
-      </c>
-      <c r="P179">
-        <v>2.15</v>
-      </c>
-      <c r="Q179">
-        <v>0.25</v>
-      </c>
-      <c r="R179">
-        <v>1.85</v>
-      </c>
-      <c r="S179">
-        <v>1.95</v>
-      </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
-      <c r="U179">
-        <v>1.8</v>
-      </c>
-      <c r="V179">
-        <v>2</v>
-      </c>
-      <c r="W179">
-        <v>-1</v>
-      </c>
-      <c r="X179">
-        <v>2.1</v>
-      </c>
-      <c r="Y179">
-        <v>-1</v>
-      </c>
       <c r="Z179">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16452,7 +16452,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6221814</v>
+        <v>6221816</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16464,76 +16464,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K180">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L180">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N180">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="O180">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R180">
+        <v>1.95</v>
+      </c>
+      <c r="S180">
         <v>1.75</v>
       </c>
-      <c r="S180">
-        <v>2.05</v>
-      </c>
       <c r="T180">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V180">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X180">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16541,7 +16541,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6221816</v>
+        <v>6221814</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16553,76 +16553,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181" t="s">
+        <v>45</v>
+      </c>
+      <c r="K181">
+        <v>2.3</v>
+      </c>
+      <c r="L181">
+        <v>3.1</v>
+      </c>
+      <c r="M181">
+        <v>2.8</v>
+      </c>
+      <c r="N181">
+        <v>2.3</v>
+      </c>
+      <c r="O181">
+        <v>3.1</v>
+      </c>
+      <c r="P181">
+        <v>2.8</v>
+      </c>
+      <c r="Q181">
         <v>0</v>
       </c>
-      <c r="J181" t="s">
-        <v>43</v>
-      </c>
-      <c r="K181">
-        <v>3.4</v>
-      </c>
-      <c r="L181">
-        <v>3.4</v>
-      </c>
-      <c r="M181">
-        <v>1.909</v>
-      </c>
-      <c r="N181">
-        <v>4.2</v>
-      </c>
-      <c r="O181">
-        <v>4</v>
-      </c>
-      <c r="P181">
-        <v>1.571</v>
-      </c>
-      <c r="Q181">
-        <v>0.75</v>
-      </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S181">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V181">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W181">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC181">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="182" spans="1:29">

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221641</v>
+        <v>6221766</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,13 +1957,13 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1972,43 +1972,43 @@
         <v>43</v>
       </c>
       <c r="K17">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="L17">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O17">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q17">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2017,16 +2017,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6221766</v>
+        <v>6221641</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,13 +2046,13 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2061,43 +2061,43 @@
         <v>43</v>
       </c>
       <c r="K18">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="L18">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N18">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P18">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
         <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2106,16 +2106,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6221658</v>
+        <v>6221661</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,73 +4627,73 @@
         <v>45039.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>2</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K47">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N47">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="O47">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T47">
         <v>2.25</v>
       </c>
       <c r="U47">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V47">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X47">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4704,7 +4704,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6221661</v>
+        <v>6221658</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4716,73 +4716,73 @@
         <v>45039.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
+        <v>2.625</v>
+      </c>
+      <c r="N48">
+        <v>2.4</v>
+      </c>
+      <c r="O48">
         <v>3.1</v>
       </c>
-      <c r="N48">
-        <v>1.833</v>
-      </c>
-      <c r="O48">
-        <v>3.5</v>
-      </c>
       <c r="P48">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S48">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W48">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6221662</v>
+        <v>6221666</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,76 +4983,76 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>2</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K51">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
       <c r="L51">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="O51">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
+        <v>1.875</v>
+      </c>
+      <c r="S51">
         <v>1.925</v>
       </c>
-      <c r="S51">
-        <v>1.875</v>
-      </c>
       <c r="T51">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6221666</v>
+        <v>6221662</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,76 +5072,76 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H52">
         <v>2</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K52">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M52">
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="N52">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R52">
+        <v>1.925</v>
+      </c>
+      <c r="S52">
         <v>1.875</v>
       </c>
-      <c r="S52">
-        <v>1.925</v>
-      </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
+        <v>2</v>
+      </c>
+      <c r="V52">
         <v>1.8</v>
       </c>
-      <c r="V52">
-        <v>2</v>
-      </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -6306,7 +6306,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6221674</v>
+        <v>6221673</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6318,73 +6318,73 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>43</v>
+      </c>
+      <c r="K66">
+        <v>2.1</v>
+      </c>
+      <c r="L66">
+        <v>3.25</v>
+      </c>
+      <c r="M66">
         <v>3</v>
       </c>
-      <c r="J66" t="s">
-        <v>44</v>
-      </c>
-      <c r="K66">
+      <c r="N66">
+        <v>2.1</v>
+      </c>
+      <c r="O66">
+        <v>3.3</v>
+      </c>
+      <c r="P66">
+        <v>3</v>
+      </c>
+      <c r="Q66">
+        <v>-0.25</v>
+      </c>
+      <c r="R66">
+        <v>1.925</v>
+      </c>
+      <c r="S66">
+        <v>1.875</v>
+      </c>
+      <c r="T66">
         <v>2.5</v>
       </c>
-      <c r="L66">
-        <v>3.2</v>
-      </c>
-      <c r="M66">
-        <v>2.5</v>
-      </c>
-      <c r="N66">
-        <v>2.5</v>
-      </c>
-      <c r="O66">
-        <v>3.2</v>
-      </c>
-      <c r="P66">
-        <v>2.5</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>1.9</v>
-      </c>
-      <c r="S66">
-        <v>1.9</v>
-      </c>
-      <c r="T66">
-        <v>2.25</v>
-      </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6221673</v>
+        <v>6221674</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,73 +6407,73 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L67">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N67">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O67">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R67">
+        <v>1.9</v>
+      </c>
+      <c r="S67">
+        <v>1.9</v>
+      </c>
+      <c r="T67">
+        <v>2.25</v>
+      </c>
+      <c r="U67">
         <v>1.925</v>
       </c>
-      <c r="S67">
+      <c r="V67">
         <v>1.875</v>
       </c>
-      <c r="T67">
-        <v>2.5</v>
-      </c>
-      <c r="U67">
-        <v>1.975</v>
-      </c>
-      <c r="V67">
-        <v>1.825</v>
-      </c>
       <c r="W67">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z67">
+        <v>-1</v>
+      </c>
+      <c r="AA67">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB67">
         <v>0.925</v>
-      </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
-      <c r="AB67">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6221684</v>
+        <v>6726053</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,10 +7742,10 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7757,43 +7757,43 @@
         <v>43</v>
       </c>
       <c r="K82">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L82">
+        <v>3.2</v>
+      </c>
+      <c r="M82">
+        <v>2.5</v>
+      </c>
+      <c r="N82">
+        <v>1.8</v>
+      </c>
+      <c r="O82">
+        <v>3</v>
+      </c>
+      <c r="P82">
         <v>4.2</v>
       </c>
-      <c r="M82">
-        <v>4.5</v>
-      </c>
-      <c r="N82">
-        <v>1.222</v>
-      </c>
-      <c r="O82">
-        <v>5.5</v>
-      </c>
-      <c r="P82">
-        <v>9</v>
-      </c>
       <c r="Q82">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U82">
+        <v>1.875</v>
+      </c>
+      <c r="V82">
         <v>1.925</v>
       </c>
-      <c r="V82">
-        <v>1.875</v>
-      </c>
       <c r="W82">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7802,16 +7802,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6726053</v>
+        <v>6221684</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,10 +7831,10 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7846,43 +7846,43 @@
         <v>43</v>
       </c>
       <c r="K83">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L83">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M83">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N83">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P83">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U83">
+        <v>1.925</v>
+      </c>
+      <c r="V83">
         <v>1.875</v>
       </c>
-      <c r="V83">
-        <v>1.925</v>
-      </c>
       <c r="W83">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7891,16 +7891,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8887,7 +8887,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8899,55 +8899,55 @@
         <v>45108.375</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>44</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L95">
+        <v>3.5</v>
+      </c>
+      <c r="M95">
+        <v>1.666</v>
+      </c>
+      <c r="N95">
+        <v>4.2</v>
+      </c>
+      <c r="O95">
         <v>3.4</v>
       </c>
-      <c r="M95">
-        <v>3.1</v>
-      </c>
-      <c r="N95">
-        <v>2.2</v>
-      </c>
-      <c r="O95">
-        <v>3.3</v>
-      </c>
       <c r="P95">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8956,16 +8956,16 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB95">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8976,7 +8976,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8988,55 +8988,55 @@
         <v>45108.375</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
         <v>44</v>
       </c>
       <c r="K96">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N96">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P96">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q96">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9045,16 +9045,16 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB96">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9688,7 +9688,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9700,76 +9700,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M104">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N104">
+        <v>2.1</v>
+      </c>
+      <c r="O104">
         <v>3.1</v>
       </c>
-      <c r="O104">
-        <v>3.5</v>
-      </c>
       <c r="P104">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q104">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
+        <v>1.95</v>
+      </c>
+      <c r="T104">
+        <v>2.25</v>
+      </c>
+      <c r="U104">
         <v>1.975</v>
       </c>
-      <c r="T104">
-        <v>2.5</v>
-      </c>
-      <c r="U104">
-        <v>1.75</v>
-      </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y104">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
+        <v>0.475</v>
+      </c>
+      <c r="AB104">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9777,7 +9777,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9789,76 +9789,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K105">
+        <v>3.6</v>
+      </c>
+      <c r="L105">
+        <v>3.5</v>
+      </c>
+      <c r="M105">
+        <v>1.8</v>
+      </c>
+      <c r="N105">
         <v>3.1</v>
       </c>
-      <c r="L105">
-        <v>3.2</v>
-      </c>
-      <c r="M105">
-        <v>2.1</v>
-      </c>
-      <c r="N105">
-        <v>2.1</v>
-      </c>
       <c r="O105">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
+        <v>1.975</v>
+      </c>
+      <c r="T105">
+        <v>2.5</v>
+      </c>
+      <c r="U105">
+        <v>1.75</v>
+      </c>
+      <c r="V105">
         <v>1.95</v>
       </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>1.975</v>
-      </c>
-      <c r="V105">
-        <v>1.725</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6221708</v>
+        <v>6221712</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,76 +10768,76 @@
         <v>45136.5</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K116">
+        <v>2.1</v>
+      </c>
+      <c r="L116">
+        <v>3.25</v>
+      </c>
+      <c r="M116">
         <v>3</v>
       </c>
-      <c r="L116">
-        <v>3.4</v>
-      </c>
-      <c r="M116">
-        <v>2.05</v>
-      </c>
       <c r="N116">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O116">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P116">
+        <v>2.9</v>
+      </c>
+      <c r="Q116">
+        <v>-0.25</v>
+      </c>
+      <c r="R116">
         <v>1.95</v>
       </c>
-      <c r="Q116">
-        <v>0.5</v>
-      </c>
-      <c r="R116">
-        <v>1.75</v>
-      </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X116">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6221712</v>
+        <v>6221708</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,76 +10857,76 @@
         <v>45136.5</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K117">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L117">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N117">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O117">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P117">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
+        <v>1.75</v>
+      </c>
+      <c r="S117">
         <v>1.95</v>
       </c>
-      <c r="S117">
-        <v>1.85</v>
-      </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -16185,7 +16185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,76 +16197,76 @@
         <v>45228.25</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
+        <v>3</v>
+      </c>
+      <c r="J177" t="s">
+        <v>44</v>
+      </c>
+      <c r="K177">
+        <v>2.75</v>
+      </c>
+      <c r="L177">
+        <v>3.1</v>
+      </c>
+      <c r="M177">
+        <v>2.375</v>
+      </c>
+      <c r="N177">
+        <v>2.625</v>
+      </c>
+      <c r="O177">
+        <v>3.2</v>
+      </c>
+      <c r="P177">
+        <v>2.45</v>
+      </c>
+      <c r="Q177">
         <v>0</v>
       </c>
-      <c r="J177" t="s">
-        <v>45</v>
-      </c>
-      <c r="K177">
-        <v>3</v>
-      </c>
-      <c r="L177">
-        <v>3</v>
-      </c>
-      <c r="M177">
-        <v>2.25</v>
-      </c>
-      <c r="N177">
-        <v>3.1</v>
-      </c>
-      <c r="O177">
-        <v>3.1</v>
-      </c>
-      <c r="P177">
-        <v>2.15</v>
-      </c>
-      <c r="Q177">
-        <v>0.25</v>
-      </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T177">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z177">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC177">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16274,7 +16274,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16286,55 +16286,55 @@
         <v>45228.25</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>44</v>
       </c>
       <c r="K178">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L178">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M178">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N178">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O178">
         <v>3.2</v>
       </c>
       <c r="P178">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W178">
         <v>-1</v>
@@ -16343,19 +16343,19 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16363,7 +16363,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6221752</v>
+        <v>6221815</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16375,76 +16375,76 @@
         <v>45228.25</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K179">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M179">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N179">
+        <v>3.1</v>
+      </c>
+      <c r="O179">
+        <v>3.1</v>
+      </c>
+      <c r="P179">
+        <v>2.15</v>
+      </c>
+      <c r="Q179">
+        <v>0.25</v>
+      </c>
+      <c r="R179">
         <v>1.85</v>
       </c>
-      <c r="O179">
-        <v>3.2</v>
-      </c>
-      <c r="P179">
-        <v>4</v>
-      </c>
-      <c r="Q179">
+      <c r="S179">
+        <v>1.95</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
+        <v>1.8</v>
+      </c>
+      <c r="V179">
+        <v>2</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>2.1</v>
+      </c>
+      <c r="Y179">
+        <v>-1</v>
+      </c>
+      <c r="Z179">
+        <v>0.425</v>
+      </c>
+      <c r="AA179">
         <v>-0.5</v>
       </c>
-      <c r="R179">
-        <v>1.9</v>
-      </c>
-      <c r="S179">
-        <v>1.9</v>
-      </c>
-      <c r="T179">
-        <v>2</v>
-      </c>
-      <c r="U179">
-        <v>1.775</v>
-      </c>
-      <c r="V179">
-        <v>2.025</v>
-      </c>
-      <c r="W179">
-        <v>-1</v>
-      </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
-      <c r="Y179">
-        <v>3</v>
-      </c>
-      <c r="Z179">
-        <v>-1</v>
-      </c>
-      <c r="AA179">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:29">

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221766</v>
+        <v>6221641</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,13 +1957,13 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1972,43 +1972,43 @@
         <v>43</v>
       </c>
       <c r="K17">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="L17">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N17">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P17">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
         <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2017,16 +2017,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6221641</v>
+        <v>6221766</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,13 +2046,13 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2061,43 +2061,43 @@
         <v>43</v>
       </c>
       <c r="K18">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="L18">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O18">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q18">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2106,16 +2106,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6221769</v>
+        <v>6221645</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,55 +2847,55 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
       </c>
       <c r="K27">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
         <v>4</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
         <v>1.8</v>
       </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
+        <v>1.85</v>
+      </c>
+      <c r="V27">
         <v>1.95</v>
-      </c>
-      <c r="V27">
-        <v>1.85</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2910,10 +2910,10 @@
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB27">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6221645</v>
+        <v>6221769</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,55 +2936,55 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
       </c>
       <c r="K28">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="L28">
+        <v>3.4</v>
+      </c>
+      <c r="M28">
         <v>4</v>
       </c>
-      <c r="M28">
-        <v>5</v>
-      </c>
       <c r="N28">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
         <v>4</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
+        <v>1.95</v>
+      </c>
+      <c r="V28">
         <v>1.85</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2999,10 +2999,10 @@
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,58 +7920,58 @@
         <v>45080.5</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>43</v>
       </c>
       <c r="K84">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L84">
+        <v>3.8</v>
+      </c>
+      <c r="M84">
+        <v>4.75</v>
+      </c>
+      <c r="N84">
+        <v>1.5</v>
+      </c>
+      <c r="O84">
         <v>4</v>
       </c>
-      <c r="M84">
-        <v>3.5</v>
-      </c>
-      <c r="N84">
-        <v>1.333</v>
-      </c>
-      <c r="O84">
-        <v>4.75</v>
-      </c>
       <c r="P84">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q84">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7980,16 +7980,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,58 +8009,58 @@
         <v>45080.5</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>43</v>
       </c>
       <c r="K85">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M85">
+        <v>3.5</v>
+      </c>
+      <c r="N85">
+        <v>1.333</v>
+      </c>
+      <c r="O85">
         <v>4.75</v>
       </c>
-      <c r="N85">
-        <v>1.5</v>
-      </c>
-      <c r="O85">
-        <v>4</v>
-      </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S85">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8069,16 +8069,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,58 +8276,58 @@
         <v>45101.375</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H88">
         <v>3</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>43</v>
       </c>
       <c r="K88">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L88">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M88">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N88">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O88">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P88">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q88">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8336,13 +8336,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,58 +8365,58 @@
         <v>45101.375</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H89">
         <v>3</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>43</v>
       </c>
       <c r="K89">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L89">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M89">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N89">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O89">
+        <v>5.5</v>
+      </c>
+      <c r="P89">
+        <v>11</v>
+      </c>
+      <c r="Q89">
+        <v>-2</v>
+      </c>
+      <c r="R89">
+        <v>1.975</v>
+      </c>
+      <c r="S89">
+        <v>1.825</v>
+      </c>
+      <c r="T89">
         <v>3</v>
       </c>
-      <c r="P89">
-        <v>3.2</v>
-      </c>
-      <c r="Q89">
-        <v>-0.25</v>
-      </c>
-      <c r="R89">
-        <v>1.875</v>
-      </c>
-      <c r="S89">
-        <v>1.925</v>
-      </c>
-      <c r="T89">
-        <v>2.25</v>
-      </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8425,13 +8425,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -16185,7 +16185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,55 +16197,55 @@
         <v>45228.25</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
         <v>44</v>
       </c>
       <c r="K177">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L177">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M177">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N177">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O177">
         <v>3.2</v>
       </c>
       <c r="P177">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W177">
         <v>-1</v>
@@ -16254,19 +16254,19 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16274,7 +16274,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16286,56 +16286,56 @@
         <v>45228.25</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J178" t="s">
         <v>44</v>
       </c>
       <c r="K178">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M178">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N178">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O178">
         <v>3.2</v>
       </c>
       <c r="P178">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q178">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>1.8</v>
+      </c>
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
         <v>1.9</v>
       </c>
-      <c r="S178">
+      <c r="V178">
         <v>1.9</v>
       </c>
-      <c r="T178">
-        <v>2</v>
-      </c>
-      <c r="U178">
-        <v>1.775</v>
-      </c>
-      <c r="V178">
-        <v>2.025</v>
-      </c>
       <c r="W178">
         <v>-1</v>
       </c>
@@ -16343,19 +16343,19 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
+        <v>0.8</v>
+      </c>
+      <c r="AB178">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB178">
-        <v>-1</v>
-      </c>
       <c r="AC178">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221640</v>
+        <v>6221766</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,58 +1868,58 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="L16">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O16">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="Q16">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1928,16 +1928,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221641</v>
+        <v>6221640</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,55 +1957,55 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="L17">
         <v>4.333</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>1.333</v>
       </c>
       <c r="O17">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P17">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q17">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
         <v>0.333</v>
@@ -2017,16 +2017,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6221766</v>
+        <v>6221641</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,13 +2046,13 @@
         <v>44999.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2061,43 +2061,43 @@
         <v>43</v>
       </c>
       <c r="K18">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="L18">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N18">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P18">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
         <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2106,16 +2106,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6221639</v>
+        <v>6221642</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,40 +2135,40 @@
         <v>44999.5</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>5.75</v>
+        <v>2.7</v>
       </c>
       <c r="N19">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
         <v>1.9</v>
@@ -2177,31 +2177,31 @@
         <v>1.9</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y19">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6221642</v>
+        <v>6221639</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,40 +2224,40 @@
         <v>44999.5</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="N20">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O20">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R20">
         <v>1.9</v>
@@ -2266,31 +2266,31 @@
         <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -3191,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6221772</v>
+        <v>6221771</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3203,58 +3203,58 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>43</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L31">
         <v>3.3</v>
       </c>
       <c r="M31">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N31">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P31">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3263,16 +3263,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3280,7 +3280,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6221771</v>
+        <v>6221772</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3292,58 +3292,58 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>43</v>
       </c>
       <c r="K32">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L32">
         <v>3.3</v>
       </c>
       <c r="M32">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N32">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O32">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3352,16 +3352,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -6306,7 +6306,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6221673</v>
+        <v>6221674</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6318,73 +6318,73 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L66">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M66">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N66">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O66">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.9</v>
+      </c>
+      <c r="T66">
+        <v>2.25</v>
+      </c>
+      <c r="U66">
         <v>1.925</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.875</v>
       </c>
-      <c r="T66">
-        <v>2.5</v>
-      </c>
-      <c r="U66">
-        <v>1.975</v>
-      </c>
-      <c r="V66">
-        <v>1.825</v>
-      </c>
       <c r="W66">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z66">
+        <v>-1</v>
+      </c>
+      <c r="AA66">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB66">
         <v>0.925</v>
-      </c>
-      <c r="AA66">
-        <v>-1</v>
-      </c>
-      <c r="AB66">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6221674</v>
+        <v>6221673</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,73 +6407,73 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>43</v>
+      </c>
+      <c r="K67">
+        <v>2.1</v>
+      </c>
+      <c r="L67">
+        <v>3.25</v>
+      </c>
+      <c r="M67">
         <v>3</v>
       </c>
-      <c r="J67" t="s">
-        <v>44</v>
-      </c>
-      <c r="K67">
+      <c r="N67">
+        <v>2.1</v>
+      </c>
+      <c r="O67">
+        <v>3.3</v>
+      </c>
+      <c r="P67">
+        <v>3</v>
+      </c>
+      <c r="Q67">
+        <v>-0.25</v>
+      </c>
+      <c r="R67">
+        <v>1.925</v>
+      </c>
+      <c r="S67">
+        <v>1.875</v>
+      </c>
+      <c r="T67">
         <v>2.5</v>
       </c>
-      <c r="L67">
-        <v>3.2</v>
-      </c>
-      <c r="M67">
-        <v>2.5</v>
-      </c>
-      <c r="N67">
-        <v>2.5</v>
-      </c>
-      <c r="O67">
-        <v>3.2</v>
-      </c>
-      <c r="P67">
-        <v>2.5</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>1.9</v>
-      </c>
-      <c r="S67">
-        <v>1.9</v>
-      </c>
-      <c r="T67">
-        <v>2.25</v>
-      </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -8887,7 +8887,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8899,55 +8899,55 @@
         <v>45108.375</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
         <v>44</v>
       </c>
       <c r="K95">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N95">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P95">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q95">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8956,16 +8956,16 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8976,7 +8976,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8988,55 +8988,55 @@
         <v>45108.375</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>44</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L96">
+        <v>3.5</v>
+      </c>
+      <c r="M96">
+        <v>1.666</v>
+      </c>
+      <c r="N96">
+        <v>4.2</v>
+      </c>
+      <c r="O96">
         <v>3.4</v>
       </c>
-      <c r="M96">
-        <v>3.1</v>
-      </c>
-      <c r="N96">
-        <v>2.2</v>
-      </c>
-      <c r="O96">
-        <v>3.3</v>
-      </c>
       <c r="P96">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9045,16 +9045,16 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9688,7 +9688,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9700,76 +9700,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K104">
+        <v>3.6</v>
+      </c>
+      <c r="L104">
+        <v>3.5</v>
+      </c>
+      <c r="M104">
+        <v>1.8</v>
+      </c>
+      <c r="N104">
         <v>3.1</v>
       </c>
-      <c r="L104">
-        <v>3.2</v>
-      </c>
-      <c r="M104">
-        <v>2.1</v>
-      </c>
-      <c r="N104">
-        <v>2.1</v>
-      </c>
       <c r="O104">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
+        <v>1.975</v>
+      </c>
+      <c r="T104">
+        <v>2.5</v>
+      </c>
+      <c r="U104">
+        <v>1.75</v>
+      </c>
+      <c r="V104">
         <v>1.95</v>
       </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>1.975</v>
-      </c>
-      <c r="V104">
-        <v>1.725</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9777,7 +9777,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9789,76 +9789,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K105">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M105">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N105">
+        <v>2.1</v>
+      </c>
+      <c r="O105">
         <v>3.1</v>
       </c>
-      <c r="O105">
-        <v>3.5</v>
-      </c>
       <c r="P105">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
+        <v>1.95</v>
+      </c>
+      <c r="T105">
+        <v>2.25</v>
+      </c>
+      <c r="U105">
         <v>1.975</v>
       </c>
-      <c r="T105">
-        <v>2.5</v>
-      </c>
-      <c r="U105">
-        <v>1.75</v>
-      </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y105">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA105">
+        <v>0.475</v>
+      </c>
+      <c r="AB105">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB105">
-        <v>-1</v>
-      </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -16185,7 +16185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,56 +16197,56 @@
         <v>45228.25</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
         <v>44</v>
       </c>
       <c r="K177">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M177">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N177">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O177">
         <v>3.2</v>
       </c>
       <c r="P177">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>1.8</v>
+      </c>
+      <c r="T177">
+        <v>2.5</v>
+      </c>
+      <c r="U177">
         <v>1.9</v>
       </c>
-      <c r="S177">
+      <c r="V177">
         <v>1.9</v>
       </c>
-      <c r="T177">
-        <v>2</v>
-      </c>
-      <c r="U177">
-        <v>1.775</v>
-      </c>
-      <c r="V177">
-        <v>2.025</v>
-      </c>
       <c r="W177">
         <v>-1</v>
       </c>
@@ -16254,19 +16254,19 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
+        <v>0.8</v>
+      </c>
+      <c r="AB177">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB177">
-        <v>-1</v>
-      </c>
       <c r="AC177">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16274,7 +16274,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6221753</v>
+        <v>6221815</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16286,76 +16286,76 @@
         <v>45228.25</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>45</v>
+      </c>
+      <c r="K178">
         <v>3</v>
       </c>
-      <c r="J178" t="s">
-        <v>44</v>
-      </c>
-      <c r="K178">
-        <v>2.75</v>
-      </c>
       <c r="L178">
+        <v>3</v>
+      </c>
+      <c r="M178">
+        <v>2.25</v>
+      </c>
+      <c r="N178">
         <v>3.1</v>
       </c>
-      <c r="M178">
-        <v>2.375</v>
-      </c>
-      <c r="N178">
-        <v>2.625</v>
-      </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P178">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S178">
+        <v>1.95</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
         <v>1.8</v>
       </c>
-      <c r="T178">
-        <v>2.5</v>
-      </c>
-      <c r="U178">
-        <v>1.9</v>
-      </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y178">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA178">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16363,7 +16363,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6221815</v>
+        <v>6221752</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16375,76 +16375,76 @@
         <v>45228.25</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K179">
+        <v>1.833</v>
+      </c>
+      <c r="L179">
+        <v>3.2</v>
+      </c>
+      <c r="M179">
+        <v>4</v>
+      </c>
+      <c r="N179">
+        <v>1.85</v>
+      </c>
+      <c r="O179">
+        <v>3.2</v>
+      </c>
+      <c r="P179">
+        <v>4</v>
+      </c>
+      <c r="Q179">
+        <v>-0.5</v>
+      </c>
+      <c r="R179">
+        <v>1.9</v>
+      </c>
+      <c r="S179">
+        <v>1.9</v>
+      </c>
+      <c r="T179">
+        <v>2</v>
+      </c>
+      <c r="U179">
+        <v>1.775</v>
+      </c>
+      <c r="V179">
+        <v>2.025</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
         <v>3</v>
       </c>
-      <c r="L179">
-        <v>3</v>
-      </c>
-      <c r="M179">
-        <v>2.25</v>
-      </c>
-      <c r="N179">
-        <v>3.1</v>
-      </c>
-      <c r="O179">
-        <v>3.1</v>
-      </c>
-      <c r="P179">
-        <v>2.15</v>
-      </c>
-      <c r="Q179">
-        <v>0.25</v>
-      </c>
-      <c r="R179">
-        <v>1.85</v>
-      </c>
-      <c r="S179">
-        <v>1.95</v>
-      </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
-      <c r="U179">
-        <v>1.8</v>
-      </c>
-      <c r="V179">
-        <v>2</v>
-      </c>
-      <c r="W179">
-        <v>-1</v>
-      </c>
-      <c r="X179">
-        <v>2.1</v>
-      </c>
-      <c r="Y179">
-        <v>-1</v>
-      </c>
       <c r="Z179">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16452,7 +16452,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6221816</v>
+        <v>6221814</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16464,76 +16464,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180" t="s">
+        <v>45</v>
+      </c>
+      <c r="K180">
+        <v>2.3</v>
+      </c>
+      <c r="L180">
+        <v>3.1</v>
+      </c>
+      <c r="M180">
+        <v>2.8</v>
+      </c>
+      <c r="N180">
+        <v>2.3</v>
+      </c>
+      <c r="O180">
+        <v>3.1</v>
+      </c>
+      <c r="P180">
+        <v>2.8</v>
+      </c>
+      <c r="Q180">
         <v>0</v>
       </c>
-      <c r="J180" t="s">
-        <v>43</v>
-      </c>
-      <c r="K180">
-        <v>3.4</v>
-      </c>
-      <c r="L180">
-        <v>3.4</v>
-      </c>
-      <c r="M180">
-        <v>1.909</v>
-      </c>
-      <c r="N180">
-        <v>4.2</v>
-      </c>
-      <c r="O180">
-        <v>4</v>
-      </c>
-      <c r="P180">
-        <v>1.571</v>
-      </c>
-      <c r="Q180">
-        <v>0.75</v>
-      </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S180">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC180">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16541,7 +16541,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6221814</v>
+        <v>6221755</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16553,76 +16553,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
         <v>45</v>
       </c>
       <c r="K181">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L181">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N181">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O181">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R181">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S181">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V181">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB181">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC181">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16630,7 +16630,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6221755</v>
+        <v>6221816</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16642,76 +16642,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K182">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L182">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N182">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="O182">
         <v>4</v>
       </c>
       <c r="P182">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="Q182">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R182">
+        <v>1.95</v>
+      </c>
+      <c r="S182">
+        <v>1.75</v>
+      </c>
+      <c r="T182">
+        <v>3</v>
+      </c>
+      <c r="U182">
         <v>1.975</v>
       </c>
-      <c r="S182">
+      <c r="V182">
         <v>1.825</v>
       </c>
-      <c r="T182">
-        <v>2.75</v>
-      </c>
-      <c r="U182">
-        <v>1.8</v>
-      </c>
-      <c r="V182">
-        <v>2</v>
-      </c>
       <c r="W182">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X182">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA182">
+        <v>-1</v>
+      </c>
+      <c r="AB182">
+        <v>-1</v>
+      </c>
+      <c r="AC182">
         <v>0.825</v>
-      </c>
-      <c r="AB182">
-        <v>0.8</v>
-      </c>
-      <c r="AC182">
-        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,55 +1868,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
+        <v>1.666</v>
+      </c>
+      <c r="N16">
+        <v>4.2</v>
+      </c>
+      <c r="O16">
         <v>3.4</v>
       </c>
-      <c r="M16">
-        <v>3.1</v>
-      </c>
-      <c r="N16">
-        <v>2.2</v>
-      </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
       <c r="P16">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1925,16 +1925,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB16">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,55 +1957,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N17">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O17">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2014,16 +2014,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6221729</v>
+        <v>6221732</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,49 +6051,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K63">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N63">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6102,16 +6102,16 @@
         <v>1.9</v>
       </c>
       <c r="W63">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6221732</v>
+        <v>6221729</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,49 +6140,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K64">
+        <v>2.9</v>
+      </c>
+      <c r="L64">
         <v>3.3</v>
       </c>
-      <c r="L64">
-        <v>3.25</v>
-      </c>
       <c r="M64">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N64">
+        <v>1.75</v>
+      </c>
+      <c r="O64">
         <v>3.5</v>
       </c>
-      <c r="O64">
-        <v>3.25</v>
-      </c>
       <c r="P64">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6191,16 +6191,16 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X64">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,76 +8009,76 @@
         <v>45200.25</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N85">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
         <v>1.8</v>
-      </c>
-      <c r="S85">
-        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>0.8</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8086,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,76 +8098,76 @@
         <v>45200.25</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N86">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q86">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -9154,7 +9154,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,76 +9166,76 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98" t="s">
+        <v>44</v>
+      </c>
+      <c r="K98">
+        <v>2.75</v>
+      </c>
+      <c r="L98">
+        <v>3.1</v>
+      </c>
+      <c r="M98">
+        <v>2.375</v>
+      </c>
+      <c r="N98">
+        <v>2.625</v>
+      </c>
+      <c r="O98">
+        <v>3.2</v>
+      </c>
+      <c r="P98">
+        <v>2.45</v>
+      </c>
+      <c r="Q98">
         <v>0</v>
       </c>
-      <c r="J98" t="s">
-        <v>45</v>
-      </c>
-      <c r="K98">
-        <v>3</v>
-      </c>
-      <c r="L98">
-        <v>3</v>
-      </c>
-      <c r="M98">
-        <v>2.25</v>
-      </c>
-      <c r="N98">
-        <v>3.1</v>
-      </c>
-      <c r="O98">
-        <v>3.1</v>
-      </c>
-      <c r="P98">
-        <v>2.15</v>
-      </c>
-      <c r="Q98">
-        <v>0.25</v>
-      </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z98">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9243,7 +9243,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221753</v>
+        <v>6221815</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9255,76 +9255,76 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>45</v>
+      </c>
+      <c r="K99">
         <v>3</v>
       </c>
-      <c r="J99" t="s">
-        <v>44</v>
-      </c>
-      <c r="K99">
-        <v>2.75</v>
-      </c>
       <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>2.25</v>
+      </c>
+      <c r="N99">
         <v>3.1</v>
       </c>
-      <c r="M99">
-        <v>2.375</v>
-      </c>
-      <c r="N99">
-        <v>2.625</v>
-      </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P99">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
+        <v>1.95</v>
+      </c>
+      <c r="T99">
+        <v>2.25</v>
+      </c>
+      <c r="U99">
         <v>1.8</v>
       </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y99">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9421,7 +9421,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221814</v>
+        <v>6221754</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9433,10 +9433,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9448,61 +9448,61 @@
         <v>45</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L101">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N101">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O101">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="P101">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S101">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T101">
         <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
         <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9599,7 +9599,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221816</v>
+        <v>6221814</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9611,76 +9611,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>45</v>
+      </c>
+      <c r="K103">
+        <v>2.3</v>
+      </c>
+      <c r="L103">
+        <v>3.1</v>
+      </c>
+      <c r="M103">
+        <v>2.8</v>
+      </c>
+      <c r="N103">
+        <v>2.3</v>
+      </c>
+      <c r="O103">
+        <v>3.1</v>
+      </c>
+      <c r="P103">
+        <v>2.8</v>
+      </c>
+      <c r="Q103">
         <v>0</v>
       </c>
-      <c r="J103" t="s">
-        <v>43</v>
-      </c>
-      <c r="K103">
-        <v>3.4</v>
-      </c>
-      <c r="L103">
-        <v>3.4</v>
-      </c>
-      <c r="M103">
-        <v>1.909</v>
-      </c>
-      <c r="N103">
-        <v>4.2</v>
-      </c>
-      <c r="O103">
-        <v>4</v>
-      </c>
-      <c r="P103">
-        <v>1.571</v>
-      </c>
-      <c r="Q103">
-        <v>0.75</v>
-      </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S103">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9688,7 +9688,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221754</v>
+        <v>6221816</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9700,76 +9700,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N104">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O104">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R104">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X104">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -112,10 +112,10 @@
     <t>Tobol Kostanay</t>
   </si>
   <si>
-    <t>FK Aktobe</t>
+    <t>Ordabasy</t>
   </si>
   <si>
-    <t>Ordabasy</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,55 +892,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>43</v>
       </c>
       <c r="K5">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L5">
+        <v>3.8</v>
+      </c>
+      <c r="M5">
+        <v>4.75</v>
+      </c>
+      <c r="N5">
+        <v>1.5</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
-      <c r="N5">
-        <v>1.333</v>
-      </c>
-      <c r="O5">
-        <v>4.75</v>
-      </c>
       <c r="P5">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -949,16 +949,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -981,55 +981,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>43</v>
       </c>
       <c r="K6">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M6">
+        <v>3.5</v>
+      </c>
+      <c r="N6">
+        <v>1.333</v>
+      </c>
+      <c r="O6">
         <v>4.75</v>
       </c>
-      <c r="N6">
-        <v>1.5</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1038,16 +1038,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1604,7 +1604,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1871,7 +1871,7 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2402,7 +2402,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2494,7 +2494,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2850,7 +2850,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3203,7 +3203,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3292,7 +3292,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3725,7 +3725,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6221708</v>
+        <v>6221712</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3737,76 +3737,76 @@
         <v>45136.5</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K37">
+        <v>2.1</v>
+      </c>
+      <c r="L37">
+        <v>3.25</v>
+      </c>
+      <c r="M37">
         <v>3</v>
       </c>
-      <c r="L37">
-        <v>3.4</v>
-      </c>
-      <c r="M37">
-        <v>2.05</v>
-      </c>
       <c r="N37">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P37">
+        <v>2.9</v>
+      </c>
+      <c r="Q37">
+        <v>-0.25</v>
+      </c>
+      <c r="R37">
         <v>1.95</v>
       </c>
-      <c r="Q37">
-        <v>0.5</v>
-      </c>
-      <c r="R37">
-        <v>1.75</v>
-      </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X37">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221712</v>
+        <v>6221708</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,76 +3826,76 @@
         <v>45136.5</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O38">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
+        <v>1.75</v>
+      </c>
+      <c r="S38">
         <v>1.95</v>
       </c>
-      <c r="S38">
-        <v>1.85</v>
-      </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3918,7 +3918,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4449,7 +4449,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4882,7 +4882,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4894,64 +4894,64 @@
         <v>45151.5</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K50">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M50">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="N50">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50">
+        <v>1.725</v>
+      </c>
+      <c r="S50">
+        <v>2.075</v>
+      </c>
+      <c r="T50">
+        <v>2.25</v>
+      </c>
+      <c r="U50">
+        <v>1.875</v>
+      </c>
+      <c r="V50">
         <v>1.925</v>
       </c>
-      <c r="S50">
-        <v>1.875</v>
-      </c>
-      <c r="T50">
-        <v>2.5</v>
-      </c>
-      <c r="U50">
-        <v>1.9</v>
-      </c>
-      <c r="V50">
-        <v>1.9</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4971,7 +4971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4983,64 +4983,64 @@
         <v>45151.5</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
         <v>33</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N51">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y51">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5049,10 +5049,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -5606,7 +5606,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6054,7 +6054,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6232,7 +6232,7 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6674,10 +6674,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
         <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6944,7 +6944,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7475,7 +7475,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>30</v>
@@ -7742,7 +7742,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7920,7 +7920,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
         <v>30</v>
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,76 +8009,76 @@
         <v>45200.25</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N85">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O85">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8086,7 +8086,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,76 +8098,76 @@
         <v>45200.25</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N86">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
         <v>1.8</v>
-      </c>
-      <c r="S86">
-        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
         <v>0.8</v>
       </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8190,7 +8190,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6221811</v>
+        <v>6221810</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M88">
+        <v>3.8</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>3.1</v>
+      </c>
+      <c r="P88">
+        <v>3.5</v>
+      </c>
+      <c r="Q88">
+        <v>-0.5</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
         <v>1.8</v>
       </c>
-      <c r="N88">
-        <v>3.8</v>
-      </c>
-      <c r="O88">
-        <v>3.6</v>
-      </c>
-      <c r="P88">
-        <v>1.75</v>
-      </c>
-      <c r="Q88">
-        <v>0.75</v>
-      </c>
-      <c r="R88">
-        <v>1.8</v>
-      </c>
-      <c r="S88">
-        <v>2</v>
-      </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V88">
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X88">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6221810</v>
+        <v>6221811</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,76 +8365,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
+        <v>1.8</v>
+      </c>
+      <c r="N89">
         <v>3.8</v>
       </c>
-      <c r="N89">
-        <v>2</v>
-      </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
         <v>1.975</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8902,7 +8902,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9077,7 +9077,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9154,7 +9154,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,55 +9166,55 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>44</v>
       </c>
       <c r="K98">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L98">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N98">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O98">
         <v>3.2</v>
       </c>
       <c r="P98">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9223,19 +9223,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9243,7 +9243,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9255,76 +9255,76 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99" t="s">
+        <v>44</v>
+      </c>
+      <c r="K99">
+        <v>2.75</v>
+      </c>
+      <c r="L99">
+        <v>3.1</v>
+      </c>
+      <c r="M99">
+        <v>2.375</v>
+      </c>
+      <c r="N99">
+        <v>2.625</v>
+      </c>
+      <c r="O99">
+        <v>3.2</v>
+      </c>
+      <c r="P99">
+        <v>2.45</v>
+      </c>
+      <c r="Q99">
         <v>0</v>
       </c>
-      <c r="J99" t="s">
-        <v>45</v>
-      </c>
-      <c r="K99">
-        <v>3</v>
-      </c>
-      <c r="L99">
-        <v>3</v>
-      </c>
-      <c r="M99">
-        <v>2.25</v>
-      </c>
-      <c r="N99">
-        <v>3.1</v>
-      </c>
-      <c r="O99">
-        <v>3.1</v>
-      </c>
-      <c r="P99">
-        <v>2.15</v>
-      </c>
-      <c r="Q99">
-        <v>0.25</v>
-      </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z99">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC99">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9332,7 +9332,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221752</v>
+        <v>6221815</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9344,76 +9344,76 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N100">
+        <v>3.1</v>
+      </c>
+      <c r="O100">
+        <v>3.1</v>
+      </c>
+      <c r="P100">
+        <v>2.15</v>
+      </c>
+      <c r="Q100">
+        <v>0.25</v>
+      </c>
+      <c r="R100">
         <v>1.85</v>
       </c>
-      <c r="O100">
-        <v>3.2</v>
-      </c>
-      <c r="P100">
-        <v>4</v>
-      </c>
-      <c r="Q100">
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
+        <v>1.8</v>
+      </c>
+      <c r="V100">
+        <v>2</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>2.1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
+        <v>0.425</v>
+      </c>
+      <c r="AA100">
         <v>-0.5</v>
       </c>
-      <c r="R100">
-        <v>1.9</v>
-      </c>
-      <c r="S100">
-        <v>1.9</v>
-      </c>
-      <c r="T100">
-        <v>2</v>
-      </c>
-      <c r="U100">
-        <v>1.775</v>
-      </c>
-      <c r="V100">
-        <v>2.025</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>3</v>
-      </c>
-      <c r="Z100">
-        <v>-1</v>
-      </c>
-      <c r="AA100">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9510,7 +9510,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221755</v>
+        <v>6221814</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9522,76 +9522,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>45</v>
       </c>
       <c r="K102">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N102">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9599,7 +9599,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221814</v>
+        <v>6221755</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9611,76 +9611,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>45</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N103">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC103">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9703,7 @@
         <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H104">
         <v>1</v>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>Tobol Kostanay</t>
   </si>
   <si>
-    <t>Ordabasy</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
-    <t>FK Aktobe</t>
+    <t>Ordabasy</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>FK Kaspyi Aktau</t>
+  </si>
+  <si>
+    <t>FK Zhenys</t>
+  </si>
+  <si>
+    <t>Turan</t>
   </si>
   <si>
     <t>H</t>
@@ -513,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC104"/>
+  <dimension ref="A1:AC108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K2">
         <v>2.1</v>
@@ -723,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>1.533</v>
@@ -812,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>2.5</v>
@@ -877,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,55 +898,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M5">
+        <v>3.5</v>
+      </c>
+      <c r="N5">
+        <v>1.333</v>
+      </c>
+      <c r="O5">
         <v>4.75</v>
       </c>
-      <c r="N5">
-        <v>1.5</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -949,16 +955,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -966,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -981,73 +987,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <v>1.571</v>
+      </c>
+      <c r="L6">
+        <v>3.8</v>
+      </c>
+      <c r="M6">
+        <v>4.75</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>5.25</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <v>1.875</v>
+      </c>
+      <c r="S6">
+        <v>1.925</v>
+      </c>
+      <c r="T6">
+        <v>2.5</v>
+      </c>
+      <c r="U6">
+        <v>1.9</v>
+      </c>
+      <c r="V6">
+        <v>1.9</v>
+      </c>
+      <c r="W6">
+        <v>0.5</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
+        <v>-1</v>
+      </c>
+      <c r="Z6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6">
-        <v>1.727</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>3.5</v>
-      </c>
-      <c r="N6">
-        <v>1.333</v>
-      </c>
-      <c r="O6">
-        <v>4.75</v>
-      </c>
-      <c r="P6">
-        <v>6.5</v>
-      </c>
-      <c r="Q6">
-        <v>-1.5</v>
-      </c>
-      <c r="R6">
-        <v>1.975</v>
-      </c>
-      <c r="S6">
-        <v>1.825</v>
-      </c>
-      <c r="T6">
-        <v>3</v>
-      </c>
-      <c r="U6">
-        <v>1.975</v>
-      </c>
-      <c r="V6">
-        <v>1.825</v>
-      </c>
-      <c r="W6">
-        <v>0.333</v>
-      </c>
-      <c r="X6">
-        <v>-1</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
-      <c r="Z6">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1079,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1168,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>1.55</v>
@@ -1233,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,73 +1251,73 @@
         <v>45101.375</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9">
+        <v>1.333</v>
+      </c>
+      <c r="L9">
+        <v>4.333</v>
+      </c>
+      <c r="M9">
+        <v>7.5</v>
+      </c>
+      <c r="N9">
+        <v>1.2</v>
+      </c>
+      <c r="O9">
+        <v>5.5</v>
+      </c>
+      <c r="P9">
+        <v>11</v>
+      </c>
+      <c r="Q9">
+        <v>-2</v>
+      </c>
+      <c r="R9">
+        <v>1.975</v>
+      </c>
+      <c r="S9">
+        <v>1.825</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>1.95</v>
+      </c>
+      <c r="V9">
+        <v>1.85</v>
+      </c>
+      <c r="W9">
+        <v>0.2</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9">
-        <v>2.25</v>
-      </c>
-      <c r="L9">
-        <v>3.2</v>
-      </c>
-      <c r="M9">
-        <v>2.8</v>
-      </c>
-      <c r="N9">
-        <v>2.1</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-      <c r="P9">
-        <v>3.2</v>
-      </c>
-      <c r="Q9">
-        <v>-0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.875</v>
-      </c>
-      <c r="S9">
-        <v>1.925</v>
-      </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
-      <c r="V9">
-        <v>1.8</v>
-      </c>
-      <c r="W9">
-        <v>1.1</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>-1</v>
-      </c>
-      <c r="Z9">
-        <v>0.875</v>
-      </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1322,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1334,58 +1340,58 @@
         <v>45101.375</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L10">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N10">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O10">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q10">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1394,13 +1400,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1435,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>2.4</v>
@@ -1524,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>2.4</v>
@@ -1604,7 +1610,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1613,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K13">
         <v>3.75</v>
@@ -1702,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>2.6</v>
@@ -1779,7 +1785,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1791,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>1.444</v>
@@ -1871,7 +1877,7 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1880,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K16">
         <v>4.333</v>
@@ -1969,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2058,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2147,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>2.5</v>
@@ -2236,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K20">
         <v>7</v>
@@ -2325,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>1.909</v>
@@ -2402,7 +2408,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2414,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>1.2</v>
@@ -2494,7 +2500,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2503,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2592,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K24">
         <v>3.25</v>
@@ -2657,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,76 +2675,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L25">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N25">
+        <v>2.1</v>
+      </c>
+      <c r="O25">
         <v>3.1</v>
       </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
       <c r="P25">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
+        <v>1.95</v>
+      </c>
+      <c r="T25">
+        <v>2.25</v>
+      </c>
+      <c r="U25">
         <v>1.975</v>
       </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
-      <c r="U25">
-        <v>1.75</v>
-      </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y25">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
+        <v>0.475</v>
+      </c>
+      <c r="AB25">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB25">
-        <v>-1</v>
-      </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2746,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,76 +2764,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26">
+        <v>3.6</v>
+      </c>
+      <c r="L26">
+        <v>3.5</v>
+      </c>
+      <c r="M26">
+        <v>1.8</v>
+      </c>
+      <c r="N26">
         <v>3.1</v>
       </c>
-      <c r="L26">
-        <v>3.2</v>
-      </c>
-      <c r="M26">
-        <v>2.1</v>
-      </c>
-      <c r="N26">
-        <v>2.1</v>
-      </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>1.75</v>
+      </c>
+      <c r="V26">
         <v>1.95</v>
       </c>
-      <c r="T26">
-        <v>2.25</v>
-      </c>
-      <c r="U26">
-        <v>1.975</v>
-      </c>
-      <c r="V26">
-        <v>1.725</v>
-      </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2850,7 +2856,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2859,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K27">
         <v>6</v>
@@ -2948,7 +2954,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K28">
         <v>2.2</v>
@@ -3037,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>1.285</v>
@@ -3203,7 +3209,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3215,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>1.444</v>
@@ -3292,7 +3298,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3304,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>1.444</v>
@@ -3393,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>1.95</v>
@@ -3482,7 +3488,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>1.6</v>
@@ -3571,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>1.444</v>
@@ -3660,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -3749,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>2.1</v>
@@ -3838,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -3918,7 +3924,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3927,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K39">
         <v>3.6</v>
@@ -4016,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>1.55</v>
@@ -4105,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K41">
         <v>3.1</v>
@@ -4194,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>2.3</v>
@@ -4283,7 +4289,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K43">
         <v>2.9</v>
@@ -4372,7 +4378,7 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>1.666</v>
@@ -4449,7 +4455,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4461,7 +4467,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>2.1</v>
@@ -4550,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>2.5</v>
@@ -4639,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4728,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K48">
         <v>1.8</v>
@@ -4817,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>1.5</v>
@@ -4897,7 +4903,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4906,7 +4912,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K50">
         <v>6.5</v>
@@ -4986,7 +4992,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -4995,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K51">
         <v>3.75</v>
@@ -5084,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>1.8</v>
@@ -5173,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K53">
         <v>3.2</v>
@@ -5262,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>2.4</v>
@@ -5351,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5440,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K56">
         <v>1.2</v>
@@ -5517,7 +5523,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -5529,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K57">
         <v>1.8</v>
@@ -5606,7 +5612,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -5618,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>1.95</v>
@@ -5707,7 +5713,7 @@
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K59">
         <v>2.1</v>
@@ -5796,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>2.5</v>
@@ -5885,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -5974,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>1.666</v>
@@ -6039,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6221732</v>
+        <v>6221729</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,13 +6057,13 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6066,34 +6072,34 @@
         <v>45</v>
       </c>
       <c r="K63">
+        <v>2.9</v>
+      </c>
+      <c r="L63">
         <v>3.3</v>
       </c>
-      <c r="L63">
-        <v>3.25</v>
-      </c>
       <c r="M63">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N63">
+        <v>1.75</v>
+      </c>
+      <c r="O63">
         <v>3.5</v>
       </c>
-      <c r="O63">
-        <v>3.25</v>
-      </c>
       <c r="P63">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6102,16 +6108,16 @@
         <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X63">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6128,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6221729</v>
+        <v>6221732</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,49 +6146,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K64">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6191,16 +6197,16 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6232,7 +6238,7 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6241,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K65">
         <v>4.75</v>
@@ -6330,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -6419,7 +6425,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>2.3</v>
@@ -6508,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K68">
         <v>2.375</v>
@@ -6597,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>1.727</v>
@@ -6674,11 +6680,11 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
         <v>33</v>
       </c>
-      <c r="G70" t="s">
-        <v>32</v>
-      </c>
       <c r="H70">
         <v>2</v>
       </c>
@@ -6686,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K70">
         <v>2.5</v>
@@ -6775,7 +6781,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>3</v>
@@ -6864,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K72">
         <v>2.25</v>
@@ -6944,7 +6950,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -6953,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <v>2.6</v>
@@ -7042,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>1.8</v>
@@ -7131,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K75">
         <v>1.45</v>
@@ -7220,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>1.85</v>
@@ -7309,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K77">
         <v>2.7</v>
@@ -7398,7 +7404,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K78">
         <v>1.8</v>
@@ -7475,7 +7481,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>30</v>
@@ -7487,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K79">
         <v>1.8</v>
@@ -7576,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K80">
         <v>1.95</v>
@@ -7665,7 +7671,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K81">
         <v>1.285</v>
@@ -7742,7 +7748,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7754,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>1.285</v>
@@ -7843,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K83">
         <v>2.4</v>
@@ -7920,7 +7926,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>30</v>
@@ -7932,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K84">
         <v>2.2</v>
@@ -8021,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>3</v>
@@ -8110,7 +8116,7 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K86">
         <v>2.05</v>
@@ -8190,7 +8196,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8199,7 +8205,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K87">
         <v>5.5</v>
@@ -8288,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>1.909</v>
@@ -8377,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K89">
         <v>3.75</v>
@@ -8466,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K90">
         <v>2.7</v>
@@ -8555,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>2.625</v>
@@ -8644,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K92">
         <v>1.5</v>
@@ -8733,7 +8739,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K93">
         <v>1.533</v>
@@ -8822,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>1.25</v>
@@ -8902,7 +8908,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8911,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K95">
         <v>2.875</v>
@@ -9000,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>2.625</v>
@@ -9077,7 +9083,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9089,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>1.3</v>
@@ -9154,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,56 +9172,56 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L98">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N98">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O98">
         <v>3.2</v>
       </c>
       <c r="P98">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>1.8</v>
+      </c>
+      <c r="T98">
+        <v>2.5</v>
+      </c>
+      <c r="U98">
         <v>1.9</v>
       </c>
-      <c r="S98">
+      <c r="V98">
         <v>1.9</v>
       </c>
-      <c r="T98">
-        <v>2</v>
-      </c>
-      <c r="U98">
-        <v>1.775</v>
-      </c>
-      <c r="V98">
-        <v>2.025</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
@@ -9223,19 +9229,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
+        <v>0.8</v>
+      </c>
+      <c r="AB98">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9243,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9255,55 +9261,55 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L99">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O99">
         <v>3.2</v>
       </c>
       <c r="P99">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9312,19 +9318,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9356,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K100">
         <v>3</v>
@@ -9421,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221754</v>
+        <v>6221814</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9433,10 +9439,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9445,64 +9451,64 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K101">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M101">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N101">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="O101">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S101">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T101">
         <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>0.3999999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
         <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.45</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9510,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221814</v>
+        <v>6221755</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9522,76 +9528,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K102">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L102">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O102">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9599,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221755</v>
+        <v>6221754</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9611,76 +9617,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
         <v>3.5</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N103">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9703,7 +9709,7 @@
         <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9712,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>3.4</v>
@@ -9770,6 +9776,332 @@
       </c>
       <c r="AC104">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>7873762</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45352.27083333334</v>
+      </c>
+      <c r="F105" t="s">
+        <v>30</v>
+      </c>
+      <c r="G105" t="s">
+        <v>43</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>45</v>
+      </c>
+      <c r="K105">
+        <v>1.444</v>
+      </c>
+      <c r="L105">
+        <v>3.75</v>
+      </c>
+      <c r="M105">
+        <v>6.5</v>
+      </c>
+      <c r="N105">
+        <v>1.363</v>
+      </c>
+      <c r="O105">
+        <v>4</v>
+      </c>
+      <c r="P105">
+        <v>7.5</v>
+      </c>
+      <c r="Q105">
+        <v>-1.25</v>
+      </c>
+      <c r="R105">
+        <v>1.825</v>
+      </c>
+      <c r="S105">
+        <v>1.975</v>
+      </c>
+      <c r="T105">
+        <v>2.5</v>
+      </c>
+      <c r="U105">
+        <v>1.875</v>
+      </c>
+      <c r="V105">
+        <v>1.925</v>
+      </c>
+      <c r="W105">
+        <v>0.363</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
+        <v>0.825</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>7874781</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45352.375</v>
+      </c>
+      <c r="F106" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" t="s">
+        <v>32</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>3</v>
+      </c>
+      <c r="J106" t="s">
+        <v>46</v>
+      </c>
+      <c r="K106">
+        <v>3.3</v>
+      </c>
+      <c r="L106">
+        <v>3.25</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>3.4</v>
+      </c>
+      <c r="O106">
+        <v>3.2</v>
+      </c>
+      <c r="P106">
+        <v>1.95</v>
+      </c>
+      <c r="Q106">
+        <v>0.5</v>
+      </c>
+      <c r="R106">
+        <v>1.775</v>
+      </c>
+      <c r="S106">
+        <v>2.025</v>
+      </c>
+      <c r="T106">
+        <v>2.25</v>
+      </c>
+      <c r="U106">
+        <v>1.9</v>
+      </c>
+      <c r="V106">
+        <v>1.9</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
+        <v>0.95</v>
+      </c>
+      <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
+        <v>1.025</v>
+      </c>
+      <c r="AB106">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC106">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>7874785</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45353.35416666666</v>
+      </c>
+      <c r="F107" t="s">
+        <v>33</v>
+      </c>
+      <c r="G107" t="s">
+        <v>37</v>
+      </c>
+      <c r="K107">
+        <v>1.4</v>
+      </c>
+      <c r="L107">
+        <v>4</v>
+      </c>
+      <c r="M107">
+        <v>7</v>
+      </c>
+      <c r="N107">
+        <v>1.285</v>
+      </c>
+      <c r="O107">
+        <v>4.75</v>
+      </c>
+      <c r="P107">
+        <v>8.5</v>
+      </c>
+      <c r="Q107">
+        <v>-1.5</v>
+      </c>
+      <c r="R107">
+        <v>1.9</v>
+      </c>
+      <c r="S107">
+        <v>1.9</v>
+      </c>
+      <c r="T107">
+        <v>2.5</v>
+      </c>
+      <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
+        <v>1.85</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>7874786</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45353.45833333334</v>
+      </c>
+      <c r="F108" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" t="s">
+        <v>44</v>
+      </c>
+      <c r="K108">
+        <v>1.533</v>
+      </c>
+      <c r="L108">
+        <v>3.75</v>
+      </c>
+      <c r="M108">
+        <v>5</v>
+      </c>
+      <c r="N108">
+        <v>1.25</v>
+      </c>
+      <c r="O108">
+        <v>4.75</v>
+      </c>
+      <c r="P108">
+        <v>9</v>
+      </c>
+      <c r="Q108">
+        <v>-1.75</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>1.8</v>
+      </c>
+      <c r="T108">
+        <v>2.5</v>
+      </c>
+      <c r="U108">
+        <v>1.825</v>
+      </c>
+      <c r="V108">
+        <v>1.975</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -106,16 +106,16 @@
     <t>Kairat Almaty</t>
   </si>
   <si>
+    <t>Tobol Kostanay</t>
+  </si>
+  <si>
     <t>FC Astana</t>
   </si>
   <si>
-    <t>Tobol Kostanay</t>
+    <t>Ordabasy</t>
   </si>
   <si>
     <t>FK Aktobe</t>
-  </si>
-  <si>
-    <t>Ordabasy</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>FK Kaspyi Aktau</t>
+  </si>
+  <si>
+    <t>FC Elimai Semey</t>
   </si>
   <si>
     <t>FK Zhenys</t>
@@ -519,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC108"/>
+  <dimension ref="A1:AC110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2">
         <v>2.1</v>
@@ -705,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6221684</v>
+        <v>6726053</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -729,46 +732,46 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
+        <v>3.2</v>
+      </c>
+      <c r="M3">
+        <v>2.5</v>
+      </c>
+      <c r="N3">
+        <v>1.8</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
         <v>4.2</v>
       </c>
-      <c r="M3">
-        <v>4.5</v>
-      </c>
-      <c r="N3">
-        <v>1.222</v>
-      </c>
-      <c r="O3">
-        <v>5.5</v>
-      </c>
-      <c r="P3">
-        <v>9</v>
-      </c>
       <c r="Q3">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
+        <v>1.875</v>
+      </c>
+      <c r="V3">
         <v>1.925</v>
       </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
       <c r="W3">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -777,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6726053</v>
+        <v>6221684</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,7 +812,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -818,46 +821,46 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L4">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N4">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P4">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
+        <v>1.925</v>
+      </c>
+      <c r="V4">
         <v>1.875</v>
       </c>
-      <c r="V4">
-        <v>1.925</v>
-      </c>
       <c r="W4">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -866,16 +869,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,73 +901,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5">
+        <v>1.571</v>
+      </c>
+      <c r="L5">
+        <v>3.8</v>
+      </c>
+      <c r="M5">
+        <v>4.75</v>
+      </c>
+      <c r="N5">
+        <v>1.5</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>5.25</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>1.875</v>
+      </c>
+      <c r="S5">
+        <v>1.925</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.9</v>
+      </c>
+      <c r="V5">
+        <v>1.9</v>
+      </c>
+      <c r="W5">
+        <v>0.5</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5">
-        <v>1.727</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
-      <c r="N5">
-        <v>1.333</v>
-      </c>
-      <c r="O5">
-        <v>4.75</v>
-      </c>
-      <c r="P5">
-        <v>6.5</v>
-      </c>
-      <c r="Q5">
-        <v>-1.5</v>
-      </c>
-      <c r="R5">
-        <v>1.975</v>
-      </c>
-      <c r="S5">
-        <v>1.825</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="U5">
-        <v>1.975</v>
-      </c>
-      <c r="V5">
-        <v>1.825</v>
-      </c>
-      <c r="W5">
-        <v>0.333</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M6">
+        <v>3.5</v>
+      </c>
+      <c r="N6">
+        <v>1.333</v>
+      </c>
+      <c r="O6">
         <v>4.75</v>
       </c>
-      <c r="N6">
-        <v>1.5</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1044,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1085,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1174,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>1.55</v>
@@ -1251,7 +1254,7 @@
         <v>45101.375</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -1263,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1352,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>2.25</v>
@@ -1432,7 +1435,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1441,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
         <v>2.4</v>
@@ -1530,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12">
         <v>2.4</v>
@@ -1610,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1619,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>3.75</v>
@@ -1708,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
         <v>2.6</v>
@@ -1785,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1797,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>1.444</v>
@@ -1862,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N16">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1931,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1951,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L17">
+        <v>3.5</v>
+      </c>
+      <c r="M17">
+        <v>1.666</v>
+      </c>
+      <c r="N17">
+        <v>4.2</v>
+      </c>
+      <c r="O17">
         <v>3.4</v>
       </c>
-      <c r="M17">
-        <v>3.1</v>
-      </c>
-      <c r="N17">
-        <v>2.2</v>
-      </c>
-      <c r="O17">
-        <v>3.3</v>
-      </c>
       <c r="P17">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2020,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB17">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2064,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2153,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>2.5</v>
@@ -2233,7 +2236,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2242,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <v>7</v>
@@ -2319,7 +2322,7 @@
         <v>45109.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
@@ -2331,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21">
         <v>1.909</v>
@@ -2408,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2420,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22">
         <v>1.2</v>
@@ -2500,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2509,7 +2512,7 @@
         <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2598,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
         <v>3.25</v>
@@ -2663,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,76 +2678,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>47</v>
       </c>
       <c r="K25">
+        <v>3.6</v>
+      </c>
+      <c r="L25">
+        <v>3.5</v>
+      </c>
+      <c r="M25">
+        <v>1.8</v>
+      </c>
+      <c r="N25">
         <v>3.1</v>
       </c>
-      <c r="L25">
-        <v>3.2</v>
-      </c>
-      <c r="M25">
-        <v>2.1</v>
-      </c>
-      <c r="N25">
-        <v>2.1</v>
-      </c>
       <c r="O25">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
+        <v>2.5</v>
+      </c>
+      <c r="U25">
+        <v>1.75</v>
+      </c>
+      <c r="V25">
         <v>1.95</v>
       </c>
-      <c r="T25">
-        <v>2.25</v>
-      </c>
-      <c r="U25">
-        <v>1.975</v>
-      </c>
-      <c r="V25">
-        <v>1.725</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,76 +2767,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N26">
+        <v>2.1</v>
+      </c>
+      <c r="O26">
         <v>3.1</v>
       </c>
-      <c r="O26">
-        <v>3.5</v>
-      </c>
       <c r="P26">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
+        <v>1.95</v>
+      </c>
+      <c r="T26">
+        <v>2.25</v>
+      </c>
+      <c r="U26">
         <v>1.975</v>
       </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.75</v>
-      </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
+        <v>0.475</v>
+      </c>
+      <c r="AB26">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2856,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2865,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>6</v>
@@ -2954,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
         <v>2.2</v>
@@ -3043,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3120,7 +3123,7 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3132,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>1.285</v>
@@ -3209,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3221,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
         <v>1.444</v>
@@ -3298,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3310,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>1.444</v>
@@ -3399,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
         <v>1.95</v>
@@ -3488,7 +3491,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34">
         <v>1.6</v>
@@ -3565,7 +3568,7 @@
         <v>45130.5</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -3577,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K35">
         <v>1.444</v>
@@ -3657,7 +3660,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3666,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -3755,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
         <v>2.1</v>
@@ -3844,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -3924,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3933,7 +3936,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
         <v>3.6</v>
@@ -4022,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
         <v>1.55</v>
@@ -4111,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41">
         <v>3.1</v>
@@ -4200,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42">
         <v>2.3</v>
@@ -4289,7 +4292,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43">
         <v>2.9</v>
@@ -4366,7 +4369,7 @@
         <v>45144.44791666666</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4378,7 +4381,7 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44">
         <v>1.666</v>
@@ -4455,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4467,7 +4470,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K45">
         <v>2.1</v>
@@ -4556,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K46">
         <v>2.5</v>
@@ -4645,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4734,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48">
         <v>1.8</v>
@@ -4814,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4823,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K49">
         <v>1.5</v>
@@ -4888,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,64 +4903,64 @@
         <v>45151.5</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L50">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N50">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y50">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -4966,10 +4969,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,64 +4992,64 @@
         <v>45151.5</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>47</v>
       </c>
       <c r="K51">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M51">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="N51">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51">
+        <v>1.725</v>
+      </c>
+      <c r="S51">
+        <v>2.075</v>
+      </c>
+      <c r="T51">
+        <v>2.25</v>
+      </c>
+      <c r="U51">
+        <v>1.875</v>
+      </c>
+      <c r="V51">
         <v>1.925</v>
       </c>
-      <c r="S51">
-        <v>1.875</v>
-      </c>
-      <c r="T51">
-        <v>2.5</v>
-      </c>
-      <c r="U51">
-        <v>1.9</v>
-      </c>
-      <c r="V51">
-        <v>1.9</v>
-      </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5055,10 +5058,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5090,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
         <v>1.8</v>
@@ -5179,7 +5182,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53">
         <v>3.2</v>
@@ -5268,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K54">
         <v>2.4</v>
@@ -5357,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>2.4</v>
@@ -5434,7 +5437,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>35</v>
@@ -5446,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
         <v>1.2</v>
@@ -5523,10 +5526,10 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5535,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57">
         <v>1.8</v>
@@ -5612,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -5624,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K58">
         <v>1.95</v>
@@ -5713,7 +5716,7 @@
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K59">
         <v>2.1</v>
@@ -5802,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K60">
         <v>2.5</v>
@@ -5891,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -5980,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>1.666</v>
@@ -6060,7 +6063,7 @@
         <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6069,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
         <v>2.9</v>
@@ -6149,7 +6152,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6158,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K64">
         <v>3.3</v>
@@ -6235,10 +6238,10 @@
         <v>45165.5</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6247,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K65">
         <v>4.75</v>
@@ -6336,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -6425,7 +6428,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67">
         <v>2.3</v>
@@ -6514,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K68">
         <v>2.375</v>
@@ -6591,11 +6594,11 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F69" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s">
         <v>30</v>
       </c>
-      <c r="G69" t="s">
-        <v>31</v>
-      </c>
       <c r="H69">
         <v>2</v>
       </c>
@@ -6603,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>1.727</v>
@@ -6680,11 +6683,11 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
         <v>32</v>
       </c>
-      <c r="G70" t="s">
-        <v>33</v>
-      </c>
       <c r="H70">
         <v>2</v>
       </c>
@@ -6692,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K70">
         <v>2.5</v>
@@ -6781,7 +6784,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71">
         <v>3</v>
@@ -6870,7 +6873,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K72">
         <v>2.25</v>
@@ -6950,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -6959,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K73">
         <v>2.6</v>
@@ -7048,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K74">
         <v>1.8</v>
@@ -7137,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75">
         <v>1.45</v>
@@ -7226,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>1.85</v>
@@ -7315,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77">
         <v>2.7</v>
@@ -7392,7 +7395,7 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
@@ -7404,7 +7407,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K78">
         <v>1.8</v>
@@ -7481,10 +7484,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7493,7 +7496,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K79">
         <v>1.8</v>
@@ -7573,7 +7576,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7582,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>1.95</v>
@@ -7659,7 +7662,7 @@
         <v>45196.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>39</v>
@@ -7671,7 +7674,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K81">
         <v>1.285</v>
@@ -7748,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7760,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
         <v>1.285</v>
@@ -7840,7 +7843,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7849,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K83">
         <v>2.4</v>
@@ -7926,10 +7929,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7938,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K84">
         <v>2.2</v>
@@ -8003,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8018,76 @@
         <v>45200.25</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N85">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
         <v>1.8</v>
-      </c>
-      <c r="S85">
-        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>0.8</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8107,76 @@
         <v>45200.25</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>46</v>
       </c>
       <c r="K86">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N86">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q86">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8196,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8205,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K87">
         <v>5.5</v>
@@ -8294,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
         <v>1.909</v>
@@ -8383,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K89">
         <v>3.75</v>
@@ -8463,7 +8466,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8472,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
         <v>2.7</v>
@@ -8561,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K91">
         <v>2.625</v>
@@ -8626,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8641,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
+        <v>6</v>
+      </c>
+      <c r="N92">
+        <v>1.444</v>
+      </c>
+      <c r="O92">
+        <v>4.2</v>
+      </c>
+      <c r="P92">
         <v>6.5</v>
       </c>
-      <c r="N92">
-        <v>1.333</v>
-      </c>
-      <c r="O92">
-        <v>4.5</v>
-      </c>
-      <c r="P92">
-        <v>7.5</v>
-      </c>
       <c r="Q92">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8730,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N93">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O93">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P93">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X93">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8816,7 +8819,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
         <v>34</v>
@@ -8828,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94">
         <v>1.25</v>
@@ -8908,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8917,7 +8920,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K95">
         <v>2.875</v>
@@ -9006,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K96">
         <v>2.625</v>
@@ -9083,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9095,7 +9098,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K97">
         <v>1.3</v>
@@ -9160,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221753</v>
+        <v>6221815</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9175,76 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>48</v>
+      </c>
+      <c r="K98">
         <v>3</v>
       </c>
-      <c r="J98" t="s">
-        <v>46</v>
-      </c>
-      <c r="K98">
-        <v>2.75</v>
-      </c>
       <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>2.25</v>
+      </c>
+      <c r="N98">
         <v>3.1</v>
       </c>
-      <c r="M98">
-        <v>2.375</v>
-      </c>
-      <c r="N98">
-        <v>2.625</v>
-      </c>
       <c r="O98">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P98">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S98">
+        <v>1.95</v>
+      </c>
+      <c r="T98">
+        <v>2.25</v>
+      </c>
+      <c r="U98">
         <v>1.8</v>
       </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.9</v>
-      </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y98">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9273,7 +9276,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99">
         <v>1.833</v>
@@ -9338,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,76 +9353,76 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N100">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="O100">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P100">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z100">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221814</v>
+        <v>6221816</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L101">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N101">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="O101">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
         <v>1.75</v>
       </c>
-      <c r="S101">
-        <v>2.05</v>
-      </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X101">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221755</v>
+        <v>6221814</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,76 +9531,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N102">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221754</v>
+        <v>6221755</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
         <v>3.5</v>
       </c>
       <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="N103">
+        <v>1.444</v>
+      </c>
+      <c r="O103">
+        <v>4</v>
+      </c>
+      <c r="P103">
+        <v>6</v>
+      </c>
+      <c r="Q103">
+        <v>-1.25</v>
+      </c>
+      <c r="R103">
+        <v>1.975</v>
+      </c>
+      <c r="S103">
+        <v>1.825</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
         <v>1.8</v>
       </c>
-      <c r="N103">
-        <v>5</v>
-      </c>
-      <c r="O103">
-        <v>1.4</v>
-      </c>
-      <c r="P103">
-        <v>5</v>
-      </c>
-      <c r="Q103">
-        <v>0.25</v>
-      </c>
-      <c r="R103">
-        <v>1.7</v>
-      </c>
-      <c r="S103">
-        <v>2.1</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.9</v>
-      </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>0.3999999999999999</v>
+        <v>3</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC103">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221816</v>
+        <v>6221754</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9709,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K104">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N104">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P104">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S104">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9795,10 +9798,10 @@
         <v>45352.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9807,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>1.444</v>
@@ -9887,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9896,7 +9899,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K106">
         <v>3.3</v>
@@ -9961,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7874785</v>
+        <v>7874783</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9970,34 +9973,43 @@
         <v>28</v>
       </c>
       <c r="E107" s="2">
-        <v>45353.35416666666</v>
+        <v>45353.25</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>46</v>
       </c>
       <c r="K107">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N107">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="O107">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P107">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q107">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
         <v>1.9</v>
@@ -10012,22 +10024,28 @@
         <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W107">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA107">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB107">
+        <v>0.95</v>
+      </c>
+      <c r="AC107">
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10035,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7874786</v>
+        <v>7874784</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,64 +10062,257 @@
         <v>28</v>
       </c>
       <c r="E108" s="2">
-        <v>45353.45833333334</v>
+        <v>45353.25</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>48</v>
       </c>
       <c r="K108">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N108">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="O108">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P108">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
+        <v>2</v>
+      </c>
+      <c r="T108">
+        <v>2.25</v>
+      </c>
+      <c r="U108">
+        <v>2</v>
+      </c>
+      <c r="V108">
         <v>1.8</v>
       </c>
-      <c r="T108">
-        <v>2.5</v>
-      </c>
-      <c r="U108">
-        <v>1.825</v>
-      </c>
-      <c r="V108">
-        <v>1.975</v>
-      </c>
       <c r="W108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
         <v>0</v>
       </c>
       <c r="AA108">
+        <v>-0</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>7874785</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45353.35416666666</v>
+      </c>
+      <c r="F109" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" t="s">
+        <v>37</v>
+      </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
+      <c r="I109">
         <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>46</v>
+      </c>
+      <c r="K109">
+        <v>1.4</v>
+      </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+      <c r="M109">
+        <v>7</v>
+      </c>
+      <c r="N109">
+        <v>1.285</v>
+      </c>
+      <c r="O109">
+        <v>4.75</v>
+      </c>
+      <c r="P109">
+        <v>8.5</v>
+      </c>
+      <c r="Q109">
+        <v>-1.5</v>
+      </c>
+      <c r="R109">
+        <v>1.9</v>
+      </c>
+      <c r="S109">
+        <v>1.9</v>
+      </c>
+      <c r="T109">
+        <v>2.5</v>
+      </c>
+      <c r="U109">
+        <v>1.975</v>
+      </c>
+      <c r="V109">
+        <v>1.825</v>
+      </c>
+      <c r="W109">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X109">
+        <v>-1</v>
+      </c>
+      <c r="Y109">
+        <v>-1</v>
+      </c>
+      <c r="Z109">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA109">
+        <v>-1</v>
+      </c>
+      <c r="AB109">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC109">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>7874786</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45353.45833333334</v>
+      </c>
+      <c r="F110" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>46</v>
+      </c>
+      <c r="K110">
+        <v>1.533</v>
+      </c>
+      <c r="L110">
+        <v>3.75</v>
+      </c>
+      <c r="M110">
+        <v>5</v>
+      </c>
+      <c r="N110">
+        <v>1.166</v>
+      </c>
+      <c r="O110">
+        <v>6</v>
+      </c>
+      <c r="P110">
+        <v>12</v>
+      </c>
+      <c r="Q110">
+        <v>-2</v>
+      </c>
+      <c r="R110">
+        <v>2</v>
+      </c>
+      <c r="S110">
+        <v>1.8</v>
+      </c>
+      <c r="T110">
+        <v>2.75</v>
+      </c>
+      <c r="U110">
+        <v>1.825</v>
+      </c>
+      <c r="V110">
+        <v>1.975</v>
+      </c>
+      <c r="W110">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
+        <v>-1</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>-0</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC110"/>
+  <dimension ref="A1:AC114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,58 +1254,58 @@
         <v>45101.375</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L9">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N9">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O9">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P9">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q9">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1314,13 +1314,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,58 +1343,58 @@
         <v>45101.375</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M10">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O10">
+        <v>5.5</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>-2</v>
+      </c>
+      <c r="R10">
+        <v>1.975</v>
+      </c>
+      <c r="S10">
+        <v>1.825</v>
+      </c>
+      <c r="T10">
         <v>3</v>
       </c>
-      <c r="P10">
-        <v>3.2</v>
-      </c>
-      <c r="Q10">
-        <v>-0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.875</v>
-      </c>
-      <c r="S10">
-        <v>1.925</v>
-      </c>
-      <c r="T10">
-        <v>2.25</v>
-      </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1403,13 +1403,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6221729</v>
+        <v>6221732</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,49 +6060,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N63">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6111,16 +6111,16 @@
         <v>1.9</v>
       </c>
       <c r="W63">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6137,7 +6137,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6221732</v>
+        <v>6221729</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6149,49 +6149,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K64">
+        <v>2.9</v>
+      </c>
+      <c r="L64">
         <v>3.3</v>
       </c>
-      <c r="L64">
-        <v>3.25</v>
-      </c>
       <c r="M64">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N64">
+        <v>1.75</v>
+      </c>
+      <c r="O64">
         <v>3.5</v>
       </c>
-      <c r="O64">
-        <v>3.25</v>
-      </c>
       <c r="P64">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6200,16 +6200,16 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X64">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45200.25</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N85">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O85">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,76 +8107,76 @@
         <v>45200.25</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N86">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
         <v>1.8</v>
-      </c>
-      <c r="S86">
-        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
         <v>0.8</v>
       </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N92">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P92">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X92">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8730,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
+        <v>6</v>
+      </c>
+      <c r="N93">
+        <v>1.444</v>
+      </c>
+      <c r="O93">
+        <v>4.2</v>
+      </c>
+      <c r="P93">
         <v>6.5</v>
       </c>
-      <c r="N93">
-        <v>1.333</v>
-      </c>
-      <c r="O93">
-        <v>4.5</v>
-      </c>
-      <c r="P93">
-        <v>7.5</v>
-      </c>
       <c r="Q93">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,76 +9175,76 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98" t="s">
+        <v>47</v>
+      </c>
+      <c r="K98">
+        <v>2.75</v>
+      </c>
+      <c r="L98">
+        <v>3.1</v>
+      </c>
+      <c r="M98">
+        <v>2.375</v>
+      </c>
+      <c r="N98">
+        <v>2.625</v>
+      </c>
+      <c r="O98">
+        <v>3.2</v>
+      </c>
+      <c r="P98">
+        <v>2.45</v>
+      </c>
+      <c r="Q98">
         <v>0</v>
       </c>
-      <c r="J98" t="s">
-        <v>48</v>
-      </c>
-      <c r="K98">
-        <v>3</v>
-      </c>
-      <c r="L98">
-        <v>3</v>
-      </c>
-      <c r="M98">
-        <v>2.25</v>
-      </c>
-      <c r="N98">
-        <v>3.1</v>
-      </c>
-      <c r="O98">
-        <v>3.1</v>
-      </c>
-      <c r="P98">
-        <v>2.15</v>
-      </c>
-      <c r="Q98">
-        <v>0.25</v>
-      </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z98">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221753</v>
+        <v>6221815</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,76 +9353,76 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>48</v>
+      </c>
+      <c r="K100">
         <v>3</v>
       </c>
-      <c r="J100" t="s">
-        <v>47</v>
-      </c>
-      <c r="K100">
-        <v>2.75</v>
-      </c>
       <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>2.25</v>
+      </c>
+      <c r="N100">
         <v>3.1</v>
       </c>
-      <c r="M100">
-        <v>2.375</v>
-      </c>
-      <c r="N100">
-        <v>2.625</v>
-      </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P100">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
         <v>1.8</v>
       </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>1.9</v>
-      </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y100">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -10313,6 +10313,362 @@
       </c>
       <c r="AC110">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>7914794</v>
+      </c>
+      <c r="C111" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45356.375</v>
+      </c>
+      <c r="F111" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" t="s">
+        <v>31</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111" t="s">
+        <v>47</v>
+      </c>
+      <c r="K111">
+        <v>6.5</v>
+      </c>
+      <c r="L111">
+        <v>4</v>
+      </c>
+      <c r="M111">
+        <v>1.4</v>
+      </c>
+      <c r="N111">
+        <v>7</v>
+      </c>
+      <c r="O111">
+        <v>3.75</v>
+      </c>
+      <c r="P111">
+        <v>1.444</v>
+      </c>
+      <c r="Q111">
+        <v>1.25</v>
+      </c>
+      <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>2.25</v>
+      </c>
+      <c r="U111">
+        <v>1.8</v>
+      </c>
+      <c r="V111">
+        <v>2</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>0.444</v>
+      </c>
+      <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
+        <v>1</v>
+      </c>
+      <c r="AB111">
+        <v>-0.5</v>
+      </c>
+      <c r="AC111">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>7874788</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45357.27083333334</v>
+      </c>
+      <c r="F112" t="s">
+        <v>35</v>
+      </c>
+      <c r="G112" t="s">
+        <v>41</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112" t="s">
+        <v>47</v>
+      </c>
+      <c r="K112">
+        <v>2.375</v>
+      </c>
+      <c r="L112">
+        <v>3.2</v>
+      </c>
+      <c r="M112">
+        <v>2.625</v>
+      </c>
+      <c r="N112">
+        <v>2.55</v>
+      </c>
+      <c r="O112">
+        <v>3</v>
+      </c>
+      <c r="P112">
+        <v>2.55</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>1.875</v>
+      </c>
+      <c r="S112">
+        <v>1.925</v>
+      </c>
+      <c r="T112">
+        <v>1.75</v>
+      </c>
+      <c r="U112">
+        <v>1.825</v>
+      </c>
+      <c r="V112">
+        <v>1.975</v>
+      </c>
+      <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>1.55</v>
+      </c>
+      <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
+        <v>0.925</v>
+      </c>
+      <c r="AB112">
+        <v>0.825</v>
+      </c>
+      <c r="AC112">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>7874789</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45357.375</v>
+      </c>
+      <c r="F113" t="s">
+        <v>36</v>
+      </c>
+      <c r="G113" t="s">
+        <v>32</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>48</v>
+      </c>
+      <c r="K113">
+        <v>4.333</v>
+      </c>
+      <c r="L113">
+        <v>3.25</v>
+      </c>
+      <c r="M113">
+        <v>1.727</v>
+      </c>
+      <c r="N113">
+        <v>5.75</v>
+      </c>
+      <c r="O113">
+        <v>3.3</v>
+      </c>
+      <c r="P113">
+        <v>1.55</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>1.8</v>
+      </c>
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
+        <v>2.025</v>
+      </c>
+      <c r="V113">
+        <v>1.775</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>2.3</v>
+      </c>
+      <c r="Y113">
+        <v>-1</v>
+      </c>
+      <c r="Z113">
+        <v>0.8</v>
+      </c>
+      <c r="AA113">
+        <v>-1</v>
+      </c>
+      <c r="AB113">
+        <v>-0.5</v>
+      </c>
+      <c r="AC113">
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>7874790</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45357.47916666666</v>
+      </c>
+      <c r="F114" t="s">
+        <v>30</v>
+      </c>
+      <c r="G114" t="s">
+        <v>43</v>
+      </c>
+      <c r="H114">
+        <v>4</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114" t="s">
+        <v>46</v>
+      </c>
+      <c r="K114">
+        <v>1.666</v>
+      </c>
+      <c r="L114">
+        <v>3.4</v>
+      </c>
+      <c r="M114">
+        <v>4.5</v>
+      </c>
+      <c r="N114">
+        <v>1.5</v>
+      </c>
+      <c r="O114">
+        <v>3.6</v>
+      </c>
+      <c r="P114">
+        <v>5.75</v>
+      </c>
+      <c r="Q114">
+        <v>-1</v>
+      </c>
+      <c r="R114">
+        <v>1.9</v>
+      </c>
+      <c r="S114">
+        <v>1.9</v>
+      </c>
+      <c r="T114">
+        <v>2.25</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
+        <v>0.5</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
+        <v>0.825</v>
+      </c>
+      <c r="AC114">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -106,16 +106,16 @@
     <t>Kairat Almaty</t>
   </si>
   <si>
+    <t>FC Astana</t>
+  </si>
+  <si>
     <t>Tobol Kostanay</t>
   </si>
   <si>
-    <t>FC Astana</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
     <t>Ordabasy</t>
-  </si>
-  <si>
-    <t>FK Aktobe</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC114"/>
+  <dimension ref="A1:AC116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6726053</v>
+        <v>6221684</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -735,43 +735,43 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N3">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P3">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
+        <v>1.925</v>
+      </c>
+      <c r="V3">
         <v>1.875</v>
       </c>
-      <c r="V3">
-        <v>1.925</v>
-      </c>
       <c r="W3">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6221684</v>
+        <v>6726053</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,7 +812,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -824,43 +824,43 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
+        <v>3.2</v>
+      </c>
+      <c r="M4">
+        <v>2.5</v>
+      </c>
+      <c r="N4">
+        <v>1.8</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
         <v>4.2</v>
       </c>
-      <c r="M4">
-        <v>4.5</v>
-      </c>
-      <c r="N4">
-        <v>1.222</v>
-      </c>
-      <c r="O4">
-        <v>5.5</v>
-      </c>
-      <c r="P4">
-        <v>9</v>
-      </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
+        <v>1.875</v>
+      </c>
+      <c r="V4">
         <v>1.925</v>
       </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
       <c r="W4">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -869,16 +869,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M5">
+        <v>3.5</v>
+      </c>
+      <c r="N5">
+        <v>1.333</v>
+      </c>
+      <c r="O5">
         <v>4.75</v>
       </c>
-      <c r="N5">
-        <v>1.5</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L6">
+        <v>3.8</v>
+      </c>
+      <c r="M6">
+        <v>4.75</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>3.5</v>
-      </c>
-      <c r="N6">
-        <v>1.333</v>
-      </c>
-      <c r="O6">
-        <v>4.75</v>
-      </c>
       <c r="P6">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,58 +1254,58 @@
         <v>45101.375</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M9">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N9">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O9">
+        <v>5.5</v>
+      </c>
+      <c r="P9">
+        <v>11</v>
+      </c>
+      <c r="Q9">
+        <v>-2</v>
+      </c>
+      <c r="R9">
+        <v>1.975</v>
+      </c>
+      <c r="S9">
+        <v>1.825</v>
+      </c>
+      <c r="T9">
         <v>3</v>
       </c>
-      <c r="P9">
-        <v>3.2</v>
-      </c>
-      <c r="Q9">
-        <v>-0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.875</v>
-      </c>
-      <c r="S9">
-        <v>1.925</v>
-      </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1314,13 +1314,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,58 +1343,58 @@
         <v>45101.375</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L10">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N10">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O10">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q10">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1403,13 +1403,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1435,7 +1435,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1613,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
+        <v>1.666</v>
+      </c>
+      <c r="N16">
+        <v>4.2</v>
+      </c>
+      <c r="O16">
         <v>3.4</v>
       </c>
-      <c r="M16">
-        <v>3.1</v>
-      </c>
-      <c r="N16">
-        <v>2.2</v>
-      </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
       <c r="P16">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB16">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N17">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O17">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2236,7 +2236,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>45109.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
@@ -2411,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,76 +2678,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L25">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N25">
+        <v>2.1</v>
+      </c>
+      <c r="O25">
         <v>3.1</v>
       </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
       <c r="P25">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
+        <v>1.95</v>
+      </c>
+      <c r="T25">
+        <v>2.25</v>
+      </c>
+      <c r="U25">
         <v>1.975</v>
       </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
-      <c r="U25">
-        <v>1.75</v>
-      </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y25">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
+        <v>0.475</v>
+      </c>
+      <c r="AB25">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB25">
-        <v>-1</v>
-      </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,76 +2767,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
+        <v>3.6</v>
+      </c>
+      <c r="L26">
+        <v>3.5</v>
+      </c>
+      <c r="M26">
+        <v>1.8</v>
+      </c>
+      <c r="N26">
         <v>3.1</v>
       </c>
-      <c r="L26">
-        <v>3.2</v>
-      </c>
-      <c r="M26">
-        <v>2.1</v>
-      </c>
-      <c r="N26">
-        <v>2.1</v>
-      </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>1.75</v>
+      </c>
+      <c r="V26">
         <v>1.95</v>
       </c>
-      <c r="T26">
-        <v>2.25</v>
-      </c>
-      <c r="U26">
-        <v>1.975</v>
-      </c>
-      <c r="V26">
-        <v>1.725</v>
-      </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3123,7 +3123,7 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3212,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3568,7 +3568,7 @@
         <v>45130.5</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -3660,7 +3660,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6221712</v>
+        <v>6221708</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.5</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N37">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P37">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
+        <v>1.75</v>
+      </c>
+      <c r="S37">
         <v>1.95</v>
       </c>
-      <c r="S37">
-        <v>1.85</v>
-      </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221708</v>
+        <v>6221712</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45136.5</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K38">
+        <v>2.1</v>
+      </c>
+      <c r="L38">
+        <v>3.25</v>
+      </c>
+      <c r="M38">
         <v>3</v>
       </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>2.05</v>
-      </c>
       <c r="N38">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P38">
+        <v>2.9</v>
+      </c>
+      <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
         <v>1.95</v>
       </c>
-      <c r="Q38">
-        <v>0.5</v>
-      </c>
-      <c r="R38">
-        <v>1.75</v>
-      </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4369,7 +4369,7 @@
         <v>45144.44791666666</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4458,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4817,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,64 +4903,64 @@
         <v>45151.5</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M50">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="N50">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50">
+        <v>1.725</v>
+      </c>
+      <c r="S50">
+        <v>2.075</v>
+      </c>
+      <c r="T50">
+        <v>2.25</v>
+      </c>
+      <c r="U50">
+        <v>1.875</v>
+      </c>
+      <c r="V50">
         <v>1.925</v>
       </c>
-      <c r="S50">
-        <v>1.875</v>
-      </c>
-      <c r="T50">
-        <v>2.5</v>
-      </c>
-      <c r="U50">
-        <v>1.9</v>
-      </c>
-      <c r="V50">
-        <v>1.9</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -4969,10 +4969,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,64 +4992,64 @@
         <v>45151.5</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N51">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y51">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5437,7 +5437,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
         <v>35</v>
@@ -5526,10 +5526,10 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5615,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6063,7 +6063,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6238,10 +6238,10 @@
         <v>45165.5</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6594,10 +6594,10 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
         <v>31</v>
-      </c>
-      <c r="G69" t="s">
-        <v>30</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6683,10 +6683,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
         <v>33</v>
-      </c>
-      <c r="G70" t="s">
-        <v>32</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
@@ -7484,10 +7484,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7662,7 +7662,7 @@
         <v>45196.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>39</v>
@@ -7751,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7843,7 +7843,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7929,10 +7929,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45200.25</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N85">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
         <v>1.8</v>
-      </c>
-      <c r="S85">
-        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>0.8</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,76 +8107,76 @@
         <v>45200.25</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K86">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N86">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q86">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8466,7 +8466,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8730,7 +8730,7 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
         <v>42</v>
@@ -8819,7 +8819,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
         <v>34</v>
@@ -8911,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9178,7 +9178,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221816</v>
+        <v>6221814</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>48</v>
+      </c>
+      <c r="K101">
+        <v>2.3</v>
+      </c>
+      <c r="L101">
+        <v>3.1</v>
+      </c>
+      <c r="M101">
+        <v>2.8</v>
+      </c>
+      <c r="N101">
+        <v>2.3</v>
+      </c>
+      <c r="O101">
+        <v>3.1</v>
+      </c>
+      <c r="P101">
+        <v>2.8</v>
+      </c>
+      <c r="Q101">
         <v>0</v>
       </c>
-      <c r="J101" t="s">
-        <v>46</v>
-      </c>
-      <c r="K101">
-        <v>3.4</v>
-      </c>
-      <c r="L101">
-        <v>3.4</v>
-      </c>
-      <c r="M101">
-        <v>1.909</v>
-      </c>
-      <c r="N101">
-        <v>4.2</v>
-      </c>
-      <c r="O101">
-        <v>4</v>
-      </c>
-      <c r="P101">
-        <v>1.571</v>
-      </c>
-      <c r="Q101">
-        <v>0.75</v>
-      </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S101">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221814</v>
+        <v>6221754</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,10 +9531,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9546,61 +9546,61 @@
         <v>48</v>
       </c>
       <c r="K102">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L102">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N102">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O102">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="P102">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S102">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T102">
         <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
         <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9620,7 +9620,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221754</v>
+        <v>6221816</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,76 +9709,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N104">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O104">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R104">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X104">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>45352.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
         <v>44</v>
@@ -9890,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10154,7 +10154,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10243,7 +10243,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
         <v>45</v>
@@ -10335,7 +10335,7 @@
         <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10599,7 +10599,7 @@
         <v>45357.47916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>43</v>
@@ -10669,6 +10669,184 @@
       </c>
       <c r="AC114">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>7873760</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45358.27083333334</v>
+      </c>
+      <c r="F115" t="s">
+        <v>44</v>
+      </c>
+      <c r="G115" t="s">
+        <v>37</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>46</v>
+      </c>
+      <c r="K115">
+        <v>1.8</v>
+      </c>
+      <c r="L115">
+        <v>3.5</v>
+      </c>
+      <c r="M115">
+        <v>3.6</v>
+      </c>
+      <c r="N115">
+        <v>2.2</v>
+      </c>
+      <c r="O115">
+        <v>3.25</v>
+      </c>
+      <c r="P115">
+        <v>2.875</v>
+      </c>
+      <c r="Q115">
+        <v>-0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.925</v>
+      </c>
+      <c r="S115">
+        <v>1.875</v>
+      </c>
+      <c r="T115">
+        <v>2.5</v>
+      </c>
+      <c r="U115">
+        <v>1.95</v>
+      </c>
+      <c r="V115">
+        <v>1.85</v>
+      </c>
+      <c r="W115">
+        <v>1.2</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.925</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
+        <v>-1</v>
+      </c>
+      <c r="AC115">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>7874791</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45358.375</v>
+      </c>
+      <c r="F116" t="s">
+        <v>45</v>
+      </c>
+      <c r="G116" t="s">
+        <v>29</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>48</v>
+      </c>
+      <c r="K116">
+        <v>2.9</v>
+      </c>
+      <c r="L116">
+        <v>3.1</v>
+      </c>
+      <c r="M116">
+        <v>2.25</v>
+      </c>
+      <c r="N116">
+        <v>4.75</v>
+      </c>
+      <c r="O116">
+        <v>3.2</v>
+      </c>
+      <c r="P116">
+        <v>1.666</v>
+      </c>
+      <c r="Q116">
+        <v>0.75</v>
+      </c>
+      <c r="R116">
+        <v>1.85</v>
+      </c>
+      <c r="S116">
+        <v>1.95</v>
+      </c>
+      <c r="T116">
+        <v>2.5</v>
+      </c>
+      <c r="U116">
+        <v>1.95</v>
+      </c>
+      <c r="V116">
+        <v>1.75</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
+        <v>2.2</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA116">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -112,10 +112,10 @@
     <t>Tobol Kostanay</t>
   </si>
   <si>
-    <t>FK Aktobe</t>
+    <t>Ordabasy</t>
   </si>
   <si>
-    <t>Ordabasy</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L5">
+        <v>3.8</v>
+      </c>
+      <c r="M5">
+        <v>4.75</v>
+      </c>
+      <c r="N5">
+        <v>1.5</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
-      <c r="N5">
-        <v>1.333</v>
-      </c>
-      <c r="O5">
-        <v>4.75</v>
-      </c>
       <c r="P5">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M6">
+        <v>3.5</v>
+      </c>
+      <c r="N6">
+        <v>1.333</v>
+      </c>
+      <c r="O6">
         <v>4.75</v>
       </c>
-      <c r="N6">
-        <v>1.5</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N16">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L17">
+        <v>3.5</v>
+      </c>
+      <c r="M17">
+        <v>1.666</v>
+      </c>
+      <c r="N17">
+        <v>4.2</v>
+      </c>
+      <c r="O17">
         <v>3.4</v>
       </c>
-      <c r="M17">
-        <v>3.1</v>
-      </c>
-      <c r="N17">
-        <v>2.2</v>
-      </c>
-      <c r="O17">
-        <v>3.3</v>
-      </c>
       <c r="P17">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB17">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2411,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6221708</v>
+        <v>6221712</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.5</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K37">
+        <v>2.1</v>
+      </c>
+      <c r="L37">
+        <v>3.25</v>
+      </c>
+      <c r="M37">
         <v>3</v>
       </c>
-      <c r="L37">
-        <v>3.4</v>
-      </c>
-      <c r="M37">
-        <v>2.05</v>
-      </c>
       <c r="N37">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P37">
+        <v>2.9</v>
+      </c>
+      <c r="Q37">
+        <v>-0.25</v>
+      </c>
+      <c r="R37">
         <v>1.95</v>
       </c>
-      <c r="Q37">
-        <v>0.5</v>
-      </c>
-      <c r="R37">
-        <v>1.75</v>
-      </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X37">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221712</v>
+        <v>6221708</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45136.5</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O38">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
+        <v>1.75</v>
+      </c>
+      <c r="S38">
         <v>1.95</v>
       </c>
-      <c r="S38">
-        <v>1.85</v>
-      </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,64 +4903,64 @@
         <v>45151.5</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L50">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N50">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y50">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -4969,10 +4969,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,64 +4992,64 @@
         <v>45151.5</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M51">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="N51">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51">
+        <v>1.725</v>
+      </c>
+      <c r="S51">
+        <v>2.075</v>
+      </c>
+      <c r="T51">
+        <v>2.25</v>
+      </c>
+      <c r="U51">
+        <v>1.875</v>
+      </c>
+      <c r="V51">
         <v>1.925</v>
       </c>
-      <c r="S51">
-        <v>1.875</v>
-      </c>
-      <c r="T51">
-        <v>2.5</v>
-      </c>
-      <c r="U51">
-        <v>1.9</v>
-      </c>
-      <c r="V51">
-        <v>1.9</v>
-      </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5526,7 +5526,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -5615,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6063,7 +6063,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6241,7 +6241,7 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6683,10 +6683,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
         <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>30</v>
@@ -7751,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7929,7 +7929,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
         <v>30</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45200.25</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N85">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O85">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,76 +8107,76 @@
         <v>45200.25</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N86">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
         <v>1.8</v>
-      </c>
-      <c r="S86">
-        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
         <v>0.8</v>
       </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8273,7 +8273,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6221810</v>
+        <v>6221811</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8285,76 +8285,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L88">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
+        <v>1.8</v>
+      </c>
+      <c r="N88">
         <v>3.8</v>
       </c>
-      <c r="N88">
-        <v>2</v>
-      </c>
       <c r="O88">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8362,7 +8362,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6221811</v>
+        <v>6221810</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8374,76 +8374,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M89">
+        <v>3.8</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89">
+        <v>3.1</v>
+      </c>
+      <c r="P89">
+        <v>3.5</v>
+      </c>
+      <c r="Q89">
+        <v>-0.5</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
         <v>1.8</v>
       </c>
-      <c r="N89">
-        <v>3.8</v>
-      </c>
-      <c r="O89">
-        <v>3.6</v>
-      </c>
-      <c r="P89">
-        <v>1.75</v>
-      </c>
-      <c r="Q89">
-        <v>0.75</v>
-      </c>
-      <c r="R89">
-        <v>1.8</v>
-      </c>
-      <c r="S89">
-        <v>2</v>
-      </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V89">
         <v>1.975</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X89">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8911,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,55 +9175,55 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L98">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N98">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O98">
         <v>3.2</v>
       </c>
       <c r="P98">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9232,19 +9232,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,56 +9264,56 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N99">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O99">
         <v>3.2</v>
       </c>
       <c r="P99">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>1.8</v>
+      </c>
+      <c r="T99">
+        <v>2.5</v>
+      </c>
+      <c r="U99">
         <v>1.9</v>
       </c>
-      <c r="S99">
+      <c r="V99">
         <v>1.9</v>
       </c>
-      <c r="T99">
-        <v>2</v>
-      </c>
-      <c r="U99">
-        <v>1.775</v>
-      </c>
-      <c r="V99">
-        <v>2.025</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
@@ -9321,19 +9321,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
+        <v>0.8</v>
+      </c>
+      <c r="AB99">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
       <c r="AC99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221814</v>
+        <v>6221816</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L101">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N101">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="O101">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
         <v>1.75</v>
       </c>
-      <c r="S101">
-        <v>2.05</v>
-      </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X101">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221754</v>
+        <v>6221814</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,10 +9531,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9546,61 +9546,61 @@
         <v>48</v>
       </c>
       <c r="K102">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M102">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N102">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="O102">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
         <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>0.3999999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
         <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.45</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9620,7 +9620,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221816</v>
+        <v>6221754</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,76 +9709,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K104">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N104">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P104">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S104">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10154,7 +10154,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10513,7 +10513,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>1</v>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -106,10 +106,10 @@
     <t>Kairat Almaty</t>
   </si>
   <si>
-    <t>FC Astana</t>
+    <t>Tobol Kostanay</t>
   </si>
   <si>
-    <t>Tobol Kostanay</t>
+    <t>FC Astana</t>
   </si>
   <si>
     <t>Ordabasy</t>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6221684</v>
+        <v>6726053</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -735,43 +735,43 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
+        <v>3.2</v>
+      </c>
+      <c r="M3">
+        <v>2.5</v>
+      </c>
+      <c r="N3">
+        <v>1.8</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
         <v>4.2</v>
       </c>
-      <c r="M3">
-        <v>4.5</v>
-      </c>
-      <c r="N3">
-        <v>1.222</v>
-      </c>
-      <c r="O3">
-        <v>5.5</v>
-      </c>
-      <c r="P3">
-        <v>9</v>
-      </c>
       <c r="Q3">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
+        <v>1.875</v>
+      </c>
+      <c r="V3">
         <v>1.925</v>
       </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
       <c r="W3">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6726053</v>
+        <v>6221684</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,7 +812,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -824,43 +824,43 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L4">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N4">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P4">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
+        <v>1.925</v>
+      </c>
+      <c r="V4">
         <v>1.875</v>
       </c>
-      <c r="V4">
-        <v>1.925</v>
-      </c>
       <c r="W4">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -869,16 +869,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,58 +1254,58 @@
         <v>45101.375</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L9">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N9">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O9">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P9">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q9">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1314,13 +1314,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,58 +1343,58 @@
         <v>45101.375</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M10">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O10">
+        <v>5.5</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>-2</v>
+      </c>
+      <c r="R10">
+        <v>1.975</v>
+      </c>
+      <c r="S10">
+        <v>1.825</v>
+      </c>
+      <c r="T10">
         <v>3</v>
       </c>
-      <c r="P10">
-        <v>3.2</v>
-      </c>
-      <c r="Q10">
-        <v>-0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.875</v>
-      </c>
-      <c r="S10">
-        <v>1.925</v>
-      </c>
-      <c r="T10">
-        <v>2.25</v>
-      </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1403,13 +1403,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1435,7 +1435,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
+        <v>1.666</v>
+      </c>
+      <c r="N16">
+        <v>4.2</v>
+      </c>
+      <c r="O16">
         <v>3.4</v>
       </c>
-      <c r="M16">
-        <v>3.1</v>
-      </c>
-      <c r="N16">
-        <v>2.2</v>
-      </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
       <c r="P16">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB16">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N17">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O17">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2236,7 +2236,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>45109.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
@@ -3123,7 +3123,7 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3568,7 +3568,7 @@
         <v>45130.5</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -3660,7 +3660,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6221712</v>
+        <v>6221708</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.5</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N37">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P37">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
+        <v>1.75</v>
+      </c>
+      <c r="S37">
         <v>1.95</v>
       </c>
-      <c r="S37">
-        <v>1.85</v>
-      </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221708</v>
+        <v>6221712</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45136.5</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K38">
+        <v>2.1</v>
+      </c>
+      <c r="L38">
+        <v>3.25</v>
+      </c>
+      <c r="M38">
         <v>3</v>
       </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>2.05</v>
-      </c>
       <c r="N38">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P38">
+        <v>2.9</v>
+      </c>
+      <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
         <v>1.95</v>
       </c>
-      <c r="Q38">
-        <v>0.5</v>
-      </c>
-      <c r="R38">
-        <v>1.75</v>
-      </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4369,7 +4369,7 @@
         <v>45144.44791666666</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4817,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,64 +4903,64 @@
         <v>45151.5</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M50">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="N50">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50">
+        <v>1.725</v>
+      </c>
+      <c r="S50">
+        <v>2.075</v>
+      </c>
+      <c r="T50">
+        <v>2.25</v>
+      </c>
+      <c r="U50">
+        <v>1.875</v>
+      </c>
+      <c r="V50">
         <v>1.925</v>
       </c>
-      <c r="S50">
-        <v>1.875</v>
-      </c>
-      <c r="T50">
-        <v>2.5</v>
-      </c>
-      <c r="U50">
-        <v>1.9</v>
-      </c>
-      <c r="V50">
-        <v>1.9</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -4969,10 +4969,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,64 +4992,64 @@
         <v>45151.5</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N51">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y51">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5437,7 +5437,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>35</v>
@@ -5529,7 +5529,7 @@
         <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6221732</v>
+        <v>6221729</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,49 +6060,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K63">
+        <v>2.9</v>
+      </c>
+      <c r="L63">
         <v>3.3</v>
       </c>
-      <c r="L63">
-        <v>3.25</v>
-      </c>
       <c r="M63">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N63">
+        <v>1.75</v>
+      </c>
+      <c r="O63">
         <v>3.5</v>
       </c>
-      <c r="O63">
-        <v>3.25</v>
-      </c>
       <c r="P63">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6111,16 +6111,16 @@
         <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X63">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6137,7 +6137,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6221729</v>
+        <v>6221732</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6149,49 +6149,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K64">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6200,16 +6200,16 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6238,7 +6238,7 @@
         <v>45165.5</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -6594,10 +6594,10 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F69" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s">
         <v>30</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -7395,7 +7395,7 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
@@ -7487,7 +7487,7 @@
         <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7662,7 +7662,7 @@
         <v>45196.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>39</v>
@@ -7843,7 +7843,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7932,7 +7932,7 @@
         <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8466,7 +8466,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
+        <v>6</v>
+      </c>
+      <c r="N92">
+        <v>1.444</v>
+      </c>
+      <c r="O92">
+        <v>4.2</v>
+      </c>
+      <c r="P92">
         <v>6.5</v>
       </c>
-      <c r="N92">
-        <v>1.333</v>
-      </c>
-      <c r="O92">
-        <v>4.5</v>
-      </c>
-      <c r="P92">
-        <v>7.5</v>
-      </c>
       <c r="Q92">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8730,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N93">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O93">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P93">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X93">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8819,7 +8819,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
         <v>34</v>
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,56 +9175,56 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L98">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N98">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O98">
         <v>3.2</v>
       </c>
       <c r="P98">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>1.8</v>
+      </c>
+      <c r="T98">
+        <v>2.5</v>
+      </c>
+      <c r="U98">
         <v>1.9</v>
       </c>
-      <c r="S98">
+      <c r="V98">
         <v>1.9</v>
       </c>
-      <c r="T98">
-        <v>2</v>
-      </c>
-      <c r="U98">
-        <v>1.775</v>
-      </c>
-      <c r="V98">
-        <v>2.025</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
@@ -9232,19 +9232,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
+        <v>0.8</v>
+      </c>
+      <c r="AB98">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221753</v>
+        <v>6221815</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,76 +9264,76 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>48</v>
+      </c>
+      <c r="K99">
         <v>3</v>
       </c>
-      <c r="J99" t="s">
-        <v>47</v>
-      </c>
-      <c r="K99">
-        <v>2.75</v>
-      </c>
       <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>2.25</v>
+      </c>
+      <c r="N99">
         <v>3.1</v>
       </c>
-      <c r="M99">
-        <v>2.375</v>
-      </c>
-      <c r="N99">
-        <v>2.625</v>
-      </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P99">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
+        <v>1.95</v>
+      </c>
+      <c r="T99">
+        <v>2.25</v>
+      </c>
+      <c r="U99">
         <v>1.8</v>
       </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y99">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221815</v>
+        <v>6221752</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,76 +9353,76 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K100">
+        <v>1.833</v>
+      </c>
+      <c r="L100">
+        <v>3.2</v>
+      </c>
+      <c r="M100">
+        <v>4</v>
+      </c>
+      <c r="N100">
+        <v>1.85</v>
+      </c>
+      <c r="O100">
+        <v>3.2</v>
+      </c>
+      <c r="P100">
+        <v>4</v>
+      </c>
+      <c r="Q100">
+        <v>-0.5</v>
+      </c>
+      <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
+        <v>1.9</v>
+      </c>
+      <c r="T100">
+        <v>2</v>
+      </c>
+      <c r="U100">
+        <v>1.775</v>
+      </c>
+      <c r="V100">
+        <v>2.025</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
         <v>3</v>
       </c>
-      <c r="L100">
-        <v>3</v>
-      </c>
-      <c r="M100">
-        <v>2.25</v>
-      </c>
-      <c r="N100">
-        <v>3.1</v>
-      </c>
-      <c r="O100">
-        <v>3.1</v>
-      </c>
-      <c r="P100">
-        <v>2.15</v>
-      </c>
-      <c r="Q100">
-        <v>0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.85</v>
-      </c>
-      <c r="S100">
-        <v>1.95</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
-      <c r="U100">
-        <v>1.8</v>
-      </c>
-      <c r="V100">
-        <v>2</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>2.1</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
       <c r="Z100">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221755</v>
+        <v>6221754</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
         <v>3.5</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N103">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221754</v>
+        <v>6221755</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,76 +9709,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>48</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
         <v>3.5</v>
       </c>
       <c r="M104">
+        <v>4</v>
+      </c>
+      <c r="N104">
+        <v>1.444</v>
+      </c>
+      <c r="O104">
+        <v>4</v>
+      </c>
+      <c r="P104">
+        <v>6</v>
+      </c>
+      <c r="Q104">
+        <v>-1.25</v>
+      </c>
+      <c r="R104">
+        <v>1.975</v>
+      </c>
+      <c r="S104">
+        <v>1.825</v>
+      </c>
+      <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
         <v>1.8</v>
       </c>
-      <c r="N104">
-        <v>5</v>
-      </c>
-      <c r="O104">
-        <v>1.4</v>
-      </c>
-      <c r="P104">
-        <v>5</v>
-      </c>
-      <c r="Q104">
-        <v>0.25</v>
-      </c>
-      <c r="R104">
-        <v>1.7</v>
-      </c>
-      <c r="S104">
-        <v>2.1</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>1.9</v>
-      </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>0.3999999999999999</v>
+        <v>3</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC104">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>45352.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
         <v>44</v>
@@ -10243,7 +10243,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
         <v>45</v>
@@ -10335,7 +10335,7 @@
         <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>45357.47916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>43</v>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -112,10 +112,10 @@
     <t>FC Astana</t>
   </si>
   <si>
-    <t>Ordabasy</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
-    <t>FK Aktobe</t>
+    <t>Ordabasy</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M5">
+        <v>3.5</v>
+      </c>
+      <c r="N5">
+        <v>1.333</v>
+      </c>
+      <c r="O5">
         <v>4.75</v>
       </c>
-      <c r="N5">
-        <v>1.5</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L6">
+        <v>3.8</v>
+      </c>
+      <c r="M6">
+        <v>4.75</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>3.5</v>
-      </c>
-      <c r="N6">
-        <v>1.333</v>
-      </c>
-      <c r="O6">
-        <v>4.75</v>
-      </c>
       <c r="P6">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N16">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L17">
+        <v>3.5</v>
+      </c>
+      <c r="M17">
+        <v>1.666</v>
+      </c>
+      <c r="N17">
+        <v>4.2</v>
+      </c>
+      <c r="O17">
         <v>3.4</v>
       </c>
-      <c r="M17">
-        <v>3.1</v>
-      </c>
-      <c r="N17">
-        <v>2.2</v>
-      </c>
-      <c r="O17">
-        <v>3.3</v>
-      </c>
       <c r="P17">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB17">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2411,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,76 +2678,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
+        <v>3.6</v>
+      </c>
+      <c r="L25">
+        <v>3.5</v>
+      </c>
+      <c r="M25">
+        <v>1.8</v>
+      </c>
+      <c r="N25">
         <v>3.1</v>
       </c>
-      <c r="L25">
-        <v>3.2</v>
-      </c>
-      <c r="M25">
-        <v>2.1</v>
-      </c>
-      <c r="N25">
-        <v>2.1</v>
-      </c>
       <c r="O25">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
+        <v>2.5</v>
+      </c>
+      <c r="U25">
+        <v>1.75</v>
+      </c>
+      <c r="V25">
         <v>1.95</v>
       </c>
-      <c r="T25">
-        <v>2.25</v>
-      </c>
-      <c r="U25">
-        <v>1.975</v>
-      </c>
-      <c r="V25">
-        <v>1.725</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,76 +2767,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N26">
+        <v>2.1</v>
+      </c>
+      <c r="O26">
         <v>3.1</v>
       </c>
-      <c r="O26">
-        <v>3.5</v>
-      </c>
       <c r="P26">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
+        <v>1.95</v>
+      </c>
+      <c r="T26">
+        <v>2.25</v>
+      </c>
+      <c r="U26">
         <v>1.975</v>
       </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.75</v>
-      </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
+        <v>0.475</v>
+      </c>
+      <c r="AB26">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3927,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4906,7 +4906,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4995,7 +4995,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5526,7 +5526,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
@@ -5615,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6152,7 +6152,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6241,7 +6241,7 @@
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6683,10 +6683,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
         <v>33</v>
-      </c>
-      <c r="G70" t="s">
-        <v>32</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>31</v>
@@ -7751,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7929,7 +7929,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>31</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45200.25</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N85">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
         <v>1.8</v>
-      </c>
-      <c r="S85">
-        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>0.8</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,76 +8107,76 @@
         <v>45200.25</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K86">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N86">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q86">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N92">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P92">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X92">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8730,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
+        <v>6</v>
+      </c>
+      <c r="N93">
+        <v>1.444</v>
+      </c>
+      <c r="O93">
+        <v>4.2</v>
+      </c>
+      <c r="P93">
         <v>6.5</v>
       </c>
-      <c r="N93">
-        <v>1.333</v>
-      </c>
-      <c r="O93">
-        <v>4.5</v>
-      </c>
-      <c r="P93">
-        <v>7.5</v>
-      </c>
       <c r="Q93">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8911,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,55 +9175,55 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L98">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N98">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O98">
         <v>3.2</v>
       </c>
       <c r="P98">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9232,19 +9232,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,76 +9264,76 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99" t="s">
+        <v>47</v>
+      </c>
+      <c r="K99">
+        <v>2.75</v>
+      </c>
+      <c r="L99">
+        <v>3.1</v>
+      </c>
+      <c r="M99">
+        <v>2.375</v>
+      </c>
+      <c r="N99">
+        <v>2.625</v>
+      </c>
+      <c r="O99">
+        <v>3.2</v>
+      </c>
+      <c r="P99">
+        <v>2.45</v>
+      </c>
+      <c r="Q99">
         <v>0</v>
       </c>
-      <c r="J99" t="s">
-        <v>48</v>
-      </c>
-      <c r="K99">
-        <v>3</v>
-      </c>
-      <c r="L99">
-        <v>3</v>
-      </c>
-      <c r="M99">
-        <v>2.25</v>
-      </c>
-      <c r="N99">
-        <v>3.1</v>
-      </c>
-      <c r="O99">
-        <v>3.1</v>
-      </c>
-      <c r="P99">
-        <v>2.15</v>
-      </c>
-      <c r="Q99">
-        <v>0.25</v>
-      </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z99">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC99">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221752</v>
+        <v>6221815</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,76 +9353,76 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K100">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N100">
+        <v>3.1</v>
+      </c>
+      <c r="O100">
+        <v>3.1</v>
+      </c>
+      <c r="P100">
+        <v>2.15</v>
+      </c>
+      <c r="Q100">
+        <v>0.25</v>
+      </c>
+      <c r="R100">
         <v>1.85</v>
       </c>
-      <c r="O100">
-        <v>3.2</v>
-      </c>
-      <c r="P100">
-        <v>4</v>
-      </c>
-      <c r="Q100">
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
+        <v>1.8</v>
+      </c>
+      <c r="V100">
+        <v>2</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>2.1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
+        <v>0.425</v>
+      </c>
+      <c r="AA100">
         <v>-0.5</v>
       </c>
-      <c r="R100">
-        <v>1.9</v>
-      </c>
-      <c r="S100">
-        <v>1.9</v>
-      </c>
-      <c r="T100">
-        <v>2</v>
-      </c>
-      <c r="U100">
-        <v>1.775</v>
-      </c>
-      <c r="V100">
-        <v>2.025</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>3</v>
-      </c>
-      <c r="Z100">
-        <v>-1</v>
-      </c>
-      <c r="AA100">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9445,7 +9445,7 @@
         <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221754</v>
+        <v>6221755</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
         <v>3.5</v>
       </c>
       <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="N103">
+        <v>1.444</v>
+      </c>
+      <c r="O103">
+        <v>4</v>
+      </c>
+      <c r="P103">
+        <v>6</v>
+      </c>
+      <c r="Q103">
+        <v>-1.25</v>
+      </c>
+      <c r="R103">
+        <v>1.975</v>
+      </c>
+      <c r="S103">
+        <v>1.825</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
         <v>1.8</v>
       </c>
-      <c r="N103">
-        <v>5</v>
-      </c>
-      <c r="O103">
-        <v>1.4</v>
-      </c>
-      <c r="P103">
-        <v>5</v>
-      </c>
-      <c r="Q103">
-        <v>0.25</v>
-      </c>
-      <c r="R103">
-        <v>1.7</v>
-      </c>
-      <c r="S103">
-        <v>2.1</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.9</v>
-      </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>0.3999999999999999</v>
+        <v>3</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC103">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221755</v>
+        <v>6221754</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,76 +9709,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
         <v>48</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
         <v>3.5</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N104">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9964,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7874783</v>
+        <v>7874784</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,76 +9976,76 @@
         <v>45353.25</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K107">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M107">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N107">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P107">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W107">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7874784</v>
+        <v>7874783</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,76 +10065,76 @@
         <v>45353.25</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K108">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N108">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O108">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X108">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10513,7 +10513,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>1</v>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -106,16 +106,16 @@
     <t>Kairat Almaty</t>
   </si>
   <si>
+    <t>FC Astana</t>
+  </si>
+  <si>
     <t>Tobol Kostanay</t>
   </si>
   <si>
-    <t>FC Astana</t>
+    <t>Ordabasy</t>
   </si>
   <si>
     <t>FK Aktobe</t>
-  </si>
-  <si>
-    <t>Ordabasy</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6726053</v>
+        <v>6221684</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -735,43 +735,43 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N3">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P3">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
+        <v>1.925</v>
+      </c>
+      <c r="V3">
         <v>1.875</v>
       </c>
-      <c r="V3">
-        <v>1.925</v>
-      </c>
       <c r="W3">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6221684</v>
+        <v>6726053</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,7 +812,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -824,43 +824,43 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
+        <v>3.2</v>
+      </c>
+      <c r="M4">
+        <v>2.5</v>
+      </c>
+      <c r="N4">
+        <v>1.8</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
         <v>4.2</v>
       </c>
-      <c r="M4">
-        <v>4.5</v>
-      </c>
-      <c r="N4">
-        <v>1.222</v>
-      </c>
-      <c r="O4">
-        <v>5.5</v>
-      </c>
-      <c r="P4">
-        <v>9</v>
-      </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
+        <v>1.875</v>
+      </c>
+      <c r="V4">
         <v>1.925</v>
       </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
       <c r="W4">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -869,16 +869,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L5">
+        <v>3.8</v>
+      </c>
+      <c r="M5">
+        <v>4.75</v>
+      </c>
+      <c r="N5">
+        <v>1.5</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
-      <c r="N5">
-        <v>1.333</v>
-      </c>
-      <c r="O5">
-        <v>4.75</v>
-      </c>
       <c r="P5">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M6">
+        <v>3.5</v>
+      </c>
+      <c r="N6">
+        <v>1.333</v>
+      </c>
+      <c r="O6">
         <v>4.75</v>
       </c>
-      <c r="N6">
-        <v>1.5</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1343,7 +1343,7 @@
         <v>45101.375</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
         <v>42</v>
@@ -1435,7 +1435,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1613,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
+        <v>1.666</v>
+      </c>
+      <c r="N16">
+        <v>4.2</v>
+      </c>
+      <c r="O16">
         <v>3.4</v>
       </c>
-      <c r="M16">
-        <v>3.1</v>
-      </c>
-      <c r="N16">
-        <v>2.2</v>
-      </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
       <c r="P16">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB16">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N17">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O17">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2236,7 +2236,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>45109.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
@@ -2411,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3123,7 +3123,7 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3212,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3568,7 +3568,7 @@
         <v>45130.5</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -3660,7 +3660,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4369,7 +4369,7 @@
         <v>45144.44791666666</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4458,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4817,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,64 +4903,64 @@
         <v>45151.5</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L50">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N50">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y50">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -4969,10 +4969,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,64 +4992,64 @@
         <v>45151.5</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M51">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="N51">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51">
+        <v>1.725</v>
+      </c>
+      <c r="S51">
+        <v>2.075</v>
+      </c>
+      <c r="T51">
+        <v>2.25</v>
+      </c>
+      <c r="U51">
+        <v>1.875</v>
+      </c>
+      <c r="V51">
         <v>1.925</v>
       </c>
-      <c r="S51">
-        <v>1.875</v>
-      </c>
-      <c r="T51">
-        <v>2.5</v>
-      </c>
-      <c r="U51">
-        <v>1.9</v>
-      </c>
-      <c r="V51">
-        <v>1.9</v>
-      </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5437,7 +5437,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
         <v>35</v>
@@ -5526,10 +5526,10 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5615,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6221729</v>
+        <v>6221732</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,49 +6060,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N63">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6111,16 +6111,16 @@
         <v>1.9</v>
       </c>
       <c r="W63">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6137,7 +6137,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6221732</v>
+        <v>6221729</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6149,49 +6149,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K64">
+        <v>2.9</v>
+      </c>
+      <c r="L64">
         <v>3.3</v>
       </c>
-      <c r="L64">
-        <v>3.25</v>
-      </c>
       <c r="M64">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N64">
+        <v>1.75</v>
+      </c>
+      <c r="O64">
         <v>3.5</v>
       </c>
-      <c r="O64">
-        <v>3.25</v>
-      </c>
       <c r="P64">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6200,16 +6200,16 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X64">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6238,10 +6238,10 @@
         <v>45165.5</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6594,10 +6594,10 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
         <v>31</v>
-      </c>
-      <c r="G69" t="s">
-        <v>30</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6683,10 +6683,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
         <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
@@ -7484,10 +7484,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7662,7 +7662,7 @@
         <v>45196.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>39</v>
@@ -7751,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7843,7 +7843,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7929,10 +7929,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45200.25</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N85">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O85">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,76 +8107,76 @@
         <v>45200.25</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N86">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
         <v>1.8</v>
-      </c>
-      <c r="S86">
-        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
         <v>0.8</v>
       </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8466,7 +8466,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8730,7 +8730,7 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
         <v>42</v>
@@ -8819,7 +8819,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
         <v>34</v>
@@ -8911,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9267,7 +9267,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221816</v>
+        <v>6221754</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N101">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P101">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S101">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221814</v>
+        <v>6221755</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,76 +9531,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L102">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O102">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221755</v>
+        <v>6221814</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N103">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221754</v>
+        <v>6221816</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,76 +9709,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N104">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O104">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R104">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X104">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>45352.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
         <v>44</v>
@@ -9890,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9964,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7874784</v>
+        <v>7874783</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,76 +9976,76 @@
         <v>45353.25</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K107">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N107">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O107">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P107">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X107">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7874783</v>
+        <v>7874784</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,76 +10065,76 @@
         <v>45353.25</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K108">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N108">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P108">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W108">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10243,7 +10243,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
         <v>45</v>
@@ -10335,7 +10335,7 @@
         <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10599,7 +10599,7 @@
         <v>45357.47916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>43</v>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,76 +2678,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L25">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N25">
+        <v>2.1</v>
+      </c>
+      <c r="O25">
         <v>3.1</v>
       </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
       <c r="P25">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
+        <v>1.95</v>
+      </c>
+      <c r="T25">
+        <v>2.25</v>
+      </c>
+      <c r="U25">
         <v>1.975</v>
       </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
-      <c r="U25">
-        <v>1.75</v>
-      </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y25">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
+        <v>0.475</v>
+      </c>
+      <c r="AB25">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB25">
-        <v>-1</v>
-      </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,76 +2767,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
+        <v>3.6</v>
+      </c>
+      <c r="L26">
+        <v>3.5</v>
+      </c>
+      <c r="M26">
+        <v>1.8</v>
+      </c>
+      <c r="N26">
         <v>3.1</v>
       </c>
-      <c r="L26">
-        <v>3.2</v>
-      </c>
-      <c r="M26">
-        <v>2.1</v>
-      </c>
-      <c r="N26">
-        <v>2.1</v>
-      </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>1.75</v>
+      </c>
+      <c r="V26">
         <v>1.95</v>
       </c>
-      <c r="T26">
-        <v>2.25</v>
-      </c>
-      <c r="U26">
-        <v>1.975</v>
-      </c>
-      <c r="V26">
-        <v>1.725</v>
-      </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6221708</v>
+        <v>6221712</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.5</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K37">
+        <v>2.1</v>
+      </c>
+      <c r="L37">
+        <v>3.25</v>
+      </c>
+      <c r="M37">
         <v>3</v>
       </c>
-      <c r="L37">
-        <v>3.4</v>
-      </c>
-      <c r="M37">
-        <v>2.05</v>
-      </c>
       <c r="N37">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P37">
+        <v>2.9</v>
+      </c>
+      <c r="Q37">
+        <v>-0.25</v>
+      </c>
+      <c r="R37">
         <v>1.95</v>
       </c>
-      <c r="Q37">
-        <v>0.5</v>
-      </c>
-      <c r="R37">
-        <v>1.75</v>
-      </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X37">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221712</v>
+        <v>6221708</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45136.5</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O38">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
+        <v>1.75</v>
+      </c>
+      <c r="S38">
         <v>1.95</v>
       </c>
-      <c r="S38">
-        <v>1.85</v>
-      </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
+        <v>6</v>
+      </c>
+      <c r="N92">
+        <v>1.444</v>
+      </c>
+      <c r="O92">
+        <v>4.2</v>
+      </c>
+      <c r="P92">
         <v>6.5</v>
       </c>
-      <c r="N92">
-        <v>1.333</v>
-      </c>
-      <c r="O92">
-        <v>4.5</v>
-      </c>
-      <c r="P92">
-        <v>7.5</v>
-      </c>
       <c r="Q92">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8730,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N93">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O93">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P93">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X93">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221753</v>
+        <v>6221815</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,76 +9264,76 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>48</v>
+      </c>
+      <c r="K99">
         <v>3</v>
       </c>
-      <c r="J99" t="s">
-        <v>47</v>
-      </c>
-      <c r="K99">
-        <v>2.75</v>
-      </c>
       <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>2.25</v>
+      </c>
+      <c r="N99">
         <v>3.1</v>
       </c>
-      <c r="M99">
-        <v>2.375</v>
-      </c>
-      <c r="N99">
-        <v>2.625</v>
-      </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P99">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
+        <v>1.95</v>
+      </c>
+      <c r="T99">
+        <v>2.25</v>
+      </c>
+      <c r="U99">
         <v>1.8</v>
       </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y99">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,76 +9353,76 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>47</v>
+      </c>
+      <c r="K100">
+        <v>2.75</v>
+      </c>
+      <c r="L100">
+        <v>3.1</v>
+      </c>
+      <c r="M100">
+        <v>2.375</v>
+      </c>
+      <c r="N100">
+        <v>2.625</v>
+      </c>
+      <c r="O100">
+        <v>3.2</v>
+      </c>
+      <c r="P100">
+        <v>2.45</v>
+      </c>
+      <c r="Q100">
         <v>0</v>
       </c>
-      <c r="J100" t="s">
-        <v>48</v>
-      </c>
-      <c r="K100">
-        <v>3</v>
-      </c>
-      <c r="L100">
-        <v>3</v>
-      </c>
-      <c r="M100">
-        <v>2.25</v>
-      </c>
-      <c r="N100">
-        <v>3.1</v>
-      </c>
-      <c r="O100">
-        <v>3.1</v>
-      </c>
-      <c r="P100">
-        <v>2.15</v>
-      </c>
-      <c r="Q100">
-        <v>0.25</v>
-      </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z100">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,58 +1254,58 @@
         <v>45101.375</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M9">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N9">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O9">
+        <v>5.5</v>
+      </c>
+      <c r="P9">
+        <v>11</v>
+      </c>
+      <c r="Q9">
+        <v>-2</v>
+      </c>
+      <c r="R9">
+        <v>1.975</v>
+      </c>
+      <c r="S9">
+        <v>1.825</v>
+      </c>
+      <c r="T9">
         <v>3</v>
       </c>
-      <c r="P9">
-        <v>3.2</v>
-      </c>
-      <c r="Q9">
-        <v>-0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.875</v>
-      </c>
-      <c r="S9">
-        <v>1.925</v>
-      </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1314,13 +1314,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,58 +1343,58 @@
         <v>45101.375</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L10">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N10">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O10">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q10">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1403,13 +1403,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,76 +2678,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
+        <v>3.6</v>
+      </c>
+      <c r="L25">
+        <v>3.5</v>
+      </c>
+      <c r="M25">
+        <v>1.8</v>
+      </c>
+      <c r="N25">
         <v>3.1</v>
       </c>
-      <c r="L25">
-        <v>3.2</v>
-      </c>
-      <c r="M25">
-        <v>2.1</v>
-      </c>
-      <c r="N25">
-        <v>2.1</v>
-      </c>
       <c r="O25">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
+        <v>2.5</v>
+      </c>
+      <c r="U25">
+        <v>1.75</v>
+      </c>
+      <c r="V25">
         <v>1.95</v>
       </c>
-      <c r="T25">
-        <v>2.25</v>
-      </c>
-      <c r="U25">
-        <v>1.975</v>
-      </c>
-      <c r="V25">
-        <v>1.725</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,76 +2767,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N26">
+        <v>2.1</v>
+      </c>
+      <c r="O26">
         <v>3.1</v>
       </c>
-      <c r="O26">
-        <v>3.5</v>
-      </c>
       <c r="P26">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
+        <v>1.95</v>
+      </c>
+      <c r="T26">
+        <v>2.25</v>
+      </c>
+      <c r="U26">
         <v>1.975</v>
       </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.75</v>
-      </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
+        <v>0.475</v>
+      </c>
+      <c r="AB26">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N92">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P92">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X92">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8730,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
+        <v>6</v>
+      </c>
+      <c r="N93">
+        <v>1.444</v>
+      </c>
+      <c r="O93">
+        <v>4.2</v>
+      </c>
+      <c r="P93">
         <v>6.5</v>
       </c>
-      <c r="N93">
-        <v>1.333</v>
-      </c>
-      <c r="O93">
-        <v>4.5</v>
-      </c>
-      <c r="P93">
-        <v>7.5</v>
-      </c>
       <c r="Q93">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,76 +9264,76 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99" t="s">
+        <v>47</v>
+      </c>
+      <c r="K99">
+        <v>2.75</v>
+      </c>
+      <c r="L99">
+        <v>3.1</v>
+      </c>
+      <c r="M99">
+        <v>2.375</v>
+      </c>
+      <c r="N99">
+        <v>2.625</v>
+      </c>
+      <c r="O99">
+        <v>3.2</v>
+      </c>
+      <c r="P99">
+        <v>2.45</v>
+      </c>
+      <c r="Q99">
         <v>0</v>
       </c>
-      <c r="J99" t="s">
-        <v>48</v>
-      </c>
-      <c r="K99">
-        <v>3</v>
-      </c>
-      <c r="L99">
-        <v>3</v>
-      </c>
-      <c r="M99">
-        <v>2.25</v>
-      </c>
-      <c r="N99">
-        <v>3.1</v>
-      </c>
-      <c r="O99">
-        <v>3.1</v>
-      </c>
-      <c r="P99">
-        <v>2.15</v>
-      </c>
-      <c r="Q99">
-        <v>0.25</v>
-      </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z99">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC99">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221753</v>
+        <v>6221815</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,76 +9353,76 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>48</v>
+      </c>
+      <c r="K100">
         <v>3</v>
       </c>
-      <c r="J100" t="s">
-        <v>47</v>
-      </c>
-      <c r="K100">
-        <v>2.75</v>
-      </c>
       <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>2.25</v>
+      </c>
+      <c r="N100">
         <v>3.1</v>
       </c>
-      <c r="M100">
-        <v>2.375</v>
-      </c>
-      <c r="N100">
-        <v>2.625</v>
-      </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P100">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
         <v>1.8</v>
       </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>1.9</v>
-      </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y100">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>Tobol Kostanay</t>
   </si>
   <si>
-    <t>Ordabasy</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
-    <t>FK Aktobe</t>
+    <t>Ordabasy</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC116"/>
+  <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M5">
+        <v>3.5</v>
+      </c>
+      <c r="N5">
+        <v>1.333</v>
+      </c>
+      <c r="O5">
         <v>4.75</v>
       </c>
-      <c r="N5">
-        <v>1.5</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L6">
+        <v>3.8</v>
+      </c>
+      <c r="M6">
+        <v>4.75</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>3.5</v>
-      </c>
-      <c r="N6">
-        <v>1.333</v>
-      </c>
-      <c r="O6">
-        <v>4.75</v>
-      </c>
       <c r="P6">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1880,7 +1880,7 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,76 +2678,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L25">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N25">
+        <v>2.1</v>
+      </c>
+      <c r="O25">
         <v>3.1</v>
       </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
       <c r="P25">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
+        <v>1.95</v>
+      </c>
+      <c r="T25">
+        <v>2.25</v>
+      </c>
+      <c r="U25">
         <v>1.975</v>
       </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
-      <c r="U25">
-        <v>1.75</v>
-      </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y25">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
+        <v>0.475</v>
+      </c>
+      <c r="AB25">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB25">
-        <v>-1</v>
-      </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,76 +2767,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
+        <v>3.6</v>
+      </c>
+      <c r="L26">
+        <v>3.5</v>
+      </c>
+      <c r="M26">
+        <v>1.8</v>
+      </c>
+      <c r="N26">
         <v>3.1</v>
       </c>
-      <c r="L26">
-        <v>3.2</v>
-      </c>
-      <c r="M26">
-        <v>2.1</v>
-      </c>
-      <c r="N26">
-        <v>2.1</v>
-      </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>1.75</v>
+      </c>
+      <c r="V26">
         <v>1.95</v>
       </c>
-      <c r="T26">
-        <v>2.25</v>
-      </c>
-      <c r="U26">
-        <v>1.975</v>
-      </c>
-      <c r="V26">
-        <v>1.725</v>
-      </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3927,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,64 +4903,64 @@
         <v>45151.5</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
       </c>
       <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50">
+        <v>6.5</v>
+      </c>
+      <c r="L50">
+        <v>4.5</v>
+      </c>
+      <c r="M50">
+        <v>1.363</v>
+      </c>
+      <c r="N50">
+        <v>4.2</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50">
+        <v>1.6</v>
+      </c>
+      <c r="Q50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K50">
-        <v>3.75</v>
-      </c>
-      <c r="L50">
-        <v>3.3</v>
-      </c>
-      <c r="M50">
-        <v>1.833</v>
-      </c>
-      <c r="N50">
-        <v>2.6</v>
-      </c>
-      <c r="O50">
-        <v>3.1</v>
-      </c>
-      <c r="P50">
-        <v>2.5</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
       <c r="R50">
+        <v>1.725</v>
+      </c>
+      <c r="S50">
+        <v>2.075</v>
+      </c>
+      <c r="T50">
+        <v>2.25</v>
+      </c>
+      <c r="U50">
+        <v>1.875</v>
+      </c>
+      <c r="V50">
         <v>1.925</v>
       </c>
-      <c r="S50">
-        <v>1.875</v>
-      </c>
-      <c r="T50">
-        <v>2.5</v>
-      </c>
-      <c r="U50">
-        <v>1.9</v>
-      </c>
-      <c r="V50">
-        <v>1.9</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -4969,10 +4969,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,64 +4992,64 @@
         <v>45151.5</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N51">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y51">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5526,7 +5526,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -5615,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6221732</v>
+        <v>6221729</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,49 +6060,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K63">
+        <v>2.9</v>
+      </c>
+      <c r="L63">
         <v>3.3</v>
       </c>
-      <c r="L63">
-        <v>3.25</v>
-      </c>
       <c r="M63">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N63">
+        <v>1.75</v>
+      </c>
+      <c r="O63">
         <v>3.5</v>
       </c>
-      <c r="O63">
-        <v>3.25</v>
-      </c>
       <c r="P63">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6111,16 +6111,16 @@
         <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X63">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6137,7 +6137,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6221729</v>
+        <v>6221732</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6149,49 +6149,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K64">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6200,16 +6200,16 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6241,7 +6241,7 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6683,10 +6683,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
         <v>33</v>
-      </c>
-      <c r="G70" t="s">
-        <v>32</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>30</v>
@@ -7751,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7929,7 +7929,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>30</v>
@@ -8199,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
+        <v>6</v>
+      </c>
+      <c r="N92">
+        <v>1.444</v>
+      </c>
+      <c r="O92">
+        <v>4.2</v>
+      </c>
+      <c r="P92">
         <v>6.5</v>
       </c>
-      <c r="N92">
-        <v>1.333</v>
-      </c>
-      <c r="O92">
-        <v>4.5</v>
-      </c>
-      <c r="P92">
-        <v>7.5</v>
-      </c>
       <c r="Q92">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8730,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N93">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O93">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P93">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X93">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8911,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221753</v>
+        <v>6221815</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,76 +9264,76 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>48</v>
+      </c>
+      <c r="K99">
         <v>3</v>
       </c>
-      <c r="J99" t="s">
-        <v>47</v>
-      </c>
-      <c r="K99">
-        <v>2.75</v>
-      </c>
       <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>2.25</v>
+      </c>
+      <c r="N99">
         <v>3.1</v>
       </c>
-      <c r="M99">
-        <v>2.375</v>
-      </c>
-      <c r="N99">
-        <v>2.625</v>
-      </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P99">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
+        <v>1.95</v>
+      </c>
+      <c r="T99">
+        <v>2.25</v>
+      </c>
+      <c r="U99">
         <v>1.8</v>
       </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y99">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,76 +9353,76 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>47</v>
+      </c>
+      <c r="K100">
+        <v>2.75</v>
+      </c>
+      <c r="L100">
+        <v>3.1</v>
+      </c>
+      <c r="M100">
+        <v>2.375</v>
+      </c>
+      <c r="N100">
+        <v>2.625</v>
+      </c>
+      <c r="O100">
+        <v>3.2</v>
+      </c>
+      <c r="P100">
+        <v>2.45</v>
+      </c>
+      <c r="Q100">
         <v>0</v>
       </c>
-      <c r="J100" t="s">
-        <v>48</v>
-      </c>
-      <c r="K100">
-        <v>3</v>
-      </c>
-      <c r="L100">
-        <v>3</v>
-      </c>
-      <c r="M100">
-        <v>2.25</v>
-      </c>
-      <c r="N100">
-        <v>3.1</v>
-      </c>
-      <c r="O100">
-        <v>3.1</v>
-      </c>
-      <c r="P100">
-        <v>2.15</v>
-      </c>
-      <c r="Q100">
-        <v>0.25</v>
-      </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z100">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221754</v>
+        <v>6221816</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K101">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N101">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O101">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X101">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221755</v>
+        <v>6221814</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,76 +9531,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N102">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221814</v>
+        <v>6221754</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,10 +9620,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9635,61 +9635,61 @@
         <v>48</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N103">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="P103">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S103">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T103">
         <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AA103">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
         <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221816</v>
+        <v>6221755</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,76 +9709,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K104">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>4.2</v>
+        <v>1.444</v>
       </c>
       <c r="O104">
         <v>4</v>
       </c>
       <c r="P104">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="Q104">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
+        <v>1.8</v>
+      </c>
+      <c r="V104">
+        <v>2</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
         <v>3</v>
       </c>
-      <c r="U104">
-        <v>1.975</v>
-      </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
-      <c r="W104">
-        <v>3.2</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10154,7 +10154,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10513,7 +10513,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10847,6 +10847,184 @@
       </c>
       <c r="AC116">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>7874792</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45381.25</v>
+      </c>
+      <c r="F117" t="s">
+        <v>37</v>
+      </c>
+      <c r="G117" t="s">
+        <v>45</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117" t="s">
+        <v>47</v>
+      </c>
+      <c r="K117">
+        <v>1.571</v>
+      </c>
+      <c r="L117">
+        <v>3.75</v>
+      </c>
+      <c r="M117">
+        <v>4.75</v>
+      </c>
+      <c r="N117">
+        <v>2.5</v>
+      </c>
+      <c r="O117">
+        <v>3.75</v>
+      </c>
+      <c r="P117">
+        <v>2.3</v>
+      </c>
+      <c r="Q117">
+        <v>0.25</v>
+      </c>
+      <c r="R117">
+        <v>1.725</v>
+      </c>
+      <c r="S117">
+        <v>1.975</v>
+      </c>
+      <c r="T117">
+        <v>2.5</v>
+      </c>
+      <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
+        <v>1.85</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>1.3</v>
+      </c>
+      <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>7874793</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45381.35416666666</v>
+      </c>
+      <c r="F118" t="s">
+        <v>36</v>
+      </c>
+      <c r="G118" t="s">
+        <v>34</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>47</v>
+      </c>
+      <c r="K118">
+        <v>2.1</v>
+      </c>
+      <c r="L118">
+        <v>3.4</v>
+      </c>
+      <c r="M118">
+        <v>2.9</v>
+      </c>
+      <c r="N118">
+        <v>1.85</v>
+      </c>
+      <c r="O118">
+        <v>3.3</v>
+      </c>
+      <c r="P118">
+        <v>3.6</v>
+      </c>
+      <c r="Q118">
+        <v>-0.5</v>
+      </c>
+      <c r="R118">
+        <v>1.9</v>
+      </c>
+      <c r="S118">
+        <v>1.9</v>
+      </c>
+      <c r="T118">
+        <v>2</v>
+      </c>
+      <c r="U118">
+        <v>1.85</v>
+      </c>
+      <c r="V118">
+        <v>1.95</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
+        <v>2.6</v>
+      </c>
+      <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -106,16 +106,16 @@
     <t>Kairat Almaty</t>
   </si>
   <si>
+    <t>Tobol Kostanay</t>
+  </si>
+  <si>
     <t>FC Astana</t>
   </si>
   <si>
-    <t>Tobol Kostanay</t>
+    <t>Ordabasy</t>
   </si>
   <si>
     <t>FK Aktobe</t>
-  </si>
-  <si>
-    <t>Ordabasy</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC118"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6221684</v>
+        <v>6726053</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -735,43 +735,43 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
+        <v>3.2</v>
+      </c>
+      <c r="M3">
+        <v>2.5</v>
+      </c>
+      <c r="N3">
+        <v>1.8</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
         <v>4.2</v>
       </c>
-      <c r="M3">
-        <v>4.5</v>
-      </c>
-      <c r="N3">
-        <v>1.222</v>
-      </c>
-      <c r="O3">
-        <v>5.5</v>
-      </c>
-      <c r="P3">
-        <v>9</v>
-      </c>
       <c r="Q3">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
+        <v>1.875</v>
+      </c>
+      <c r="V3">
         <v>1.925</v>
       </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
       <c r="W3">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6726053</v>
+        <v>6221684</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,7 +812,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -824,43 +824,43 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L4">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N4">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P4">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
+        <v>1.925</v>
+      </c>
+      <c r="V4">
         <v>1.875</v>
       </c>
-      <c r="V4">
-        <v>1.925</v>
-      </c>
       <c r="W4">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -869,16 +869,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L5">
+        <v>3.8</v>
+      </c>
+      <c r="M5">
+        <v>4.75</v>
+      </c>
+      <c r="N5">
+        <v>1.5</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
-      <c r="N5">
-        <v>1.333</v>
-      </c>
-      <c r="O5">
-        <v>4.75</v>
-      </c>
       <c r="P5">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M6">
+        <v>3.5</v>
+      </c>
+      <c r="N6">
+        <v>1.333</v>
+      </c>
+      <c r="O6">
         <v>4.75</v>
       </c>
-      <c r="N6">
-        <v>1.5</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>45101.375</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -1435,7 +1435,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1613,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N16">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L17">
+        <v>3.5</v>
+      </c>
+      <c r="M17">
+        <v>1.666</v>
+      </c>
+      <c r="N17">
+        <v>4.2</v>
+      </c>
+      <c r="O17">
         <v>3.4</v>
       </c>
-      <c r="M17">
-        <v>3.1</v>
-      </c>
-      <c r="N17">
-        <v>2.2</v>
-      </c>
-      <c r="O17">
-        <v>3.3</v>
-      </c>
       <c r="P17">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB17">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2236,7 +2236,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>45109.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
@@ -2411,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,76 +2678,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
+        <v>3.6</v>
+      </c>
+      <c r="L25">
+        <v>3.5</v>
+      </c>
+      <c r="M25">
+        <v>1.8</v>
+      </c>
+      <c r="N25">
         <v>3.1</v>
       </c>
-      <c r="L25">
-        <v>3.2</v>
-      </c>
-      <c r="M25">
-        <v>2.1</v>
-      </c>
-      <c r="N25">
-        <v>2.1</v>
-      </c>
       <c r="O25">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
+        <v>2.5</v>
+      </c>
+      <c r="U25">
+        <v>1.75</v>
+      </c>
+      <c r="V25">
         <v>1.95</v>
       </c>
-      <c r="T25">
-        <v>2.25</v>
-      </c>
-      <c r="U25">
-        <v>1.975</v>
-      </c>
-      <c r="V25">
-        <v>1.725</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,76 +2767,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N26">
+        <v>2.1</v>
+      </c>
+      <c r="O26">
         <v>3.1</v>
       </c>
-      <c r="O26">
-        <v>3.5</v>
-      </c>
       <c r="P26">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
+        <v>1.95</v>
+      </c>
+      <c r="T26">
+        <v>2.25</v>
+      </c>
+      <c r="U26">
         <v>1.975</v>
       </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.75</v>
-      </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
+        <v>0.475</v>
+      </c>
+      <c r="AB26">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3123,7 +3123,7 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3212,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3568,7 +3568,7 @@
         <v>45130.5</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -3660,7 +3660,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6221712</v>
+        <v>6221708</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.5</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N37">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P37">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
+        <v>1.75</v>
+      </c>
+      <c r="S37">
         <v>1.95</v>
       </c>
-      <c r="S37">
-        <v>1.85</v>
-      </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221708</v>
+        <v>6221712</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45136.5</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K38">
+        <v>2.1</v>
+      </c>
+      <c r="L38">
+        <v>3.25</v>
+      </c>
+      <c r="M38">
         <v>3</v>
       </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>2.05</v>
-      </c>
       <c r="N38">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P38">
+        <v>2.9</v>
+      </c>
+      <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
         <v>1.95</v>
       </c>
-      <c r="Q38">
-        <v>0.5</v>
-      </c>
-      <c r="R38">
-        <v>1.75</v>
-      </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4369,7 +4369,7 @@
         <v>45144.44791666666</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4458,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4817,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4906,7 +4906,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4995,7 +4995,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5437,7 +5437,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>35</v>
@@ -5526,10 +5526,10 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5615,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6063,7 +6063,7 @@
         <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6152,7 +6152,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6238,10 +6238,10 @@
         <v>45165.5</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6594,10 +6594,10 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F69" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s">
         <v>30</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6683,10 +6683,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
         <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
@@ -7484,10 +7484,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7662,7 +7662,7 @@
         <v>45196.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>39</v>
@@ -7751,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7843,7 +7843,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7929,10 +7929,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45200.25</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N85">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
         <v>1.8</v>
-      </c>
-      <c r="S85">
-        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>0.8</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,76 +8107,76 @@
         <v>45200.25</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K86">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N86">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q86">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8466,7 +8466,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8641,7 +8641,7 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>42</v>
@@ -8819,7 +8819,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
         <v>34</v>
@@ -8911,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,56 +9175,56 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L98">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N98">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O98">
         <v>3.2</v>
       </c>
       <c r="P98">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>1.8</v>
+      </c>
+      <c r="T98">
+        <v>2.5</v>
+      </c>
+      <c r="U98">
         <v>1.9</v>
       </c>
-      <c r="S98">
+      <c r="V98">
         <v>1.9</v>
       </c>
-      <c r="T98">
-        <v>2</v>
-      </c>
-      <c r="U98">
-        <v>1.775</v>
-      </c>
-      <c r="V98">
-        <v>2.025</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
@@ -9232,19 +9232,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
+        <v>0.8</v>
+      </c>
+      <c r="AB98">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221815</v>
+        <v>6221752</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,76 +9264,76 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K99">
+        <v>1.833</v>
+      </c>
+      <c r="L99">
+        <v>3.2</v>
+      </c>
+      <c r="M99">
+        <v>4</v>
+      </c>
+      <c r="N99">
+        <v>1.85</v>
+      </c>
+      <c r="O99">
+        <v>3.2</v>
+      </c>
+      <c r="P99">
+        <v>4</v>
+      </c>
+      <c r="Q99">
+        <v>-0.5</v>
+      </c>
+      <c r="R99">
+        <v>1.9</v>
+      </c>
+      <c r="S99">
+        <v>1.9</v>
+      </c>
+      <c r="T99">
+        <v>2</v>
+      </c>
+      <c r="U99">
+        <v>1.775</v>
+      </c>
+      <c r="V99">
+        <v>2.025</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
         <v>3</v>
       </c>
-      <c r="L99">
-        <v>3</v>
-      </c>
-      <c r="M99">
-        <v>2.25</v>
-      </c>
-      <c r="N99">
-        <v>3.1</v>
-      </c>
-      <c r="O99">
-        <v>3.1</v>
-      </c>
-      <c r="P99">
-        <v>2.15</v>
-      </c>
-      <c r="Q99">
-        <v>0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.85</v>
-      </c>
-      <c r="S99">
-        <v>1.95</v>
-      </c>
-      <c r="T99">
-        <v>2.25</v>
-      </c>
-      <c r="U99">
-        <v>1.8</v>
-      </c>
-      <c r="V99">
-        <v>2</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>2.1</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
       <c r="Z99">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221753</v>
+        <v>6221815</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,76 +9353,76 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>48</v>
+      </c>
+      <c r="K100">
         <v>3</v>
       </c>
-      <c r="J100" t="s">
-        <v>47</v>
-      </c>
-      <c r="K100">
-        <v>2.75</v>
-      </c>
       <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>2.25</v>
+      </c>
+      <c r="N100">
         <v>3.1</v>
       </c>
-      <c r="M100">
-        <v>2.375</v>
-      </c>
-      <c r="N100">
-        <v>2.625</v>
-      </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P100">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
         <v>1.8</v>
       </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>1.9</v>
-      </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y100">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221816</v>
+        <v>6221754</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N101">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P101">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S101">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221814</v>
+        <v>6221755</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,76 +9531,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L102">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O102">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221754</v>
+        <v>6221816</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N103">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O103">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R103">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X103">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221755</v>
+        <v>6221814</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,76 +9709,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
         <v>48</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N104">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P104">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>45352.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
         <v>44</v>
@@ -9890,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9964,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7874783</v>
+        <v>7874784</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,76 +9976,76 @@
         <v>45353.25</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K107">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M107">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N107">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P107">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W107">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7874784</v>
+        <v>7874783</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,76 +10065,76 @@
         <v>45353.25</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K108">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N108">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O108">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X108">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10243,7 +10243,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
         <v>45</v>
@@ -10335,7 +10335,7 @@
         <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10599,7 +10599,7 @@
         <v>45357.47916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>43</v>
@@ -11025,6 +11025,362 @@
       </c>
       <c r="AC118">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>7873759</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45382.25</v>
+      </c>
+      <c r="F119" t="s">
+        <v>33</v>
+      </c>
+      <c r="G119" t="s">
+        <v>44</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>46</v>
+      </c>
+      <c r="K119">
+        <v>1.25</v>
+      </c>
+      <c r="L119">
+        <v>5.75</v>
+      </c>
+      <c r="M119">
+        <v>7</v>
+      </c>
+      <c r="N119">
+        <v>1.444</v>
+      </c>
+      <c r="O119">
+        <v>4.75</v>
+      </c>
+      <c r="P119">
+        <v>4.75</v>
+      </c>
+      <c r="Q119">
+        <v>-1.25</v>
+      </c>
+      <c r="R119">
+        <v>1.95</v>
+      </c>
+      <c r="S119">
+        <v>1.85</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>1.9</v>
+      </c>
+      <c r="V119">
+        <v>1.9</v>
+      </c>
+      <c r="W119">
+        <v>0.444</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>0.95</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
+        <v>0.45</v>
+      </c>
+      <c r="AC119">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>7874795</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45382.25</v>
+      </c>
+      <c r="F120" t="s">
+        <v>41</v>
+      </c>
+      <c r="G120" t="s">
+        <v>30</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>48</v>
+      </c>
+      <c r="K120">
+        <v>2.2</v>
+      </c>
+      <c r="L120">
+        <v>3.1</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>2.625</v>
+      </c>
+      <c r="O120">
+        <v>3</v>
+      </c>
+      <c r="P120">
+        <v>2.55</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>1.9</v>
+      </c>
+      <c r="S120">
+        <v>1.9</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
+        <v>1.95</v>
+      </c>
+      <c r="V120">
+        <v>1.85</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
+        <v>2</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>-0</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>7873758</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45382.35416666666</v>
+      </c>
+      <c r="F121" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" t="s">
+        <v>43</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>47</v>
+      </c>
+      <c r="K121">
+        <v>1.3</v>
+      </c>
+      <c r="L121">
+        <v>5.5</v>
+      </c>
+      <c r="M121">
+        <v>6</v>
+      </c>
+      <c r="N121">
+        <v>1.4</v>
+      </c>
+      <c r="O121">
+        <v>4.75</v>
+      </c>
+      <c r="P121">
+        <v>5.25</v>
+      </c>
+      <c r="Q121">
+        <v>-1.25</v>
+      </c>
+      <c r="R121">
+        <v>1.925</v>
+      </c>
+      <c r="S121">
+        <v>1.875</v>
+      </c>
+      <c r="T121">
+        <v>2.5</v>
+      </c>
+      <c r="U121">
+        <v>1.85</v>
+      </c>
+      <c r="V121">
+        <v>1.95</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>-1</v>
+      </c>
+      <c r="Y121">
+        <v>4.25</v>
+      </c>
+      <c r="Z121">
+        <v>-1</v>
+      </c>
+      <c r="AA121">
+        <v>0.875</v>
+      </c>
+      <c r="AB121">
+        <v>-1</v>
+      </c>
+      <c r="AC121">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>7874796</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45382.45833333334</v>
+      </c>
+      <c r="F122" t="s">
+        <v>32</v>
+      </c>
+      <c r="G122" t="s">
+        <v>29</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122" t="s">
+        <v>47</v>
+      </c>
+      <c r="K122">
+        <v>1.571</v>
+      </c>
+      <c r="L122">
+        <v>4</v>
+      </c>
+      <c r="M122">
+        <v>4.333</v>
+      </c>
+      <c r="N122">
+        <v>1.85</v>
+      </c>
+      <c r="O122">
+        <v>3.3</v>
+      </c>
+      <c r="P122">
+        <v>3.6</v>
+      </c>
+      <c r="Q122">
+        <v>-0.5</v>
+      </c>
+      <c r="R122">
+        <v>1.95</v>
+      </c>
+      <c r="S122">
+        <v>1.85</v>
+      </c>
+      <c r="T122">
+        <v>2.25</v>
+      </c>
+      <c r="U122">
+        <v>2.025</v>
+      </c>
+      <c r="V122">
+        <v>1.775</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
+        <v>-1</v>
+      </c>
+      <c r="Y122">
+        <v>2.6</v>
+      </c>
+      <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB122">
+        <v>1.025</v>
+      </c>
+      <c r="AC122">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
+        <v>1.666</v>
+      </c>
+      <c r="N16">
+        <v>4.2</v>
+      </c>
+      <c r="O16">
         <v>3.4</v>
       </c>
-      <c r="M16">
-        <v>3.1</v>
-      </c>
-      <c r="N16">
-        <v>2.2</v>
-      </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
       <c r="P16">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB16">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N17">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O17">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,76 +2678,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L25">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N25">
+        <v>2.1</v>
+      </c>
+      <c r="O25">
         <v>3.1</v>
       </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
       <c r="P25">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
+        <v>1.95</v>
+      </c>
+      <c r="T25">
+        <v>2.25</v>
+      </c>
+      <c r="U25">
         <v>1.975</v>
       </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
-      <c r="U25">
-        <v>1.75</v>
-      </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y25">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
+        <v>0.475</v>
+      </c>
+      <c r="AB25">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB25">
-        <v>-1</v>
-      </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,76 +2767,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
+        <v>3.6</v>
+      </c>
+      <c r="L26">
+        <v>3.5</v>
+      </c>
+      <c r="M26">
+        <v>1.8</v>
+      </c>
+      <c r="N26">
         <v>3.1</v>
       </c>
-      <c r="L26">
-        <v>3.2</v>
-      </c>
-      <c r="M26">
-        <v>2.1</v>
-      </c>
-      <c r="N26">
-        <v>2.1</v>
-      </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>1.75</v>
+      </c>
+      <c r="V26">
         <v>1.95</v>
       </c>
-      <c r="T26">
-        <v>2.25</v>
-      </c>
-      <c r="U26">
-        <v>1.975</v>
-      </c>
-      <c r="V26">
-        <v>1.725</v>
-      </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6221729</v>
+        <v>6221732</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,49 +6060,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N63">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6111,16 +6111,16 @@
         <v>1.9</v>
       </c>
       <c r="W63">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6137,7 +6137,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6221732</v>
+        <v>6221729</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6149,49 +6149,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K64">
+        <v>2.9</v>
+      </c>
+      <c r="L64">
         <v>3.3</v>
       </c>
-      <c r="L64">
-        <v>3.25</v>
-      </c>
       <c r="M64">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N64">
+        <v>1.75</v>
+      </c>
+      <c r="O64">
         <v>3.5</v>
       </c>
-      <c r="O64">
-        <v>3.25</v>
-      </c>
       <c r="P64">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6200,16 +6200,16 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X64">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N92">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P92">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X92">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8730,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
+        <v>6</v>
+      </c>
+      <c r="N93">
+        <v>1.444</v>
+      </c>
+      <c r="O93">
+        <v>4.2</v>
+      </c>
+      <c r="P93">
         <v>6.5</v>
       </c>
-      <c r="N93">
-        <v>1.333</v>
-      </c>
-      <c r="O93">
-        <v>4.5</v>
-      </c>
-      <c r="P93">
-        <v>7.5</v>
-      </c>
       <c r="Q93">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,55 +9175,55 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L98">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N98">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O98">
         <v>3.2</v>
       </c>
       <c r="P98">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9232,19 +9232,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,56 +9264,56 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N99">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O99">
         <v>3.2</v>
       </c>
       <c r="P99">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>1.8</v>
+      </c>
+      <c r="T99">
+        <v>2.5</v>
+      </c>
+      <c r="U99">
         <v>1.9</v>
       </c>
-      <c r="S99">
+      <c r="V99">
         <v>1.9</v>
       </c>
-      <c r="T99">
-        <v>2</v>
-      </c>
-      <c r="U99">
-        <v>1.775</v>
-      </c>
-      <c r="V99">
-        <v>2.025</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
@@ -9321,19 +9321,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
+        <v>0.8</v>
+      </c>
+      <c r="AB99">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
       <c r="AC99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221754</v>
+        <v>6221816</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K101">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N101">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O101">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X101">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221755</v>
+        <v>6221814</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,76 +9531,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N102">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221816</v>
+        <v>6221755</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K103">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N103">
-        <v>4.2</v>
+        <v>1.444</v>
       </c>
       <c r="O103">
         <v>4</v>
       </c>
       <c r="P103">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="Q103">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
+        <v>1.8</v>
+      </c>
+      <c r="V103">
+        <v>2</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
         <v>3</v>
       </c>
-      <c r="U103">
-        <v>1.975</v>
-      </c>
-      <c r="V103">
-        <v>1.825</v>
-      </c>
-      <c r="W103">
-        <v>3.2</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221814</v>
+        <v>6221754</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,10 +9709,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9724,61 +9724,61 @@
         <v>48</v>
       </c>
       <c r="K104">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N104">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O104">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="P104">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S104">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T104">
         <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
         <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9964,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7874784</v>
+        <v>7874783</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,76 +9976,76 @@
         <v>45353.25</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K107">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N107">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O107">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P107">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X107">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7874783</v>
+        <v>7874784</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,76 +10065,76 @@
         <v>45353.25</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K108">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N108">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P108">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W108">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="109" spans="1:29">

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>FC Astana</t>
   </si>
   <si>
-    <t>Ordabasy</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
-    <t>FK Aktobe</t>
+    <t>Ordabasy</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AC123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M5">
+        <v>3.5</v>
+      </c>
+      <c r="N5">
+        <v>1.333</v>
+      </c>
+      <c r="O5">
         <v>4.75</v>
       </c>
-      <c r="N5">
-        <v>1.5</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L6">
+        <v>3.8</v>
+      </c>
+      <c r="M6">
+        <v>4.75</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>3.5</v>
-      </c>
-      <c r="N6">
-        <v>1.333</v>
-      </c>
-      <c r="O6">
-        <v>4.75</v>
-      </c>
       <c r="P6">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1880,7 +1880,7 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3927,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,64 +4903,64 @@
         <v>45151.5</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L50">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N50">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y50">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -4969,10 +4969,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,64 +4992,64 @@
         <v>45151.5</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>33</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51">
+        <v>6.5</v>
+      </c>
+      <c r="L51">
+        <v>4.5</v>
+      </c>
+      <c r="M51">
+        <v>1.363</v>
+      </c>
+      <c r="N51">
+        <v>4.2</v>
+      </c>
+      <c r="O51">
+        <v>4</v>
+      </c>
+      <c r="P51">
+        <v>1.6</v>
+      </c>
+      <c r="Q51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>48</v>
-      </c>
-      <c r="K51">
-        <v>3.75</v>
-      </c>
-      <c r="L51">
-        <v>3.3</v>
-      </c>
-      <c r="M51">
-        <v>1.833</v>
-      </c>
-      <c r="N51">
-        <v>2.6</v>
-      </c>
-      <c r="O51">
-        <v>3.1</v>
-      </c>
-      <c r="P51">
-        <v>2.5</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
       <c r="R51">
+        <v>1.725</v>
+      </c>
+      <c r="S51">
+        <v>2.075</v>
+      </c>
+      <c r="T51">
+        <v>2.25</v>
+      </c>
+      <c r="U51">
+        <v>1.875</v>
+      </c>
+      <c r="V51">
         <v>1.925</v>
       </c>
-      <c r="S51">
-        <v>1.875</v>
-      </c>
-      <c r="T51">
-        <v>2.5</v>
-      </c>
-      <c r="U51">
-        <v>1.9</v>
-      </c>
-      <c r="V51">
-        <v>1.9</v>
-      </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5526,7 +5526,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
@@ -5615,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6063,7 +6063,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6241,7 +6241,7 @@
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6683,10 +6683,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
         <v>33</v>
-      </c>
-      <c r="G70" t="s">
-        <v>32</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>31</v>
@@ -7751,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7929,7 +7929,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>31</v>
@@ -8199,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8911,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221752</v>
+        <v>6221815</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,76 +9175,76 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>48</v>
+      </c>
+      <c r="K98">
+        <v>3</v>
+      </c>
+      <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>2.25</v>
+      </c>
+      <c r="N98">
+        <v>3.1</v>
+      </c>
+      <c r="O98">
+        <v>3.1</v>
+      </c>
+      <c r="P98">
+        <v>2.15</v>
+      </c>
+      <c r="Q98">
+        <v>0.25</v>
+      </c>
+      <c r="R98">
+        <v>1.85</v>
+      </c>
+      <c r="S98">
+        <v>1.95</v>
+      </c>
+      <c r="T98">
+        <v>2.25</v>
+      </c>
+      <c r="U98">
+        <v>1.8</v>
+      </c>
+      <c r="V98">
+        <v>2</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>2.1</v>
+      </c>
+      <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
+        <v>0.425</v>
+      </c>
+      <c r="AA98">
+        <v>-0.5</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>1</v>
-      </c>
-      <c r="J98" t="s">
-        <v>47</v>
-      </c>
-      <c r="K98">
-        <v>1.833</v>
-      </c>
-      <c r="L98">
-        <v>3.2</v>
-      </c>
-      <c r="M98">
-        <v>4</v>
-      </c>
-      <c r="N98">
-        <v>1.85</v>
-      </c>
-      <c r="O98">
-        <v>3.2</v>
-      </c>
-      <c r="P98">
-        <v>4</v>
-      </c>
-      <c r="Q98">
-        <v>-0.5</v>
-      </c>
-      <c r="R98">
-        <v>1.9</v>
-      </c>
-      <c r="S98">
-        <v>1.9</v>
-      </c>
-      <c r="T98">
-        <v>2</v>
-      </c>
-      <c r="U98">
-        <v>1.775</v>
-      </c>
-      <c r="V98">
-        <v>2.025</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>3</v>
-      </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
-      <c r="AA98">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
-      <c r="AC98">
-        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221815</v>
+        <v>6221752</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,76 +9353,76 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K100">
+        <v>1.833</v>
+      </c>
+      <c r="L100">
+        <v>3.2</v>
+      </c>
+      <c r="M100">
+        <v>4</v>
+      </c>
+      <c r="N100">
+        <v>1.85</v>
+      </c>
+      <c r="O100">
+        <v>3.2</v>
+      </c>
+      <c r="P100">
+        <v>4</v>
+      </c>
+      <c r="Q100">
+        <v>-0.5</v>
+      </c>
+      <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
+        <v>1.9</v>
+      </c>
+      <c r="T100">
+        <v>2</v>
+      </c>
+      <c r="U100">
+        <v>1.775</v>
+      </c>
+      <c r="V100">
+        <v>2.025</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
         <v>3</v>
       </c>
-      <c r="L100">
-        <v>3</v>
-      </c>
-      <c r="M100">
-        <v>2.25</v>
-      </c>
-      <c r="N100">
-        <v>3.1</v>
-      </c>
-      <c r="O100">
-        <v>3.1</v>
-      </c>
-      <c r="P100">
-        <v>2.15</v>
-      </c>
-      <c r="Q100">
-        <v>0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.85</v>
-      </c>
-      <c r="S100">
-        <v>1.95</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
-      <c r="U100">
-        <v>1.8</v>
-      </c>
-      <c r="V100">
-        <v>2</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>2.1</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
       <c r="Z100">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221816</v>
+        <v>6221814</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>48</v>
+      </c>
+      <c r="K101">
+        <v>2.3</v>
+      </c>
+      <c r="L101">
+        <v>3.1</v>
+      </c>
+      <c r="M101">
+        <v>2.8</v>
+      </c>
+      <c r="N101">
+        <v>2.3</v>
+      </c>
+      <c r="O101">
+        <v>3.1</v>
+      </c>
+      <c r="P101">
+        <v>2.8</v>
+      </c>
+      <c r="Q101">
         <v>0</v>
       </c>
-      <c r="J101" t="s">
-        <v>46</v>
-      </c>
-      <c r="K101">
-        <v>3.4</v>
-      </c>
-      <c r="L101">
-        <v>3.4</v>
-      </c>
-      <c r="M101">
-        <v>1.909</v>
-      </c>
-      <c r="N101">
-        <v>4.2</v>
-      </c>
-      <c r="O101">
-        <v>4</v>
-      </c>
-      <c r="P101">
-        <v>1.571</v>
-      </c>
-      <c r="Q101">
-        <v>0.75</v>
-      </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S101">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221814</v>
+        <v>6221755</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,76 +9531,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L102">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O102">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221755</v>
+        <v>6221754</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
         <v>3.5</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N103">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221754</v>
+        <v>6221816</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,76 +9709,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N104">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O104">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R104">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X104">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10154,7 +10154,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10513,7 +10513,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7873759</v>
+        <v>7874795</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,76 +11044,76 @@
         <v>45382.25</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L119">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N119">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="O119">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q119">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R119">
+        <v>1.9</v>
+      </c>
+      <c r="S119">
+        <v>1.9</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
         <v>1.95</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.85</v>
       </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
-      <c r="U119">
-        <v>1.9</v>
-      </c>
-      <c r="V119">
-        <v>1.9</v>
-      </c>
       <c r="W119">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7874795</v>
+        <v>7873759</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,76 +11133,76 @@
         <v>45382.25</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L120">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N120">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P120">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
+        <v>1.85</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
         <v>1.9</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.9</v>
       </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
-      <c r="V120">
-        <v>1.85</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC120">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11381,6 +11381,80 @@
       </c>
       <c r="AC122">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>7873757</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45388.25</v>
+      </c>
+      <c r="F123" t="s">
+        <v>41</v>
+      </c>
+      <c r="G123" t="s">
+        <v>44</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>3.25</v>
+      </c>
+      <c r="M123">
+        <v>3.25</v>
+      </c>
+      <c r="N123">
+        <v>1.55</v>
+      </c>
+      <c r="O123">
+        <v>3.75</v>
+      </c>
+      <c r="P123">
+        <v>5.5</v>
+      </c>
+      <c r="Q123">
+        <v>-1</v>
+      </c>
+      <c r="R123">
+        <v>2.025</v>
+      </c>
+      <c r="S123">
+        <v>1.775</v>
+      </c>
+      <c r="T123">
+        <v>2.5</v>
+      </c>
+      <c r="U123">
+        <v>1.95</v>
+      </c>
+      <c r="V123">
+        <v>1.85</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC123"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N16">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L17">
+        <v>3.5</v>
+      </c>
+      <c r="M17">
+        <v>1.666</v>
+      </c>
+      <c r="N17">
+        <v>4.2</v>
+      </c>
+      <c r="O17">
         <v>3.4</v>
       </c>
-      <c r="M17">
-        <v>3.1</v>
-      </c>
-      <c r="N17">
-        <v>2.2</v>
-      </c>
-      <c r="O17">
-        <v>3.3</v>
-      </c>
       <c r="P17">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB17">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,76 +9175,76 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98" t="s">
+        <v>47</v>
+      </c>
+      <c r="K98">
+        <v>2.75</v>
+      </c>
+      <c r="L98">
+        <v>3.1</v>
+      </c>
+      <c r="M98">
+        <v>2.375</v>
+      </c>
+      <c r="N98">
+        <v>2.625</v>
+      </c>
+      <c r="O98">
+        <v>3.2</v>
+      </c>
+      <c r="P98">
+        <v>2.45</v>
+      </c>
+      <c r="Q98">
         <v>0</v>
       </c>
-      <c r="J98" t="s">
-        <v>48</v>
-      </c>
-      <c r="K98">
-        <v>3</v>
-      </c>
-      <c r="L98">
-        <v>3</v>
-      </c>
-      <c r="M98">
-        <v>2.25</v>
-      </c>
-      <c r="N98">
-        <v>3.1</v>
-      </c>
-      <c r="O98">
-        <v>3.1</v>
-      </c>
-      <c r="P98">
-        <v>2.15</v>
-      </c>
-      <c r="Q98">
-        <v>0.25</v>
-      </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z98">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,55 +9264,55 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L99">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O99">
         <v>3.2</v>
       </c>
       <c r="P99">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9321,19 +9321,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221752</v>
+        <v>6221815</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,76 +9353,76 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>48</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>2.25</v>
+      </c>
+      <c r="N100">
+        <v>3.1</v>
+      </c>
+      <c r="O100">
+        <v>3.1</v>
+      </c>
+      <c r="P100">
+        <v>2.15</v>
+      </c>
+      <c r="Q100">
+        <v>0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.85</v>
+      </c>
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
+        <v>1.8</v>
+      </c>
+      <c r="V100">
+        <v>2</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>2.1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
+        <v>0.425</v>
+      </c>
+      <c r="AA100">
+        <v>-0.5</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>1</v>
-      </c>
-      <c r="J100" t="s">
-        <v>47</v>
-      </c>
-      <c r="K100">
-        <v>1.833</v>
-      </c>
-      <c r="L100">
-        <v>3.2</v>
-      </c>
-      <c r="M100">
-        <v>4</v>
-      </c>
-      <c r="N100">
-        <v>1.85</v>
-      </c>
-      <c r="O100">
-        <v>3.2</v>
-      </c>
-      <c r="P100">
-        <v>4</v>
-      </c>
-      <c r="Q100">
-        <v>-0.5</v>
-      </c>
-      <c r="R100">
-        <v>1.9</v>
-      </c>
-      <c r="S100">
-        <v>1.9</v>
-      </c>
-      <c r="T100">
-        <v>2</v>
-      </c>
-      <c r="U100">
-        <v>1.775</v>
-      </c>
-      <c r="V100">
-        <v>2.025</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>3</v>
-      </c>
-      <c r="Z100">
-        <v>-1</v>
-      </c>
-      <c r="AA100">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
-      <c r="AC100">
-        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -11381,80 +11381,6 @@
       </c>
       <c r="AC122">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:29">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>7873757</v>
-      </c>
-      <c r="C123" t="s">
-        <v>28</v>
-      </c>
-      <c r="D123" t="s">
-        <v>28</v>
-      </c>
-      <c r="E123" s="2">
-        <v>45388.25</v>
-      </c>
-      <c r="F123" t="s">
-        <v>41</v>
-      </c>
-      <c r="G123" t="s">
-        <v>44</v>
-      </c>
-      <c r="K123">
-        <v>2</v>
-      </c>
-      <c r="L123">
-        <v>3.25</v>
-      </c>
-      <c r="M123">
-        <v>3.25</v>
-      </c>
-      <c r="N123">
-        <v>1.55</v>
-      </c>
-      <c r="O123">
-        <v>3.75</v>
-      </c>
-      <c r="P123">
-        <v>5.5</v>
-      </c>
-      <c r="Q123">
-        <v>-1</v>
-      </c>
-      <c r="R123">
-        <v>2.025</v>
-      </c>
-      <c r="S123">
-        <v>1.775</v>
-      </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>1.95</v>
-      </c>
-      <c r="V123">
-        <v>1.85</v>
-      </c>
-      <c r="W123">
-        <v>0</v>
-      </c>
-      <c r="X123">
-        <v>0</v>
-      </c>
-      <c r="Y123">
-        <v>0</v>
-      </c>
-      <c r="Z123">
-        <v>0</v>
-      </c>
-      <c r="AA123">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,58 +1254,58 @@
         <v>45101.375</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L9">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N9">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O9">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P9">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q9">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1314,13 +1314,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,58 +1343,58 @@
         <v>45101.375</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M10">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O10">
+        <v>5.5</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>-2</v>
+      </c>
+      <c r="R10">
+        <v>1.975</v>
+      </c>
+      <c r="S10">
+        <v>1.825</v>
+      </c>
+      <c r="T10">
         <v>3</v>
       </c>
-      <c r="P10">
-        <v>3.2</v>
-      </c>
-      <c r="Q10">
-        <v>-0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.875</v>
-      </c>
-      <c r="S10">
-        <v>1.925</v>
-      </c>
-      <c r="T10">
-        <v>2.25</v>
-      </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1403,13 +1403,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
+        <v>1.666</v>
+      </c>
+      <c r="N16">
+        <v>4.2</v>
+      </c>
+      <c r="O16">
         <v>3.4</v>
       </c>
-      <c r="M16">
-        <v>3.1</v>
-      </c>
-      <c r="N16">
-        <v>2.2</v>
-      </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
       <c r="P16">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB16">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N17">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O17">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6221708</v>
+        <v>6221712</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.5</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K37">
+        <v>2.1</v>
+      </c>
+      <c r="L37">
+        <v>3.25</v>
+      </c>
+      <c r="M37">
         <v>3</v>
       </c>
-      <c r="L37">
-        <v>3.4</v>
-      </c>
-      <c r="M37">
-        <v>2.05</v>
-      </c>
       <c r="N37">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P37">
+        <v>2.9</v>
+      </c>
+      <c r="Q37">
+        <v>-0.25</v>
+      </c>
+      <c r="R37">
         <v>1.95</v>
       </c>
-      <c r="Q37">
-        <v>0.5</v>
-      </c>
-      <c r="R37">
-        <v>1.75</v>
-      </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X37">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221712</v>
+        <v>6221708</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45136.5</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O38">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
+        <v>1.75</v>
+      </c>
+      <c r="S38">
         <v>1.95</v>
       </c>
-      <c r="S38">
-        <v>1.85</v>
-      </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,64 +4903,64 @@
         <v>45151.5</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50">
+        <v>6.5</v>
+      </c>
+      <c r="L50">
+        <v>4.5</v>
+      </c>
+      <c r="M50">
+        <v>1.363</v>
+      </c>
+      <c r="N50">
+        <v>4.2</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50">
+        <v>1.6</v>
+      </c>
+      <c r="Q50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K50">
-        <v>3.75</v>
-      </c>
-      <c r="L50">
-        <v>3.3</v>
-      </c>
-      <c r="M50">
-        <v>1.833</v>
-      </c>
-      <c r="N50">
-        <v>2.6</v>
-      </c>
-      <c r="O50">
-        <v>3.1</v>
-      </c>
-      <c r="P50">
-        <v>2.5</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
       <c r="R50">
+        <v>1.725</v>
+      </c>
+      <c r="S50">
+        <v>2.075</v>
+      </c>
+      <c r="T50">
+        <v>2.25</v>
+      </c>
+      <c r="U50">
+        <v>1.875</v>
+      </c>
+      <c r="V50">
         <v>1.925</v>
       </c>
-      <c r="S50">
-        <v>1.875</v>
-      </c>
-      <c r="T50">
-        <v>2.5</v>
-      </c>
-      <c r="U50">
-        <v>1.9</v>
-      </c>
-      <c r="V50">
-        <v>1.9</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -4969,10 +4969,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,64 +4992,64 @@
         <v>45151.5</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N51">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y51">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6221732</v>
+        <v>6221729</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,49 +6060,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K63">
+        <v>2.9</v>
+      </c>
+      <c r="L63">
         <v>3.3</v>
       </c>
-      <c r="L63">
-        <v>3.25</v>
-      </c>
       <c r="M63">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N63">
+        <v>1.75</v>
+      </c>
+      <c r="O63">
         <v>3.5</v>
       </c>
-      <c r="O63">
-        <v>3.25</v>
-      </c>
       <c r="P63">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6111,16 +6111,16 @@
         <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X63">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6137,7 +6137,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6221729</v>
+        <v>6221732</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6149,49 +6149,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K64">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6200,16 +6200,16 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45200.25</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N85">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O85">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,76 +8107,76 @@
         <v>45200.25</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N86">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
         <v>1.8</v>
-      </c>
-      <c r="S86">
-        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
         <v>0.8</v>
       </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
+        <v>6</v>
+      </c>
+      <c r="N92">
+        <v>1.444</v>
+      </c>
+      <c r="O92">
+        <v>4.2</v>
+      </c>
+      <c r="P92">
         <v>6.5</v>
       </c>
-      <c r="N92">
-        <v>1.333</v>
-      </c>
-      <c r="O92">
-        <v>4.5</v>
-      </c>
-      <c r="P92">
-        <v>7.5</v>
-      </c>
       <c r="Q92">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8730,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N93">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O93">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P93">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X93">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221752</v>
+        <v>6221815</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,76 +9264,76 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>48</v>
+      </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>2.25</v>
+      </c>
+      <c r="N99">
+        <v>3.1</v>
+      </c>
+      <c r="O99">
+        <v>3.1</v>
+      </c>
+      <c r="P99">
+        <v>2.15</v>
+      </c>
+      <c r="Q99">
+        <v>0.25</v>
+      </c>
+      <c r="R99">
+        <v>1.85</v>
+      </c>
+      <c r="S99">
+        <v>1.95</v>
+      </c>
+      <c r="T99">
+        <v>2.25</v>
+      </c>
+      <c r="U99">
+        <v>1.8</v>
+      </c>
+      <c r="V99">
+        <v>2</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>2.1</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
+        <v>0.425</v>
+      </c>
+      <c r="AA99">
+        <v>-0.5</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>1</v>
-      </c>
-      <c r="J99" t="s">
-        <v>47</v>
-      </c>
-      <c r="K99">
-        <v>1.833</v>
-      </c>
-      <c r="L99">
-        <v>3.2</v>
-      </c>
-      <c r="M99">
-        <v>4</v>
-      </c>
-      <c r="N99">
-        <v>1.85</v>
-      </c>
-      <c r="O99">
-        <v>3.2</v>
-      </c>
-      <c r="P99">
-        <v>4</v>
-      </c>
-      <c r="Q99">
-        <v>-0.5</v>
-      </c>
-      <c r="R99">
-        <v>1.9</v>
-      </c>
-      <c r="S99">
-        <v>1.9</v>
-      </c>
-      <c r="T99">
-        <v>2</v>
-      </c>
-      <c r="U99">
-        <v>1.775</v>
-      </c>
-      <c r="V99">
-        <v>2.025</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>3</v>
-      </c>
-      <c r="Z99">
-        <v>-1</v>
-      </c>
-      <c r="AA99">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
-      <c r="AC99">
-        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221815</v>
+        <v>6221752</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,76 +9353,76 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K100">
+        <v>1.833</v>
+      </c>
+      <c r="L100">
+        <v>3.2</v>
+      </c>
+      <c r="M100">
+        <v>4</v>
+      </c>
+      <c r="N100">
+        <v>1.85</v>
+      </c>
+      <c r="O100">
+        <v>3.2</v>
+      </c>
+      <c r="P100">
+        <v>4</v>
+      </c>
+      <c r="Q100">
+        <v>-0.5</v>
+      </c>
+      <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
+        <v>1.9</v>
+      </c>
+      <c r="T100">
+        <v>2</v>
+      </c>
+      <c r="U100">
+        <v>1.775</v>
+      </c>
+      <c r="V100">
+        <v>2.025</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
         <v>3</v>
       </c>
-      <c r="L100">
-        <v>3</v>
-      </c>
-      <c r="M100">
-        <v>2.25</v>
-      </c>
-      <c r="N100">
-        <v>3.1</v>
-      </c>
-      <c r="O100">
-        <v>3.1</v>
-      </c>
-      <c r="P100">
-        <v>2.15</v>
-      </c>
-      <c r="Q100">
-        <v>0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.85</v>
-      </c>
-      <c r="S100">
-        <v>1.95</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
-      <c r="U100">
-        <v>1.8</v>
-      </c>
-      <c r="V100">
-        <v>2</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>2.1</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
       <c r="Z100">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221814</v>
+        <v>6221816</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L101">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N101">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="O101">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
         <v>1.75</v>
       </c>
-      <c r="S101">
-        <v>2.05</v>
-      </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X101">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221816</v>
+        <v>6221814</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,76 +9709,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>48</v>
+      </c>
+      <c r="K104">
+        <v>2.3</v>
+      </c>
+      <c r="L104">
+        <v>3.1</v>
+      </c>
+      <c r="M104">
+        <v>2.8</v>
+      </c>
+      <c r="N104">
+        <v>2.3</v>
+      </c>
+      <c r="O104">
+        <v>3.1</v>
+      </c>
+      <c r="P104">
+        <v>2.8</v>
+      </c>
+      <c r="Q104">
         <v>0</v>
       </c>
-      <c r="J104" t="s">
-        <v>46</v>
-      </c>
-      <c r="K104">
-        <v>3.4</v>
-      </c>
-      <c r="L104">
-        <v>3.4</v>
-      </c>
-      <c r="M104">
-        <v>1.909</v>
-      </c>
-      <c r="N104">
-        <v>4.2</v>
-      </c>
-      <c r="O104">
-        <v>4</v>
-      </c>
-      <c r="P104">
-        <v>1.571</v>
-      </c>
-      <c r="Q104">
-        <v>0.75</v>
-      </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S104">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7874795</v>
+        <v>7873759</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,76 +11044,76 @@
         <v>45382.25</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L119">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N119">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P119">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R119">
+        <v>1.95</v>
+      </c>
+      <c r="S119">
+        <v>1.85</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
         <v>1.9</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.9</v>
       </c>
-      <c r="T119">
-        <v>2</v>
-      </c>
-      <c r="U119">
-        <v>1.95</v>
-      </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X119">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7873759</v>
+        <v>7874795</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,76 +11133,76 @@
         <v>45382.25</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="M120">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N120">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="O120">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q120">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R120">
+        <v>1.9</v>
+      </c>
+      <c r="S120">
+        <v>1.9</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
         <v>1.95</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="T120">
-        <v>2.75</v>
-      </c>
-      <c r="U120">
-        <v>1.9</v>
-      </c>
-      <c r="V120">
-        <v>1.9</v>
-      </c>
       <c r="W120">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11381,6 +11381,540 @@
       </c>
       <c r="AC122">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>7873757</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45388.25</v>
+      </c>
+      <c r="F123" t="s">
+        <v>41</v>
+      </c>
+      <c r="G123" t="s">
+        <v>44</v>
+      </c>
+      <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>46</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>3.25</v>
+      </c>
+      <c r="M123">
+        <v>3.25</v>
+      </c>
+      <c r="N123">
+        <v>1.7</v>
+      </c>
+      <c r="O123">
+        <v>3.3</v>
+      </c>
+      <c r="P123">
+        <v>4.75</v>
+      </c>
+      <c r="Q123">
+        <v>-0.75</v>
+      </c>
+      <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>1.85</v>
+      </c>
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
+      </c>
+      <c r="V123">
+        <v>1.8</v>
+      </c>
+      <c r="W123">
+        <v>0.7</v>
+      </c>
+      <c r="X123">
+        <v>-1</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>0.95</v>
+      </c>
+      <c r="AA123">
+        <v>-1</v>
+      </c>
+      <c r="AB123">
+        <v>1</v>
+      </c>
+      <c r="AC123">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>7874797</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45388.35416666666</v>
+      </c>
+      <c r="F124" t="s">
+        <v>43</v>
+      </c>
+      <c r="G124" t="s">
+        <v>35</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>46</v>
+      </c>
+      <c r="K124">
+        <v>2.2</v>
+      </c>
+      <c r="L124">
+        <v>3.5</v>
+      </c>
+      <c r="M124">
+        <v>2.7</v>
+      </c>
+      <c r="N124">
+        <v>1.6</v>
+      </c>
+      <c r="O124">
+        <v>3.8</v>
+      </c>
+      <c r="P124">
+        <v>4.333</v>
+      </c>
+      <c r="Q124">
+        <v>-0.75</v>
+      </c>
+      <c r="R124">
+        <v>1.8</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
+        <v>1.85</v>
+      </c>
+      <c r="V124">
+        <v>1.95</v>
+      </c>
+      <c r="W124">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>0.4</v>
+      </c>
+      <c r="AA124">
+        <v>-0.5</v>
+      </c>
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>7874798</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F125" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" t="s">
+        <v>34</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" t="s">
+        <v>48</v>
+      </c>
+      <c r="K125">
+        <v>1.727</v>
+      </c>
+      <c r="L125">
+        <v>3.75</v>
+      </c>
+      <c r="M125">
+        <v>3.75</v>
+      </c>
+      <c r="N125">
+        <v>1.571</v>
+      </c>
+      <c r="O125">
+        <v>3.75</v>
+      </c>
+      <c r="P125">
+        <v>4.75</v>
+      </c>
+      <c r="Q125">
+        <v>-1</v>
+      </c>
+      <c r="R125">
+        <v>1.8</v>
+      </c>
+      <c r="S125">
+        <v>2</v>
+      </c>
+      <c r="T125">
+        <v>2.5</v>
+      </c>
+      <c r="U125">
+        <v>1.95</v>
+      </c>
+      <c r="V125">
+        <v>1.75</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>2.75</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
+        <v>1</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>7874799</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45389.25</v>
+      </c>
+      <c r="F126" t="s">
+        <v>32</v>
+      </c>
+      <c r="G126" t="s">
+        <v>36</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>48</v>
+      </c>
+      <c r="K126">
+        <v>1.85</v>
+      </c>
+      <c r="L126">
+        <v>3.25</v>
+      </c>
+      <c r="M126">
+        <v>3.75</v>
+      </c>
+      <c r="N126">
+        <v>1.65</v>
+      </c>
+      <c r="O126">
+        <v>3.4</v>
+      </c>
+      <c r="P126">
+        <v>4.5</v>
+      </c>
+      <c r="Q126">
+        <v>-0.75</v>
+      </c>
+      <c r="R126">
+        <v>1.9</v>
+      </c>
+      <c r="S126">
+        <v>1.9</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
+        <v>2.025</v>
+      </c>
+      <c r="V126">
+        <v>1.775</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>2.4</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
+        <v>-1</v>
+      </c>
+      <c r="AA126">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB126">
+        <v>-0.5</v>
+      </c>
+      <c r="AC126">
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>7871216</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45389.35416666666</v>
+      </c>
+      <c r="F127" t="s">
+        <v>37</v>
+      </c>
+      <c r="G127" t="s">
+        <v>31</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>46</v>
+      </c>
+      <c r="K127">
+        <v>2.6</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>2.5</v>
+      </c>
+      <c r="N127">
+        <v>6</v>
+      </c>
+      <c r="O127">
+        <v>4</v>
+      </c>
+      <c r="P127">
+        <v>1.4</v>
+      </c>
+      <c r="Q127">
+        <v>1.25</v>
+      </c>
+      <c r="R127">
+        <v>1.8</v>
+      </c>
+      <c r="S127">
+        <v>2</v>
+      </c>
+      <c r="T127">
+        <v>2.25</v>
+      </c>
+      <c r="U127">
+        <v>1.85</v>
+      </c>
+      <c r="V127">
+        <v>1.95</v>
+      </c>
+      <c r="W127">
+        <v>5</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
+        <v>0.8</v>
+      </c>
+      <c r="AA127">
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>7874801</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45389.45833333334</v>
+      </c>
+      <c r="F128" t="s">
+        <v>45</v>
+      </c>
+      <c r="G128" t="s">
+        <v>33</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>47</v>
+      </c>
+      <c r="K128">
+        <v>2.5</v>
+      </c>
+      <c r="L128">
+        <v>3.75</v>
+      </c>
+      <c r="M128">
+        <v>2.25</v>
+      </c>
+      <c r="N128">
+        <v>5.75</v>
+      </c>
+      <c r="O128">
+        <v>4.333</v>
+      </c>
+      <c r="P128">
+        <v>1.444</v>
+      </c>
+      <c r="Q128">
+        <v>1.25</v>
+      </c>
+      <c r="R128">
+        <v>1.775</v>
+      </c>
+      <c r="S128">
+        <v>2.025</v>
+      </c>
+      <c r="T128">
+        <v>2.25</v>
+      </c>
+      <c r="U128">
+        <v>1.9</v>
+      </c>
+      <c r="V128">
+        <v>1.9</v>
+      </c>
+      <c r="W128">
+        <v>-1</v>
+      </c>
+      <c r="X128">
+        <v>-1</v>
+      </c>
+      <c r="Y128">
+        <v>0.444</v>
+      </c>
+      <c r="Z128">
+        <v>0.3875</v>
+      </c>
+      <c r="AA128">
+        <v>-0.5</v>
+      </c>
+      <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -112,10 +112,10 @@
     <t>FC Astana</t>
   </si>
   <si>
-    <t>FK Aktobe</t>
+    <t>Ordabasy</t>
   </si>
   <si>
-    <t>Ordabasy</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L5">
+        <v>3.8</v>
+      </c>
+      <c r="M5">
+        <v>4.75</v>
+      </c>
+      <c r="N5">
+        <v>1.5</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
-      <c r="N5">
-        <v>1.333</v>
-      </c>
-      <c r="O5">
-        <v>4.75</v>
-      </c>
       <c r="P5">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M6">
+        <v>3.5</v>
+      </c>
+      <c r="N6">
+        <v>1.333</v>
+      </c>
+      <c r="O6">
         <v>4.75</v>
       </c>
-      <c r="N6">
-        <v>1.5</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,58 +1254,58 @@
         <v>45101.375</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M9">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N9">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O9">
+        <v>5.5</v>
+      </c>
+      <c r="P9">
+        <v>11</v>
+      </c>
+      <c r="Q9">
+        <v>-2</v>
+      </c>
+      <c r="R9">
+        <v>1.975</v>
+      </c>
+      <c r="S9">
+        <v>1.825</v>
+      </c>
+      <c r="T9">
         <v>3</v>
       </c>
-      <c r="P9">
-        <v>3.2</v>
-      </c>
-      <c r="Q9">
-        <v>-0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.875</v>
-      </c>
-      <c r="S9">
-        <v>1.925</v>
-      </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1314,13 +1314,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,58 +1343,58 @@
         <v>45101.375</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L10">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N10">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O10">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q10">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1403,13 +1403,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1613,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N16">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L17">
+        <v>3.5</v>
+      </c>
+      <c r="M17">
+        <v>1.666</v>
+      </c>
+      <c r="N17">
+        <v>4.2</v>
+      </c>
+      <c r="O17">
         <v>3.4</v>
       </c>
-      <c r="M17">
-        <v>3.1</v>
-      </c>
-      <c r="N17">
-        <v>2.2</v>
-      </c>
-      <c r="O17">
-        <v>3.3</v>
-      </c>
       <c r="P17">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB17">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2411,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3927,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4906,7 +4906,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4995,7 +4995,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5526,7 +5526,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
@@ -5615,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6152,7 +6152,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6241,7 +6241,7 @@
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6683,10 +6683,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
         <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>31</v>
@@ -7751,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7929,7 +7929,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
         <v>31</v>
@@ -8199,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8273,7 +8273,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6221811</v>
+        <v>6221810</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8285,76 +8285,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M88">
+        <v>3.8</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>3.1</v>
+      </c>
+      <c r="P88">
+        <v>3.5</v>
+      </c>
+      <c r="Q88">
+        <v>-0.5</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
         <v>1.8</v>
       </c>
-      <c r="N88">
-        <v>3.8</v>
-      </c>
-      <c r="O88">
-        <v>3.6</v>
-      </c>
-      <c r="P88">
-        <v>1.75</v>
-      </c>
-      <c r="Q88">
-        <v>0.75</v>
-      </c>
-      <c r="R88">
-        <v>1.8</v>
-      </c>
-      <c r="S88">
-        <v>2</v>
-      </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V88">
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X88">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8362,7 +8362,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6221810</v>
+        <v>6221811</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8374,76 +8374,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
+        <v>1.8</v>
+      </c>
+      <c r="N89">
         <v>3.8</v>
       </c>
-      <c r="N89">
-        <v>2</v>
-      </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
         <v>1.975</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8911,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221753</v>
+        <v>6221815</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,76 +9175,76 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>48</v>
+      </c>
+      <c r="K98">
         <v>3</v>
       </c>
-      <c r="J98" t="s">
-        <v>47</v>
-      </c>
-      <c r="K98">
-        <v>2.75</v>
-      </c>
       <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>2.25</v>
+      </c>
+      <c r="N98">
         <v>3.1</v>
       </c>
-      <c r="M98">
-        <v>2.375</v>
-      </c>
-      <c r="N98">
-        <v>2.625</v>
-      </c>
       <c r="O98">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P98">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S98">
+        <v>1.95</v>
+      </c>
+      <c r="T98">
+        <v>2.25</v>
+      </c>
+      <c r="U98">
         <v>1.8</v>
       </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.9</v>
-      </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y98">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,76 +9264,76 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99" t="s">
+        <v>47</v>
+      </c>
+      <c r="K99">
+        <v>2.75</v>
+      </c>
+      <c r="L99">
+        <v>3.1</v>
+      </c>
+      <c r="M99">
+        <v>2.375</v>
+      </c>
+      <c r="N99">
+        <v>2.625</v>
+      </c>
+      <c r="O99">
+        <v>3.2</v>
+      </c>
+      <c r="P99">
+        <v>2.45</v>
+      </c>
+      <c r="Q99">
         <v>0</v>
       </c>
-      <c r="J99" t="s">
-        <v>48</v>
-      </c>
-      <c r="K99">
-        <v>3</v>
-      </c>
-      <c r="L99">
-        <v>3</v>
-      </c>
-      <c r="M99">
-        <v>2.25</v>
-      </c>
-      <c r="N99">
-        <v>3.1</v>
-      </c>
-      <c r="O99">
-        <v>3.1</v>
-      </c>
-      <c r="P99">
-        <v>2.15</v>
-      </c>
-      <c r="Q99">
-        <v>0.25</v>
-      </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z99">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC99">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221816</v>
+        <v>6221755</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N101">
-        <v>4.2</v>
+        <v>1.444</v>
       </c>
       <c r="O101">
         <v>4</v>
       </c>
       <c r="P101">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="Q101">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
+        <v>1.8</v>
+      </c>
+      <c r="V101">
+        <v>2</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
         <v>3</v>
       </c>
-      <c r="U101">
-        <v>1.975</v>
-      </c>
-      <c r="V101">
-        <v>1.825</v>
-      </c>
-      <c r="W101">
-        <v>3.2</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221755</v>
+        <v>6221754</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,76 +9531,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L102">
         <v>3.5</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N102">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221754</v>
+        <v>6221816</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N103">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O103">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R103">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X103">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10154,7 +10154,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10513,7 +10513,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7873759</v>
+        <v>7874795</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,76 +11044,76 @@
         <v>45382.25</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L119">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N119">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="O119">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q119">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R119">
+        <v>1.9</v>
+      </c>
+      <c r="S119">
+        <v>1.9</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
         <v>1.95</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.85</v>
       </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
-      <c r="U119">
-        <v>1.9</v>
-      </c>
-      <c r="V119">
-        <v>1.9</v>
-      </c>
       <c r="W119">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7874795</v>
+        <v>7873759</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,76 +11133,76 @@
         <v>45382.25</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L120">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N120">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P120">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
+        <v>1.85</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
         <v>1.9</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.9</v>
       </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
-      <c r="V120">
-        <v>1.85</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC120">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11667,7 +11667,7 @@
         <v>45389.25</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -11848,7 +11848,7 @@
         <v>45</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>0</v>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -112,10 +112,10 @@
     <t>FC Astana</t>
   </si>
   <si>
-    <t>Ordabasy</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
-    <t>FK Aktobe</t>
+    <t>Ordabasy</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M5">
+        <v>3.5</v>
+      </c>
+      <c r="N5">
+        <v>1.333</v>
+      </c>
+      <c r="O5">
         <v>4.75</v>
       </c>
-      <c r="N5">
-        <v>1.5</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L6">
+        <v>3.8</v>
+      </c>
+      <c r="M6">
+        <v>4.75</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>3.5</v>
-      </c>
-      <c r="N6">
-        <v>1.333</v>
-      </c>
-      <c r="O6">
-        <v>4.75</v>
-      </c>
       <c r="P6">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,58 +1254,58 @@
         <v>45101.375</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L9">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N9">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O9">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P9">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q9">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1314,13 +1314,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,58 +1343,58 @@
         <v>45101.375</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M10">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O10">
+        <v>5.5</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>-2</v>
+      </c>
+      <c r="R10">
+        <v>1.975</v>
+      </c>
+      <c r="S10">
+        <v>1.825</v>
+      </c>
+      <c r="T10">
         <v>3</v>
       </c>
-      <c r="P10">
-        <v>3.2</v>
-      </c>
-      <c r="Q10">
-        <v>-0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.875</v>
-      </c>
-      <c r="S10">
-        <v>1.925</v>
-      </c>
-      <c r="T10">
-        <v>2.25</v>
-      </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1403,13 +1403,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1613,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
+        <v>1.666</v>
+      </c>
+      <c r="N16">
+        <v>4.2</v>
+      </c>
+      <c r="O16">
         <v>3.4</v>
       </c>
-      <c r="M16">
-        <v>3.1</v>
-      </c>
-      <c r="N16">
-        <v>2.2</v>
-      </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
       <c r="P16">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB16">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N17">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O17">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2411,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,76 +2678,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
+        <v>3.6</v>
+      </c>
+      <c r="L25">
+        <v>3.5</v>
+      </c>
+      <c r="M25">
+        <v>1.8</v>
+      </c>
+      <c r="N25">
         <v>3.1</v>
       </c>
-      <c r="L25">
-        <v>3.2</v>
-      </c>
-      <c r="M25">
-        <v>2.1</v>
-      </c>
-      <c r="N25">
-        <v>2.1</v>
-      </c>
       <c r="O25">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
+        <v>2.5</v>
+      </c>
+      <c r="U25">
+        <v>1.75</v>
+      </c>
+      <c r="V25">
         <v>1.95</v>
       </c>
-      <c r="T25">
-        <v>2.25</v>
-      </c>
-      <c r="U25">
-        <v>1.975</v>
-      </c>
-      <c r="V25">
-        <v>1.725</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,76 +2767,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N26">
+        <v>2.1</v>
+      </c>
+      <c r="O26">
         <v>3.1</v>
       </c>
-      <c r="O26">
-        <v>3.5</v>
-      </c>
       <c r="P26">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
+        <v>1.95</v>
+      </c>
+      <c r="T26">
+        <v>2.25</v>
+      </c>
+      <c r="U26">
         <v>1.975</v>
       </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.75</v>
-      </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
+        <v>0.475</v>
+      </c>
+      <c r="AB26">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6221712</v>
+        <v>6221708</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.5</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N37">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P37">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
+        <v>1.75</v>
+      </c>
+      <c r="S37">
         <v>1.95</v>
       </c>
-      <c r="S37">
-        <v>1.85</v>
-      </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221708</v>
+        <v>6221712</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45136.5</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K38">
+        <v>2.1</v>
+      </c>
+      <c r="L38">
+        <v>3.25</v>
+      </c>
+      <c r="M38">
         <v>3</v>
       </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>2.05</v>
-      </c>
       <c r="N38">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P38">
+        <v>2.9</v>
+      </c>
+      <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
         <v>1.95</v>
       </c>
-      <c r="Q38">
-        <v>0.5</v>
-      </c>
-      <c r="R38">
-        <v>1.75</v>
-      </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4906,7 +4906,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4995,7 +4995,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5526,7 +5526,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
@@ -5615,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6221729</v>
+        <v>6221732</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,49 +6060,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N63">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6111,16 +6111,16 @@
         <v>1.9</v>
       </c>
       <c r="W63">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6137,7 +6137,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6221732</v>
+        <v>6221729</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6149,49 +6149,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K64">
+        <v>2.9</v>
+      </c>
+      <c r="L64">
         <v>3.3</v>
       </c>
-      <c r="L64">
-        <v>3.25</v>
-      </c>
       <c r="M64">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N64">
+        <v>1.75</v>
+      </c>
+      <c r="O64">
         <v>3.5</v>
       </c>
-      <c r="O64">
-        <v>3.25</v>
-      </c>
       <c r="P64">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6200,16 +6200,16 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X64">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6241,7 +6241,7 @@
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6683,10 +6683,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
         <v>33</v>
-      </c>
-      <c r="G70" t="s">
-        <v>32</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>31</v>
@@ -7751,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7929,7 +7929,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>31</v>
@@ -8199,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8273,7 +8273,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6221810</v>
+        <v>6221811</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8285,76 +8285,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L88">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
+        <v>1.8</v>
+      </c>
+      <c r="N88">
         <v>3.8</v>
       </c>
-      <c r="N88">
-        <v>2</v>
-      </c>
       <c r="O88">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8362,7 +8362,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6221811</v>
+        <v>6221810</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8374,76 +8374,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M89">
+        <v>3.8</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89">
+        <v>3.1</v>
+      </c>
+      <c r="P89">
+        <v>3.5</v>
+      </c>
+      <c r="Q89">
+        <v>-0.5</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
         <v>1.8</v>
       </c>
-      <c r="N89">
-        <v>3.8</v>
-      </c>
-      <c r="O89">
-        <v>3.6</v>
-      </c>
-      <c r="P89">
-        <v>1.75</v>
-      </c>
-      <c r="Q89">
-        <v>0.75</v>
-      </c>
-      <c r="R89">
-        <v>1.8</v>
-      </c>
-      <c r="S89">
-        <v>2</v>
-      </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V89">
         <v>1.975</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X89">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N92">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P92">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X92">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8730,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
+        <v>6</v>
+      </c>
+      <c r="N93">
+        <v>1.444</v>
+      </c>
+      <c r="O93">
+        <v>4.2</v>
+      </c>
+      <c r="P93">
         <v>6.5</v>
       </c>
-      <c r="N93">
-        <v>1.333</v>
-      </c>
-      <c r="O93">
-        <v>4.5</v>
-      </c>
-      <c r="P93">
-        <v>7.5</v>
-      </c>
       <c r="Q93">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8911,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,55 +9264,55 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L99">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O99">
         <v>3.2</v>
       </c>
       <c r="P99">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9321,19 +9321,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,56 +9353,56 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N100">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O100">
         <v>3.2</v>
       </c>
       <c r="P100">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>1.8</v>
+      </c>
+      <c r="T100">
+        <v>2.5</v>
+      </c>
+      <c r="U100">
         <v>1.9</v>
       </c>
-      <c r="S100">
+      <c r="V100">
         <v>1.9</v>
       </c>
-      <c r="T100">
-        <v>2</v>
-      </c>
-      <c r="U100">
-        <v>1.775</v>
-      </c>
-      <c r="V100">
-        <v>2.025</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
@@ -9410,19 +9410,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
+        <v>0.8</v>
+      </c>
+      <c r="AB100">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
       <c r="AC100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9442,7 +9442,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>34</v>
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221816</v>
+        <v>6221814</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>48</v>
+      </c>
+      <c r="K103">
+        <v>2.3</v>
+      </c>
+      <c r="L103">
+        <v>3.1</v>
+      </c>
+      <c r="M103">
+        <v>2.8</v>
+      </c>
+      <c r="N103">
+        <v>2.3</v>
+      </c>
+      <c r="O103">
+        <v>3.1</v>
+      </c>
+      <c r="P103">
+        <v>2.8</v>
+      </c>
+      <c r="Q103">
         <v>0</v>
       </c>
-      <c r="J103" t="s">
-        <v>46</v>
-      </c>
-      <c r="K103">
-        <v>3.4</v>
-      </c>
-      <c r="L103">
-        <v>3.4</v>
-      </c>
-      <c r="M103">
-        <v>1.909</v>
-      </c>
-      <c r="N103">
-        <v>4.2</v>
-      </c>
-      <c r="O103">
-        <v>4</v>
-      </c>
-      <c r="P103">
-        <v>1.571</v>
-      </c>
-      <c r="Q103">
-        <v>0.75</v>
-      </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S103">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221814</v>
+        <v>6221816</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,76 +9709,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N104">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="O104">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
         <v>1.75</v>
       </c>
-      <c r="S104">
-        <v>2.05</v>
-      </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X104">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10154,7 +10154,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10513,7 +10513,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         <v>45382.25</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
         <v>44</v>
@@ -11311,7 +11311,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11667,7 +11667,7 @@
         <v>45389.25</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -11848,7 +11848,7 @@
         <v>45</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H128">
         <v>0</v>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -112,10 +112,10 @@
     <t>FC Astana</t>
   </si>
   <si>
-    <t>FK Aktobe</t>
+    <t>Ordabasy</t>
   </si>
   <si>
-    <t>Ordabasy</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L5">
+        <v>3.8</v>
+      </c>
+      <c r="M5">
+        <v>4.75</v>
+      </c>
+      <c r="N5">
+        <v>1.5</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
-      <c r="N5">
-        <v>1.333</v>
-      </c>
-      <c r="O5">
-        <v>4.75</v>
-      </c>
       <c r="P5">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M6">
+        <v>3.5</v>
+      </c>
+      <c r="N6">
+        <v>1.333</v>
+      </c>
+      <c r="O6">
         <v>4.75</v>
       </c>
-      <c r="N6">
-        <v>1.5</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N16">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L17">
+        <v>3.5</v>
+      </c>
+      <c r="M17">
+        <v>1.666</v>
+      </c>
+      <c r="N17">
+        <v>4.2</v>
+      </c>
+      <c r="O17">
         <v>3.4</v>
       </c>
-      <c r="M17">
-        <v>3.1</v>
-      </c>
-      <c r="N17">
-        <v>2.2</v>
-      </c>
-      <c r="O17">
-        <v>3.3</v>
-      </c>
       <c r="P17">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB17">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2411,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3927,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4906,7 +4906,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4995,7 +4995,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5526,7 +5526,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
@@ -5615,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6221732</v>
+        <v>6221729</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,49 +6060,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K63">
+        <v>2.9</v>
+      </c>
+      <c r="L63">
         <v>3.3</v>
       </c>
-      <c r="L63">
-        <v>3.25</v>
-      </c>
       <c r="M63">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N63">
+        <v>1.75</v>
+      </c>
+      <c r="O63">
         <v>3.5</v>
       </c>
-      <c r="O63">
-        <v>3.25</v>
-      </c>
       <c r="P63">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6111,16 +6111,16 @@
         <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X63">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6137,7 +6137,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6221729</v>
+        <v>6221732</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6149,49 +6149,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K64">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6200,16 +6200,16 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6241,7 +6241,7 @@
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6683,10 +6683,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
         <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>31</v>
@@ -7751,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7929,7 +7929,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
         <v>31</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45200.25</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N85">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
         <v>1.8</v>
-      </c>
-      <c r="S85">
-        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>0.8</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,76 +8107,76 @@
         <v>45200.25</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K86">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N86">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q86">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
+        <v>6</v>
+      </c>
+      <c r="N92">
+        <v>1.444</v>
+      </c>
+      <c r="O92">
+        <v>4.2</v>
+      </c>
+      <c r="P92">
         <v>6.5</v>
       </c>
-      <c r="N92">
-        <v>1.333</v>
-      </c>
-      <c r="O92">
-        <v>4.5</v>
-      </c>
-      <c r="P92">
-        <v>7.5</v>
-      </c>
       <c r="Q92">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8730,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N93">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O93">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P93">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X93">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8911,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221755</v>
+        <v>6221816</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
+        <v>42</v>
+      </c>
+      <c r="G101" t="s">
         <v>32</v>
       </c>
-      <c r="G101" t="s">
-        <v>34</v>
-      </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K101">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N101">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="O101">
         <v>4</v>
       </c>
       <c r="P101">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
+        <v>1.75</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
         <v>1.975</v>
       </c>
-      <c r="S101">
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="T101">
-        <v>2.75</v>
-      </c>
-      <c r="U101">
-        <v>1.8</v>
-      </c>
-      <c r="V101">
-        <v>2</v>
-      </c>
       <c r="W101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X101">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA101">
+        <v>-1</v>
+      </c>
+      <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
         <v>0.825</v>
-      </c>
-      <c r="AB101">
-        <v>0.8</v>
-      </c>
-      <c r="AC101">
-        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221754</v>
+        <v>6221814</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,10 +9531,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9546,61 +9546,61 @@
         <v>48</v>
       </c>
       <c r="K102">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M102">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N102">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="O102">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
         <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>0.3999999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
         <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.45</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221814</v>
+        <v>6221755</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N103">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC103">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221816</v>
+        <v>6221754</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,76 +9709,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K104">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N104">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P104">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S104">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9964,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7874783</v>
+        <v>7874784</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,76 +9976,76 @@
         <v>45353.25</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K107">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M107">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N107">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P107">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W107">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7874784</v>
+        <v>7874783</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,76 +10065,76 @@
         <v>45353.25</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K108">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N108">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O108">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X108">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10513,7 +10513,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7874795</v>
+        <v>7873759</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,76 +11044,76 @@
         <v>45382.25</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L119">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N119">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P119">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R119">
+        <v>1.95</v>
+      </c>
+      <c r="S119">
+        <v>1.85</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
         <v>1.9</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.9</v>
       </c>
-      <c r="T119">
-        <v>2</v>
-      </c>
-      <c r="U119">
-        <v>1.95</v>
-      </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X119">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7873759</v>
+        <v>7874795</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,76 +11133,76 @@
         <v>45382.25</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="M120">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N120">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="O120">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q120">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R120">
+        <v>1.9</v>
+      </c>
+      <c r="S120">
+        <v>1.9</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
         <v>1.95</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="T120">
-        <v>2.75</v>
-      </c>
-      <c r="U120">
-        <v>1.9</v>
-      </c>
-      <c r="V120">
-        <v>1.9</v>
-      </c>
       <c r="W120">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11667,7 +11667,7 @@
         <v>45389.25</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -11848,7 +11848,7 @@
         <v>45</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>0</v>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -112,10 +112,10 @@
     <t>FC Astana</t>
   </si>
   <si>
-    <t>Ordabasy</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
-    <t>FK Aktobe</t>
+    <t>Ordabasy</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M5">
+        <v>3.5</v>
+      </c>
+      <c r="N5">
+        <v>1.333</v>
+      </c>
+      <c r="O5">
         <v>4.75</v>
       </c>
-      <c r="N5">
-        <v>1.5</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L6">
+        <v>3.8</v>
+      </c>
+      <c r="M6">
+        <v>4.75</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>3.5</v>
-      </c>
-      <c r="N6">
-        <v>1.333</v>
-      </c>
-      <c r="O6">
-        <v>4.75</v>
-      </c>
       <c r="P6">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
+        <v>1.666</v>
+      </c>
+      <c r="N16">
+        <v>4.2</v>
+      </c>
+      <c r="O16">
         <v>3.4</v>
       </c>
-      <c r="M16">
-        <v>3.1</v>
-      </c>
-      <c r="N16">
-        <v>2.2</v>
-      </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
       <c r="P16">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB16">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N17">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O17">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2411,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6221708</v>
+        <v>6221712</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.5</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K37">
+        <v>2.1</v>
+      </c>
+      <c r="L37">
+        <v>3.25</v>
+      </c>
+      <c r="M37">
         <v>3</v>
       </c>
-      <c r="L37">
-        <v>3.4</v>
-      </c>
-      <c r="M37">
-        <v>2.05</v>
-      </c>
       <c r="N37">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P37">
+        <v>2.9</v>
+      </c>
+      <c r="Q37">
+        <v>-0.25</v>
+      </c>
+      <c r="R37">
         <v>1.95</v>
       </c>
-      <c r="Q37">
-        <v>0.5</v>
-      </c>
-      <c r="R37">
-        <v>1.75</v>
-      </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X37">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221712</v>
+        <v>6221708</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45136.5</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O38">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
+        <v>1.75</v>
+      </c>
+      <c r="S38">
         <v>1.95</v>
       </c>
-      <c r="S38">
-        <v>1.85</v>
-      </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4906,7 +4906,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4995,7 +4995,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5526,7 +5526,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
@@ -5615,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6152,7 +6152,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6241,7 +6241,7 @@
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6683,10 +6683,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
         <v>33</v>
-      </c>
-      <c r="G70" t="s">
-        <v>32</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>31</v>
@@ -7751,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7929,7 +7929,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>31</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45200.25</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N85">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O85">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,76 +8107,76 @@
         <v>45200.25</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N86">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
         <v>1.8</v>
-      </c>
-      <c r="S86">
-        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
         <v>0.8</v>
       </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8273,7 +8273,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6221811</v>
+        <v>6221810</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8285,76 +8285,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M88">
+        <v>3.8</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>3.1</v>
+      </c>
+      <c r="P88">
+        <v>3.5</v>
+      </c>
+      <c r="Q88">
+        <v>-0.5</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
         <v>1.8</v>
       </c>
-      <c r="N88">
-        <v>3.8</v>
-      </c>
-      <c r="O88">
-        <v>3.6</v>
-      </c>
-      <c r="P88">
-        <v>1.75</v>
-      </c>
-      <c r="Q88">
-        <v>0.75</v>
-      </c>
-      <c r="R88">
-        <v>1.8</v>
-      </c>
-      <c r="S88">
-        <v>2</v>
-      </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V88">
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X88">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8362,7 +8362,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6221810</v>
+        <v>6221811</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8374,76 +8374,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
+        <v>1.8</v>
+      </c>
+      <c r="N89">
         <v>3.8</v>
       </c>
-      <c r="N89">
-        <v>2</v>
-      </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
         <v>1.975</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8911,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,56 +9264,56 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N99">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O99">
         <v>3.2</v>
       </c>
       <c r="P99">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>1.8</v>
+      </c>
+      <c r="T99">
+        <v>2.5</v>
+      </c>
+      <c r="U99">
         <v>1.9</v>
       </c>
-      <c r="S99">
+      <c r="V99">
         <v>1.9</v>
       </c>
-      <c r="T99">
-        <v>2</v>
-      </c>
-      <c r="U99">
-        <v>1.775</v>
-      </c>
-      <c r="V99">
-        <v>2.025</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
@@ -9321,19 +9321,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
+        <v>0.8</v>
+      </c>
+      <c r="AB99">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
       <c r="AC99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,55 +9353,55 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L100">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N100">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O100">
         <v>3.2</v>
       </c>
       <c r="P100">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9410,19 +9410,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221816</v>
+        <v>6221754</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N101">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P101">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S101">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221814</v>
+        <v>6221755</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,76 +9531,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L102">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O102">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221755</v>
+        <v>6221816</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
+        <v>42</v>
+      </c>
+      <c r="G103" t="s">
         <v>33</v>
       </c>
-      <c r="G103" t="s">
-        <v>34</v>
-      </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N103">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="O103">
         <v>4</v>
       </c>
       <c r="P103">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R103">
+        <v>1.95</v>
+      </c>
+      <c r="S103">
+        <v>1.75</v>
+      </c>
+      <c r="T103">
+        <v>3</v>
+      </c>
+      <c r="U103">
         <v>1.975</v>
       </c>
-      <c r="S103">
+      <c r="V103">
         <v>1.825</v>
       </c>
-      <c r="T103">
-        <v>2.75</v>
-      </c>
-      <c r="U103">
-        <v>1.8</v>
-      </c>
-      <c r="V103">
-        <v>2</v>
-      </c>
       <c r="W103">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X103">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA103">
+        <v>-1</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.825</v>
-      </c>
-      <c r="AB103">
-        <v>0.8</v>
-      </c>
-      <c r="AC103">
-        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221754</v>
+        <v>6221814</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,10 +9709,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9724,61 +9724,61 @@
         <v>48</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N104">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="O104">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S104">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T104">
         <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>0.3999999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
         <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>0.45</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10154,7 +10154,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10513,7 +10513,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -11044,7 +11044,7 @@
         <v>45382.25</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>44</v>
@@ -11311,7 +11311,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11667,7 +11667,7 @@
         <v>45389.25</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -11848,7 +11848,7 @@
         <v>45</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H128">
         <v>0</v>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -106,10 +106,10 @@
     <t>Kairat Almaty</t>
   </si>
   <si>
-    <t>Tobol Kostanay</t>
+    <t>FC Astana</t>
   </si>
   <si>
-    <t>FC Astana</t>
+    <t>Tobol Kostanay</t>
   </si>
   <si>
     <t>FK Aktobe</t>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6726053</v>
+        <v>6221684</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -735,43 +735,43 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N3">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P3">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
+        <v>1.925</v>
+      </c>
+      <c r="V3">
         <v>1.875</v>
       </c>
-      <c r="V3">
-        <v>1.925</v>
-      </c>
       <c r="W3">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6221684</v>
+        <v>6726053</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,7 +812,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -824,43 +824,43 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
+        <v>3.2</v>
+      </c>
+      <c r="M4">
+        <v>2.5</v>
+      </c>
+      <c r="N4">
+        <v>1.8</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
         <v>4.2</v>
       </c>
-      <c r="M4">
-        <v>4.5</v>
-      </c>
-      <c r="N4">
-        <v>1.222</v>
-      </c>
-      <c r="O4">
-        <v>5.5</v>
-      </c>
-      <c r="P4">
-        <v>9</v>
-      </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
+        <v>1.875</v>
+      </c>
+      <c r="V4">
         <v>1.925</v>
       </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
       <c r="W4">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -869,16 +869,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,58 +1254,58 @@
         <v>45101.375</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M9">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N9">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O9">
+        <v>5.5</v>
+      </c>
+      <c r="P9">
+        <v>11</v>
+      </c>
+      <c r="Q9">
+        <v>-2</v>
+      </c>
+      <c r="R9">
+        <v>1.975</v>
+      </c>
+      <c r="S9">
+        <v>1.825</v>
+      </c>
+      <c r="T9">
         <v>3</v>
       </c>
-      <c r="P9">
-        <v>3.2</v>
-      </c>
-      <c r="Q9">
-        <v>-0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.875</v>
-      </c>
-      <c r="S9">
-        <v>1.925</v>
-      </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1314,13 +1314,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,58 +1343,58 @@
         <v>45101.375</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L10">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N10">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O10">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q10">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1403,13 +1403,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1435,7 +1435,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -2236,7 +2236,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>45109.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,76 +2678,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L25">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N25">
+        <v>2.1</v>
+      </c>
+      <c r="O25">
         <v>3.1</v>
       </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
       <c r="P25">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
+        <v>1.95</v>
+      </c>
+      <c r="T25">
+        <v>2.25</v>
+      </c>
+      <c r="U25">
         <v>1.975</v>
       </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
-      <c r="U25">
-        <v>1.75</v>
-      </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y25">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
+        <v>0.475</v>
+      </c>
+      <c r="AB25">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB25">
-        <v>-1</v>
-      </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,76 +2767,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
+        <v>3.6</v>
+      </c>
+      <c r="L26">
+        <v>3.5</v>
+      </c>
+      <c r="M26">
+        <v>1.8</v>
+      </c>
+      <c r="N26">
         <v>3.1</v>
       </c>
-      <c r="L26">
-        <v>3.2</v>
-      </c>
-      <c r="M26">
-        <v>2.1</v>
-      </c>
-      <c r="N26">
-        <v>2.1</v>
-      </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>1.75</v>
+      </c>
+      <c r="V26">
         <v>1.95</v>
       </c>
-      <c r="T26">
-        <v>2.25</v>
-      </c>
-      <c r="U26">
-        <v>1.975</v>
-      </c>
-      <c r="V26">
-        <v>1.725</v>
-      </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3568,7 +3568,7 @@
         <v>45130.5</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -3660,7 +3660,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4369,7 +4369,7 @@
         <v>45144.44791666666</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4817,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,64 +4903,64 @@
         <v>45151.5</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L50">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N50">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y50">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -4969,10 +4969,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,64 +4992,64 @@
         <v>45151.5</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51">
+        <v>6.5</v>
+      </c>
+      <c r="L51">
+        <v>4.5</v>
+      </c>
+      <c r="M51">
+        <v>1.363</v>
+      </c>
+      <c r="N51">
+        <v>4.2</v>
+      </c>
+      <c r="O51">
+        <v>4</v>
+      </c>
+      <c r="P51">
+        <v>1.6</v>
+      </c>
+      <c r="Q51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>48</v>
-      </c>
-      <c r="K51">
-        <v>3.75</v>
-      </c>
-      <c r="L51">
-        <v>3.3</v>
-      </c>
-      <c r="M51">
-        <v>1.833</v>
-      </c>
-      <c r="N51">
-        <v>2.6</v>
-      </c>
-      <c r="O51">
-        <v>3.1</v>
-      </c>
-      <c r="P51">
-        <v>2.5</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
       <c r="R51">
+        <v>1.725</v>
+      </c>
+      <c r="S51">
+        <v>2.075</v>
+      </c>
+      <c r="T51">
+        <v>2.25</v>
+      </c>
+      <c r="U51">
+        <v>1.875</v>
+      </c>
+      <c r="V51">
         <v>1.925</v>
       </c>
-      <c r="S51">
-        <v>1.875</v>
-      </c>
-      <c r="T51">
-        <v>2.5</v>
-      </c>
-      <c r="U51">
-        <v>1.9</v>
-      </c>
-      <c r="V51">
-        <v>1.9</v>
-      </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5437,7 +5437,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
         <v>35</v>
@@ -5529,7 +5529,7 @@
         <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6238,7 +6238,7 @@
         <v>45165.5</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -6594,10 +6594,10 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
         <v>31</v>
-      </c>
-      <c r="G69" t="s">
-        <v>30</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -7395,7 +7395,7 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
@@ -7487,7 +7487,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7662,7 +7662,7 @@
         <v>45196.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>39</v>
@@ -7843,7 +7843,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7932,7 +7932,7 @@
         <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45200.25</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N85">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
         <v>1.8</v>
-      </c>
-      <c r="S85">
-        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>0.8</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,76 +8107,76 @@
         <v>45200.25</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K86">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N86">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q86">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8641,7 +8641,7 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
         <v>42</v>
@@ -8819,7 +8819,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
         <v>34</v>
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,76 +9175,76 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98" t="s">
+        <v>47</v>
+      </c>
+      <c r="K98">
+        <v>2.75</v>
+      </c>
+      <c r="L98">
+        <v>3.1</v>
+      </c>
+      <c r="M98">
+        <v>2.375</v>
+      </c>
+      <c r="N98">
+        <v>2.625</v>
+      </c>
+      <c r="O98">
+        <v>3.2</v>
+      </c>
+      <c r="P98">
+        <v>2.45</v>
+      </c>
+      <c r="Q98">
         <v>0</v>
       </c>
-      <c r="J98" t="s">
-        <v>48</v>
-      </c>
-      <c r="K98">
-        <v>3</v>
-      </c>
-      <c r="L98">
-        <v>3</v>
-      </c>
-      <c r="M98">
-        <v>2.25</v>
-      </c>
-      <c r="N98">
-        <v>3.1</v>
-      </c>
-      <c r="O98">
-        <v>3.1</v>
-      </c>
-      <c r="P98">
-        <v>2.15</v>
-      </c>
-      <c r="Q98">
-        <v>0.25</v>
-      </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z98">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221753</v>
+        <v>6221815</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,76 +9264,76 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>48</v>
+      </c>
+      <c r="K99">
         <v>3</v>
       </c>
-      <c r="J99" t="s">
-        <v>47</v>
-      </c>
-      <c r="K99">
-        <v>2.75</v>
-      </c>
       <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>2.25</v>
+      </c>
+      <c r="N99">
         <v>3.1</v>
       </c>
-      <c r="M99">
-        <v>2.375</v>
-      </c>
-      <c r="N99">
-        <v>2.625</v>
-      </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P99">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
+        <v>1.95</v>
+      </c>
+      <c r="T99">
+        <v>2.25</v>
+      </c>
+      <c r="U99">
         <v>1.8</v>
       </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y99">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221754</v>
+        <v>6221755</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>48</v>
       </c>
       <c r="K101">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L101">
         <v>3.5</v>
       </c>
       <c r="M101">
+        <v>4</v>
+      </c>
+      <c r="N101">
+        <v>1.444</v>
+      </c>
+      <c r="O101">
+        <v>4</v>
+      </c>
+      <c r="P101">
+        <v>6</v>
+      </c>
+      <c r="Q101">
+        <v>-1.25</v>
+      </c>
+      <c r="R101">
+        <v>1.975</v>
+      </c>
+      <c r="S101">
+        <v>1.825</v>
+      </c>
+      <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
         <v>1.8</v>
       </c>
-      <c r="N101">
-        <v>5</v>
-      </c>
-      <c r="O101">
-        <v>1.4</v>
-      </c>
-      <c r="P101">
-        <v>5</v>
-      </c>
-      <c r="Q101">
-        <v>0.25</v>
-      </c>
-      <c r="R101">
-        <v>1.7</v>
-      </c>
-      <c r="S101">
-        <v>2.1</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
-      <c r="U101">
-        <v>1.9</v>
-      </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>0.3999999999999999</v>
+        <v>3</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC101">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221755</v>
+        <v>6221816</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,76 +9531,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K102">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N102">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="O102">
         <v>4</v>
       </c>
       <c r="P102">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R102">
+        <v>1.95</v>
+      </c>
+      <c r="S102">
+        <v>1.75</v>
+      </c>
+      <c r="T102">
+        <v>3</v>
+      </c>
+      <c r="U102">
         <v>1.975</v>
       </c>
-      <c r="S102">
+      <c r="V102">
         <v>1.825</v>
       </c>
-      <c r="T102">
-        <v>2.75</v>
-      </c>
-      <c r="U102">
-        <v>1.8</v>
-      </c>
-      <c r="V102">
-        <v>2</v>
-      </c>
       <c r="W102">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X102">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA102">
+        <v>-1</v>
+      </c>
+      <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
         <v>0.825</v>
-      </c>
-      <c r="AB102">
-        <v>0.8</v>
-      </c>
-      <c r="AC102">
-        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221816</v>
+        <v>6221754</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K103">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N103">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P103">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q103">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S103">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T103">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>45352.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
         <v>44</v>
@@ -10243,7 +10243,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
         <v>45</v>
@@ -10335,7 +10335,7 @@
         <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>45357.47916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>43</v>
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7873759</v>
+        <v>7874795</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,76 +11044,76 @@
         <v>45382.25</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L119">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N119">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="O119">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q119">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R119">
+        <v>1.9</v>
+      </c>
+      <c r="S119">
+        <v>1.9</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
         <v>1.95</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.85</v>
       </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
-      <c r="U119">
-        <v>1.9</v>
-      </c>
-      <c r="V119">
-        <v>1.9</v>
-      </c>
       <c r="W119">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7874795</v>
+        <v>7873759</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,76 +11133,76 @@
         <v>45382.25</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L120">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N120">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P120">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
+        <v>1.85</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
         <v>1.9</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.9</v>
       </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
-      <c r="V120">
-        <v>1.85</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC120">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11222,7 +11222,7 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
         <v>43</v>
@@ -11759,7 +11759,7 @@
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>1</v>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -112,10 +112,10 @@
     <t>Tobol Kostanay</t>
   </si>
   <si>
-    <t>FK Aktobe</t>
+    <t>Ordabasy</t>
   </si>
   <si>
-    <t>Ordabasy</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L5">
+        <v>3.8</v>
+      </c>
+      <c r="M5">
+        <v>4.75</v>
+      </c>
+      <c r="N5">
+        <v>1.5</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
-      <c r="N5">
-        <v>1.333</v>
-      </c>
-      <c r="O5">
-        <v>4.75</v>
-      </c>
       <c r="P5">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M6">
+        <v>3.5</v>
+      </c>
+      <c r="N6">
+        <v>1.333</v>
+      </c>
+      <c r="O6">
         <v>4.75</v>
       </c>
-      <c r="N6">
-        <v>1.5</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N16">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L17">
+        <v>3.5</v>
+      </c>
+      <c r="M17">
+        <v>1.666</v>
+      </c>
+      <c r="N17">
+        <v>4.2</v>
+      </c>
+      <c r="O17">
         <v>3.4</v>
       </c>
-      <c r="M17">
-        <v>3.1</v>
-      </c>
-      <c r="N17">
-        <v>2.2</v>
-      </c>
-      <c r="O17">
-        <v>3.3</v>
-      </c>
       <c r="P17">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB17">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2411,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3927,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4906,7 +4906,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4995,7 +4995,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5526,7 +5526,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -5615,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6221729</v>
+        <v>6221732</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,49 +6060,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N63">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6111,16 +6111,16 @@
         <v>1.9</v>
       </c>
       <c r="W63">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6137,7 +6137,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6221732</v>
+        <v>6221729</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6149,49 +6149,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K64">
+        <v>2.9</v>
+      </c>
+      <c r="L64">
         <v>3.3</v>
       </c>
-      <c r="L64">
-        <v>3.25</v>
-      </c>
       <c r="M64">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N64">
+        <v>1.75</v>
+      </c>
+      <c r="O64">
         <v>3.5</v>
       </c>
-      <c r="O64">
-        <v>3.25</v>
-      </c>
       <c r="P64">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6200,16 +6200,16 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X64">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6241,7 +6241,7 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6683,10 +6683,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
         <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>30</v>
@@ -7751,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7929,7 +7929,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
         <v>30</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45200.25</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N85">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O85">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,76 +8107,76 @@
         <v>45200.25</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N86">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
         <v>1.8</v>
-      </c>
-      <c r="S86">
-        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
         <v>0.8</v>
       </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8273,7 +8273,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6221810</v>
+        <v>6221811</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8285,76 +8285,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L88">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
+        <v>1.8</v>
+      </c>
+      <c r="N88">
         <v>3.8</v>
       </c>
-      <c r="N88">
-        <v>2</v>
-      </c>
       <c r="O88">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8362,7 +8362,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6221811</v>
+        <v>6221810</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8374,76 +8374,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M89">
+        <v>3.8</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89">
+        <v>3.1</v>
+      </c>
+      <c r="P89">
+        <v>3.5</v>
+      </c>
+      <c r="Q89">
+        <v>-0.5</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
         <v>1.8</v>
       </c>
-      <c r="N89">
-        <v>3.8</v>
-      </c>
-      <c r="O89">
-        <v>3.6</v>
-      </c>
-      <c r="P89">
-        <v>1.75</v>
-      </c>
-      <c r="Q89">
-        <v>0.75</v>
-      </c>
-      <c r="R89">
-        <v>1.8</v>
-      </c>
-      <c r="S89">
-        <v>2</v>
-      </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V89">
         <v>1.975</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X89">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N92">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P92">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X92">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8730,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
+        <v>6</v>
+      </c>
+      <c r="N93">
+        <v>1.444</v>
+      </c>
+      <c r="O93">
+        <v>4.2</v>
+      </c>
+      <c r="P93">
         <v>6.5</v>
       </c>
-      <c r="N93">
-        <v>1.333</v>
-      </c>
-      <c r="O93">
-        <v>4.5</v>
-      </c>
-      <c r="P93">
-        <v>7.5</v>
-      </c>
       <c r="Q93">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8911,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221755</v>
+        <v>6221816</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
+        <v>42</v>
+      </c>
+      <c r="G101" t="s">
         <v>32</v>
       </c>
-      <c r="G101" t="s">
-        <v>34</v>
-      </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K101">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N101">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="O101">
         <v>4</v>
       </c>
       <c r="P101">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
+        <v>1.75</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
         <v>1.975</v>
       </c>
-      <c r="S101">
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="T101">
-        <v>2.75</v>
-      </c>
-      <c r="U101">
-        <v>1.8</v>
-      </c>
-      <c r="V101">
-        <v>2</v>
-      </c>
       <c r="W101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X101">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA101">
+        <v>-1</v>
+      </c>
+      <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
         <v>0.825</v>
-      </c>
-      <c r="AB101">
-        <v>0.8</v>
-      </c>
-      <c r="AC101">
-        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221816</v>
+        <v>6221814</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,76 +9531,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>48</v>
+      </c>
+      <c r="K102">
+        <v>2.3</v>
+      </c>
+      <c r="L102">
+        <v>3.1</v>
+      </c>
+      <c r="M102">
+        <v>2.8</v>
+      </c>
+      <c r="N102">
+        <v>2.3</v>
+      </c>
+      <c r="O102">
+        <v>3.1</v>
+      </c>
+      <c r="P102">
+        <v>2.8</v>
+      </c>
+      <c r="Q102">
         <v>0</v>
       </c>
-      <c r="J102" t="s">
-        <v>46</v>
-      </c>
-      <c r="K102">
-        <v>3.4</v>
-      </c>
-      <c r="L102">
-        <v>3.4</v>
-      </c>
-      <c r="M102">
-        <v>1.909</v>
-      </c>
-      <c r="N102">
-        <v>4.2</v>
-      </c>
-      <c r="O102">
-        <v>4</v>
-      </c>
-      <c r="P102">
-        <v>1.571</v>
-      </c>
-      <c r="Q102">
-        <v>0.75</v>
-      </c>
       <c r="R102">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221754</v>
+        <v>6221755</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
         <v>3.5</v>
       </c>
       <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="N103">
+        <v>1.444</v>
+      </c>
+      <c r="O103">
+        <v>4</v>
+      </c>
+      <c r="P103">
+        <v>6</v>
+      </c>
+      <c r="Q103">
+        <v>-1.25</v>
+      </c>
+      <c r="R103">
+        <v>1.975</v>
+      </c>
+      <c r="S103">
+        <v>1.825</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
         <v>1.8</v>
       </c>
-      <c r="N103">
-        <v>5</v>
-      </c>
-      <c r="O103">
-        <v>1.4</v>
-      </c>
-      <c r="P103">
-        <v>5</v>
-      </c>
-      <c r="Q103">
-        <v>0.25</v>
-      </c>
-      <c r="R103">
-        <v>1.7</v>
-      </c>
-      <c r="S103">
-        <v>2.1</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.9</v>
-      </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>0.3999999999999999</v>
+        <v>3</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC103">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221814</v>
+        <v>6221754</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,10 +9709,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9724,61 +9724,61 @@
         <v>48</v>
       </c>
       <c r="K104">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N104">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O104">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="P104">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S104">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T104">
         <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
         <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10154,7 +10154,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10513,7 +10513,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7874795</v>
+        <v>7873759</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,76 +11044,76 @@
         <v>45382.25</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L119">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N119">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P119">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R119">
+        <v>1.95</v>
+      </c>
+      <c r="S119">
+        <v>1.85</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
         <v>1.9</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.9</v>
       </c>
-      <c r="T119">
-        <v>2</v>
-      </c>
-      <c r="U119">
-        <v>1.95</v>
-      </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X119">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7873759</v>
+        <v>7874795</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,76 +11133,76 @@
         <v>45382.25</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="M120">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N120">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="O120">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q120">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R120">
+        <v>1.9</v>
+      </c>
+      <c r="S120">
+        <v>1.9</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
         <v>1.95</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="T120">
-        <v>2.75</v>
-      </c>
-      <c r="U120">
-        <v>1.9</v>
-      </c>
-      <c r="V120">
-        <v>1.9</v>
-      </c>
       <c r="W120">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11667,7 +11667,7 @@
         <v>45389.25</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -11848,7 +11848,7 @@
         <v>45</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>0</v>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -106,10 +106,10 @@
     <t>Kairat Almaty</t>
   </si>
   <si>
-    <t>FC Astana</t>
+    <t>Tobol Kostanay</t>
   </si>
   <si>
-    <t>Tobol Kostanay</t>
+    <t>FC Astana</t>
   </si>
   <si>
     <t>Ordabasy</t>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6221684</v>
+        <v>6726053</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -735,43 +735,43 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
+        <v>3.2</v>
+      </c>
+      <c r="M3">
+        <v>2.5</v>
+      </c>
+      <c r="N3">
+        <v>1.8</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
         <v>4.2</v>
       </c>
-      <c r="M3">
-        <v>4.5</v>
-      </c>
-      <c r="N3">
-        <v>1.222</v>
-      </c>
-      <c r="O3">
-        <v>5.5</v>
-      </c>
-      <c r="P3">
-        <v>9</v>
-      </c>
       <c r="Q3">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
+        <v>1.875</v>
+      </c>
+      <c r="V3">
         <v>1.925</v>
       </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
       <c r="W3">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6726053</v>
+        <v>6221684</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,7 +812,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -824,43 +824,43 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L4">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N4">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P4">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
+        <v>1.925</v>
+      </c>
+      <c r="V4">
         <v>1.875</v>
       </c>
-      <c r="V4">
-        <v>1.925</v>
-      </c>
       <c r="W4">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -869,16 +869,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,58 +1254,58 @@
         <v>45101.375</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L9">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N9">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O9">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P9">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q9">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1314,13 +1314,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,58 +1343,58 @@
         <v>45101.375</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M10">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O10">
+        <v>5.5</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>-2</v>
+      </c>
+      <c r="R10">
+        <v>1.975</v>
+      </c>
+      <c r="S10">
+        <v>1.825</v>
+      </c>
+      <c r="T10">
         <v>3</v>
       </c>
-      <c r="P10">
-        <v>3.2</v>
-      </c>
-      <c r="Q10">
-        <v>-0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.875</v>
-      </c>
-      <c r="S10">
-        <v>1.925</v>
-      </c>
-      <c r="T10">
-        <v>2.25</v>
-      </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1403,13 +1403,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1435,7 +1435,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
+        <v>1.666</v>
+      </c>
+      <c r="N16">
+        <v>4.2</v>
+      </c>
+      <c r="O16">
         <v>3.4</v>
       </c>
-      <c r="M16">
-        <v>3.1</v>
-      </c>
-      <c r="N16">
-        <v>2.2</v>
-      </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
       <c r="P16">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB16">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N17">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O17">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2236,7 +2236,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>45109.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,76 +2678,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
+        <v>3.6</v>
+      </c>
+      <c r="L25">
+        <v>3.5</v>
+      </c>
+      <c r="M25">
+        <v>1.8</v>
+      </c>
+      <c r="N25">
         <v>3.1</v>
       </c>
-      <c r="L25">
-        <v>3.2</v>
-      </c>
-      <c r="M25">
-        <v>2.1</v>
-      </c>
-      <c r="N25">
-        <v>2.1</v>
-      </c>
       <c r="O25">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
+        <v>2.5</v>
+      </c>
+      <c r="U25">
+        <v>1.75</v>
+      </c>
+      <c r="V25">
         <v>1.95</v>
       </c>
-      <c r="T25">
-        <v>2.25</v>
-      </c>
-      <c r="U25">
-        <v>1.975</v>
-      </c>
-      <c r="V25">
-        <v>1.725</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,76 +2767,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N26">
+        <v>2.1</v>
+      </c>
+      <c r="O26">
         <v>3.1</v>
       </c>
-      <c r="O26">
-        <v>3.5</v>
-      </c>
       <c r="P26">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
+        <v>1.95</v>
+      </c>
+      <c r="T26">
+        <v>2.25</v>
+      </c>
+      <c r="U26">
         <v>1.975</v>
       </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.75</v>
-      </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
+        <v>0.475</v>
+      </c>
+      <c r="AB26">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3568,7 +3568,7 @@
         <v>45130.5</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -3660,7 +3660,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6221712</v>
+        <v>6221708</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.5</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N37">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P37">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
+        <v>1.75</v>
+      </c>
+      <c r="S37">
         <v>1.95</v>
       </c>
-      <c r="S37">
-        <v>1.85</v>
-      </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221708</v>
+        <v>6221712</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45136.5</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K38">
+        <v>2.1</v>
+      </c>
+      <c r="L38">
+        <v>3.25</v>
+      </c>
+      <c r="M38">
         <v>3</v>
       </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>2.05</v>
-      </c>
       <c r="N38">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P38">
+        <v>2.9</v>
+      </c>
+      <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
         <v>1.95</v>
       </c>
-      <c r="Q38">
-        <v>0.5</v>
-      </c>
-      <c r="R38">
-        <v>1.75</v>
-      </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4369,7 +4369,7 @@
         <v>45144.44791666666</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4817,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,64 +4903,64 @@
         <v>45151.5</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50">
+        <v>6.5</v>
+      </c>
+      <c r="L50">
+        <v>4.5</v>
+      </c>
+      <c r="M50">
+        <v>1.363</v>
+      </c>
+      <c r="N50">
+        <v>4.2</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50">
+        <v>1.6</v>
+      </c>
+      <c r="Q50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K50">
-        <v>3.75</v>
-      </c>
-      <c r="L50">
-        <v>3.3</v>
-      </c>
-      <c r="M50">
-        <v>1.833</v>
-      </c>
-      <c r="N50">
-        <v>2.6</v>
-      </c>
-      <c r="O50">
-        <v>3.1</v>
-      </c>
-      <c r="P50">
-        <v>2.5</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
       <c r="R50">
+        <v>1.725</v>
+      </c>
+      <c r="S50">
+        <v>2.075</v>
+      </c>
+      <c r="T50">
+        <v>2.25</v>
+      </c>
+      <c r="U50">
+        <v>1.875</v>
+      </c>
+      <c r="V50">
         <v>1.925</v>
       </c>
-      <c r="S50">
-        <v>1.875</v>
-      </c>
-      <c r="T50">
-        <v>2.5</v>
-      </c>
-      <c r="U50">
-        <v>1.9</v>
-      </c>
-      <c r="V50">
-        <v>1.9</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -4969,10 +4969,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,64 +4992,64 @@
         <v>45151.5</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N51">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y51">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5437,7 +5437,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>35</v>
@@ -5529,7 +5529,7 @@
         <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6221732</v>
+        <v>6221729</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,49 +6060,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K63">
+        <v>2.9</v>
+      </c>
+      <c r="L63">
         <v>3.3</v>
       </c>
-      <c r="L63">
-        <v>3.25</v>
-      </c>
       <c r="M63">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N63">
+        <v>1.75</v>
+      </c>
+      <c r="O63">
         <v>3.5</v>
       </c>
-      <c r="O63">
-        <v>3.25</v>
-      </c>
       <c r="P63">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6111,16 +6111,16 @@
         <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X63">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6137,7 +6137,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6221729</v>
+        <v>6221732</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6149,49 +6149,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K64">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6200,16 +6200,16 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6238,7 +6238,7 @@
         <v>45165.5</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -6594,10 +6594,10 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F69" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s">
         <v>30</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -7395,7 +7395,7 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
@@ -7487,7 +7487,7 @@
         <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7662,7 +7662,7 @@
         <v>45196.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>39</v>
@@ -7843,7 +7843,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7932,7 +7932,7 @@
         <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45200.25</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N85">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
         <v>1.8</v>
-      </c>
-      <c r="S85">
-        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>0.8</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,76 +8107,76 @@
         <v>45200.25</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K86">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N86">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q86">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
+        <v>6</v>
+      </c>
+      <c r="N92">
+        <v>1.444</v>
+      </c>
+      <c r="O92">
+        <v>4.2</v>
+      </c>
+      <c r="P92">
         <v>6.5</v>
       </c>
-      <c r="N92">
-        <v>1.333</v>
-      </c>
-      <c r="O92">
-        <v>4.5</v>
-      </c>
-      <c r="P92">
-        <v>7.5</v>
-      </c>
       <c r="Q92">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8730,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N93">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O93">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P93">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X93">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8819,7 +8819,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
         <v>34</v>
@@ -9178,7 +9178,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221815</v>
+        <v>6221752</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,76 +9264,76 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K99">
+        <v>1.833</v>
+      </c>
+      <c r="L99">
+        <v>3.2</v>
+      </c>
+      <c r="M99">
+        <v>4</v>
+      </c>
+      <c r="N99">
+        <v>1.85</v>
+      </c>
+      <c r="O99">
+        <v>3.2</v>
+      </c>
+      <c r="P99">
+        <v>4</v>
+      </c>
+      <c r="Q99">
+        <v>-0.5</v>
+      </c>
+      <c r="R99">
+        <v>1.9</v>
+      </c>
+      <c r="S99">
+        <v>1.9</v>
+      </c>
+      <c r="T99">
+        <v>2</v>
+      </c>
+      <c r="U99">
+        <v>1.775</v>
+      </c>
+      <c r="V99">
+        <v>2.025</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
         <v>3</v>
       </c>
-      <c r="L99">
-        <v>3</v>
-      </c>
-      <c r="M99">
-        <v>2.25</v>
-      </c>
-      <c r="N99">
-        <v>3.1</v>
-      </c>
-      <c r="O99">
-        <v>3.1</v>
-      </c>
-      <c r="P99">
-        <v>2.15</v>
-      </c>
-      <c r="Q99">
-        <v>0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.85</v>
-      </c>
-      <c r="S99">
-        <v>1.95</v>
-      </c>
-      <c r="T99">
-        <v>2.25</v>
-      </c>
-      <c r="U99">
-        <v>1.8</v>
-      </c>
-      <c r="V99">
-        <v>2</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>2.1</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
       <c r="Z99">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221752</v>
+        <v>6221815</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,76 +9353,76 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>48</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>2.25</v>
+      </c>
+      <c r="N100">
+        <v>3.1</v>
+      </c>
+      <c r="O100">
+        <v>3.1</v>
+      </c>
+      <c r="P100">
+        <v>2.15</v>
+      </c>
+      <c r="Q100">
+        <v>0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.85</v>
+      </c>
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
+        <v>1.8</v>
+      </c>
+      <c r="V100">
+        <v>2</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>2.1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
+        <v>0.425</v>
+      </c>
+      <c r="AA100">
+        <v>-0.5</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>1</v>
-      </c>
-      <c r="J100" t="s">
-        <v>47</v>
-      </c>
-      <c r="K100">
-        <v>1.833</v>
-      </c>
-      <c r="L100">
-        <v>3.2</v>
-      </c>
-      <c r="M100">
-        <v>4</v>
-      </c>
-      <c r="N100">
-        <v>1.85</v>
-      </c>
-      <c r="O100">
-        <v>3.2</v>
-      </c>
-      <c r="P100">
-        <v>4</v>
-      </c>
-      <c r="Q100">
-        <v>-0.5</v>
-      </c>
-      <c r="R100">
-        <v>1.9</v>
-      </c>
-      <c r="S100">
-        <v>1.9</v>
-      </c>
-      <c r="T100">
-        <v>2</v>
-      </c>
-      <c r="U100">
-        <v>1.775</v>
-      </c>
-      <c r="V100">
-        <v>2.025</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>3</v>
-      </c>
-      <c r="Z100">
-        <v>-1</v>
-      </c>
-      <c r="AA100">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
-      <c r="AC100">
-        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221816</v>
+        <v>6221754</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N101">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P101">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S101">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221814</v>
+        <v>6221755</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,76 +9531,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L102">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O102">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R102">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221755</v>
+        <v>6221814</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N103">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221754</v>
+        <v>6221816</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,76 +9709,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N104">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O104">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R104">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X104">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>45352.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
         <v>44</v>
@@ -9964,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7874784</v>
+        <v>7874783</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,76 +9976,76 @@
         <v>45353.25</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K107">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N107">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O107">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P107">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X107">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7874783</v>
+        <v>7874784</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,76 +10065,76 @@
         <v>45353.25</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K108">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N108">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P108">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W108">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10243,7 +10243,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
         <v>45</v>
@@ -10335,7 +10335,7 @@
         <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>45357.47916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>43</v>
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7873759</v>
+        <v>7874795</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,76 +11044,76 @@
         <v>45382.25</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L119">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N119">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="O119">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q119">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R119">
+        <v>1.9</v>
+      </c>
+      <c r="S119">
+        <v>1.9</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
         <v>1.95</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.85</v>
       </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
-      <c r="U119">
-        <v>1.9</v>
-      </c>
-      <c r="V119">
-        <v>1.9</v>
-      </c>
       <c r="W119">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7874795</v>
+        <v>7873759</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,76 +11133,76 @@
         <v>45382.25</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L120">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N120">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P120">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
+        <v>1.85</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
         <v>1.9</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.9</v>
       </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
-      <c r="V120">
-        <v>1.85</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC120">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11222,7 +11222,7 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
         <v>43</v>
@@ -11759,7 +11759,7 @@
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>1</v>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -112,10 +112,10 @@
     <t>FC Astana</t>
   </si>
   <si>
-    <t>Ordabasy</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
-    <t>FK Aktobe</t>
+    <t>Ordabasy</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M5">
+        <v>3.5</v>
+      </c>
+      <c r="N5">
+        <v>1.333</v>
+      </c>
+      <c r="O5">
         <v>4.75</v>
       </c>
-      <c r="N5">
-        <v>1.5</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L6">
+        <v>3.8</v>
+      </c>
+      <c r="M6">
+        <v>4.75</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>3.5</v>
-      </c>
-      <c r="N6">
-        <v>1.333</v>
-      </c>
-      <c r="O6">
-        <v>4.75</v>
-      </c>
       <c r="P6">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,58 +1254,58 @@
         <v>45101.375</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M9">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N9">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O9">
+        <v>5.5</v>
+      </c>
+      <c r="P9">
+        <v>11</v>
+      </c>
+      <c r="Q9">
+        <v>-2</v>
+      </c>
+      <c r="R9">
+        <v>1.975</v>
+      </c>
+      <c r="S9">
+        <v>1.825</v>
+      </c>
+      <c r="T9">
         <v>3</v>
       </c>
-      <c r="P9">
-        <v>3.2</v>
-      </c>
-      <c r="Q9">
-        <v>-0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.875</v>
-      </c>
-      <c r="S9">
-        <v>1.925</v>
-      </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1314,13 +1314,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,58 +1343,58 @@
         <v>45101.375</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L10">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N10">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O10">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q10">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1403,13 +1403,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1613,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1880,7 +1880,7 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3927,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,64 +4903,64 @@
         <v>45151.5</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L50">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N50">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y50">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -4969,10 +4969,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,64 +4992,64 @@
         <v>45151.5</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>33</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51">
+        <v>6.5</v>
+      </c>
+      <c r="L51">
+        <v>4.5</v>
+      </c>
+      <c r="M51">
+        <v>1.363</v>
+      </c>
+      <c r="N51">
+        <v>4.2</v>
+      </c>
+      <c r="O51">
+        <v>4</v>
+      </c>
+      <c r="P51">
+        <v>1.6</v>
+      </c>
+      <c r="Q51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>48</v>
-      </c>
-      <c r="K51">
-        <v>3.75</v>
-      </c>
-      <c r="L51">
-        <v>3.3</v>
-      </c>
-      <c r="M51">
-        <v>1.833</v>
-      </c>
-      <c r="N51">
-        <v>2.6</v>
-      </c>
-      <c r="O51">
-        <v>3.1</v>
-      </c>
-      <c r="P51">
-        <v>2.5</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
       <c r="R51">
+        <v>1.725</v>
+      </c>
+      <c r="S51">
+        <v>2.075</v>
+      </c>
+      <c r="T51">
+        <v>2.25</v>
+      </c>
+      <c r="U51">
+        <v>1.875</v>
+      </c>
+      <c r="V51">
         <v>1.925</v>
       </c>
-      <c r="S51">
-        <v>1.875</v>
-      </c>
-      <c r="T51">
-        <v>2.5</v>
-      </c>
-      <c r="U51">
-        <v>1.9</v>
-      </c>
-      <c r="V51">
-        <v>1.9</v>
-      </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5526,7 +5526,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
@@ -5615,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6221729</v>
+        <v>6221732</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,49 +6060,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N63">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
         <v>1.9</v>
@@ -6111,16 +6111,16 @@
         <v>1.9</v>
       </c>
       <c r="W63">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6137,7 +6137,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6221732</v>
+        <v>6221729</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6149,49 +6149,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K64">
+        <v>2.9</v>
+      </c>
+      <c r="L64">
         <v>3.3</v>
       </c>
-      <c r="L64">
-        <v>3.25</v>
-      </c>
       <c r="M64">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N64">
+        <v>1.75</v>
+      </c>
+      <c r="O64">
         <v>3.5</v>
       </c>
-      <c r="O64">
-        <v>3.25</v>
-      </c>
       <c r="P64">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -6200,16 +6200,16 @@
         <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X64">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6241,7 +6241,7 @@
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6683,10 +6683,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
         <v>33</v>
-      </c>
-      <c r="G70" t="s">
-        <v>32</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>31</v>
@@ -7751,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7929,7 +7929,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>31</v>
@@ -8199,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8911,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221753</v>
+        <v>6221815</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,76 +9175,76 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>48</v>
+      </c>
+      <c r="K98">
         <v>3</v>
       </c>
-      <c r="J98" t="s">
-        <v>47</v>
-      </c>
-      <c r="K98">
-        <v>2.75</v>
-      </c>
       <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>2.25</v>
+      </c>
+      <c r="N98">
         <v>3.1</v>
       </c>
-      <c r="M98">
-        <v>2.375</v>
-      </c>
-      <c r="N98">
-        <v>2.625</v>
-      </c>
       <c r="O98">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P98">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S98">
+        <v>1.95</v>
+      </c>
+      <c r="T98">
+        <v>2.25</v>
+      </c>
+      <c r="U98">
         <v>1.8</v>
       </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.9</v>
-      </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y98">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,56 +9264,56 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N99">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O99">
         <v>3.2</v>
       </c>
       <c r="P99">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>1.8</v>
+      </c>
+      <c r="T99">
+        <v>2.5</v>
+      </c>
+      <c r="U99">
         <v>1.9</v>
       </c>
-      <c r="S99">
+      <c r="V99">
         <v>1.9</v>
       </c>
-      <c r="T99">
-        <v>2</v>
-      </c>
-      <c r="U99">
-        <v>1.775</v>
-      </c>
-      <c r="V99">
-        <v>2.025</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
@@ -9321,19 +9321,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
+        <v>0.8</v>
+      </c>
+      <c r="AB99">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
       <c r="AC99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221815</v>
+        <v>6221752</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,76 +9353,76 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K100">
+        <v>1.833</v>
+      </c>
+      <c r="L100">
+        <v>3.2</v>
+      </c>
+      <c r="M100">
+        <v>4</v>
+      </c>
+      <c r="N100">
+        <v>1.85</v>
+      </c>
+      <c r="O100">
+        <v>3.2</v>
+      </c>
+      <c r="P100">
+        <v>4</v>
+      </c>
+      <c r="Q100">
+        <v>-0.5</v>
+      </c>
+      <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
+        <v>1.9</v>
+      </c>
+      <c r="T100">
+        <v>2</v>
+      </c>
+      <c r="U100">
+        <v>1.775</v>
+      </c>
+      <c r="V100">
+        <v>2.025</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
         <v>3</v>
       </c>
-      <c r="L100">
-        <v>3</v>
-      </c>
-      <c r="M100">
-        <v>2.25</v>
-      </c>
-      <c r="N100">
-        <v>3.1</v>
-      </c>
-      <c r="O100">
-        <v>3.1</v>
-      </c>
-      <c r="P100">
-        <v>2.15</v>
-      </c>
-      <c r="Q100">
-        <v>0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.85</v>
-      </c>
-      <c r="S100">
-        <v>1.95</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
-      <c r="U100">
-        <v>1.8</v>
-      </c>
-      <c r="V100">
-        <v>2</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>2.1</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
       <c r="Z100">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221754</v>
+        <v>6221814</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,10 +9442,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9457,61 +9457,61 @@
         <v>48</v>
       </c>
       <c r="K101">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M101">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N101">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="O101">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S101">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T101">
         <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>0.3999999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
         <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.45</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221755</v>
+        <v>6221754</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,76 +9531,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L102">
         <v>3.5</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N102">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221814</v>
+        <v>6221755</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N103">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC103">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9890,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9964,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7874783</v>
+        <v>7874784</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,76 +9976,76 @@
         <v>45353.25</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K107">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M107">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N107">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P107">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W107">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7874784</v>
+        <v>7874783</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,76 +10065,76 @@
         <v>45353.25</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K108">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N108">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O108">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X108">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10513,7 +10513,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7874795</v>
+        <v>7873759</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,76 +11044,76 @@
         <v>45382.25</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L119">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N119">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P119">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R119">
+        <v>1.95</v>
+      </c>
+      <c r="S119">
+        <v>1.85</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
         <v>1.9</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.9</v>
       </c>
-      <c r="T119">
-        <v>2</v>
-      </c>
-      <c r="U119">
-        <v>1.95</v>
-      </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X119">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7873759</v>
+        <v>7874795</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,76 +11133,76 @@
         <v>45382.25</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="M120">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N120">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="O120">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q120">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R120">
+        <v>1.9</v>
+      </c>
+      <c r="S120">
+        <v>1.9</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
         <v>1.95</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="T120">
-        <v>2.75</v>
-      </c>
-      <c r="U120">
-        <v>1.9</v>
-      </c>
-      <c r="V120">
-        <v>1.9</v>
-      </c>
       <c r="W120">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11667,7 +11667,7 @@
         <v>45389.25</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -11848,7 +11848,7 @@
         <v>45</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H128">
         <v>0</v>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -112,10 +112,10 @@
     <t>FC Astana</t>
   </si>
   <si>
-    <t>FK Aktobe</t>
+    <t>Ordabasy</t>
   </si>
   <si>
-    <t>Ordabasy</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L5">
+        <v>3.8</v>
+      </c>
+      <c r="M5">
+        <v>4.75</v>
+      </c>
+      <c r="N5">
+        <v>1.5</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
-      <c r="N5">
-        <v>1.333</v>
-      </c>
-      <c r="O5">
-        <v>4.75</v>
-      </c>
       <c r="P5">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M6">
+        <v>3.5</v>
+      </c>
+      <c r="N6">
+        <v>1.333</v>
+      </c>
+      <c r="O6">
         <v>4.75</v>
       </c>
-      <c r="N6">
-        <v>1.5</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N16">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L17">
+        <v>3.5</v>
+      </c>
+      <c r="M17">
+        <v>1.666</v>
+      </c>
+      <c r="N17">
+        <v>4.2</v>
+      </c>
+      <c r="O17">
         <v>3.4</v>
       </c>
-      <c r="M17">
-        <v>3.1</v>
-      </c>
-      <c r="N17">
-        <v>2.2</v>
-      </c>
-      <c r="O17">
-        <v>3.3</v>
-      </c>
       <c r="P17">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB17">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2411,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,76 +2678,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L25">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N25">
+        <v>2.1</v>
+      </c>
+      <c r="O25">
         <v>3.1</v>
       </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
       <c r="P25">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
+        <v>1.95</v>
+      </c>
+      <c r="T25">
+        <v>2.25</v>
+      </c>
+      <c r="U25">
         <v>1.975</v>
       </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
-      <c r="U25">
-        <v>1.75</v>
-      </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y25">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
+        <v>0.475</v>
+      </c>
+      <c r="AB25">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB25">
-        <v>-1</v>
-      </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,76 +2767,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
+        <v>3.6</v>
+      </c>
+      <c r="L26">
+        <v>3.5</v>
+      </c>
+      <c r="M26">
+        <v>1.8</v>
+      </c>
+      <c r="N26">
         <v>3.1</v>
       </c>
-      <c r="L26">
-        <v>3.2</v>
-      </c>
-      <c r="M26">
-        <v>2.1</v>
-      </c>
-      <c r="N26">
-        <v>2.1</v>
-      </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>1.75</v>
+      </c>
+      <c r="V26">
         <v>1.95</v>
       </c>
-      <c r="T26">
-        <v>2.25</v>
-      </c>
-      <c r="U26">
-        <v>1.975</v>
-      </c>
-      <c r="V26">
-        <v>1.725</v>
-      </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6221708</v>
+        <v>6221712</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.5</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K37">
+        <v>2.1</v>
+      </c>
+      <c r="L37">
+        <v>3.25</v>
+      </c>
+      <c r="M37">
         <v>3</v>
       </c>
-      <c r="L37">
-        <v>3.4</v>
-      </c>
-      <c r="M37">
-        <v>2.05</v>
-      </c>
       <c r="N37">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P37">
+        <v>2.9</v>
+      </c>
+      <c r="Q37">
+        <v>-0.25</v>
+      </c>
+      <c r="R37">
         <v>1.95</v>
       </c>
-      <c r="Q37">
-        <v>0.5</v>
-      </c>
-      <c r="R37">
-        <v>1.75</v>
-      </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X37">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221712</v>
+        <v>6221708</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45136.5</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O38">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
+        <v>1.75</v>
+      </c>
+      <c r="S38">
         <v>1.95</v>
       </c>
-      <c r="S38">
-        <v>1.85</v>
-      </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4906,7 +4906,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4995,7 +4995,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5526,7 +5526,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
@@ -5615,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6063,7 +6063,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6241,7 +6241,7 @@
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6683,10 +6683,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
         <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>31</v>
@@ -7751,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7929,7 +7929,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
         <v>31</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45200.25</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N85">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O85">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,76 +8107,76 @@
         <v>45200.25</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N86">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P86">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
         <v>1.8</v>
-      </c>
-      <c r="S86">
-        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
         <v>0.8</v>
       </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8273,7 +8273,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6221811</v>
+        <v>6221810</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8285,76 +8285,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M88">
+        <v>3.8</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>3.1</v>
+      </c>
+      <c r="P88">
+        <v>3.5</v>
+      </c>
+      <c r="Q88">
+        <v>-0.5</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
         <v>1.8</v>
       </c>
-      <c r="N88">
-        <v>3.8</v>
-      </c>
-      <c r="O88">
-        <v>3.6</v>
-      </c>
-      <c r="P88">
-        <v>1.75</v>
-      </c>
-      <c r="Q88">
-        <v>0.75</v>
-      </c>
-      <c r="R88">
-        <v>1.8</v>
-      </c>
-      <c r="S88">
-        <v>2</v>
-      </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V88">
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X88">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8362,7 +8362,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6221810</v>
+        <v>6221811</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8374,76 +8374,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
+        <v>1.8</v>
+      </c>
+      <c r="N89">
         <v>3.8</v>
       </c>
-      <c r="N89">
-        <v>2</v>
-      </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
         <v>1.975</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N92">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P92">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X92">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8730,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
+        <v>6</v>
+      </c>
+      <c r="N93">
+        <v>1.444</v>
+      </c>
+      <c r="O93">
+        <v>4.2</v>
+      </c>
+      <c r="P93">
         <v>6.5</v>
       </c>
-      <c r="N93">
-        <v>1.333</v>
-      </c>
-      <c r="O93">
-        <v>4.5</v>
-      </c>
-      <c r="P93">
-        <v>7.5</v>
-      </c>
       <c r="Q93">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8911,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,76 +9175,76 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98" t="s">
+        <v>47</v>
+      </c>
+      <c r="K98">
+        <v>2.75</v>
+      </c>
+      <c r="L98">
+        <v>3.1</v>
+      </c>
+      <c r="M98">
+        <v>2.375</v>
+      </c>
+      <c r="N98">
+        <v>2.625</v>
+      </c>
+      <c r="O98">
+        <v>3.2</v>
+      </c>
+      <c r="P98">
+        <v>2.45</v>
+      </c>
+      <c r="Q98">
         <v>0</v>
       </c>
-      <c r="J98" t="s">
-        <v>48</v>
-      </c>
-      <c r="K98">
-        <v>3</v>
-      </c>
-      <c r="L98">
-        <v>3</v>
-      </c>
-      <c r="M98">
-        <v>2.25</v>
-      </c>
-      <c r="N98">
-        <v>3.1</v>
-      </c>
-      <c r="O98">
-        <v>3.1</v>
-      </c>
-      <c r="P98">
-        <v>2.15</v>
-      </c>
-      <c r="Q98">
-        <v>0.25</v>
-      </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z98">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,55 +9264,55 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L99">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O99">
         <v>3.2</v>
       </c>
       <c r="P99">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9321,19 +9321,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221752</v>
+        <v>6221815</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,76 +9353,76 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>48</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>2.25</v>
+      </c>
+      <c r="N100">
+        <v>3.1</v>
+      </c>
+      <c r="O100">
+        <v>3.1</v>
+      </c>
+      <c r="P100">
+        <v>2.15</v>
+      </c>
+      <c r="Q100">
+        <v>0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.85</v>
+      </c>
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
+        <v>1.8</v>
+      </c>
+      <c r="V100">
+        <v>2</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>2.1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
+        <v>0.425</v>
+      </c>
+      <c r="AA100">
+        <v>-0.5</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>1</v>
-      </c>
-      <c r="J100" t="s">
-        <v>47</v>
-      </c>
-      <c r="K100">
-        <v>1.833</v>
-      </c>
-      <c r="L100">
-        <v>3.2</v>
-      </c>
-      <c r="M100">
-        <v>4</v>
-      </c>
-      <c r="N100">
-        <v>1.85</v>
-      </c>
-      <c r="O100">
-        <v>3.2</v>
-      </c>
-      <c r="P100">
-        <v>4</v>
-      </c>
-      <c r="Q100">
-        <v>-0.5</v>
-      </c>
-      <c r="R100">
-        <v>1.9</v>
-      </c>
-      <c r="S100">
-        <v>1.9</v>
-      </c>
-      <c r="T100">
-        <v>2</v>
-      </c>
-      <c r="U100">
-        <v>1.775</v>
-      </c>
-      <c r="V100">
-        <v>2.025</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>3</v>
-      </c>
-      <c r="Z100">
-        <v>-1</v>
-      </c>
-      <c r="AA100">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
-      <c r="AC100">
-        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221754</v>
+        <v>6221816</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,76 +9531,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K102">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N102">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O102">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R102">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S102">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X102">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221755</v>
+        <v>6221754</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
         <v>3.5</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N103">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221816</v>
+        <v>6221755</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,76 +9709,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K104">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>4.2</v>
+        <v>1.444</v>
       </c>
       <c r="O104">
         <v>4</v>
       </c>
       <c r="P104">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="Q104">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
+        <v>1.8</v>
+      </c>
+      <c r="V104">
+        <v>2</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
         <v>3</v>
       </c>
-      <c r="U104">
-        <v>1.975</v>
-      </c>
-      <c r="V104">
-        <v>1.825</v>
-      </c>
-      <c r="W104">
-        <v>3.2</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9964,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7874784</v>
+        <v>7874783</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,76 +9976,76 @@
         <v>45353.25</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K107">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N107">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O107">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P107">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X107">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7874783</v>
+        <v>7874784</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,76 +10065,76 @@
         <v>45353.25</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K108">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N108">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P108">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W108">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10513,7 +10513,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7873759</v>
+        <v>7874795</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,76 +11044,76 @@
         <v>45382.25</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L119">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N119">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="O119">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q119">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R119">
+        <v>1.9</v>
+      </c>
+      <c r="S119">
+        <v>1.9</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
         <v>1.95</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.85</v>
       </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
-      <c r="U119">
-        <v>1.9</v>
-      </c>
-      <c r="V119">
-        <v>1.9</v>
-      </c>
       <c r="W119">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7874795</v>
+        <v>7873759</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,76 +11133,76 @@
         <v>45382.25</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L120">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N120">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P120">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
+        <v>1.85</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
         <v>1.9</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.9</v>
       </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
-      <c r="V120">
-        <v>1.85</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC120">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11667,7 +11667,7 @@
         <v>45389.25</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -11848,7 +11848,7 @@
         <v>45</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>0</v>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,58 +1254,58 @@
         <v>45101.375</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L9">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N9">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O9">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P9">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q9">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1314,13 +1314,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,58 +1343,58 @@
         <v>45101.375</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M10">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O10">
+        <v>5.5</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>-2</v>
+      </c>
+      <c r="R10">
+        <v>1.975</v>
+      </c>
+      <c r="S10">
+        <v>1.825</v>
+      </c>
+      <c r="T10">
         <v>3</v>
       </c>
-      <c r="P10">
-        <v>3.2</v>
-      </c>
-      <c r="Q10">
-        <v>-0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.875</v>
-      </c>
-      <c r="S10">
-        <v>1.925</v>
-      </c>
-      <c r="T10">
-        <v>2.25</v>
-      </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1403,13 +1403,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -8273,7 +8273,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6221810</v>
+        <v>6221811</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8285,76 +8285,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L88">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
+        <v>1.8</v>
+      </c>
+      <c r="N88">
         <v>3.8</v>
       </c>
-      <c r="N88">
-        <v>2</v>
-      </c>
       <c r="O88">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8362,7 +8362,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6221811</v>
+        <v>6221810</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8374,76 +8374,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M89">
+        <v>3.8</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89">
+        <v>3.1</v>
+      </c>
+      <c r="P89">
+        <v>3.5</v>
+      </c>
+      <c r="Q89">
+        <v>-0.5</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
         <v>1.8</v>
       </c>
-      <c r="N89">
-        <v>3.8</v>
-      </c>
-      <c r="O89">
-        <v>3.6</v>
-      </c>
-      <c r="P89">
-        <v>1.75</v>
-      </c>
-      <c r="Q89">
-        <v>0.75</v>
-      </c>
-      <c r="R89">
-        <v>1.8</v>
-      </c>
-      <c r="S89">
-        <v>2</v>
-      </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V89">
         <v>1.975</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X89">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
+        <v>6</v>
+      </c>
+      <c r="N92">
+        <v>1.444</v>
+      </c>
+      <c r="O92">
+        <v>4.2</v>
+      </c>
+      <c r="P92">
         <v>6.5</v>
       </c>
-      <c r="N92">
-        <v>1.333</v>
-      </c>
-      <c r="O92">
-        <v>4.5</v>
-      </c>
-      <c r="P92">
-        <v>7.5</v>
-      </c>
       <c r="Q92">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8730,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N93">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O93">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P93">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X93">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,55 +9175,55 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L98">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N98">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O98">
         <v>3.2</v>
       </c>
       <c r="P98">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -9232,19 +9232,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,56 +9264,56 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N99">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O99">
         <v>3.2</v>
       </c>
       <c r="P99">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>1.8</v>
+      </c>
+      <c r="T99">
+        <v>2.5</v>
+      </c>
+      <c r="U99">
         <v>1.9</v>
       </c>
-      <c r="S99">
+      <c r="V99">
         <v>1.9</v>
       </c>
-      <c r="T99">
-        <v>2</v>
-      </c>
-      <c r="U99">
-        <v>1.775</v>
-      </c>
-      <c r="V99">
-        <v>2.025</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
@@ -9321,19 +9321,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
+        <v>0.8</v>
+      </c>
+      <c r="AB99">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
       <c r="AC99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221814</v>
+        <v>6221816</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L101">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N101">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="O101">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
         <v>1.75</v>
       </c>
-      <c r="S101">
-        <v>2.05</v>
-      </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X101">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221816</v>
+        <v>6221754</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,76 +9531,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N102">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P102">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S102">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T102">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221754</v>
+        <v>6221755</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>48</v>
       </c>
       <c r="K103">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
         <v>3.5</v>
       </c>
       <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="N103">
+        <v>1.444</v>
+      </c>
+      <c r="O103">
+        <v>4</v>
+      </c>
+      <c r="P103">
+        <v>6</v>
+      </c>
+      <c r="Q103">
+        <v>-1.25</v>
+      </c>
+      <c r="R103">
+        <v>1.975</v>
+      </c>
+      <c r="S103">
+        <v>1.825</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
         <v>1.8</v>
       </c>
-      <c r="N103">
-        <v>5</v>
-      </c>
-      <c r="O103">
-        <v>1.4</v>
-      </c>
-      <c r="P103">
-        <v>5</v>
-      </c>
-      <c r="Q103">
-        <v>0.25</v>
-      </c>
-      <c r="R103">
-        <v>1.7</v>
-      </c>
-      <c r="S103">
-        <v>2.1</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.9</v>
-      </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>0.3999999999999999</v>
+        <v>3</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC103">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221755</v>
+        <v>6221814</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,76 +9709,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
         <v>48</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N104">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P104">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9964,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7874783</v>
+        <v>7874784</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,76 +9976,76 @@
         <v>45353.25</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K107">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M107">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N107">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P107">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W107">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7874784</v>
+        <v>7874783</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,76 +10065,76 @@
         <v>45353.25</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K108">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N108">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O108">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X108">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7874795</v>
+        <v>7873759</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,76 +11044,76 @@
         <v>45382.25</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L119">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N119">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P119">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R119">
+        <v>1.95</v>
+      </c>
+      <c r="S119">
+        <v>1.85</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
         <v>1.9</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.9</v>
       </c>
-      <c r="T119">
-        <v>2</v>
-      </c>
-      <c r="U119">
-        <v>1.95</v>
-      </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X119">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7873759</v>
+        <v>7874795</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,76 +11133,76 @@
         <v>45382.25</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="M120">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N120">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="O120">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q120">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R120">
+        <v>1.9</v>
+      </c>
+      <c r="S120">
+        <v>1.9</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
         <v>1.95</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="T120">
-        <v>2.75</v>
-      </c>
-      <c r="U120">
-        <v>1.9</v>
-      </c>
-      <c r="V120">
-        <v>1.9</v>
-      </c>
       <c r="W120">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -106,16 +106,16 @@
     <t>Kairat Almaty</t>
   </si>
   <si>
+    <t>FC Astana</t>
+  </si>
+  <si>
     <t>Tobol Kostanay</t>
   </si>
   <si>
-    <t>FC Astana</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
     <t>Ordabasy</t>
-  </si>
-  <si>
-    <t>FK Aktobe</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:AC130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6726053</v>
+        <v>6221684</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -735,43 +735,43 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N3">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P3">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
+        <v>1.925</v>
+      </c>
+      <c r="V3">
         <v>1.875</v>
       </c>
-      <c r="V3">
-        <v>1.925</v>
-      </c>
       <c r="W3">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6221684</v>
+        <v>6726053</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,7 +812,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -824,43 +824,43 @@
         <v>46</v>
       </c>
       <c r="K4">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
+        <v>3.2</v>
+      </c>
+      <c r="M4">
+        <v>2.5</v>
+      </c>
+      <c r="N4">
+        <v>1.8</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
         <v>4.2</v>
       </c>
-      <c r="M4">
-        <v>4.5</v>
-      </c>
-      <c r="N4">
-        <v>1.222</v>
-      </c>
-      <c r="O4">
-        <v>5.5</v>
-      </c>
-      <c r="P4">
-        <v>9</v>
-      </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
+        <v>1.875</v>
+      </c>
+      <c r="V4">
         <v>1.925</v>
       </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
       <c r="W4">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -869,16 +869,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M5">
+        <v>3.5</v>
+      </c>
+      <c r="N5">
+        <v>1.333</v>
+      </c>
+      <c r="O5">
         <v>4.75</v>
       </c>
-      <c r="N5">
-        <v>1.5</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L6">
+        <v>3.8</v>
+      </c>
+      <c r="M6">
+        <v>4.75</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>3.5</v>
-      </c>
-      <c r="N6">
-        <v>1.333</v>
-      </c>
-      <c r="O6">
-        <v>4.75</v>
-      </c>
       <c r="P6">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,58 +1254,58 @@
         <v>45101.375</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M9">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N9">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O9">
+        <v>5.5</v>
+      </c>
+      <c r="P9">
+        <v>11</v>
+      </c>
+      <c r="Q9">
+        <v>-2</v>
+      </c>
+      <c r="R9">
+        <v>1.975</v>
+      </c>
+      <c r="S9">
+        <v>1.825</v>
+      </c>
+      <c r="T9">
         <v>3</v>
       </c>
-      <c r="P9">
-        <v>3.2</v>
-      </c>
-      <c r="Q9">
-        <v>-0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.875</v>
-      </c>
-      <c r="S9">
-        <v>1.925</v>
-      </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1314,13 +1314,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,58 +1343,58 @@
         <v>45101.375</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L10">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N10">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O10">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q10">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1403,13 +1403,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1435,7 +1435,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1613,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
+        <v>1.666</v>
+      </c>
+      <c r="N16">
+        <v>4.2</v>
+      </c>
+      <c r="O16">
         <v>3.4</v>
       </c>
-      <c r="M16">
-        <v>3.1</v>
-      </c>
-      <c r="N16">
-        <v>2.2</v>
-      </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
       <c r="P16">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB16">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N17">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O17">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2236,7 +2236,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>45109.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
@@ -2411,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3123,7 +3123,7 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3212,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3568,7 +3568,7 @@
         <v>45130.5</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -3660,7 +3660,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6221712</v>
+        <v>6221708</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.5</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N37">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P37">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
+        <v>1.75</v>
+      </c>
+      <c r="S37">
         <v>1.95</v>
       </c>
-      <c r="S37">
-        <v>1.85</v>
-      </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221708</v>
+        <v>6221712</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45136.5</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K38">
+        <v>2.1</v>
+      </c>
+      <c r="L38">
+        <v>3.25</v>
+      </c>
+      <c r="M38">
         <v>3</v>
       </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>2.05</v>
-      </c>
       <c r="N38">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P38">
+        <v>2.9</v>
+      </c>
+      <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
         <v>1.95</v>
       </c>
-      <c r="Q38">
-        <v>0.5</v>
-      </c>
-      <c r="R38">
-        <v>1.75</v>
-      </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4369,7 +4369,7 @@
         <v>45144.44791666666</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4458,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4817,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,64 +4903,64 @@
         <v>45151.5</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
       </c>
       <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50">
+        <v>6.5</v>
+      </c>
+      <c r="L50">
+        <v>4.5</v>
+      </c>
+      <c r="M50">
+        <v>1.363</v>
+      </c>
+      <c r="N50">
+        <v>4.2</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50">
+        <v>1.6</v>
+      </c>
+      <c r="Q50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K50">
-        <v>3.75</v>
-      </c>
-      <c r="L50">
-        <v>3.3</v>
-      </c>
-      <c r="M50">
-        <v>1.833</v>
-      </c>
-      <c r="N50">
-        <v>2.6</v>
-      </c>
-      <c r="O50">
-        <v>3.1</v>
-      </c>
-      <c r="P50">
-        <v>2.5</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
       <c r="R50">
+        <v>1.725</v>
+      </c>
+      <c r="S50">
+        <v>2.075</v>
+      </c>
+      <c r="T50">
+        <v>2.25</v>
+      </c>
+      <c r="U50">
+        <v>1.875</v>
+      </c>
+      <c r="V50">
         <v>1.925</v>
       </c>
-      <c r="S50">
-        <v>1.875</v>
-      </c>
-      <c r="T50">
-        <v>2.5</v>
-      </c>
-      <c r="U50">
-        <v>1.9</v>
-      </c>
-      <c r="V50">
-        <v>1.9</v>
-      </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -4969,10 +4969,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,64 +4992,64 @@
         <v>45151.5</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N51">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y51">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5437,7 +5437,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
         <v>35</v>
@@ -5526,10 +5526,10 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5615,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6063,7 +6063,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6238,10 +6238,10 @@
         <v>45165.5</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6594,10 +6594,10 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
         <v>31</v>
-      </c>
-      <c r="G69" t="s">
-        <v>30</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6683,10 +6683,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
         <v>33</v>
-      </c>
-      <c r="G70" t="s">
-        <v>32</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
@@ -7484,10 +7484,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7662,7 +7662,7 @@
         <v>45196.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>39</v>
@@ -7751,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7843,7 +7843,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7929,10 +7929,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8199,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8273,7 +8273,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6221811</v>
+        <v>6221810</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8285,76 +8285,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M88">
+        <v>3.8</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>3.1</v>
+      </c>
+      <c r="P88">
+        <v>3.5</v>
+      </c>
+      <c r="Q88">
+        <v>-0.5</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
         <v>1.8</v>
       </c>
-      <c r="N88">
-        <v>3.8</v>
-      </c>
-      <c r="O88">
-        <v>3.6</v>
-      </c>
-      <c r="P88">
-        <v>1.75</v>
-      </c>
-      <c r="Q88">
-        <v>0.75</v>
-      </c>
-      <c r="R88">
-        <v>1.8</v>
-      </c>
-      <c r="S88">
-        <v>2</v>
-      </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V88">
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X88">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8362,7 +8362,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6221810</v>
+        <v>6221811</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8374,76 +8374,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
+        <v>1.8</v>
+      </c>
+      <c r="N89">
         <v>3.8</v>
       </c>
-      <c r="N89">
-        <v>2</v>
-      </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
         <v>1.975</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N92">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P92">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T92">
         <v>3</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X92">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8730,76 @@
         <v>45220.375</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
+        <v>6</v>
+      </c>
+      <c r="N93">
+        <v>1.444</v>
+      </c>
+      <c r="O93">
+        <v>4.2</v>
+      </c>
+      <c r="P93">
         <v>6.5</v>
       </c>
-      <c r="N93">
-        <v>1.333</v>
-      </c>
-      <c r="O93">
-        <v>4.5</v>
-      </c>
-      <c r="P93">
-        <v>7.5</v>
-      </c>
       <c r="Q93">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8819,7 +8819,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
         <v>34</v>
@@ -8911,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9163,7 +9163,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221752</v>
+        <v>6221815</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9175,76 +9175,76 @@
         <v>45228.25</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>48</v>
+      </c>
+      <c r="K98">
+        <v>3</v>
+      </c>
+      <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>2.25</v>
+      </c>
+      <c r="N98">
+        <v>3.1</v>
+      </c>
+      <c r="O98">
+        <v>3.1</v>
+      </c>
+      <c r="P98">
+        <v>2.15</v>
+      </c>
+      <c r="Q98">
+        <v>0.25</v>
+      </c>
+      <c r="R98">
+        <v>1.85</v>
+      </c>
+      <c r="S98">
+        <v>1.95</v>
+      </c>
+      <c r="T98">
+        <v>2.25</v>
+      </c>
+      <c r="U98">
+        <v>1.8</v>
+      </c>
+      <c r="V98">
+        <v>2</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>2.1</v>
+      </c>
+      <c r="Y98">
+        <v>-1</v>
+      </c>
+      <c r="Z98">
+        <v>0.425</v>
+      </c>
+      <c r="AA98">
+        <v>-0.5</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>1</v>
-      </c>
-      <c r="J98" t="s">
-        <v>47</v>
-      </c>
-      <c r="K98">
-        <v>1.833</v>
-      </c>
-      <c r="L98">
-        <v>3.2</v>
-      </c>
-      <c r="M98">
-        <v>4</v>
-      </c>
-      <c r="N98">
-        <v>1.85</v>
-      </c>
-      <c r="O98">
-        <v>3.2</v>
-      </c>
-      <c r="P98">
-        <v>4</v>
-      </c>
-      <c r="Q98">
-        <v>-0.5</v>
-      </c>
-      <c r="R98">
-        <v>1.9</v>
-      </c>
-      <c r="S98">
-        <v>1.9</v>
-      </c>
-      <c r="T98">
-        <v>2</v>
-      </c>
-      <c r="U98">
-        <v>1.775</v>
-      </c>
-      <c r="V98">
-        <v>2.025</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>3</v>
-      </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
-      <c r="AA98">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
-      <c r="AC98">
-        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,55 +9264,55 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L99">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O99">
         <v>3.2</v>
       </c>
       <c r="P99">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9321,19 +9321,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,76 +9353,76 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N100">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="O100">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P100">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z100">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221816</v>
+        <v>6221754</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K101">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N101">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="P101">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S101">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221754</v>
+        <v>6221755</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,76 +9531,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L102">
         <v>3.5</v>
       </c>
       <c r="M102">
+        <v>4</v>
+      </c>
+      <c r="N102">
+        <v>1.444</v>
+      </c>
+      <c r="O102">
+        <v>4</v>
+      </c>
+      <c r="P102">
+        <v>6</v>
+      </c>
+      <c r="Q102">
+        <v>-1.25</v>
+      </c>
+      <c r="R102">
+        <v>1.975</v>
+      </c>
+      <c r="S102">
+        <v>1.825</v>
+      </c>
+      <c r="T102">
+        <v>2.75</v>
+      </c>
+      <c r="U102">
         <v>1.8</v>
       </c>
-      <c r="N102">
-        <v>5</v>
-      </c>
-      <c r="O102">
-        <v>1.4</v>
-      </c>
-      <c r="P102">
-        <v>5</v>
-      </c>
-      <c r="Q102">
-        <v>0.25</v>
-      </c>
-      <c r="R102">
-        <v>1.7</v>
-      </c>
-      <c r="S102">
-        <v>2.1</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>1.9</v>
-      </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>0.3999999999999999</v>
+        <v>3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221755</v>
+        <v>6221816</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F103" t="s">
+        <v>42</v>
+      </c>
+      <c r="G103" t="s">
         <v>33</v>
       </c>
-      <c r="G103" t="s">
-        <v>34</v>
-      </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N103">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="O103">
         <v>4</v>
       </c>
       <c r="P103">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R103">
+        <v>1.95</v>
+      </c>
+      <c r="S103">
+        <v>1.75</v>
+      </c>
+      <c r="T103">
+        <v>3</v>
+      </c>
+      <c r="U103">
         <v>1.975</v>
       </c>
-      <c r="S103">
+      <c r="V103">
         <v>1.825</v>
       </c>
-      <c r="T103">
-        <v>2.75</v>
-      </c>
-      <c r="U103">
-        <v>1.8</v>
-      </c>
-      <c r="V103">
-        <v>2</v>
-      </c>
       <c r="W103">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X103">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA103">
+        <v>-1</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.825</v>
-      </c>
-      <c r="AB103">
-        <v>0.8</v>
-      </c>
-      <c r="AC103">
-        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>45352.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
         <v>44</v>
@@ -9890,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9964,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7874784</v>
+        <v>7874783</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,76 +9976,76 @@
         <v>45353.25</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K107">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N107">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O107">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P107">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X107">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7874783</v>
+        <v>7874784</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,76 +10065,76 @@
         <v>45353.25</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K108">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="N108">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P108">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W108">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10243,7 +10243,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
         <v>45</v>
@@ -10335,7 +10335,7 @@
         <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10599,7 +10599,7 @@
         <v>45357.47916666666</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>43</v>
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7873759</v>
+        <v>7874795</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,76 +11044,76 @@
         <v>45382.25</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>48</v>
+      </c>
+      <c r="K119">
+        <v>2.2</v>
+      </c>
+      <c r="L119">
+        <v>3.1</v>
+      </c>
+      <c r="M119">
         <v>3</v>
       </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119" t="s">
-        <v>46</v>
-      </c>
-      <c r="K119">
-        <v>1.25</v>
-      </c>
-      <c r="L119">
-        <v>5.75</v>
-      </c>
-      <c r="M119">
-        <v>7</v>
-      </c>
       <c r="N119">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="O119">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q119">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R119">
+        <v>1.9</v>
+      </c>
+      <c r="S119">
+        <v>1.9</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
         <v>1.95</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.85</v>
       </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
-      <c r="U119">
-        <v>1.9</v>
-      </c>
-      <c r="V119">
-        <v>1.9</v>
-      </c>
       <c r="W119">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7874795</v>
+        <v>7873759</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,76 +11133,76 @@
         <v>45382.25</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L120">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N120">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P120">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
+        <v>1.85</v>
+      </c>
+      <c r="T120">
+        <v>2.75</v>
+      </c>
+      <c r="U120">
         <v>1.9</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.9</v>
       </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
-      <c r="V120">
-        <v>1.85</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC120">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11222,7 +11222,7 @@
         <v>45382.35416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
         <v>43</v>
@@ -11311,7 +11311,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11667,7 +11667,7 @@
         <v>45389.25</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -11759,7 +11759,7 @@
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11848,7 +11848,7 @@
         <v>45</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11915,6 +11915,154 @@
       </c>
       <c r="AC128">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>7873756</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45402.25</v>
+      </c>
+      <c r="F129" t="s">
+        <v>44</v>
+      </c>
+      <c r="G129" t="s">
+        <v>45</v>
+      </c>
+      <c r="K129">
+        <v>2.6</v>
+      </c>
+      <c r="L129">
+        <v>3.2</v>
+      </c>
+      <c r="M129">
+        <v>2.4</v>
+      </c>
+      <c r="N129">
+        <v>2.6</v>
+      </c>
+      <c r="O129">
+        <v>3.2</v>
+      </c>
+      <c r="P129">
+        <v>2.4</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
+        <v>1.825</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
+        <v>1.875</v>
+      </c>
+      <c r="V129">
+        <v>1.925</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>7874802</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45402.25</v>
+      </c>
+      <c r="F130" t="s">
+        <v>35</v>
+      </c>
+      <c r="G130" t="s">
+        <v>36</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130">
+        <v>3.3</v>
+      </c>
+      <c r="M130">
+        <v>2.1</v>
+      </c>
+      <c r="N130">
+        <v>2.8</v>
+      </c>
+      <c r="O130">
+        <v>3.1</v>
+      </c>
+      <c r="P130">
+        <v>2.3</v>
+      </c>
+      <c r="Q130">
+        <v>0.25</v>
+      </c>
+      <c r="R130">
+        <v>1.75</v>
+      </c>
+      <c r="S130">
+        <v>2.05</v>
+      </c>
+      <c r="T130">
+        <v>2.25</v>
+      </c>
+      <c r="U130">
+        <v>2.025</v>
+      </c>
+      <c r="V130">
+        <v>1.775</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>Tobol Kostanay</t>
   </si>
   <si>
-    <t>FK Aktobe</t>
+    <t>Ordabasy</t>
   </si>
   <si>
-    <t>Ordabasy</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC130"/>
+  <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L5">
+        <v>3.8</v>
+      </c>
+      <c r="M5">
+        <v>4.75</v>
+      </c>
+      <c r="N5">
+        <v>1.5</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
-      <c r="N5">
-        <v>1.333</v>
-      </c>
-      <c r="O5">
-        <v>4.75</v>
-      </c>
       <c r="P5">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M6">
+        <v>3.5</v>
+      </c>
+      <c r="N6">
+        <v>1.333</v>
+      </c>
+      <c r="O6">
         <v>4.75</v>
       </c>
-      <c r="N6">
-        <v>1.5</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,55 +1877,55 @@
         <v>45108.375</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N16">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1934,16 +1934,16 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,55 +1966,55 @@
         <v>45108.375</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L17">
+        <v>3.5</v>
+      </c>
+      <c r="M17">
+        <v>1.666</v>
+      </c>
+      <c r="N17">
+        <v>4.2</v>
+      </c>
+      <c r="O17">
         <v>3.4</v>
       </c>
-      <c r="M17">
-        <v>3.1</v>
-      </c>
-      <c r="N17">
-        <v>2.2</v>
-      </c>
-      <c r="O17">
-        <v>3.3</v>
-      </c>
       <c r="P17">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2023,16 +2023,16 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB17">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2411,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6221708</v>
+        <v>6221712</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.5</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K37">
+        <v>2.1</v>
+      </c>
+      <c r="L37">
+        <v>3.25</v>
+      </c>
+      <c r="M37">
         <v>3</v>
       </c>
-      <c r="L37">
-        <v>3.4</v>
-      </c>
-      <c r="M37">
-        <v>2.05</v>
-      </c>
       <c r="N37">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P37">
+        <v>2.9</v>
+      </c>
+      <c r="Q37">
+        <v>-0.25</v>
+      </c>
+      <c r="R37">
         <v>1.95</v>
       </c>
-      <c r="Q37">
-        <v>0.5</v>
-      </c>
-      <c r="R37">
-        <v>1.75</v>
-      </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X37">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221712</v>
+        <v>6221708</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45136.5</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O38">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
+        <v>1.75</v>
+      </c>
+      <c r="S38">
         <v>1.95</v>
       </c>
-      <c r="S38">
-        <v>1.85</v>
-      </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4906,7 +4906,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4995,7 +4995,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5526,7 +5526,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -5615,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6063,7 +6063,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6241,7 +6241,7 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6683,10 +6683,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
         <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>30</v>
@@ -7751,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7929,7 +7929,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
         <v>30</v>
@@ -8199,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8911,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,56 +9264,56 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N99">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O99">
         <v>3.2</v>
       </c>
       <c r="P99">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>1.8</v>
+      </c>
+      <c r="T99">
+        <v>2.5</v>
+      </c>
+      <c r="U99">
         <v>1.9</v>
       </c>
-      <c r="S99">
+      <c r="V99">
         <v>1.9</v>
       </c>
-      <c r="T99">
-        <v>2</v>
-      </c>
-      <c r="U99">
-        <v>1.775</v>
-      </c>
-      <c r="V99">
-        <v>2.025</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
@@ -9321,19 +9321,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
+        <v>0.8</v>
+      </c>
+      <c r="AB99">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
       <c r="AC99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,55 +9353,55 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L100">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N100">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O100">
         <v>3.2</v>
       </c>
       <c r="P100">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9410,19 +9410,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9531,7 +9531,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9890,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10154,7 +10154,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10513,7 +10513,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7874795</v>
+        <v>7873759</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,76 +11044,76 @@
         <v>45382.25</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L119">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N119">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P119">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R119">
+        <v>1.95</v>
+      </c>
+      <c r="S119">
+        <v>1.85</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
         <v>1.9</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.9</v>
       </c>
-      <c r="T119">
-        <v>2</v>
-      </c>
-      <c r="U119">
-        <v>1.95</v>
-      </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X119">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7873759</v>
+        <v>7874795</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,76 +11133,76 @@
         <v>45382.25</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="M120">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N120">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="O120">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q120">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R120">
+        <v>1.9</v>
+      </c>
+      <c r="S120">
+        <v>1.9</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
         <v>1.95</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.85</v>
       </c>
-      <c r="T120">
-        <v>2.75</v>
-      </c>
-      <c r="U120">
-        <v>1.9</v>
-      </c>
-      <c r="V120">
-        <v>1.9</v>
-      </c>
       <c r="W120">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11667,7 +11667,7 @@
         <v>45389.25</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -11848,7 +11848,7 @@
         <v>45</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11915,154 +11915,6 @@
       </c>
       <c r="AC128">
         <v>0.8999999999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>7873756</v>
-      </c>
-      <c r="C129" t="s">
-        <v>28</v>
-      </c>
-      <c r="D129" t="s">
-        <v>28</v>
-      </c>
-      <c r="E129" s="2">
-        <v>45402.25</v>
-      </c>
-      <c r="F129" t="s">
-        <v>44</v>
-      </c>
-      <c r="G129" t="s">
-        <v>45</v>
-      </c>
-      <c r="K129">
-        <v>2.6</v>
-      </c>
-      <c r="L129">
-        <v>3.2</v>
-      </c>
-      <c r="M129">
-        <v>2.4</v>
-      </c>
-      <c r="N129">
-        <v>2.6</v>
-      </c>
-      <c r="O129">
-        <v>3.2</v>
-      </c>
-      <c r="P129">
-        <v>2.4</v>
-      </c>
-      <c r="Q129">
-        <v>0</v>
-      </c>
-      <c r="R129">
-        <v>1.975</v>
-      </c>
-      <c r="S129">
-        <v>1.825</v>
-      </c>
-      <c r="T129">
-        <v>2.25</v>
-      </c>
-      <c r="U129">
-        <v>1.875</v>
-      </c>
-      <c r="V129">
-        <v>1.925</v>
-      </c>
-      <c r="W129">
-        <v>0</v>
-      </c>
-      <c r="X129">
-        <v>0</v>
-      </c>
-      <c r="Y129">
-        <v>0</v>
-      </c>
-      <c r="Z129">
-        <v>0</v>
-      </c>
-      <c r="AA129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>7874802</v>
-      </c>
-      <c r="C130" t="s">
-        <v>28</v>
-      </c>
-      <c r="D130" t="s">
-        <v>28</v>
-      </c>
-      <c r="E130" s="2">
-        <v>45402.25</v>
-      </c>
-      <c r="F130" t="s">
-        <v>35</v>
-      </c>
-      <c r="G130" t="s">
-        <v>36</v>
-      </c>
-      <c r="K130">
-        <v>3</v>
-      </c>
-      <c r="L130">
-        <v>3.3</v>
-      </c>
-      <c r="M130">
-        <v>2.1</v>
-      </c>
-      <c r="N130">
-        <v>2.8</v>
-      </c>
-      <c r="O130">
-        <v>3.1</v>
-      </c>
-      <c r="P130">
-        <v>2.3</v>
-      </c>
-      <c r="Q130">
-        <v>0.25</v>
-      </c>
-      <c r="R130">
-        <v>1.75</v>
-      </c>
-      <c r="S130">
-        <v>2.05</v>
-      </c>
-      <c r="T130">
-        <v>2.25</v>
-      </c>
-      <c r="U130">
-        <v>2.025</v>
-      </c>
-      <c r="V130">
-        <v>1.775</v>
-      </c>
-      <c r="W130">
-        <v>0</v>
-      </c>
-      <c r="X130">
-        <v>0</v>
-      </c>
-      <c r="Y130">
-        <v>0</v>
-      </c>
-      <c r="Z130">
-        <v>0</v>
-      </c>
-      <c r="AA130">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>Tobol Kostanay</t>
   </si>
   <si>
-    <t>Ordabasy</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
-    <t>FK Aktobe</t>
+    <t>Ordabasy</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:AC133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M5">
+        <v>3.5</v>
+      </c>
+      <c r="N5">
+        <v>1.333</v>
+      </c>
+      <c r="O5">
         <v>4.75</v>
       </c>
-      <c r="N5">
-        <v>1.5</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,55 +990,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L6">
+        <v>3.8</v>
+      </c>
+      <c r="M6">
+        <v>4.75</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>3.5</v>
-      </c>
-      <c r="N6">
-        <v>1.333</v>
-      </c>
-      <c r="O6">
-        <v>4.75</v>
-      </c>
       <c r="P6">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1047,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,58 +1254,58 @@
         <v>45101.375</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L9">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N9">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="O9">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P9">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q9">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1314,13 +1314,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1331,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,58 +1343,58 @@
         <v>45101.375</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
       <c r="K10">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M10">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="O10">
+        <v>5.5</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>-2</v>
+      </c>
+      <c r="R10">
+        <v>1.975</v>
+      </c>
+      <c r="S10">
+        <v>1.825</v>
+      </c>
+      <c r="T10">
         <v>3</v>
       </c>
-      <c r="P10">
-        <v>3.2</v>
-      </c>
-      <c r="Q10">
-        <v>-0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.875</v>
-      </c>
-      <c r="S10">
-        <v>1.925</v>
-      </c>
-      <c r="T10">
-        <v>2.25</v>
-      </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1403,13 +1403,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1613,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1969,7 +1969,7 @@
         <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>45109.5</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2503,7 +2503,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,76 +2678,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
+        <v>3.6</v>
+      </c>
+      <c r="L25">
+        <v>3.5</v>
+      </c>
+      <c r="M25">
+        <v>1.8</v>
+      </c>
+      <c r="N25">
         <v>3.1</v>
       </c>
-      <c r="L25">
-        <v>3.2</v>
-      </c>
-      <c r="M25">
-        <v>2.1</v>
-      </c>
-      <c r="N25">
-        <v>2.1</v>
-      </c>
       <c r="O25">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
+        <v>2.5</v>
+      </c>
+      <c r="U25">
+        <v>1.75</v>
+      </c>
+      <c r="V25">
         <v>1.95</v>
       </c>
-      <c r="T25">
-        <v>2.25</v>
-      </c>
-      <c r="U25">
-        <v>1.975</v>
-      </c>
-      <c r="V25">
-        <v>1.725</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,76 +2767,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N26">
+        <v>2.1</v>
+      </c>
+      <c r="O26">
         <v>3.1</v>
       </c>
-      <c r="O26">
-        <v>3.5</v>
-      </c>
       <c r="P26">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
+        <v>1.95</v>
+      </c>
+      <c r="T26">
+        <v>2.25</v>
+      </c>
+      <c r="U26">
         <v>1.975</v>
       </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.75</v>
-      </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
+        <v>0.475</v>
+      </c>
+      <c r="AB26">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>45129.5</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6221712</v>
+        <v>6221708</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.5</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N37">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O37">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P37">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
+        <v>1.75</v>
+      </c>
+      <c r="S37">
         <v>1.95</v>
       </c>
-      <c r="S37">
-        <v>1.85</v>
-      </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6221708</v>
+        <v>6221712</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45136.5</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K38">
+        <v>2.1</v>
+      </c>
+      <c r="L38">
+        <v>3.25</v>
+      </c>
+      <c r="M38">
         <v>3</v>
       </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>2.05</v>
-      </c>
       <c r="N38">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P38">
+        <v>2.9</v>
+      </c>
+      <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
         <v>1.95</v>
       </c>
-      <c r="Q38">
-        <v>0.5</v>
-      </c>
-      <c r="R38">
-        <v>1.75</v>
-      </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>45144.5</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,64 +4903,64 @@
         <v>45151.5</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L50">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N50">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y50">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -4969,10 +4969,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,64 +4992,64 @@
         <v>45151.5</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>33</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M51">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="N51">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51">
+        <v>1.725</v>
+      </c>
+      <c r="S51">
+        <v>2.075</v>
+      </c>
+      <c r="T51">
+        <v>2.25</v>
+      </c>
+      <c r="U51">
+        <v>1.875</v>
+      </c>
+      <c r="V51">
         <v>1.925</v>
       </c>
-      <c r="S51">
-        <v>1.875</v>
-      </c>
-      <c r="T51">
-        <v>2.5</v>
-      </c>
-      <c r="U51">
-        <v>1.9</v>
-      </c>
-      <c r="V51">
-        <v>1.9</v>
-      </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5526,7 +5526,7 @@
         <v>45158.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -5615,7 +5615,7 @@
         <v>45158.5</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -6063,7 +6063,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6241,7 +6241,7 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6683,10 +6683,10 @@
         <v>45185.5</v>
       </c>
       <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
         <v>33</v>
-      </c>
-      <c r="G70" t="s">
-        <v>32</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>30</v>
@@ -7751,7 +7751,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7929,7 +7929,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>30</v>
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,76 +8018,76 @@
         <v>45200.25</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L85">
         <v>3.1</v>
       </c>
       <c r="M85">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N85">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P85">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
         <v>1.8</v>
-      </c>
-      <c r="S85">
-        <v>2</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>0.8</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,76 +8107,76 @@
         <v>45200.25</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K86">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <v>3.1</v>
       </c>
       <c r="M86">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N86">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O86">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q86">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8199,7 +8199,7 @@
         <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8273,7 +8273,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6221810</v>
+        <v>6221811</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8285,76 +8285,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="L88">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
+        <v>1.8</v>
+      </c>
+      <c r="N88">
         <v>3.8</v>
       </c>
-      <c r="N88">
-        <v>2</v>
-      </c>
       <c r="O88">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8362,7 +8362,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6221811</v>
+        <v>6221810</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8374,76 +8374,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M89">
+        <v>3.8</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89">
+        <v>3.1</v>
+      </c>
+      <c r="P89">
+        <v>3.5</v>
+      </c>
+      <c r="Q89">
+        <v>-0.5</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
         <v>1.8</v>
       </c>
-      <c r="N89">
-        <v>3.8</v>
-      </c>
-      <c r="O89">
-        <v>3.6</v>
-      </c>
-      <c r="P89">
-        <v>1.75</v>
-      </c>
-      <c r="Q89">
-        <v>0.75</v>
-      </c>
-      <c r="R89">
-        <v>1.8</v>
-      </c>
-      <c r="S89">
-        <v>2</v>
-      </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V89">
         <v>1.975</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X89">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8911,7 +8911,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9086,7 +9086,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,55 +9264,55 @@
         <v>45228.25</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L99">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O99">
         <v>3.2</v>
       </c>
       <c r="P99">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9321,19 +9321,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,56 +9353,56 @@
         <v>45228.25</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N100">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O100">
         <v>3.2</v>
       </c>
       <c r="P100">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>1.8</v>
+      </c>
+      <c r="T100">
+        <v>2.5</v>
+      </c>
+      <c r="U100">
         <v>1.9</v>
       </c>
-      <c r="S100">
+      <c r="V100">
         <v>1.9</v>
       </c>
-      <c r="T100">
-        <v>2</v>
-      </c>
-      <c r="U100">
-        <v>1.775</v>
-      </c>
-      <c r="V100">
-        <v>2.025</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
@@ -9410,19 +9410,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
+        <v>0.8</v>
+      </c>
+      <c r="AB100">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
       <c r="AC100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221754</v>
+        <v>6221755</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>48</v>
       </c>
       <c r="K101">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="L101">
         <v>3.5</v>
       </c>
       <c r="M101">
+        <v>4</v>
+      </c>
+      <c r="N101">
+        <v>1.444</v>
+      </c>
+      <c r="O101">
+        <v>4</v>
+      </c>
+      <c r="P101">
+        <v>6</v>
+      </c>
+      <c r="Q101">
+        <v>-1.25</v>
+      </c>
+      <c r="R101">
+        <v>1.975</v>
+      </c>
+      <c r="S101">
+        <v>1.825</v>
+      </c>
+      <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
         <v>1.8</v>
       </c>
-      <c r="N101">
-        <v>5</v>
-      </c>
-      <c r="O101">
-        <v>1.4</v>
-      </c>
-      <c r="P101">
-        <v>5</v>
-      </c>
-      <c r="Q101">
-        <v>0.25</v>
-      </c>
-      <c r="R101">
-        <v>1.7</v>
-      </c>
-      <c r="S101">
-        <v>2.1</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
-      <c r="U101">
-        <v>1.9</v>
-      </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>0.3999999999999999</v>
+        <v>3</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC101">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221755</v>
+        <v>6221814</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,76 +9531,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N102">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9623,7 +9623,7 @@
         <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221814</v>
+        <v>6221754</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,10 +9709,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9724,61 +9724,61 @@
         <v>48</v>
       </c>
       <c r="K104">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N104">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="O104">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="P104">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S104">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T104">
         <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
         <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10154,7 +10154,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>
@@ -10513,7 +10513,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -11044,7 +11044,7 @@
         <v>45382.25</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>44</v>
@@ -11311,7 +11311,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11667,7 +11667,7 @@
         <v>45389.25</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -11848,7 +11848,7 @@
         <v>45</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11915,6 +11915,451 @@
       </c>
       <c r="AC128">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>7873756</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45402.25</v>
+      </c>
+      <c r="F129" t="s">
+        <v>44</v>
+      </c>
+      <c r="G129" t="s">
+        <v>45</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>46</v>
+      </c>
+      <c r="K129">
+        <v>2.6</v>
+      </c>
+      <c r="L129">
+        <v>3.2</v>
+      </c>
+      <c r="M129">
+        <v>2.4</v>
+      </c>
+      <c r="N129">
+        <v>2.875</v>
+      </c>
+      <c r="O129">
+        <v>3.2</v>
+      </c>
+      <c r="P129">
+        <v>2.25</v>
+      </c>
+      <c r="Q129">
+        <v>0.25</v>
+      </c>
+      <c r="R129">
+        <v>1.8</v>
+      </c>
+      <c r="S129">
+        <v>2</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
+        <v>1.975</v>
+      </c>
+      <c r="V129">
+        <v>1.825</v>
+      </c>
+      <c r="W129">
+        <v>1.875</v>
+      </c>
+      <c r="X129">
+        <v>-1</v>
+      </c>
+      <c r="Y129">
+        <v>-1</v>
+      </c>
+      <c r="Z129">
+        <v>0.8</v>
+      </c>
+      <c r="AA129">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>7874802</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45402.25</v>
+      </c>
+      <c r="F130" t="s">
+        <v>35</v>
+      </c>
+      <c r="G130" t="s">
+        <v>36</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>48</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130">
+        <v>3.3</v>
+      </c>
+      <c r="M130">
+        <v>2.1</v>
+      </c>
+      <c r="N130">
+        <v>2.875</v>
+      </c>
+      <c r="O130">
+        <v>3</v>
+      </c>
+      <c r="P130">
+        <v>2.3</v>
+      </c>
+      <c r="Q130">
+        <v>0.25</v>
+      </c>
+      <c r="R130">
+        <v>1.75</v>
+      </c>
+      <c r="S130">
+        <v>2.05</v>
+      </c>
+      <c r="T130">
+        <v>2</v>
+      </c>
+      <c r="U130">
+        <v>1.95</v>
+      </c>
+      <c r="V130">
+        <v>1.85</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>2</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>0.375</v>
+      </c>
+      <c r="AA130">
+        <v>-0.5</v>
+      </c>
+      <c r="AB130">
+        <v>0</v>
+      </c>
+      <c r="AC130">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>7874803</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45402.35416666666</v>
+      </c>
+      <c r="F131" t="s">
+        <v>33</v>
+      </c>
+      <c r="G131" t="s">
+        <v>41</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>48</v>
+      </c>
+      <c r="K131">
+        <v>1.5</v>
+      </c>
+      <c r="L131">
+        <v>4</v>
+      </c>
+      <c r="M131">
+        <v>5</v>
+      </c>
+      <c r="N131">
+        <v>1.65</v>
+      </c>
+      <c r="O131">
+        <v>3.3</v>
+      </c>
+      <c r="P131">
+        <v>4.75</v>
+      </c>
+      <c r="Q131">
+        <v>-1</v>
+      </c>
+      <c r="R131">
+        <v>1.95</v>
+      </c>
+      <c r="S131">
+        <v>1.85</v>
+      </c>
+      <c r="T131">
+        <v>2.5</v>
+      </c>
+      <c r="U131">
+        <v>1.975</v>
+      </c>
+      <c r="V131">
+        <v>1.825</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>2.3</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>7874804</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45402.45833333334</v>
+      </c>
+      <c r="F132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G132" t="s">
+        <v>32</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>3</v>
+      </c>
+      <c r="J132" t="s">
+        <v>47</v>
+      </c>
+      <c r="K132">
+        <v>2.3</v>
+      </c>
+      <c r="L132">
+        <v>3.2</v>
+      </c>
+      <c r="M132">
+        <v>2.75</v>
+      </c>
+      <c r="N132">
+        <v>2.05</v>
+      </c>
+      <c r="O132">
+        <v>3</v>
+      </c>
+      <c r="P132">
+        <v>3.4</v>
+      </c>
+      <c r="Q132">
+        <v>-0.25</v>
+      </c>
+      <c r="R132">
+        <v>1.8</v>
+      </c>
+      <c r="S132">
+        <v>2</v>
+      </c>
+      <c r="T132">
+        <v>2.25</v>
+      </c>
+      <c r="U132">
+        <v>2</v>
+      </c>
+      <c r="V132">
+        <v>1.8</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
+        <v>2.4</v>
+      </c>
+      <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
+        <v>1</v>
+      </c>
+      <c r="AB132">
+        <v>1</v>
+      </c>
+      <c r="AC132">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>7871217</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45403.35416666666</v>
+      </c>
+      <c r="F133" t="s">
+        <v>30</v>
+      </c>
+      <c r="G133" t="s">
+        <v>31</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133" t="s">
+        <v>48</v>
+      </c>
+      <c r="K133">
+        <v>1.666</v>
+      </c>
+      <c r="L133">
+        <v>3.5</v>
+      </c>
+      <c r="M133">
+        <v>4.4</v>
+      </c>
+      <c r="N133">
+        <v>2.1</v>
+      </c>
+      <c r="O133">
+        <v>3.1</v>
+      </c>
+      <c r="P133">
+        <v>3.1</v>
+      </c>
+      <c r="Q133">
+        <v>-0.25</v>
+      </c>
+      <c r="R133">
+        <v>1.9</v>
+      </c>
+      <c r="S133">
+        <v>1.9</v>
+      </c>
+      <c r="T133">
+        <v>2.25</v>
+      </c>
+      <c r="U133">
+        <v>1.975</v>
+      </c>
+      <c r="V133">
+        <v>1.825</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>2.1</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>-0.5</v>
+      </c>
+      <c r="AA133">
+        <v>0.45</v>
+      </c>
+      <c r="AB133">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC133">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Kairat Almaty</t>
   </si>
   <si>
-    <t>FC Astana</t>
+    <t>Tobol Kostanay</t>
   </si>
   <si>
-    <t>Tobol Kostanay</t>
+    <t>FC Astana</t>
   </si>
   <si>
     <t>FK Aktobe</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB133"/>
+  <dimension ref="A1:AB134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,10 +682,10 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0.4375</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6221684</v>
+        <v>6726053</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -711,7 +711,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -723,43 +723,43 @@
         <v>45</v>
       </c>
       <c r="J3">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="K3">
+        <v>3.2</v>
+      </c>
+      <c r="L3">
+        <v>2.5</v>
+      </c>
+      <c r="M3">
+        <v>1.8</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
         <v>4.2</v>
       </c>
-      <c r="L3">
-        <v>4.5</v>
-      </c>
-      <c r="M3">
-        <v>1.222</v>
-      </c>
-      <c r="N3">
-        <v>5.5</v>
-      </c>
-      <c r="O3">
-        <v>9</v>
-      </c>
       <c r="P3">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q3">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R3">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T3">
+        <v>1.875</v>
+      </c>
+      <c r="U3">
         <v>1.925</v>
       </c>
-      <c r="U3">
-        <v>1.875</v>
-      </c>
       <c r="V3">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -768,16 +768,16 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6726053</v>
+        <v>6221684</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -797,7 +797,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -809,43 +809,43 @@
         <v>45</v>
       </c>
       <c r="J4">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="K4">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O4">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="P4">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="Q4">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T4">
+        <v>1.925</v>
+      </c>
+      <c r="U4">
         <v>1.875</v>
       </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
       <c r="V4">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -857,13 +857,13 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -940,10 +940,10 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
         <v>-1</v>
@@ -1026,10 +1026,10 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0.8999999999999999</v>
@@ -1112,10 +1112,10 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
         <v>0.825</v>
@@ -1198,10 +1198,10 @@
         <v>3.333</v>
       </c>
       <c r="Y8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA8">
         <v>-1</v>
@@ -1284,10 +1284,10 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>45101.375</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
         <v>41</v>
@@ -1370,10 +1370,10 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0.95</v>
@@ -1399,7 +1399,7 @@
         <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1456,10 +1456,10 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
         <v>0.95</v>
@@ -1542,10 +1542,10 @@
         <v>2.4</v>
       </c>
       <c r="Y12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1628,10 +1628,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -1714,10 +1714,10 @@
         <v>1.875</v>
       </c>
       <c r="Y14">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -1886,10 +1886,10 @@
         <v>0.7</v>
       </c>
       <c r="Y16">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA16">
         <v>0.925</v>
@@ -1972,10 +1972,10 @@
         <v>1.8</v>
       </c>
       <c r="Y17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
         <v>0.8500000000000001</v>
@@ -2058,10 +2058,10 @@
         <v>2</v>
       </c>
       <c r="Y18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA18">
         <v>-1</v>
@@ -2144,10 +2144,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
         <v>0.925</v>
@@ -2173,7 +2173,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2230,10 +2230,10 @@
         <v>0.363</v>
       </c>
       <c r="Y20">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
         <v>0.8</v>
@@ -2256,7 +2256,7 @@
         <v>45109.45833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
@@ -2316,10 +2316,10 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
         <v>-1</v>
@@ -2402,10 +2402,10 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
         <v>-1</v>
@@ -2488,10 +2488,10 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="Y23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA23">
         <v>0.8</v>
@@ -2574,10 +2574,10 @@
         <v>0.75</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2591,7 +2591,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -2600,76 +2600,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J25">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K25">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L25">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M25">
+        <v>2.1</v>
+      </c>
+      <c r="N25">
         <v>3.1</v>
       </c>
-      <c r="N25">
-        <v>3.5</v>
-      </c>
       <c r="O25">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R25">
+        <v>1.95</v>
+      </c>
+      <c r="S25">
+        <v>2.25</v>
+      </c>
+      <c r="T25">
         <v>1.975</v>
       </c>
-      <c r="S25">
-        <v>2.5</v>
-      </c>
-      <c r="T25">
-        <v>1.75</v>
-      </c>
       <c r="U25">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V25">
         <v>-1</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X25">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2677,7 +2677,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -2686,76 +2686,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J26">
+        <v>3.6</v>
+      </c>
+      <c r="K26">
+        <v>3.5</v>
+      </c>
+      <c r="L26">
+        <v>1.8</v>
+      </c>
+      <c r="M26">
         <v>3.1</v>
       </c>
-      <c r="K26">
-        <v>3.2</v>
-      </c>
-      <c r="L26">
-        <v>2.1</v>
-      </c>
-      <c r="M26">
-        <v>2.1</v>
-      </c>
       <c r="N26">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O26">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="P26">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q26">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>2.5</v>
+      </c>
+      <c r="T26">
+        <v>1.75</v>
+      </c>
+      <c r="U26">
         <v>1.95</v>
       </c>
-      <c r="S26">
-        <v>2.25</v>
-      </c>
-      <c r="T26">
-        <v>1.975</v>
-      </c>
-      <c r="U26">
-        <v>1.725</v>
-      </c>
       <c r="V26">
         <v>-1</v>
       </c>
       <c r="W26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2918,10 +2918,10 @@
         <v>2.2</v>
       </c>
       <c r="Y28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA28">
         <v>0.95</v>
@@ -3030,7 +3030,7 @@
         <v>45129.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
         <v>35</v>
@@ -3176,10 +3176,10 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>-1</v>
@@ -3262,10 +3262,10 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA32">
         <v>0.925</v>
@@ -3348,10 +3348,10 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -3460,7 +3460,7 @@
         <v>45130.5</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -3520,10 +3520,10 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
         <v>-1</v>
@@ -3549,7 +3549,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3606,10 +3606,10 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z36">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
         <v>-1</v>
@@ -3778,10 +3778,10 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
         <v>0.9750000000000001</v>
@@ -3950,10 +3950,10 @@
         <v>3.5</v>
       </c>
       <c r="Y40">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -4122,10 +4122,10 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z42">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>0.9750000000000001</v>
@@ -4234,7 +4234,7 @@
         <v>45144.44791666666</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
         <v>34</v>
@@ -4294,10 +4294,10 @@
         <v>2.4</v>
       </c>
       <c r="Y44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4380,10 +4380,10 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
         <v>0.95</v>
@@ -4466,10 +4466,10 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
         <v>0.925</v>
@@ -4552,10 +4552,10 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
         <v>-1</v>
@@ -4667,7 +4667,7 @@
         <v>28</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4724,10 +4724,10 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z49">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA49">
         <v>0.875</v>
@@ -4741,7 +4741,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4750,64 +4750,64 @@
         <v>45151.5</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J50">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="K50">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L50">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="M50">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N50">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O50">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
+        <v>1.725</v>
+      </c>
+      <c r="R50">
+        <v>2.075</v>
+      </c>
+      <c r="S50">
+        <v>2.25</v>
+      </c>
+      <c r="T50">
+        <v>1.875</v>
+      </c>
+      <c r="U50">
         <v>1.925</v>
       </c>
-      <c r="R50">
-        <v>1.875</v>
-      </c>
-      <c r="S50">
-        <v>2.5</v>
-      </c>
-      <c r="T50">
-        <v>1.9</v>
-      </c>
-      <c r="U50">
-        <v>1.9</v>
-      </c>
       <c r="V50">
         <v>-1</v>
       </c>
       <c r="W50">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -4816,10 +4816,10 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4827,7 +4827,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -4836,76 +4836,76 @@
         <v>45151.5</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J51">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="K51">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L51">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="M51">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N51">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O51">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="R51">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
         <v>-1</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X51">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4982,10 +4982,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>-1</v>
@@ -5068,10 +5068,10 @@
         <v>1.05</v>
       </c>
       <c r="Y53">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA53">
         <v>0.875</v>
@@ -5154,10 +5154,10 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z54">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
         <v>0.9750000000000001</v>
@@ -5240,10 +5240,10 @@
         <v>2.1</v>
       </c>
       <c r="Y55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA55">
         <v>-1</v>
@@ -5266,7 +5266,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
@@ -5355,7 +5355,7 @@
         <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5498,10 +5498,10 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z58">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA58">
         <v>-1</v>
@@ -5670,10 +5670,10 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z60">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
         <v>0.875</v>
@@ -5842,10 +5842,10 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z62">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA62">
         <v>-1</v>
@@ -5957,7 +5957,7 @@
         <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6014,10 +6014,10 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6040,7 +6040,7 @@
         <v>45165.5</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
         <v>32</v>
@@ -6186,10 +6186,10 @@
         <v>3.2</v>
       </c>
       <c r="Y66">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA66">
         <v>-1</v>
@@ -6272,10 +6272,10 @@
         <v>1.6</v>
       </c>
       <c r="Y67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA67">
         <v>-1</v>
@@ -6384,10 +6384,10 @@
         <v>45185.41666666666</v>
       </c>
       <c r="E69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" t="s">
         <v>29</v>
-      </c>
-      <c r="F69" t="s">
-        <v>30</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6444,10 +6444,10 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z69">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA69">
         <v>0.8</v>
@@ -6530,10 +6530,10 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
         <v>1</v>
@@ -6616,10 +6616,10 @@
         <v>1.05</v>
       </c>
       <c r="Y71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
         <v>0.925</v>
@@ -6874,10 +6874,10 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
         <v>-1</v>
@@ -7046,10 +7046,10 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
         <v>0.8999999999999999</v>
@@ -7158,7 +7158,7 @@
         <v>45193.375</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
         <v>33</v>
@@ -7218,10 +7218,10 @@
         <v>5</v>
       </c>
       <c r="Y78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA78">
         <v>0.95</v>
@@ -7247,7 +7247,7 @@
         <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7304,10 +7304,10 @@
         <v>5.5</v>
       </c>
       <c r="Y79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AA79">
         <v>0.925</v>
@@ -7333,7 +7333,7 @@
         <v>40</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7416,7 +7416,7 @@
         <v>45196.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F81" t="s">
         <v>38</v>
@@ -7476,10 +7476,10 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
         <v>0.9750000000000001</v>
@@ -7591,7 +7591,7 @@
         <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7648,10 +7648,10 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
         <v>0.8500000000000001</v>
@@ -7677,7 +7677,7 @@
         <v>31</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7734,10 +7734,10 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
         <v>-1</v>
@@ -7751,7 +7751,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7760,76 +7760,76 @@
         <v>45200.25</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J85">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="K85">
         <v>3.1</v>
       </c>
       <c r="L85">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="M85">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="N85">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O85">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="P85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S85">
         <v>2.25</v>
       </c>
       <c r="T85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V85">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7837,7 +7837,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -7846,76 +7846,76 @@
         <v>45200.25</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J86">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="K86">
         <v>3.1</v>
       </c>
       <c r="L86">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="N86">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O86">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="P86">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q86">
+        <v>2</v>
+      </c>
+      <c r="R86">
         <v>1.8</v>
-      </c>
-      <c r="R86">
-        <v>2</v>
       </c>
       <c r="S86">
         <v>2.25</v>
       </c>
       <c r="T86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB86">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7992,10 +7992,10 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="Y87">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
         <v>0.875</v>
@@ -8164,10 +8164,10 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8336,10 +8336,10 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z91">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
         <v>1.025</v>
@@ -8422,10 +8422,10 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
         <v>0.8500000000000001</v>
@@ -8448,7 +8448,7 @@
         <v>45220.375</v>
       </c>
       <c r="E93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F93" t="s">
         <v>41</v>
@@ -8534,7 +8534,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
         <v>33</v>
@@ -8766,10 +8766,10 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
         <v>-1</v>
@@ -8852,10 +8852,10 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z97">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA97">
         <v>0.8999999999999999</v>
@@ -8869,7 +8869,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221753</v>
+        <v>6221815</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8878,76 +8878,76 @@
         <v>45228.25</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>47</v>
+      </c>
+      <c r="J98">
         <v>3</v>
       </c>
-      <c r="I98" t="s">
-        <v>46</v>
-      </c>
-      <c r="J98">
-        <v>2.75</v>
-      </c>
       <c r="K98">
+        <v>3</v>
+      </c>
+      <c r="L98">
+        <v>2.25</v>
+      </c>
+      <c r="M98">
         <v>3.1</v>
       </c>
-      <c r="L98">
-        <v>2.375</v>
-      </c>
-      <c r="M98">
-        <v>2.625</v>
-      </c>
       <c r="N98">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O98">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R98">
+        <v>1.95</v>
+      </c>
+      <c r="S98">
+        <v>2.25</v>
+      </c>
+      <c r="T98">
         <v>1.8</v>
       </c>
-      <c r="S98">
-        <v>2.5</v>
-      </c>
-      <c r="T98">
-        <v>1.9</v>
-      </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V98">
         <v>-1</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X98">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8955,7 +8955,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8964,56 +8964,56 @@
         <v>45228.25</v>
       </c>
       <c r="E99" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99" t="s">
         <v>46</v>
       </c>
       <c r="J99">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="K99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="M99">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="N99">
         <v>3.2</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="P99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q99">
+        <v>2</v>
+      </c>
+      <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
+        <v>2.5</v>
+      </c>
+      <c r="T99">
         <v>1.9</v>
       </c>
-      <c r="R99">
+      <c r="U99">
         <v>1.9</v>
       </c>
-      <c r="S99">
-        <v>2</v>
-      </c>
-      <c r="T99">
-        <v>1.775</v>
-      </c>
-      <c r="U99">
-        <v>2.025</v>
-      </c>
       <c r="V99">
         <v>-1</v>
       </c>
@@ -9021,19 +9021,19 @@
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
+        <v>0.8</v>
+      </c>
+      <c r="AA99">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z99">
-        <v>-1</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
       <c r="AB99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9041,7 +9041,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221815</v>
+        <v>6221752</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9050,76 +9050,76 @@
         <v>45228.25</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J100">
+        <v>1.833</v>
+      </c>
+      <c r="K100">
+        <v>3.2</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>1.85</v>
+      </c>
+      <c r="N100">
+        <v>3.2</v>
+      </c>
+      <c r="O100">
+        <v>4</v>
+      </c>
+      <c r="P100">
+        <v>-0.5</v>
+      </c>
+      <c r="Q100">
+        <v>1.9</v>
+      </c>
+      <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
+        <v>1.775</v>
+      </c>
+      <c r="U100">
+        <v>2.025</v>
+      </c>
+      <c r="V100">
+        <v>-1</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
         <v>3</v>
       </c>
-      <c r="K100">
-        <v>3</v>
-      </c>
-      <c r="L100">
-        <v>2.25</v>
-      </c>
-      <c r="M100">
-        <v>3.1</v>
-      </c>
-      <c r="N100">
-        <v>3.1</v>
-      </c>
-      <c r="O100">
-        <v>2.15</v>
-      </c>
-      <c r="P100">
-        <v>0.25</v>
-      </c>
-      <c r="Q100">
-        <v>1.85</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>2.25</v>
-      </c>
-      <c r="T100">
-        <v>1.8</v>
-      </c>
-      <c r="U100">
-        <v>2</v>
-      </c>
-      <c r="V100">
-        <v>-1</v>
-      </c>
-      <c r="W100">
-        <v>2.1</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
       <c r="Y100">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9127,7 +9127,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221755</v>
+        <v>6221816</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -9136,76 +9136,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J101">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="K101">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="M101">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="N101">
         <v>4</v>
       </c>
       <c r="O101">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="P101">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q101">
+        <v>1.95</v>
+      </c>
+      <c r="R101">
+        <v>1.75</v>
+      </c>
+      <c r="S101">
+        <v>3</v>
+      </c>
+      <c r="T101">
         <v>1.975</v>
       </c>
-      <c r="R101">
+      <c r="U101">
         <v>1.825</v>
       </c>
-      <c r="S101">
-        <v>2.75</v>
-      </c>
-      <c r="T101">
-        <v>1.8</v>
-      </c>
-      <c r="U101">
-        <v>2</v>
-      </c>
       <c r="V101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="W101">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
+        <v>-1</v>
+      </c>
+      <c r="AB101">
         <v>0.825</v>
-      </c>
-      <c r="AA101">
-        <v>0.8</v>
-      </c>
-      <c r="AB101">
-        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9213,7 +9213,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221814</v>
+        <v>6221754</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9222,10 +9222,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9237,61 +9237,61 @@
         <v>47</v>
       </c>
       <c r="J102">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="K102">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L102">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="M102">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N102">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O102">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q102">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R102">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S102">
         <v>2.25</v>
       </c>
       <c r="T102">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>2.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
         <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9299,7 +9299,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221816</v>
+        <v>6221755</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9308,76 +9308,76 @@
         <v>45228.33333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J103">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="K103">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L103">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>4.2</v>
+        <v>1.444</v>
       </c>
       <c r="N103">
         <v>4</v>
       </c>
       <c r="O103">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="P103">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q103">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R103">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
+        <v>2.75</v>
+      </c>
+      <c r="T103">
+        <v>1.8</v>
+      </c>
+      <c r="U103">
+        <v>2</v>
+      </c>
+      <c r="V103">
+        <v>-1</v>
+      </c>
+      <c r="W103">
         <v>3</v>
       </c>
-      <c r="T103">
-        <v>1.975</v>
-      </c>
-      <c r="U103">
-        <v>1.825</v>
-      </c>
-      <c r="V103">
-        <v>3.2</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9385,7 +9385,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221754</v>
+        <v>6221814</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9394,10 +9394,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9409,61 +9409,61 @@
         <v>47</v>
       </c>
       <c r="J104">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="K104">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L104">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="M104">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N104">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O104">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P104">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R104">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S104">
         <v>2.25</v>
       </c>
       <c r="T104">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
         <v>-1</v>
       </c>
       <c r="W104">
-        <v>0.3999999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA104">
         <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>0.45</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9480,7 +9480,7 @@
         <v>45352.27083333334</v>
       </c>
       <c r="E105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
         <v>43</v>
@@ -9540,10 +9540,10 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
         <v>-1</v>
@@ -9626,10 +9626,10 @@
         <v>0.95</v>
       </c>
       <c r="Y106">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA106">
         <v>0.8999999999999999</v>
@@ -9643,7 +9643,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7874783</v>
+        <v>7874784</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9652,76 +9652,76 @@
         <v>45353.25</v>
       </c>
       <c r="E107" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J107">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="K107">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L107">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="M107">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="N107">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O107">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="P107">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T107">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U107">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z107">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9729,7 +9729,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7874784</v>
+        <v>7874783</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9738,76 +9738,76 @@
         <v>45353.25</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J108">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L108">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="N108">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O108">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="P108">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q108">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V108">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W108">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9884,10 +9884,10 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
         <v>0.9750000000000001</v>
@@ -9910,7 +9910,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
         <v>44</v>
@@ -9970,10 +9970,10 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA110">
         <v>-1</v>
@@ -9999,7 +9999,7 @@
         <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10056,10 +10056,10 @@
         <v>0.444</v>
       </c>
       <c r="Y111">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA111">
         <v>-0.5</v>
@@ -10142,10 +10142,10 @@
         <v>1.55</v>
       </c>
       <c r="Y112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA112">
         <v>0.825</v>
@@ -10254,7 +10254,7 @@
         <v>45357.47916666666</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -10314,10 +10314,10 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
         <v>0.825</v>
@@ -10400,10 +10400,10 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z115">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
         <v>-1</v>
@@ -10572,10 +10572,10 @@
         <v>1.3</v>
       </c>
       <c r="Y117">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10658,10 +10658,10 @@
         <v>2.6</v>
       </c>
       <c r="Y118">
+        <v>-1</v>
+      </c>
+      <c r="Z118">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z118">
-        <v>-1</v>
       </c>
       <c r="AA118">
         <v>-1</v>
@@ -10675,7 +10675,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7873759</v>
+        <v>7874795</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -10684,76 +10684,76 @@
         <v>45382.25</v>
       </c>
       <c r="E119" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>47</v>
+      </c>
+      <c r="J119">
+        <v>2.2</v>
+      </c>
+      <c r="K119">
+        <v>3.1</v>
+      </c>
+      <c r="L119">
         <v>3</v>
       </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119" t="s">
-        <v>45</v>
-      </c>
-      <c r="J119">
-        <v>1.25</v>
-      </c>
-      <c r="K119">
-        <v>5.75</v>
-      </c>
-      <c r="L119">
-        <v>7</v>
-      </c>
       <c r="M119">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N119">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="O119">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="P119">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q119">
+        <v>1.9</v>
+      </c>
+      <c r="R119">
+        <v>1.9</v>
+      </c>
+      <c r="S119">
+        <v>2</v>
+      </c>
+      <c r="T119">
         <v>1.95</v>
       </c>
-      <c r="R119">
+      <c r="U119">
         <v>1.85</v>
       </c>
-      <c r="S119">
-        <v>2.75</v>
-      </c>
-      <c r="T119">
-        <v>1.9</v>
-      </c>
-      <c r="U119">
-        <v>1.9</v>
-      </c>
       <c r="V119">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA119">
-        <v>0.45</v>
-      </c>
-      <c r="AB119">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10761,7 +10761,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7874795</v>
+        <v>7873759</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -10770,76 +10770,76 @@
         <v>45382.25</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J120">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="K120">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="L120">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M120">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="N120">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="O120">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="P120">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q120">
+        <v>1.95</v>
+      </c>
+      <c r="R120">
+        <v>1.85</v>
+      </c>
+      <c r="S120">
+        <v>2.75</v>
+      </c>
+      <c r="T120">
         <v>1.9</v>
       </c>
-      <c r="R120">
+      <c r="U120">
         <v>1.9</v>
       </c>
-      <c r="S120">
-        <v>2</v>
-      </c>
-      <c r="T120">
-        <v>1.95</v>
-      </c>
-      <c r="U120">
-        <v>1.85</v>
-      </c>
       <c r="V120">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB120">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10856,7 +10856,7 @@
         <v>45382.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
         <v>42</v>
@@ -10916,10 +10916,10 @@
         <v>4.25</v>
       </c>
       <c r="Y121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AA121">
         <v>-1</v>
@@ -11002,10 +11002,10 @@
         <v>2.6</v>
       </c>
       <c r="Y122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA122">
         <v>1.025</v>
@@ -11088,10 +11088,10 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
         <v>1</v>
@@ -11174,10 +11174,10 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11375,7 +11375,7 @@
         <v>36</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11432,10 +11432,10 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
         <v>-1</v>
@@ -11518,10 +11518,10 @@
         <v>0.444</v>
       </c>
       <c r="Y128">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
         <v>-1</v>
@@ -11604,10 +11604,10 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z129">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
         <v>-1</v>
@@ -11862,10 +11862,10 @@
         <v>2.4</v>
       </c>
       <c r="Y132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA132">
         <v>1</v>
@@ -11888,10 +11888,10 @@
         <v>45403.35416666666</v>
       </c>
       <c r="E133" t="s">
+        <v>30</v>
+      </c>
+      <c r="F133" t="s">
         <v>29</v>
-      </c>
-      <c r="F133" t="s">
-        <v>30</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11958,6 +11958,92 @@
       </c>
       <c r="AB133">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>7874806</v>
+      </c>
+      <c r="C134" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="2">
+        <v>45403.45833333334</v>
+      </c>
+      <c r="E134" t="s">
+        <v>33</v>
+      </c>
+      <c r="F134" t="s">
+        <v>36</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>45</v>
+      </c>
+      <c r="J134">
+        <v>2.375</v>
+      </c>
+      <c r="K134">
+        <v>3.1</v>
+      </c>
+      <c r="L134">
+        <v>2.7</v>
+      </c>
+      <c r="M134">
+        <v>1.909</v>
+      </c>
+      <c r="N134">
+        <v>3.2</v>
+      </c>
+      <c r="O134">
+        <v>3.6</v>
+      </c>
+      <c r="P134">
+        <v>-0.5</v>
+      </c>
+      <c r="Q134">
+        <v>1.975</v>
+      </c>
+      <c r="R134">
+        <v>1.825</v>
+      </c>
+      <c r="S134">
+        <v>2</v>
+      </c>
+      <c r="T134">
+        <v>1.825</v>
+      </c>
+      <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
+        <v>0.909</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
+        <v>-1</v>
+      </c>
+      <c r="AB134">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -103,16 +103,16 @@
     <t>Kairat Almaty</t>
   </si>
   <si>
+    <t>FC Astana</t>
+  </si>
+  <si>
     <t>Tobol Kostanay</t>
   </si>
   <si>
-    <t>FC Astana</t>
+    <t>Ordabasy</t>
   </si>
   <si>
     <t>FK Aktobe</t>
-  </si>
-  <si>
-    <t>Ordabasy</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6726053</v>
+        <v>6221684</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -711,7 +711,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -723,43 +723,43 @@
         <v>45</v>
       </c>
       <c r="J3">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="K3">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L3">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M3">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="P3">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="Q3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T3">
+        <v>1.925</v>
+      </c>
+      <c r="U3">
         <v>1.875</v>
       </c>
-      <c r="U3">
-        <v>1.925</v>
-      </c>
       <c r="V3">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -768,16 +768,16 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6221684</v>
+        <v>6726053</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -797,7 +797,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -809,43 +809,43 @@
         <v>45</v>
       </c>
       <c r="J4">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="K4">
+        <v>3.2</v>
+      </c>
+      <c r="L4">
+        <v>2.5</v>
+      </c>
+      <c r="M4">
+        <v>1.8</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
         <v>4.2</v>
       </c>
-      <c r="L4">
-        <v>4.5</v>
-      </c>
-      <c r="M4">
-        <v>1.222</v>
-      </c>
-      <c r="N4">
-        <v>5.5</v>
-      </c>
-      <c r="O4">
-        <v>9</v>
-      </c>
       <c r="P4">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q4">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T4">
+        <v>1.875</v>
+      </c>
+      <c r="U4">
         <v>1.925</v>
       </c>
-      <c r="U4">
-        <v>1.875</v>
-      </c>
       <c r="V4">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -854,16 +854,16 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -883,55 +883,55 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
         <v>45</v>
       </c>
       <c r="J5">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="K5">
+        <v>3.8</v>
+      </c>
+      <c r="L5">
+        <v>4.75</v>
+      </c>
+      <c r="M5">
+        <v>1.5</v>
+      </c>
+      <c r="N5">
         <v>4</v>
       </c>
-      <c r="L5">
-        <v>3.5</v>
-      </c>
-      <c r="M5">
-        <v>1.333</v>
-      </c>
-      <c r="N5">
-        <v>4.75</v>
-      </c>
       <c r="O5">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -940,16 +940,16 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -957,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -969,55 +969,55 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>45</v>
       </c>
       <c r="J6">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="K6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L6">
+        <v>3.5</v>
+      </c>
+      <c r="M6">
+        <v>1.333</v>
+      </c>
+      <c r="N6">
         <v>4.75</v>
       </c>
-      <c r="M6">
-        <v>1.5</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
       <c r="O6">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="P6">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1026,16 +1026,16 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1215,7 +1215,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1224,58 +1224,58 @@
         <v>45101.375</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
         <v>45</v>
       </c>
       <c r="J9">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="K9">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="L9">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="M9">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="N9">
+        <v>5.5</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+      <c r="P9">
+        <v>-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.975</v>
+      </c>
+      <c r="R9">
+        <v>1.825</v>
+      </c>
+      <c r="S9">
         <v>3</v>
       </c>
-      <c r="O9">
-        <v>3.2</v>
-      </c>
-      <c r="P9">
-        <v>-0.25</v>
-      </c>
-      <c r="Q9">
-        <v>1.875</v>
-      </c>
-      <c r="R9">
-        <v>1.925</v>
-      </c>
-      <c r="S9">
-        <v>2.25</v>
-      </c>
       <c r="T9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1284,13 +1284,13 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB9">
         <v>-1</v>
@@ -1301,7 +1301,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1310,58 +1310,58 @@
         <v>45101.375</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>45</v>
       </c>
       <c r="J10">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="K10">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="L10">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="M10">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="N10">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="P10">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q10">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1370,13 +1370,13 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <v>-1</v>
@@ -1399,7 +1399,7 @@
         <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1571,7 +1571,7 @@
         <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>39</v>
@@ -1817,7 +1817,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -1826,55 +1826,55 @@
         <v>45108.375</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="s">
         <v>46</v>
       </c>
       <c r="J16">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L16">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="M16">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N16">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O16">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="P16">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
         <v>2.5</v>
       </c>
       <c r="T16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
         <v>-1</v>
@@ -1883,16 +1883,16 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Y16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
         <v>-1</v>
@@ -1903,7 +1903,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -1912,55 +1912,55 @@
         <v>45108.375</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
         <v>46</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="K17">
+        <v>3.5</v>
+      </c>
+      <c r="L17">
+        <v>1.666</v>
+      </c>
+      <c r="M17">
+        <v>4.2</v>
+      </c>
+      <c r="N17">
         <v>3.4</v>
       </c>
-      <c r="L17">
-        <v>3.1</v>
-      </c>
-      <c r="M17">
-        <v>2.2</v>
-      </c>
-      <c r="N17">
-        <v>3.3</v>
-      </c>
       <c r="O17">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="P17">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
         <v>2.5</v>
       </c>
       <c r="T17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
         <v>-1</v>
@@ -1969,16 +1969,16 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB17">
         <v>-1</v>
@@ -2173,7 +2173,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2256,7 +2256,7 @@
         <v>45109.45833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
@@ -2342,7 +2342,7 @@
         <v>45109.5</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
@@ -2431,7 +2431,7 @@
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -2600,76 +2600,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J25">
+        <v>3.6</v>
+      </c>
+      <c r="K25">
+        <v>3.5</v>
+      </c>
+      <c r="L25">
+        <v>1.8</v>
+      </c>
+      <c r="M25">
         <v>3.1</v>
       </c>
-      <c r="K25">
-        <v>3.2</v>
-      </c>
-      <c r="L25">
-        <v>2.1</v>
-      </c>
-      <c r="M25">
-        <v>2.1</v>
-      </c>
       <c r="N25">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O25">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="P25">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R25">
+        <v>1.975</v>
+      </c>
+      <c r="S25">
+        <v>2.5</v>
+      </c>
+      <c r="T25">
+        <v>1.75</v>
+      </c>
+      <c r="U25">
         <v>1.95</v>
       </c>
-      <c r="S25">
-        <v>2.25</v>
-      </c>
-      <c r="T25">
-        <v>1.975</v>
-      </c>
-      <c r="U25">
-        <v>1.725</v>
-      </c>
       <c r="V25">
         <v>-1</v>
       </c>
       <c r="W25">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2677,7 +2677,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -2686,76 +2686,76 @@
         <v>45122.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J26">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K26">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L26">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M26">
+        <v>2.1</v>
+      </c>
+      <c r="N26">
         <v>3.1</v>
       </c>
-      <c r="N26">
-        <v>3.5</v>
-      </c>
       <c r="O26">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="P26">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R26">
+        <v>1.95</v>
+      </c>
+      <c r="S26">
+        <v>2.25</v>
+      </c>
+      <c r="T26">
         <v>1.975</v>
       </c>
-      <c r="S26">
-        <v>2.5</v>
-      </c>
-      <c r="T26">
-        <v>1.75</v>
-      </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V26">
         <v>-1</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z26">
+        <v>0.475</v>
+      </c>
+      <c r="AA26">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA26">
-        <v>-1</v>
-      </c>
       <c r="AB26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2775,7 +2775,7 @@
         <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3030,7 +3030,7 @@
         <v>45129.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
         <v>35</v>
@@ -3116,7 +3116,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -3202,7 +3202,7 @@
         <v>45129.5</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -3460,7 +3460,7 @@
         <v>45130.5</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -3549,7 +3549,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3807,7 +3807,7 @@
         <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -4234,7 +4234,7 @@
         <v>45144.44791666666</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
         <v>34</v>
@@ -4320,7 +4320,7 @@
         <v>45144.5</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
         <v>28</v>
@@ -4667,7 +4667,7 @@
         <v>28</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4741,7 +4741,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4750,64 +4750,64 @@
         <v>45151.5</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
         <v>32</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J50">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="K50">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L50">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="M50">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N50">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O50">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="R50">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T50">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
         <v>-1</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X50">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -4816,10 +4816,10 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4827,7 +4827,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -4836,64 +4836,64 @@
         <v>45151.5</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
         <v>31</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J51">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="K51">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L51">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="M51">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N51">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O51">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
+        <v>1.725</v>
+      </c>
+      <c r="R51">
+        <v>2.075</v>
+      </c>
+      <c r="S51">
+        <v>2.25</v>
+      </c>
+      <c r="T51">
+        <v>1.875</v>
+      </c>
+      <c r="U51">
         <v>1.925</v>
       </c>
-      <c r="R51">
-        <v>1.875</v>
-      </c>
-      <c r="S51">
-        <v>2.5</v>
-      </c>
-      <c r="T51">
-        <v>1.9</v>
-      </c>
-      <c r="U51">
-        <v>1.9</v>
-      </c>
       <c r="V51">
         <v>-1</v>
       </c>
       <c r="W51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -4902,10 +4902,10 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -5266,7 +5266,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
@@ -5352,10 +5352,10 @@
         <v>45158.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5438,7 +5438,7 @@
         <v>45158.5</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
         <v>28</v>
@@ -5859,7 +5859,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6221732</v>
+        <v>6221729</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -5868,49 +5868,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J63">
+        <v>2.9</v>
+      </c>
+      <c r="K63">
         <v>3.3</v>
       </c>
-      <c r="K63">
-        <v>3.25</v>
-      </c>
       <c r="L63">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="M63">
+        <v>1.75</v>
+      </c>
+      <c r="N63">
         <v>3.5</v>
       </c>
-      <c r="N63">
-        <v>3.25</v>
-      </c>
       <c r="O63">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q63">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R63">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T63">
         <v>1.9</v>
@@ -5919,16 +5919,16 @@
         <v>1.9</v>
       </c>
       <c r="V63">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W63">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z63">
         <v>-1</v>
@@ -5945,7 +5945,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6221729</v>
+        <v>6221732</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -5954,49 +5954,49 @@
         <v>45165.41666666666</v>
       </c>
       <c r="E64" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J64">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="K64">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L64">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="M64">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="N64">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="P64">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q64">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T64">
         <v>1.9</v>
@@ -6005,16 +6005,16 @@
         <v>1.9</v>
       </c>
       <c r="V64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z64">
         <v>-1</v>
@@ -6040,10 +6040,10 @@
         <v>45165.5</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6384,10 +6384,10 @@
         <v>45185.41666666666</v>
       </c>
       <c r="E69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" t="s">
         <v>30</v>
-      </c>
-      <c r="F69" t="s">
-        <v>29</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6470,10 +6470,10 @@
         <v>45185.5</v>
       </c>
       <c r="E70" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" t="s">
         <v>31</v>
-      </c>
-      <c r="F70" t="s">
-        <v>32</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6731,7 +6731,7 @@
         <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -7158,7 +7158,7 @@
         <v>45193.375</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
         <v>33</v>
@@ -7244,10 +7244,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7333,7 +7333,7 @@
         <v>40</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7416,7 +7416,7 @@
         <v>45196.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F81" t="s">
         <v>38</v>
@@ -7502,7 +7502,7 @@
         <v>45196.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -7591,7 +7591,7 @@
         <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7674,10 +7674,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7751,7 +7751,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7760,76 +7760,76 @@
         <v>45200.25</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J85">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="K85">
         <v>3.1</v>
       </c>
       <c r="L85">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="M85">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="N85">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O85">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="P85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q85">
+        <v>2</v>
+      </c>
+      <c r="R85">
         <v>1.8</v>
-      </c>
-      <c r="R85">
-        <v>2</v>
       </c>
       <c r="S85">
         <v>2.25</v>
       </c>
       <c r="T85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
         <v>0.8</v>
       </c>
-      <c r="Z85">
-        <v>-1</v>
-      </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB85">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7837,7 +7837,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -7846,76 +7846,76 @@
         <v>45200.25</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J86">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="K86">
         <v>3.1</v>
       </c>
       <c r="L86">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="M86">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="N86">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O86">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="P86">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S86">
         <v>2.25</v>
       </c>
       <c r="T86">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7935,7 +7935,7 @@
         <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -8009,7 +8009,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6221811</v>
+        <v>6221810</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8018,76 +8018,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J88">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="K88">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L88">
+        <v>3.8</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>3.1</v>
+      </c>
+      <c r="O88">
+        <v>3.5</v>
+      </c>
+      <c r="P88">
+        <v>-0.5</v>
+      </c>
+      <c r="Q88">
+        <v>2</v>
+      </c>
+      <c r="R88">
         <v>1.8</v>
       </c>
-      <c r="M88">
-        <v>3.8</v>
-      </c>
-      <c r="N88">
-        <v>3.6</v>
-      </c>
-      <c r="O88">
-        <v>1.75</v>
-      </c>
-      <c r="P88">
-        <v>0.75</v>
-      </c>
-      <c r="Q88">
-        <v>1.8</v>
-      </c>
-      <c r="R88">
-        <v>2</v>
-      </c>
       <c r="S88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="U88">
         <v>1.975</v>
       </c>
       <c r="V88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W88">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8095,7 +8095,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6221810</v>
+        <v>6221811</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8104,76 +8104,76 @@
         <v>45200.33333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J89">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="K89">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L89">
+        <v>1.8</v>
+      </c>
+      <c r="M89">
         <v>3.8</v>
       </c>
-      <c r="M89">
-        <v>2</v>
-      </c>
       <c r="N89">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="P89">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q89">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T89">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="U89">
         <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8193,7 +8193,7 @@
         <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8448,7 +8448,7 @@
         <v>45220.375</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
         <v>41</v>
@@ -8534,7 +8534,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s">
         <v>33</v>
@@ -8623,7 +8623,7 @@
         <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8792,7 +8792,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F97" t="s">
         <v>36</v>
@@ -8869,7 +8869,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221815</v>
+        <v>6221752</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8878,76 +8878,76 @@
         <v>45228.25</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J98">
+        <v>1.833</v>
+      </c>
+      <c r="K98">
+        <v>3.2</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98">
+        <v>1.85</v>
+      </c>
+      <c r="N98">
+        <v>3.2</v>
+      </c>
+      <c r="O98">
+        <v>4</v>
+      </c>
+      <c r="P98">
+        <v>-0.5</v>
+      </c>
+      <c r="Q98">
+        <v>1.9</v>
+      </c>
+      <c r="R98">
+        <v>1.9</v>
+      </c>
+      <c r="S98">
+        <v>2</v>
+      </c>
+      <c r="T98">
+        <v>1.775</v>
+      </c>
+      <c r="U98">
+        <v>2.025</v>
+      </c>
+      <c r="V98">
+        <v>-1</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
         <v>3</v>
       </c>
-      <c r="K98">
-        <v>3</v>
-      </c>
-      <c r="L98">
-        <v>2.25</v>
-      </c>
-      <c r="M98">
-        <v>3.1</v>
-      </c>
-      <c r="N98">
-        <v>3.1</v>
-      </c>
-      <c r="O98">
-        <v>2.15</v>
-      </c>
-      <c r="P98">
-        <v>0.25</v>
-      </c>
-      <c r="Q98">
-        <v>1.85</v>
-      </c>
-      <c r="R98">
-        <v>1.95</v>
-      </c>
-      <c r="S98">
-        <v>2.25</v>
-      </c>
-      <c r="T98">
-        <v>1.8</v>
-      </c>
-      <c r="U98">
-        <v>2</v>
-      </c>
-      <c r="V98">
-        <v>-1</v>
-      </c>
-      <c r="W98">
-        <v>2.1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
       <c r="Y98">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8955,7 +8955,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221753</v>
+        <v>6221815</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8964,76 +8964,76 @@
         <v>45228.25</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>47</v>
+      </c>
+      <c r="J99">
         <v>3</v>
       </c>
-      <c r="I99" t="s">
-        <v>46</v>
-      </c>
-      <c r="J99">
-        <v>2.75</v>
-      </c>
       <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>2.25</v>
+      </c>
+      <c r="M99">
         <v>3.1</v>
       </c>
-      <c r="L99">
-        <v>2.375</v>
-      </c>
-      <c r="M99">
-        <v>2.625</v>
-      </c>
       <c r="N99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O99">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q99">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>2.25</v>
+      </c>
+      <c r="T99">
         <v>1.8</v>
       </c>
-      <c r="S99">
-        <v>2.5</v>
-      </c>
-      <c r="T99">
-        <v>1.9</v>
-      </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V99">
         <v>-1</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X99">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z99">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9041,7 +9041,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9050,56 +9050,56 @@
         <v>45228.25</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100" t="s">
         <v>46</v>
       </c>
       <c r="J100">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="K100">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="M100">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="N100">
         <v>3.2</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="P100">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q100">
+        <v>2</v>
+      </c>
+      <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
+        <v>2.5</v>
+      </c>
+      <c r="T100">
         <v>1.9</v>
       </c>
-      <c r="R100">
+      <c r="U100">
         <v>1.9</v>
       </c>
-      <c r="S100">
-        <v>2</v>
-      </c>
-      <c r="T100">
-        <v>1.775</v>
-      </c>
-      <c r="U100">
-        <v>2.025</v>
-      </c>
       <c r="V100">
         <v>-1</v>
       </c>
@@ -9107,19 +9107,19 @@
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
+        <v>0.8</v>
+      </c>
+      <c r="AA100">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
       <c r="AB100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9139,7 +9139,7 @@
         <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9213,7 +9213,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221754</v>
+        <v>6221814</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9222,10 +9222,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9237,61 +9237,61 @@
         <v>47</v>
       </c>
       <c r="J102">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="K102">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L102">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="M102">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N102">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O102">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R102">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S102">
         <v>2.25</v>
       </c>
       <c r="T102">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>0.3999999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA102">
         <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.45</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9308,7 +9308,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
         <v>33</v>
@@ -9385,7 +9385,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221814</v>
+        <v>6221754</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9394,10 +9394,10 @@
         <v>45228.33333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9409,61 +9409,61 @@
         <v>47</v>
       </c>
       <c r="J104">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="K104">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L104">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N104">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O104">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P104">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q104">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S104">
         <v>2.25</v>
       </c>
       <c r="T104">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
         <v>-1</v>
       </c>
       <c r="W104">
-        <v>2.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
         <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9480,7 +9480,7 @@
         <v>45352.27083333334</v>
       </c>
       <c r="E105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F105" t="s">
         <v>43</v>
@@ -9569,7 +9569,7 @@
         <v>34</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9643,7 +9643,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7874784</v>
+        <v>7874783</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9652,76 +9652,76 @@
         <v>45353.25</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J107">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L107">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="N107">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O107">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="P107">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q107">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V107">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W107">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9729,7 +9729,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7874783</v>
+        <v>7874784</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9738,76 +9738,76 @@
         <v>45353.25</v>
       </c>
       <c r="E108" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J108">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="K108">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L108">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="M108">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="N108">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O108">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="P108">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U108">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9824,7 +9824,7 @@
         <v>45353.35416666666</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F109" t="s">
         <v>36</v>
@@ -9910,7 +9910,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F110" t="s">
         <v>44</v>
@@ -9999,7 +9999,7 @@
         <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10171,7 +10171,7 @@
         <v>35</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10254,7 +10254,7 @@
         <v>45357.47916666666</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -10687,7 +10687,7 @@
         <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10770,7 +10770,7 @@
         <v>45382.25</v>
       </c>
       <c r="E120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F120" t="s">
         <v>43</v>
@@ -10856,7 +10856,7 @@
         <v>45382.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F121" t="s">
         <v>42</v>
@@ -10942,7 +10942,7 @@
         <v>45382.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F122" t="s">
         <v>28</v>
@@ -11286,7 +11286,7 @@
         <v>45389.25</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
         <v>35</v>
@@ -11375,7 +11375,7 @@
         <v>36</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11461,7 +11461,7 @@
         <v>44</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11535,7 +11535,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7873756</v>
+        <v>7874802</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -11544,76 +11544,76 @@
         <v>45402.25</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G129">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J129">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="K129">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L129">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="M129">
         <v>2.875</v>
       </c>
       <c r="N129">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O129">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P129">
         <v>0.25</v>
       </c>
       <c r="Q129">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U129">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB129">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -11621,7 +11621,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7874802</v>
+        <v>7873756</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
@@ -11630,76 +11630,76 @@
         <v>45402.25</v>
       </c>
       <c r="E130" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G130">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J130">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="K130">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L130">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="M130">
         <v>2.875</v>
       </c>
       <c r="N130">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O130">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P130">
         <v>0.25</v>
       </c>
       <c r="Q130">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R130">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T130">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V130">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11716,7 +11716,7 @@
         <v>45402.35416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F131" t="s">
         <v>40</v>
@@ -11805,7 +11805,7 @@
         <v>28</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -11888,10 +11888,10 @@
         <v>45403.35416666666</v>
       </c>
       <c r="E133" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" t="s">
         <v>30</v>
-      </c>
-      <c r="F133" t="s">
-        <v>29</v>
       </c>
       <c r="G133">
         <v>2</v>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -97,22 +97,25 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>7873755</t>
+  </si>
+  <si>
     <t>Kazakhstan Premier League</t>
   </si>
   <si>
     <t>Kairat Almaty</t>
   </si>
   <si>
+    <t>Tobol Kostanay</t>
+  </si>
+  <si>
     <t>FC Astana</t>
   </si>
   <si>
-    <t>Tobol Kostanay</t>
+    <t>FK Aktobe</t>
   </si>
   <si>
     <t>Ordabasy</t>
-  </si>
-  <si>
-    <t>FK Aktobe</t>
   </si>
   <si>
     <t>Zhetysu</t>
@@ -519,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB134"/>
+  <dimension ref="A1:AB135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,16 +619,16 @@
         <v>6221787</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45080.41666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -634,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -699,19 +702,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6221684</v>
+        <v>6726053</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45080.45833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -720,46 +723,46 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="K3">
+        <v>3.2</v>
+      </c>
+      <c r="L3">
+        <v>2.5</v>
+      </c>
+      <c r="M3">
+        <v>1.8</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
         <v>4.2</v>
       </c>
-      <c r="L3">
-        <v>4.5</v>
-      </c>
-      <c r="M3">
-        <v>1.222</v>
-      </c>
-      <c r="N3">
-        <v>5.5</v>
-      </c>
-      <c r="O3">
-        <v>9</v>
-      </c>
       <c r="P3">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q3">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R3">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T3">
+        <v>1.875</v>
+      </c>
+      <c r="U3">
         <v>1.925</v>
       </c>
-      <c r="U3">
-        <v>1.875</v>
-      </c>
       <c r="V3">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -768,16 +771,16 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -785,19 +788,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6726053</v>
+        <v>6221684</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45080.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -806,46 +809,46 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="K4">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O4">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="P4">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="Q4">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T4">
+        <v>1.925</v>
+      </c>
+      <c r="U4">
         <v>1.875</v>
       </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
       <c r="V4">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -854,16 +857,16 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -871,67 +874,67 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6221786</v>
+        <v>6726054</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45080.5</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="K5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L5">
+        <v>3.5</v>
+      </c>
+      <c r="M5">
+        <v>1.333</v>
+      </c>
+      <c r="N5">
         <v>4.75</v>
       </c>
-      <c r="M5">
-        <v>1.5</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
       <c r="O5">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="P5">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -940,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -957,16 +960,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6726054</v>
+        <v>6221786</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45080.5</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
         <v>36</v>
@@ -975,49 +978,49 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="K6">
+        <v>3.8</v>
+      </c>
+      <c r="L6">
+        <v>4.75</v>
+      </c>
+      <c r="M6">
+        <v>1.5</v>
+      </c>
+      <c r="N6">
         <v>4</v>
       </c>
-      <c r="L6">
-        <v>3.5</v>
-      </c>
-      <c r="M6">
-        <v>1.333</v>
-      </c>
-      <c r="N6">
-        <v>4.75</v>
-      </c>
       <c r="O6">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P6">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1026,16 +1029,16 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1046,16 +1049,16 @@
         <v>6221683</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45081.375</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1064,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>2.4</v>
@@ -1132,16 +1135,16 @@
         <v>6221686</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45081.45833333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1150,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>1.55</v>
@@ -1215,10 +1218,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221694</v>
+        <v>6221789</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45101.375</v>
@@ -1233,49 +1236,49 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="K9">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="L9">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="M9">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="N9">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="P9">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q9">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1284,13 +1287,13 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>-1</v>
@@ -1301,67 +1304,67 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45101.375</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J10">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="K10">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="L10">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="M10">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="N10">
+        <v>5.5</v>
+      </c>
+      <c r="O10">
+        <v>11</v>
+      </c>
+      <c r="P10">
+        <v>-2</v>
+      </c>
+      <c r="Q10">
+        <v>1.975</v>
+      </c>
+      <c r="R10">
+        <v>1.825</v>
+      </c>
+      <c r="S10">
         <v>3</v>
       </c>
-      <c r="O10">
-        <v>3.2</v>
-      </c>
-      <c r="P10">
-        <v>-0.25</v>
-      </c>
-      <c r="Q10">
-        <v>1.875</v>
-      </c>
-      <c r="R10">
-        <v>1.925</v>
-      </c>
-      <c r="S10">
-        <v>2.25</v>
-      </c>
       <c r="T10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1370,13 +1373,13 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB10">
         <v>-1</v>
@@ -1390,13 +1393,13 @@
         <v>6221689</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45101.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
@@ -1408,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11">
         <v>2.4</v>
@@ -1476,16 +1479,16 @@
         <v>6221692</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45101.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1494,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12">
         <v>2.4</v>
@@ -1562,16 +1565,16 @@
         <v>6221690</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45101.5</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1580,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13">
         <v>3.75</v>
@@ -1648,16 +1651,16 @@
         <v>6221688</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45102.375</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1666,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14">
         <v>2.6</v>
@@ -1734,7 +1737,7 @@
         <v>6221687</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45102.45833333334</v>
@@ -1743,7 +1746,7 @@
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1752,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15">
         <v>1.444</v>
@@ -1817,64 +1820,64 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6221693</v>
+        <v>6221698</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45108.375</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="K16">
+        <v>3.5</v>
+      </c>
+      <c r="L16">
+        <v>1.666</v>
+      </c>
+      <c r="M16">
+        <v>4.2</v>
+      </c>
+      <c r="N16">
         <v>3.4</v>
       </c>
-      <c r="L16">
-        <v>3.1</v>
-      </c>
-      <c r="M16">
-        <v>2.2</v>
-      </c>
-      <c r="N16">
-        <v>3.3</v>
-      </c>
       <c r="O16">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="P16">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
         <v>2.5</v>
       </c>
       <c r="T16">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V16">
         <v>-1</v>
@@ -1883,16 +1886,16 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z16">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB16">
         <v>-1</v>
@@ -1903,64 +1906,64 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6221698</v>
+        <v>6221693</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45108.375</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J17">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L17">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="M17">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N17">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O17">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="P17">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
         <v>2.5</v>
       </c>
       <c r="T17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
         <v>-1</v>
@@ -1969,16 +1972,16 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Y17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB17">
         <v>-1</v>
@@ -1992,16 +1995,16 @@
         <v>6221697</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45108.5</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2010,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -2078,16 +2081,16 @@
         <v>6221788</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45109.33333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2096,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J19">
         <v>2.5</v>
@@ -2164,16 +2167,16 @@
         <v>6221691</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45109.41666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2182,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J20">
         <v>7</v>
@@ -2250,7 +2253,7 @@
         <v>6221696</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45109.45833333334</v>
@@ -2259,7 +2262,7 @@
         <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2268,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J21">
         <v>1.909</v>
@@ -2336,16 +2339,16 @@
         <v>6221695</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45109.5</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2354,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J22">
         <v>1.2</v>
@@ -2422,16 +2425,16 @@
         <v>6221795</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45117.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2440,7 +2443,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -2508,16 +2511,16 @@
         <v>6221790</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45122.33333333334</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2526,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J24">
         <v>3.25</v>
@@ -2591,85 +2594,85 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45122.41666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J25">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K25">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L25">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M25">
+        <v>2.1</v>
+      </c>
+      <c r="N25">
         <v>3.1</v>
       </c>
-      <c r="N25">
-        <v>3.5</v>
-      </c>
       <c r="O25">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R25">
+        <v>1.95</v>
+      </c>
+      <c r="S25">
+        <v>2.25</v>
+      </c>
+      <c r="T25">
         <v>1.975</v>
       </c>
-      <c r="S25">
-        <v>2.5</v>
-      </c>
-      <c r="T25">
-        <v>1.75</v>
-      </c>
       <c r="U25">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V25">
         <v>-1</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X25">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z25">
+        <v>0.475</v>
+      </c>
+      <c r="AA25">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA25">
-        <v>-1</v>
-      </c>
       <c r="AB25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2677,85 +2680,85 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45122.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
         <v>47</v>
       </c>
       <c r="J26">
+        <v>3.6</v>
+      </c>
+      <c r="K26">
+        <v>3.5</v>
+      </c>
+      <c r="L26">
+        <v>1.8</v>
+      </c>
+      <c r="M26">
         <v>3.1</v>
       </c>
-      <c r="K26">
-        <v>3.2</v>
-      </c>
-      <c r="L26">
-        <v>2.1</v>
-      </c>
-      <c r="M26">
-        <v>2.1</v>
-      </c>
       <c r="N26">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O26">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="P26">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q26">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>2.5</v>
+      </c>
+      <c r="T26">
+        <v>1.75</v>
+      </c>
+      <c r="U26">
         <v>1.95</v>
       </c>
-      <c r="S26">
-        <v>2.25</v>
-      </c>
-      <c r="T26">
-        <v>1.975</v>
-      </c>
-      <c r="U26">
-        <v>1.725</v>
-      </c>
       <c r="V26">
         <v>-1</v>
       </c>
       <c r="W26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA26">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2766,16 +2769,16 @@
         <v>6221791</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45122.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2784,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J27">
         <v>6</v>
@@ -2852,16 +2855,16 @@
         <v>6221702</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45123.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2870,7 +2873,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J28">
         <v>2.2</v>
@@ -2938,16 +2941,16 @@
         <v>6221704</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45129.375</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2956,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J29">
         <v>2.15</v>
@@ -3024,16 +3027,16 @@
         <v>6221705</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45129.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3042,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J30">
         <v>1.285</v>
@@ -3110,7 +3113,7 @@
         <v>6221707</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45129.45833333334</v>
@@ -3119,7 +3122,7 @@
         <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3128,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J31">
         <v>1.444</v>
@@ -3196,16 +3199,16 @@
         <v>6221793</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45129.5</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3214,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J32">
         <v>1.444</v>
@@ -3282,16 +3285,16 @@
         <v>6221792</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45130.375</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3300,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J33">
         <v>1.95</v>
@@ -3368,16 +3371,16 @@
         <v>6221794</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3386,7 +3389,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J34">
         <v>1.6</v>
@@ -3454,7 +3457,7 @@
         <v>6221706</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45130.5</v>
@@ -3463,7 +3466,7 @@
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3472,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J35">
         <v>1.444</v>
@@ -3540,16 +3543,16 @@
         <v>6221710</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45136.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3558,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J36">
         <v>5</v>
@@ -3626,16 +3629,16 @@
         <v>6221708</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45136.5</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3644,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J37">
         <v>3</v>
@@ -3712,17 +3715,17 @@
         <v>6221712</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45136.5</v>
       </c>
       <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
         <v>37</v>
       </c>
-      <c r="F38" t="s">
-        <v>36</v>
-      </c>
       <c r="G38">
         <v>2</v>
       </c>
@@ -3730,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J38">
         <v>2.1</v>
@@ -3798,13 +3801,13 @@
         <v>6221713</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45137.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
         <v>32</v>
@@ -3816,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J39">
         <v>3.6</v>
@@ -3884,16 +3887,16 @@
         <v>6221711</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45137.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3902,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>1.55</v>
@@ -3970,16 +3973,16 @@
         <v>6221715</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45143.375</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3988,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J41">
         <v>3.1</v>
@@ -4056,16 +4059,16 @@
         <v>6221714</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4074,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J42">
         <v>2.3</v>
@@ -4142,17 +4145,17 @@
         <v>6221796</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45143.5</v>
       </c>
       <c r="E43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s">
         <v>36</v>
       </c>
-      <c r="F43" t="s">
-        <v>35</v>
-      </c>
       <c r="G43">
         <v>2</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J43">
         <v>2.9</v>
@@ -4228,7 +4231,7 @@
         <v>6221717</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45144.44791666666</v>
@@ -4237,7 +4240,7 @@
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4246,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J44">
         <v>1.666</v>
@@ -4314,7 +4317,7 @@
         <v>6221718</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45144.5</v>
@@ -4323,7 +4326,7 @@
         <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -4332,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J45">
         <v>2.1</v>
@@ -4400,16 +4403,16 @@
         <v>6221722</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45150.33333333334</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4418,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J46">
         <v>2.5</v>
@@ -4486,16 +4489,16 @@
         <v>6221799</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45150.41666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4504,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4572,16 +4575,16 @@
         <v>6221798</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45151.33333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4590,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4658,13 +4661,13 @@
         <v>6221719</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45151.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
         <v>30</v>
@@ -4676,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J49">
         <v>1.5</v>
@@ -4741,73 +4744,73 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6221723</v>
+        <v>7055064</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45151.5</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50" t="s">
         <v>47</v>
       </c>
       <c r="J50">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="K50">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L50">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="M50">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N50">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O50">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
+        <v>1.725</v>
+      </c>
+      <c r="R50">
+        <v>2.075</v>
+      </c>
+      <c r="S50">
+        <v>2.25</v>
+      </c>
+      <c r="T50">
+        <v>1.875</v>
+      </c>
+      <c r="U50">
         <v>1.925</v>
       </c>
-      <c r="R50">
-        <v>1.875</v>
-      </c>
-      <c r="S50">
-        <v>2.5</v>
-      </c>
-      <c r="T50">
-        <v>1.9</v>
-      </c>
-      <c r="U50">
-        <v>1.9</v>
-      </c>
       <c r="V50">
         <v>-1</v>
       </c>
       <c r="W50">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -4816,10 +4819,10 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4827,73 +4830,73 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7055064</v>
+        <v>6221723</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45151.5</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J51">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="K51">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L51">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="M51">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N51">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O51">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="R51">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T51">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
         <v>-1</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X51">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -4902,10 +4905,10 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4916,16 +4919,16 @@
         <v>6221801</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45157.33333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4934,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J52">
         <v>1.8</v>
@@ -5002,17 +5005,17 @@
         <v>6221800</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" t="s">
         <v>41</v>
       </c>
-      <c r="F53" t="s">
-        <v>40</v>
-      </c>
       <c r="G53">
         <v>1</v>
       </c>
@@ -5020,7 +5023,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J53">
         <v>3.2</v>
@@ -5088,16 +5091,16 @@
         <v>6221724</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45157.5</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5106,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J54">
         <v>2.4</v>
@@ -5174,16 +5177,16 @@
         <v>7084108</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5192,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J55">
         <v>2.4</v>
@@ -5260,16 +5263,16 @@
         <v>6221726</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5278,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J56">
         <v>1.2</v>
@@ -5346,7 +5349,7 @@
         <v>7084107</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45158.45833333334</v>
@@ -5364,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J57">
         <v>1.8</v>
@@ -5432,16 +5435,16 @@
         <v>7084106</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45158.5</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5450,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J58">
         <v>1.95</v>
@@ -5518,16 +5521,16 @@
         <v>6221804</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45164.33333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5536,7 +5539,7 @@
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J59">
         <v>2.1</v>
@@ -5604,16 +5607,16 @@
         <v>7121403</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45164.375</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5622,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J60">
         <v>2.5</v>
@@ -5690,17 +5693,17 @@
         <v>6221730</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45164.5</v>
       </c>
       <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" t="s">
         <v>34</v>
       </c>
-      <c r="F61" t="s">
-        <v>33</v>
-      </c>
       <c r="G61">
         <v>1</v>
       </c>
@@ -5708,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -5776,16 +5779,16 @@
         <v>6221731</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45165.33333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5794,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J62">
         <v>1.666</v>
@@ -5862,16 +5865,16 @@
         <v>6221729</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5880,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J63">
         <v>2.9</v>
@@ -5948,13 +5951,13 @@
         <v>6221732</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
         <v>32</v>
@@ -5966,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J64">
         <v>3.3</v>
@@ -6034,7 +6037,7 @@
         <v>7125054</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45165.5</v>
@@ -6043,7 +6046,7 @@
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6052,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J65">
         <v>4.75</v>
@@ -6120,16 +6123,16 @@
         <v>6221733</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45184.25</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6138,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -6206,16 +6209,16 @@
         <v>6221806</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45184.33333333334</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6224,7 +6227,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J67">
         <v>2.3</v>
@@ -6292,16 +6295,16 @@
         <v>6221805</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45185.375</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6310,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J68">
         <v>2.375</v>
@@ -6378,13 +6381,13 @@
         <v>6221736</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
         <v>30</v>
@@ -6396,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J69">
         <v>1.727</v>
@@ -6464,7 +6467,7 @@
         <v>6221737</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45185.5</v>
@@ -6473,7 +6476,7 @@
         <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6482,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J70">
         <v>2.5</v>
@@ -6550,16 +6553,16 @@
         <v>6221735</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45186.29166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6568,7 +6571,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J71">
         <v>3</v>
@@ -6636,16 +6639,16 @@
         <v>6221734</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45186.375</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6654,7 +6657,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J72">
         <v>2.25</v>
@@ -6722,13 +6725,13 @@
         <v>6221742</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45192.25</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F73" t="s">
         <v>32</v>
@@ -6740,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J73">
         <v>2.6</v>
@@ -6808,16 +6811,16 @@
         <v>6221741</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6826,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J74">
         <v>1.8</v>
@@ -6894,16 +6897,16 @@
         <v>6221807</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6912,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J75">
         <v>1.45</v>
@@ -6980,16 +6983,16 @@
         <v>6221740</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -6998,7 +7001,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J76">
         <v>1.85</v>
@@ -7066,16 +7069,16 @@
         <v>6221808</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45193.25</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7084,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J77">
         <v>2.7</v>
@@ -7152,7 +7155,7 @@
         <v>6221739</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45193.375</v>
@@ -7161,7 +7164,7 @@
         <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7170,7 +7173,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J78">
         <v>1.8</v>
@@ -7238,17 +7241,17 @@
         <v>6221738</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E79" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" t="s">
         <v>31</v>
       </c>
-      <c r="F79" t="s">
-        <v>29</v>
-      </c>
       <c r="G79">
         <v>1</v>
       </c>
@@ -7256,7 +7259,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J79">
         <v>1.8</v>
@@ -7324,13 +7327,13 @@
         <v>6221700</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45196.25</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
         <v>30</v>
@@ -7342,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J80">
         <v>1.95</v>
@@ -7410,16 +7413,16 @@
         <v>7246204</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45196.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G81">
         <v>5</v>
@@ -7428,7 +7431,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J81">
         <v>1.285</v>
@@ -7496,16 +7499,16 @@
         <v>6221797</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45196.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7514,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J82">
         <v>1.285</v>
@@ -7582,13 +7585,13 @@
         <v>6221744</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45199.33333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F83" t="s">
         <v>30</v>
@@ -7600,7 +7603,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J83">
         <v>2.4</v>
@@ -7668,7 +7671,7 @@
         <v>6221746</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45199.41666666666</v>
@@ -7677,7 +7680,7 @@
         <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7686,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J84">
         <v>2.2</v>
@@ -7751,85 +7754,85 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45200.25</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="s">
         <v>46</v>
       </c>
       <c r="J85">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="K85">
         <v>3.1</v>
       </c>
       <c r="L85">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="M85">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="N85">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O85">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="P85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S85">
         <v>2.25</v>
       </c>
       <c r="T85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V85">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7837,85 +7840,85 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45200.25</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J86">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="K86">
         <v>3.1</v>
       </c>
       <c r="L86">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="N86">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O86">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="P86">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q86">
+        <v>2</v>
+      </c>
+      <c r="R86">
         <v>1.8</v>
-      </c>
-      <c r="R86">
-        <v>2</v>
       </c>
       <c r="S86">
         <v>2.25</v>
       </c>
       <c r="T86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
         <v>0.8</v>
       </c>
-      <c r="Z86">
-        <v>-1</v>
-      </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB86">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7926,17 +7929,17 @@
         <v>6221745</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45200.29166666666</v>
       </c>
       <c r="E87" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" t="s">
         <v>33</v>
       </c>
-      <c r="F87" t="s">
-        <v>31</v>
-      </c>
       <c r="G87">
         <v>1</v>
       </c>
@@ -7944,7 +7947,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J87">
         <v>5.5</v>
@@ -8009,85 +8012,85 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6221810</v>
+        <v>6221811</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45200.33333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J88">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="K88">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L88">
+        <v>1.8</v>
+      </c>
+      <c r="M88">
         <v>3.8</v>
       </c>
-      <c r="M88">
-        <v>2</v>
-      </c>
       <c r="N88">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="P88">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q88">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T88">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="U88">
         <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8095,85 +8098,85 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6221811</v>
+        <v>6221810</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45200.33333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J89">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="K89">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L89">
+        <v>3.8</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>3.1</v>
+      </c>
+      <c r="O89">
+        <v>3.5</v>
+      </c>
+      <c r="P89">
+        <v>-0.5</v>
+      </c>
+      <c r="Q89">
+        <v>2</v>
+      </c>
+      <c r="R89">
         <v>1.8</v>
       </c>
-      <c r="M89">
-        <v>3.8</v>
-      </c>
-      <c r="N89">
-        <v>3.6</v>
-      </c>
-      <c r="O89">
-        <v>1.75</v>
-      </c>
-      <c r="P89">
-        <v>0.75</v>
-      </c>
-      <c r="Q89">
-        <v>1.8</v>
-      </c>
-      <c r="R89">
-        <v>2</v>
-      </c>
       <c r="S89">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="U89">
         <v>1.975</v>
       </c>
       <c r="V89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W89">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8184,13 +8187,13 @@
         <v>7246203</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45204.29166666666</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
         <v>30</v>
@@ -8202,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J90">
         <v>2.7</v>
@@ -8270,16 +8273,16 @@
         <v>6221813</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45220.29166666666</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8288,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J91">
         <v>2.625</v>
@@ -8356,16 +8359,16 @@
         <v>6221749</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45220.375</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8374,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J92">
         <v>1.5</v>
@@ -8442,7 +8445,7 @@
         <v>6221748</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45220.375</v>
@@ -8451,7 +8454,7 @@
         <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8460,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J93">
         <v>1.533</v>
@@ -8528,16 +8531,16 @@
         <v>6221747</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8546,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J94">
         <v>1.25</v>
@@ -8614,13 +8617,13 @@
         <v>6221751</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45221.20833333334</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s">
         <v>32</v>
@@ -8632,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J95">
         <v>2.875</v>
@@ -8700,16 +8703,16 @@
         <v>6221750</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45221.33333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8718,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J96">
         <v>2.625</v>
@@ -8786,16 +8789,16 @@
         <v>6221812</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45221.41666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8804,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J97">
         <v>1.3</v>
@@ -8869,85 +8872,85 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221752</v>
+        <v>6221815</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45228.25</v>
       </c>
       <c r="E98" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J98">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="K98">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="M98">
+        <v>3.1</v>
+      </c>
+      <c r="N98">
+        <v>3.1</v>
+      </c>
+      <c r="O98">
+        <v>2.15</v>
+      </c>
+      <c r="P98">
+        <v>0.25</v>
+      </c>
+      <c r="Q98">
         <v>1.85</v>
       </c>
-      <c r="N98">
-        <v>3.2</v>
-      </c>
-      <c r="O98">
-        <v>4</v>
-      </c>
-      <c r="P98">
+      <c r="R98">
+        <v>1.95</v>
+      </c>
+      <c r="S98">
+        <v>2.25</v>
+      </c>
+      <c r="T98">
+        <v>1.8</v>
+      </c>
+      <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
+        <v>-1</v>
+      </c>
+      <c r="W98">
+        <v>2.1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>0.425</v>
+      </c>
+      <c r="Z98">
         <v>-0.5</v>
       </c>
-      <c r="Q98">
-        <v>1.9</v>
-      </c>
-      <c r="R98">
-        <v>1.9</v>
-      </c>
-      <c r="S98">
-        <v>2</v>
-      </c>
-      <c r="T98">
-        <v>1.775</v>
-      </c>
-      <c r="U98">
-        <v>2.025</v>
-      </c>
-      <c r="V98">
-        <v>-1</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>3</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
-      <c r="Z98">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8955,85 +8958,85 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221815</v>
+        <v>6221753</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45228.25</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I99" t="s">
         <v>47</v>
       </c>
       <c r="J99">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K99">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L99">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="M99">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N99">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O99">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="P99">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T99">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
         <v>-1</v>
       </c>
       <c r="W99">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y99">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9041,64 +9044,64 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221753</v>
+        <v>6221752</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45228.25</v>
       </c>
       <c r="E100" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J100">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="K100">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L100">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N100">
         <v>3.2</v>
       </c>
       <c r="O100">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T100">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V100">
         <v>-1</v>
@@ -9107,19 +9110,19 @@
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9130,16 +9133,16 @@
         <v>6221816</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45228.33333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9148,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J101">
         <v>3.4</v>
@@ -9213,19 +9216,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221814</v>
+        <v>6221754</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45228.33333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9234,64 +9237,64 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J102">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="K102">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L102">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="M102">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N102">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="O102">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q102">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R102">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S102">
         <v>2.25</v>
       </c>
       <c r="T102">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>2.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
         <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.4625</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9302,7 +9305,7 @@
         <v>6221755</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45228.33333333334</v>
@@ -9311,7 +9314,7 @@
         <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9320,7 +9323,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J103">
         <v>1.727</v>
@@ -9385,19 +9388,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221754</v>
+        <v>6221814</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45228.33333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9406,64 +9409,64 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J104">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="K104">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L104">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="M104">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N104">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O104">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P104">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R104">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S104">
         <v>2.25</v>
       </c>
       <c r="T104">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
         <v>-1</v>
       </c>
       <c r="W104">
-        <v>0.3999999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA104">
         <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>0.45</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9474,16 +9477,16 @@
         <v>7873762</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45352.27083333334</v>
       </c>
       <c r="E105" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -9492,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J105">
         <v>1.444</v>
@@ -9560,13 +9563,13 @@
         <v>7874781</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45352.375</v>
       </c>
       <c r="E106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
         <v>32</v>
@@ -9578,7 +9581,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J106">
         <v>3.3</v>
@@ -9643,85 +9646,85 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7874783</v>
+        <v>7874784</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45353.25</v>
       </c>
       <c r="E107" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J107">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="K107">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L107">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="M107">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="N107">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O107">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="P107">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T107">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U107">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -9729,85 +9732,85 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7874784</v>
+        <v>7874783</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45353.25</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J108">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L108">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="N108">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O108">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="P108">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q108">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V108">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W108">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9818,16 +9821,16 @@
         <v>7874785</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>5</v>
@@ -9836,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J109">
         <v>1.4</v>
@@ -9904,7 +9907,7 @@
         <v>7874786</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45353.45833333334</v>
@@ -9913,7 +9916,7 @@
         <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9922,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J110">
         <v>1.533</v>
@@ -9990,16 +9993,16 @@
         <v>7914794</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45356.375</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10008,7 +10011,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J111">
         <v>6.5</v>
@@ -10076,16 +10079,16 @@
         <v>7874788</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45357.27083333334</v>
       </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10094,7 +10097,7 @@
         <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J112">
         <v>2.375</v>
@@ -10162,16 +10165,16 @@
         <v>7874789</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45357.375</v>
       </c>
       <c r="E113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10180,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J113">
         <v>4.333</v>
@@ -10248,7 +10251,7 @@
         <v>7874790</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45357.47916666666</v>
@@ -10257,7 +10260,7 @@
         <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G114">
         <v>4</v>
@@ -10266,7 +10269,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J114">
         <v>1.666</v>
@@ -10334,16 +10337,16 @@
         <v>7873760</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45358.27083333334</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10352,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J115">
         <v>1.8</v>
@@ -10420,16 +10423,16 @@
         <v>7874791</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45358.375</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10438,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J116">
         <v>2.9</v>
@@ -10506,16 +10509,16 @@
         <v>7874792</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45381.25</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10524,7 +10527,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J117">
         <v>1.571</v>
@@ -10592,16 +10595,16 @@
         <v>7874793</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10610,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J118">
         <v>2.1</v>
@@ -10678,13 +10681,13 @@
         <v>7874795</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45382.25</v>
       </c>
       <c r="E119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s">
         <v>30</v>
@@ -10696,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J119">
         <v>2.2</v>
@@ -10764,7 +10767,7 @@
         <v>7873759</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45382.25</v>
@@ -10773,7 +10776,7 @@
         <v>32</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G120">
         <v>3</v>
@@ -10782,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J120">
         <v>1.25</v>
@@ -10850,16 +10853,16 @@
         <v>7873758</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10868,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J121">
         <v>1.3</v>
@@ -10936,16 +10939,16 @@
         <v>7874796</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10954,7 +10957,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J122">
         <v>1.571</v>
@@ -11022,16 +11025,16 @@
         <v>7873757</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45388.25</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G123">
         <v>4</v>
@@ -11040,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J123">
         <v>2</v>
@@ -11108,16 +11111,16 @@
         <v>7874797</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11126,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J124">
         <v>2.2</v>
@@ -11194,16 +11197,16 @@
         <v>7874798</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11212,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J125">
         <v>1.727</v>
@@ -11280,7 +11283,7 @@
         <v>7874799</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45389.25</v>
@@ -11289,7 +11292,7 @@
         <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11298,7 +11301,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J126">
         <v>1.85</v>
@@ -11366,16 +11369,16 @@
         <v>7871216</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11384,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J127">
         <v>2.6</v>
@@ -11452,16 +11455,16 @@
         <v>7874801</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45389.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11470,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J128">
         <v>2.5</v>
@@ -11535,85 +11538,85 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7874802</v>
+        <v>7873756</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45402.25</v>
       </c>
       <c r="E129" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G129">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J129">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="K129">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L129">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="M129">
         <v>2.875</v>
       </c>
       <c r="N129">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O129">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P129">
         <v>0.25</v>
       </c>
       <c r="Q129">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R129">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T129">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V129">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="Z129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -11621,85 +11624,85 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7873756</v>
+        <v>7874802</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45402.25</v>
       </c>
       <c r="E130" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G130">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J130">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="K130">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L130">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="M130">
         <v>2.875</v>
       </c>
       <c r="N130">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O130">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P130">
         <v>0.25</v>
       </c>
       <c r="Q130">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S130">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U130">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB130">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11710,16 +11713,16 @@
         <v>7874803</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11728,7 +11731,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J131">
         <v>1.5</v>
@@ -11796,13 +11799,13 @@
         <v>7874804</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F132" t="s">
         <v>32</v>
@@ -11814,7 +11817,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J132">
         <v>2.3</v>
@@ -11882,13 +11885,13 @@
         <v>7871217</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45403.35416666666</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F133" t="s">
         <v>30</v>
@@ -11900,7 +11903,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J133">
         <v>1.666</v>
@@ -11968,16 +11971,16 @@
         <v>7874806</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45403.45833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11986,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J134">
         <v>2.375</v>
@@ -12044,6 +12047,71 @@
       </c>
       <c r="AB134">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="2">
+        <v>45409.25</v>
+      </c>
+      <c r="E135" t="s">
+        <v>30</v>
+      </c>
+      <c r="F135" t="s">
+        <v>44</v>
+      </c>
+      <c r="J135">
+        <v>1.5</v>
+      </c>
+      <c r="K135">
+        <v>4</v>
+      </c>
+      <c r="L135">
+        <v>5</v>
+      </c>
+      <c r="M135">
+        <v>1.285</v>
+      </c>
+      <c r="N135">
+        <v>4.75</v>
+      </c>
+      <c r="O135">
+        <v>8.5</v>
+      </c>
+      <c r="P135">
+        <v>-1.5</v>
+      </c>
+      <c r="Q135">
+        <v>1.85</v>
+      </c>
+      <c r="R135">
+        <v>1.95</v>
+      </c>
+      <c r="S135">
+        <v>2.75</v>
+      </c>
+      <c r="T135">
+        <v>1.875</v>
+      </c>
+      <c r="U135">
+        <v>1.925</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -97,7 +97,13 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7873755</t>
+    <t>7871218</t>
+  </si>
+  <si>
+    <t>7874807</t>
+  </si>
+  <si>
+    <t>7874808</t>
   </si>
   <si>
     <t>Kazakhstan Premier League</t>
@@ -522,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB135"/>
+  <dimension ref="A1:AB137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,16 +625,16 @@
         <v>6221787</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>45080.41666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -637,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -705,16 +711,16 @@
         <v>6726053</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>45080.45833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -723,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>2.5</v>
@@ -791,16 +797,16 @@
         <v>6221684</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>45080.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -809,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J4">
         <v>1.533</v>
@@ -877,16 +883,16 @@
         <v>6726054</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>45080.5</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -895,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J5">
         <v>1.727</v>
@@ -963,16 +969,16 @@
         <v>6221786</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>45080.5</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -981,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1049,16 +1055,16 @@
         <v>6221683</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>45081.375</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1067,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>2.4</v>
@@ -1135,16 +1141,16 @@
         <v>6221686</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>45081.45833333334</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1153,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J8">
         <v>1.55</v>
@@ -1221,16 +1227,16 @@
         <v>6221789</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>45101.375</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1239,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J9">
         <v>2.25</v>
@@ -1307,16 +1313,16 @@
         <v>6221694</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>45101.375</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1325,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J10">
         <v>1.333</v>
@@ -1393,16 +1399,16 @@
         <v>6221689</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>45101.41666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1411,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J11">
         <v>2.4</v>
@@ -1479,16 +1485,16 @@
         <v>6221692</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>45101.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1497,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J12">
         <v>2.4</v>
@@ -1565,16 +1571,16 @@
         <v>6221690</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>45101.5</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1583,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <v>3.75</v>
@@ -1651,16 +1657,16 @@
         <v>6221688</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>45102.375</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1669,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J14">
         <v>2.6</v>
@@ -1737,16 +1743,16 @@
         <v>6221687</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>45102.45833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1755,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J15">
         <v>1.444</v>
@@ -1823,16 +1829,16 @@
         <v>6221698</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>45108.375</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1841,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J16">
         <v>4.333</v>
@@ -1909,16 +1915,16 @@
         <v>6221693</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>45108.375</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1927,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1995,16 +2001,16 @@
         <v>6221697</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>45108.5</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2013,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -2081,16 +2087,16 @@
         <v>6221788</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>45109.33333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2099,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J19">
         <v>2.5</v>
@@ -2167,16 +2173,16 @@
         <v>6221691</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>45109.41666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2185,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>7</v>
@@ -2253,16 +2259,16 @@
         <v>6221696</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
         <v>45109.45833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2271,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J21">
         <v>1.909</v>
@@ -2339,16 +2345,16 @@
         <v>6221695</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>45109.5</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2357,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J22">
         <v>1.2</v>
@@ -2425,16 +2431,16 @@
         <v>6221795</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>45117.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2443,7 +2449,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -2511,16 +2517,16 @@
         <v>6221790</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>45122.33333333334</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2529,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J24">
         <v>3.25</v>
@@ -2594,85 +2600,85 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6221699</v>
+        <v>6221703</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
         <v>45122.41666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J25">
+        <v>3.6</v>
+      </c>
+      <c r="K25">
+        <v>3.5</v>
+      </c>
+      <c r="L25">
+        <v>1.8</v>
+      </c>
+      <c r="M25">
         <v>3.1</v>
       </c>
-      <c r="K25">
-        <v>3.2</v>
-      </c>
-      <c r="L25">
-        <v>2.1</v>
-      </c>
-      <c r="M25">
-        <v>2.1</v>
-      </c>
       <c r="N25">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O25">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="P25">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R25">
+        <v>1.975</v>
+      </c>
+      <c r="S25">
+        <v>2.5</v>
+      </c>
+      <c r="T25">
+        <v>1.75</v>
+      </c>
+      <c r="U25">
         <v>1.95</v>
       </c>
-      <c r="S25">
-        <v>2.25</v>
-      </c>
-      <c r="T25">
-        <v>1.975</v>
-      </c>
-      <c r="U25">
-        <v>1.725</v>
-      </c>
       <c r="V25">
         <v>-1</v>
       </c>
       <c r="W25">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2680,85 +2686,85 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6221703</v>
+        <v>6221699</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
         <v>45122.41666666666</v>
       </c>
       <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J26">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K26">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L26">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M26">
+        <v>2.1</v>
+      </c>
+      <c r="N26">
         <v>3.1</v>
       </c>
-      <c r="N26">
-        <v>3.5</v>
-      </c>
       <c r="O26">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="P26">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R26">
+        <v>1.95</v>
+      </c>
+      <c r="S26">
+        <v>2.25</v>
+      </c>
+      <c r="T26">
         <v>1.975</v>
       </c>
-      <c r="S26">
-        <v>2.5</v>
-      </c>
-      <c r="T26">
-        <v>1.75</v>
-      </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V26">
         <v>-1</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z26">
+        <v>0.475</v>
+      </c>
+      <c r="AA26">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA26">
-        <v>-1</v>
-      </c>
       <c r="AB26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2769,16 +2775,16 @@
         <v>6221791</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
         <v>45122.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2787,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <v>6</v>
@@ -2855,16 +2861,16 @@
         <v>6221702</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
         <v>45123.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2873,7 +2879,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J28">
         <v>2.2</v>
@@ -2941,16 +2947,16 @@
         <v>6221704</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
         <v>45129.375</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2959,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <v>2.15</v>
@@ -3027,16 +3033,16 @@
         <v>6221705</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
         <v>45129.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3045,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J30">
         <v>1.285</v>
@@ -3113,16 +3119,16 @@
         <v>6221707</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
         <v>45129.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3131,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J31">
         <v>1.444</v>
@@ -3199,16 +3205,16 @@
         <v>6221793</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2">
         <v>45129.5</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3217,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J32">
         <v>1.444</v>
@@ -3285,16 +3291,16 @@
         <v>6221792</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>45130.375</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3303,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J33">
         <v>1.95</v>
@@ -3371,16 +3377,16 @@
         <v>6221794</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2">
         <v>45130.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3389,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J34">
         <v>1.6</v>
@@ -3457,16 +3463,16 @@
         <v>6221706</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2">
         <v>45130.5</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3475,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J35">
         <v>1.444</v>
@@ -3543,16 +3549,16 @@
         <v>6221710</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2">
         <v>45136.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3561,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J36">
         <v>5</v>
@@ -3629,16 +3635,16 @@
         <v>6221708</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
         <v>45136.5</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3647,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J37">
         <v>3</v>
@@ -3715,16 +3721,16 @@
         <v>6221712</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2">
         <v>45136.5</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3733,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J38">
         <v>2.1</v>
@@ -3801,16 +3807,16 @@
         <v>6221713</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2">
         <v>45137.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3819,7 +3825,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J39">
         <v>3.6</v>
@@ -3887,17 +3893,17 @@
         <v>6221711</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
         <v>45137.45833333334</v>
       </c>
       <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
         <v>36</v>
       </c>
-      <c r="F40" t="s">
-        <v>34</v>
-      </c>
       <c r="G40">
         <v>0</v>
       </c>
@@ -3905,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J40">
         <v>1.55</v>
@@ -3973,16 +3979,16 @@
         <v>6221715</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2">
         <v>45143.375</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3991,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J41">
         <v>3.1</v>
@@ -4059,16 +4065,16 @@
         <v>6221714</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2">
         <v>45143.41666666666</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4077,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J42">
         <v>2.3</v>
@@ -4145,16 +4151,16 @@
         <v>6221796</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2">
         <v>45143.5</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4163,7 +4169,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J43">
         <v>2.9</v>
@@ -4231,16 +4237,16 @@
         <v>6221717</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2">
         <v>45144.44791666666</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4249,7 +4255,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J44">
         <v>1.666</v>
@@ -4317,16 +4323,16 @@
         <v>6221718</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2">
         <v>45144.5</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -4335,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J45">
         <v>2.1</v>
@@ -4403,16 +4409,16 @@
         <v>6221722</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2">
         <v>45150.33333333334</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4421,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J46">
         <v>2.5</v>
@@ -4489,16 +4495,16 @@
         <v>6221799</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2">
         <v>45150.41666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4507,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4575,16 +4581,16 @@
         <v>6221798</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2">
         <v>45151.33333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4593,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J48">
         <v>1.8</v>
@@ -4661,16 +4667,16 @@
         <v>6221719</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2">
         <v>45151.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4679,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J49">
         <v>1.5</v>
@@ -4747,16 +4753,16 @@
         <v>7055064</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2">
         <v>45151.5</v>
       </c>
       <c r="E50" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" t="s">
         <v>35</v>
-      </c>
-      <c r="F50" t="s">
-        <v>33</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4765,7 +4771,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J50">
         <v>6.5</v>
@@ -4833,16 +4839,16 @@
         <v>6221723</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2">
         <v>45151.5</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4851,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J51">
         <v>3.75</v>
@@ -4919,16 +4925,16 @@
         <v>6221801</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2">
         <v>45157.33333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4937,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J52">
         <v>1.8</v>
@@ -5005,16 +5011,16 @@
         <v>6221800</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2">
         <v>45157.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5023,7 +5029,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J53">
         <v>3.2</v>
@@ -5091,16 +5097,16 @@
         <v>6221724</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2">
         <v>45157.5</v>
       </c>
       <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" t="s">
         <v>38</v>
-      </c>
-      <c r="F54" t="s">
-        <v>36</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5109,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J54">
         <v>2.4</v>
@@ -5177,16 +5183,16 @@
         <v>7084108</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5195,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J55">
         <v>2.4</v>
@@ -5263,16 +5269,16 @@
         <v>6221726</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2">
         <v>45158.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5281,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J56">
         <v>1.2</v>
@@ -5349,17 +5355,17 @@
         <v>7084107</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2">
         <v>45158.45833333334</v>
       </c>
       <c r="E57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" t="s">
         <v>32</v>
       </c>
-      <c r="F57" t="s">
-        <v>30</v>
-      </c>
       <c r="G57">
         <v>1</v>
       </c>
@@ -5367,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J57">
         <v>1.8</v>
@@ -5435,16 +5441,16 @@
         <v>7084106</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2">
         <v>45158.5</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5453,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J58">
         <v>1.95</v>
@@ -5521,16 +5527,16 @@
         <v>6221804</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2">
         <v>45164.33333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5539,7 +5545,7 @@
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J59">
         <v>2.1</v>
@@ -5607,16 +5613,16 @@
         <v>7121403</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2">
         <v>45164.375</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5625,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J60">
         <v>2.5</v>
@@ -5693,16 +5699,16 @@
         <v>6221730</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2">
         <v>45164.5</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5711,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -5779,16 +5785,16 @@
         <v>6221731</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D62" s="2">
         <v>45165.33333333334</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5797,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J62">
         <v>1.666</v>
@@ -5862,58 +5868,58 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6221729</v>
+        <v>6221732</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J63">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="K63">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L63">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="M63">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="N63">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="P63">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q63">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T63">
         <v>1.9</v>
@@ -5922,16 +5928,16 @@
         <v>1.9</v>
       </c>
       <c r="V63">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z63">
         <v>-1</v>
@@ -5948,22 +5954,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6221732</v>
+        <v>6221729</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D64" s="2">
         <v>45165.41666666666</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -5972,34 +5978,34 @@
         <v>48</v>
       </c>
       <c r="J64">
+        <v>2.9</v>
+      </c>
+      <c r="K64">
         <v>3.3</v>
       </c>
-      <c r="K64">
-        <v>3.25</v>
-      </c>
       <c r="L64">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="M64">
+        <v>1.75</v>
+      </c>
+      <c r="N64">
         <v>3.5</v>
       </c>
-      <c r="N64">
-        <v>3.25</v>
-      </c>
       <c r="O64">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="P64">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q64">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R64">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T64">
         <v>1.9</v>
@@ -6008,16 +6014,16 @@
         <v>1.9</v>
       </c>
       <c r="V64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W64">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z64">
         <v>-1</v>
@@ -6037,16 +6043,16 @@
         <v>7125054</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2">
         <v>45165.5</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6055,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J65">
         <v>4.75</v>
@@ -6123,16 +6129,16 @@
         <v>6221733</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2">
         <v>45184.25</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6141,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -6209,17 +6215,17 @@
         <v>6221806</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D67" s="2">
         <v>45184.33333333334</v>
       </c>
       <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
         <v>42</v>
       </c>
-      <c r="F67" t="s">
-        <v>40</v>
-      </c>
       <c r="G67">
         <v>0</v>
       </c>
@@ -6227,7 +6233,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J67">
         <v>2.3</v>
@@ -6295,16 +6301,16 @@
         <v>6221805</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2">
         <v>45185.375</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6313,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J68">
         <v>2.375</v>
@@ -6381,16 +6387,16 @@
         <v>6221736</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6399,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J69">
         <v>1.727</v>
@@ -6467,16 +6473,16 @@
         <v>6221737</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D70" s="2">
         <v>45185.5</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6485,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J70">
         <v>2.5</v>
@@ -6553,16 +6559,16 @@
         <v>6221735</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2">
         <v>45186.29166666666</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6571,7 +6577,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J71">
         <v>3</v>
@@ -6639,17 +6645,17 @@
         <v>6221734</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2">
         <v>45186.375</v>
       </c>
       <c r="E72" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" t="s">
         <v>37</v>
       </c>
-      <c r="F72" t="s">
-        <v>35</v>
-      </c>
       <c r="G72">
         <v>2</v>
       </c>
@@ -6657,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J72">
         <v>2.25</v>
@@ -6725,16 +6731,16 @@
         <v>6221742</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D73" s="2">
         <v>45192.25</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6743,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J73">
         <v>2.6</v>
@@ -6811,17 +6817,17 @@
         <v>6221741</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D74" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E74" t="s">
+        <v>42</v>
+      </c>
+      <c r="F74" t="s">
         <v>40</v>
       </c>
-      <c r="F74" t="s">
-        <v>38</v>
-      </c>
       <c r="G74">
         <v>2</v>
       </c>
@@ -6829,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J74">
         <v>1.8</v>
@@ -6897,16 +6903,16 @@
         <v>6221807</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D75" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6915,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J75">
         <v>1.45</v>
@@ -6983,16 +6989,16 @@
         <v>6221740</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7001,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J76">
         <v>1.85</v>
@@ -7069,16 +7075,16 @@
         <v>6221808</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2">
         <v>45193.25</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7087,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J77">
         <v>2.7</v>
@@ -7155,16 +7161,16 @@
         <v>6221739</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2">
         <v>45193.375</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7173,7 +7179,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J78">
         <v>1.8</v>
@@ -7241,17 +7247,17 @@
         <v>6221738</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D79" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E79" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" t="s">
         <v>33</v>
       </c>
-      <c r="F79" t="s">
-        <v>31</v>
-      </c>
       <c r="G79">
         <v>1</v>
       </c>
@@ -7259,7 +7265,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J79">
         <v>1.8</v>
@@ -7327,16 +7333,16 @@
         <v>6221700</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D80" s="2">
         <v>45196.25</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7345,7 +7351,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J80">
         <v>1.95</v>
@@ -7413,16 +7419,16 @@
         <v>7246204</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D81" s="2">
         <v>45196.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G81">
         <v>5</v>
@@ -7431,7 +7437,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J81">
         <v>1.285</v>
@@ -7499,16 +7505,16 @@
         <v>6221797</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D82" s="2">
         <v>45196.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7517,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J82">
         <v>1.285</v>
@@ -7585,16 +7591,16 @@
         <v>6221744</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D83" s="2">
         <v>45199.33333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7603,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J83">
         <v>2.4</v>
@@ -7671,16 +7677,16 @@
         <v>6221746</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7689,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J84">
         <v>2.2</v>
@@ -7754,85 +7760,85 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6221743</v>
+        <v>6221809</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2">
         <v>45200.25</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J85">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="K85">
         <v>3.1</v>
       </c>
       <c r="L85">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="M85">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="N85">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O85">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="P85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q85">
+        <v>2</v>
+      </c>
+      <c r="R85">
         <v>1.8</v>
-      </c>
-      <c r="R85">
-        <v>2</v>
       </c>
       <c r="S85">
         <v>2.25</v>
       </c>
       <c r="T85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
         <v>0.8</v>
       </c>
-      <c r="Z85">
-        <v>-1</v>
-      </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB85">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7840,85 +7846,85 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6221809</v>
+        <v>6221743</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2">
         <v>45200.25</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J86">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="K86">
         <v>3.1</v>
       </c>
       <c r="L86">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="M86">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="N86">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O86">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="P86">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S86">
         <v>2.25</v>
       </c>
       <c r="T86">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7929,16 +7935,16 @@
         <v>6221745</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2">
         <v>45200.29166666666</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7947,7 +7953,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J87">
         <v>5.5</v>
@@ -8015,16 +8021,16 @@
         <v>6221811</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2">
         <v>45200.33333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8033,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J88">
         <v>3.75</v>
@@ -8101,16 +8107,16 @@
         <v>6221810</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D89" s="2">
         <v>45200.33333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8119,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J89">
         <v>1.909</v>
@@ -8187,16 +8193,16 @@
         <v>7246203</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2">
         <v>45204.29166666666</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8205,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J90">
         <v>2.7</v>
@@ -8273,16 +8279,16 @@
         <v>6221813</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D91" s="2">
         <v>45220.29166666666</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8291,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J91">
         <v>2.625</v>
@@ -8356,85 +8362,85 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6221749</v>
+        <v>6221748</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2">
         <v>45220.375</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J92">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="K92">
         <v>3.4</v>
       </c>
       <c r="L92">
+        <v>6</v>
+      </c>
+      <c r="M92">
+        <v>1.444</v>
+      </c>
+      <c r="N92">
+        <v>4.2</v>
+      </c>
+      <c r="O92">
         <v>6.5</v>
       </c>
-      <c r="M92">
-        <v>1.333</v>
-      </c>
-      <c r="N92">
-        <v>4.5</v>
-      </c>
-      <c r="O92">
-        <v>7.5</v>
-      </c>
       <c r="P92">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q92">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S92">
         <v>3</v>
       </c>
       <c r="T92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U92">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V92">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8442,22 +8448,22 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6221748</v>
+        <v>6221749</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D93" s="2">
         <v>45220.375</v>
       </c>
       <c r="E93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8466,61 +8472,61 @@
         <v>48</v>
       </c>
       <c r="J93">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="K93">
         <v>3.4</v>
       </c>
       <c r="L93">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M93">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="N93">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O93">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="P93">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S93">
         <v>3</v>
       </c>
       <c r="T93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W93">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8531,16 +8537,16 @@
         <v>6221747</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D94" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8549,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J94">
         <v>1.25</v>
@@ -8617,16 +8623,16 @@
         <v>6221751</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D95" s="2">
         <v>45221.20833333334</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8635,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J95">
         <v>2.875</v>
@@ -8703,16 +8709,16 @@
         <v>6221750</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D96" s="2">
         <v>45221.33333333334</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8721,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J96">
         <v>2.625</v>
@@ -8789,16 +8795,16 @@
         <v>6221812</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D97" s="2">
         <v>45221.41666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8807,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J97">
         <v>1.3</v>
@@ -8872,85 +8878,85 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6221815</v>
+        <v>6221752</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D98" s="2">
         <v>45228.25</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J98">
+        <v>1.833</v>
+      </c>
+      <c r="K98">
+        <v>3.2</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98">
+        <v>1.85</v>
+      </c>
+      <c r="N98">
+        <v>3.2</v>
+      </c>
+      <c r="O98">
+        <v>4</v>
+      </c>
+      <c r="P98">
+        <v>-0.5</v>
+      </c>
+      <c r="Q98">
+        <v>1.9</v>
+      </c>
+      <c r="R98">
+        <v>1.9</v>
+      </c>
+      <c r="S98">
+        <v>2</v>
+      </c>
+      <c r="T98">
+        <v>1.775</v>
+      </c>
+      <c r="U98">
+        <v>2.025</v>
+      </c>
+      <c r="V98">
+        <v>-1</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
         <v>3</v>
       </c>
-      <c r="K98">
-        <v>3</v>
-      </c>
-      <c r="L98">
-        <v>2.25</v>
-      </c>
-      <c r="M98">
-        <v>3.1</v>
-      </c>
-      <c r="N98">
-        <v>3.1</v>
-      </c>
-      <c r="O98">
-        <v>2.15</v>
-      </c>
-      <c r="P98">
-        <v>0.25</v>
-      </c>
-      <c r="Q98">
-        <v>1.85</v>
-      </c>
-      <c r="R98">
-        <v>1.95</v>
-      </c>
-      <c r="S98">
-        <v>2.25</v>
-      </c>
-      <c r="T98">
-        <v>1.8</v>
-      </c>
-      <c r="U98">
-        <v>2</v>
-      </c>
-      <c r="V98">
-        <v>-1</v>
-      </c>
-      <c r="W98">
-        <v>2.1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
       <c r="Y98">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8958,10 +8964,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6221753</v>
+        <v>6221815</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D99" s="2">
         <v>45228.25</v>
@@ -8970,73 +8976,73 @@
         <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>50</v>
+      </c>
+      <c r="J99">
         <v>3</v>
       </c>
-      <c r="I99" t="s">
-        <v>47</v>
-      </c>
-      <c r="J99">
-        <v>2.75</v>
-      </c>
       <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>2.25</v>
+      </c>
+      <c r="M99">
         <v>3.1</v>
       </c>
-      <c r="L99">
-        <v>2.375</v>
-      </c>
-      <c r="M99">
-        <v>2.625</v>
-      </c>
       <c r="N99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O99">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q99">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>2.25</v>
+      </c>
+      <c r="T99">
         <v>1.8</v>
       </c>
-      <c r="S99">
-        <v>2.5</v>
-      </c>
-      <c r="T99">
-        <v>1.9</v>
-      </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V99">
         <v>-1</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X99">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z99">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9044,65 +9050,65 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6221752</v>
+        <v>6221753</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D100" s="2">
         <v>45228.25</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J100">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="K100">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="M100">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="N100">
         <v>3.2</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="P100">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q100">
+        <v>2</v>
+      </c>
+      <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
+        <v>2.5</v>
+      </c>
+      <c r="T100">
         <v>1.9</v>
       </c>
-      <c r="R100">
+      <c r="U100">
         <v>1.9</v>
       </c>
-      <c r="S100">
-        <v>2</v>
-      </c>
-      <c r="T100">
-        <v>1.775</v>
-      </c>
-      <c r="U100">
-        <v>2.025</v>
-      </c>
       <c r="V100">
         <v>-1</v>
       </c>
@@ -9110,19 +9116,19 @@
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
+        <v>0.8</v>
+      </c>
+      <c r="AA100">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
       <c r="AB100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9130,85 +9136,85 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6221816</v>
+        <v>6221814</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D101" s="2">
         <v>45228.33333333334</v>
       </c>
       <c r="E101" t="s">
+        <v>41</v>
+      </c>
+      <c r="F101" t="s">
         <v>42</v>
       </c>
-      <c r="F101" t="s">
-        <v>33</v>
-      </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J101">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="K101">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L101">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="M101">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N101">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O101">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="P101">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R101">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="S101">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T101">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9216,85 +9222,85 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6221754</v>
+        <v>6221755</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D102" s="2">
         <v>45228.33333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J102">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="K102">
         <v>3.5</v>
       </c>
       <c r="L102">
+        <v>4</v>
+      </c>
+      <c r="M102">
+        <v>1.444</v>
+      </c>
+      <c r="N102">
+        <v>4</v>
+      </c>
+      <c r="O102">
+        <v>6</v>
+      </c>
+      <c r="P102">
+        <v>-1.25</v>
+      </c>
+      <c r="Q102">
+        <v>1.975</v>
+      </c>
+      <c r="R102">
+        <v>1.825</v>
+      </c>
+      <c r="S102">
+        <v>2.75</v>
+      </c>
+      <c r="T102">
         <v>1.8</v>
       </c>
-      <c r="M102">
-        <v>5</v>
-      </c>
-      <c r="N102">
-        <v>1.4</v>
-      </c>
-      <c r="O102">
-        <v>5</v>
-      </c>
-      <c r="P102">
-        <v>0.25</v>
-      </c>
-      <c r="Q102">
-        <v>1.7</v>
-      </c>
-      <c r="R102">
-        <v>2.1</v>
-      </c>
-      <c r="S102">
-        <v>2.25</v>
-      </c>
-      <c r="T102">
-        <v>1.9</v>
-      </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>0.3999999999999999</v>
+        <v>3</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB102">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9302,85 +9308,85 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6221755</v>
+        <v>6221754</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D103" s="2">
         <v>45228.33333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J103">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="K103">
         <v>3.5</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="M103">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="N103">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P103">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q103">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S103">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
         <v>-1</v>
       </c>
       <c r="W103">
-        <v>3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="Z103">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9388,85 +9394,85 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6221814</v>
+        <v>6221816</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2">
         <v>45228.33333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
         <v>48</v>
       </c>
       <c r="J104">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="K104">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L104">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N104">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O104">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="P104">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q104">
+        <v>1.95</v>
+      </c>
+      <c r="R104">
         <v>1.75</v>
       </c>
-      <c r="R104">
-        <v>2.05</v>
-      </c>
       <c r="S104">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T104">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="W104">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9477,16 +9483,16 @@
         <v>7873762</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D105" s="2">
         <v>45352.27083333334</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -9495,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J105">
         <v>1.444</v>
@@ -9563,16 +9569,16 @@
         <v>7874781</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D106" s="2">
         <v>45352.375</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9581,7 +9587,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J106">
         <v>3.3</v>
@@ -9649,16 +9655,16 @@
         <v>7874784</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D107" s="2">
         <v>45353.25</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9667,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J107">
         <v>2.45</v>
@@ -9735,16 +9741,16 @@
         <v>7874783</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D108" s="2">
         <v>45353.25</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9753,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J108">
         <v>1.95</v>
@@ -9821,16 +9827,16 @@
         <v>7874785</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D109" s="2">
         <v>45353.35416666666</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>5</v>
@@ -9839,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J109">
         <v>1.4</v>
@@ -9907,16 +9913,16 @@
         <v>7874786</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D110" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9925,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J110">
         <v>1.533</v>
@@ -9993,16 +9999,16 @@
         <v>7914794</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D111" s="2">
         <v>45356.375</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10011,7 +10017,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J111">
         <v>6.5</v>
@@ -10079,16 +10085,16 @@
         <v>7874788</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D112" s="2">
         <v>45357.27083333334</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10097,7 +10103,7 @@
         <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J112">
         <v>2.375</v>
@@ -10165,16 +10171,16 @@
         <v>7874789</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D113" s="2">
         <v>45357.375</v>
       </c>
       <c r="E113" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10183,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J113">
         <v>4.333</v>
@@ -10251,16 +10257,16 @@
         <v>7874790</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D114" s="2">
         <v>45357.47916666666</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G114">
         <v>4</v>
@@ -10269,7 +10275,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J114">
         <v>1.666</v>
@@ -10337,16 +10343,16 @@
         <v>7873760</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D115" s="2">
         <v>45358.27083333334</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10355,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J115">
         <v>1.8</v>
@@ -10423,16 +10429,16 @@
         <v>7874791</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2">
         <v>45358.375</v>
       </c>
       <c r="E116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10441,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J116">
         <v>2.9</v>
@@ -10509,16 +10515,16 @@
         <v>7874792</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D117" s="2">
         <v>45381.25</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10527,7 +10533,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J117">
         <v>1.571</v>
@@ -10595,17 +10601,17 @@
         <v>7874793</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D118" s="2">
         <v>45381.35416666666</v>
       </c>
       <c r="E118" t="s">
+        <v>38</v>
+      </c>
+      <c r="F118" t="s">
         <v>36</v>
       </c>
-      <c r="F118" t="s">
-        <v>34</v>
-      </c>
       <c r="G118">
         <v>0</v>
       </c>
@@ -10613,7 +10619,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J118">
         <v>2.1</v>
@@ -10681,16 +10687,16 @@
         <v>7874795</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D119" s="2">
         <v>45382.25</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10699,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J119">
         <v>2.2</v>
@@ -10767,16 +10773,16 @@
         <v>7873759</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D120" s="2">
         <v>45382.25</v>
       </c>
       <c r="E120" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G120">
         <v>3</v>
@@ -10785,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J120">
         <v>1.25</v>
@@ -10853,16 +10859,16 @@
         <v>7873758</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D121" s="2">
         <v>45382.35416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10871,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J121">
         <v>1.3</v>
@@ -10939,16 +10945,16 @@
         <v>7874796</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D122" s="2">
         <v>45382.45833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10957,7 +10963,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J122">
         <v>1.571</v>
@@ -11025,16 +11031,16 @@
         <v>7873757</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D123" s="2">
         <v>45388.25</v>
       </c>
       <c r="E123" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G123">
         <v>4</v>
@@ -11043,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J123">
         <v>2</v>
@@ -11111,16 +11117,16 @@
         <v>7874797</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D124" s="2">
         <v>45388.35416666666</v>
       </c>
       <c r="E124" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11129,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J124">
         <v>2.2</v>
@@ -11197,16 +11203,16 @@
         <v>7874798</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D125" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11215,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J125">
         <v>1.727</v>
@@ -11283,16 +11289,16 @@
         <v>7874799</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D126" s="2">
         <v>45389.25</v>
       </c>
       <c r="E126" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11301,7 +11307,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J126">
         <v>1.85</v>
@@ -11369,16 +11375,16 @@
         <v>7871216</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D127" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11387,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J127">
         <v>2.6</v>
@@ -11455,16 +11461,16 @@
         <v>7874801</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D128" s="2">
         <v>45389.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11473,7 +11479,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J128">
         <v>2.5</v>
@@ -11541,16 +11547,16 @@
         <v>7873756</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D129" s="2">
         <v>45402.25</v>
       </c>
       <c r="E129" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F129" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11559,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J129">
         <v>2.6</v>
@@ -11627,16 +11633,16 @@
         <v>7874802</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D130" s="2">
         <v>45402.25</v>
       </c>
       <c r="E130" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11645,7 +11651,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J130">
         <v>3</v>
@@ -11713,16 +11719,16 @@
         <v>7874803</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D131" s="2">
         <v>45402.35416666666</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11731,7 +11737,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J131">
         <v>1.5</v>
@@ -11799,16 +11805,16 @@
         <v>7874804</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D132" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -11817,7 +11823,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J132">
         <v>2.3</v>
@@ -11885,16 +11891,16 @@
         <v>7871217</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D133" s="2">
         <v>45403.35416666666</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11903,7 +11909,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J133">
         <v>1.666</v>
@@ -11971,16 +11977,16 @@
         <v>7874806</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D134" s="2">
         <v>45403.45833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11989,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J134">
         <v>2.375</v>
@@ -12057,60 +12063,190 @@
         <v>27</v>
       </c>
       <c r="C135" t="s">
+        <v>30</v>
+      </c>
+      <c r="D135" s="2">
+        <v>45409.35416666666</v>
+      </c>
+      <c r="E135" t="s">
+        <v>47</v>
+      </c>
+      <c r="F135" t="s">
+        <v>33</v>
+      </c>
+      <c r="J135">
+        <v>6.5</v>
+      </c>
+      <c r="K135">
+        <v>3.75</v>
+      </c>
+      <c r="L135">
+        <v>1.444</v>
+      </c>
+      <c r="M135">
+        <v>7</v>
+      </c>
+      <c r="N135">
+        <v>4</v>
+      </c>
+      <c r="O135">
+        <v>1.4</v>
+      </c>
+      <c r="P135">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>2.025</v>
+      </c>
+      <c r="R135">
+        <v>1.775</v>
+      </c>
+      <c r="S135">
+        <v>2.25</v>
+      </c>
+      <c r="T135">
+        <v>1.9</v>
+      </c>
+      <c r="U135">
+        <v>1.9</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
         <v>28</v>
       </c>
-      <c r="D135" s="2">
-        <v>45409.25</v>
-      </c>
-      <c r="E135" t="s">
-        <v>30</v>
-      </c>
-      <c r="F135" t="s">
-        <v>44</v>
-      </c>
-      <c r="J135">
-        <v>1.5</v>
-      </c>
-      <c r="K135">
-        <v>4</v>
-      </c>
-      <c r="L135">
-        <v>5</v>
-      </c>
-      <c r="M135">
-        <v>1.285</v>
-      </c>
-      <c r="N135">
-        <v>4.75</v>
-      </c>
-      <c r="O135">
-        <v>8.5</v>
-      </c>
-      <c r="P135">
-        <v>-1.5</v>
-      </c>
-      <c r="Q135">
+      <c r="C136" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" s="2">
+        <v>45409.35416666666</v>
+      </c>
+      <c r="E136" t="s">
+        <v>38</v>
+      </c>
+      <c r="F136" t="s">
+        <v>43</v>
+      </c>
+      <c r="J136">
+        <v>2.6</v>
+      </c>
+      <c r="K136">
+        <v>2.875</v>
+      </c>
+      <c r="L136">
+        <v>2.625</v>
+      </c>
+      <c r="M136">
+        <v>2.625</v>
+      </c>
+      <c r="N136">
+        <v>2.875</v>
+      </c>
+      <c r="O136">
+        <v>2.625</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>1.9</v>
+      </c>
+      <c r="R136">
+        <v>1.9</v>
+      </c>
+      <c r="S136">
+        <v>1.75</v>
+      </c>
+      <c r="T136">
+        <v>1.75</v>
+      </c>
+      <c r="U136">
+        <v>2.05</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>29</v>
+      </c>
+      <c r="C137" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" s="2">
+        <v>45409.45833333334</v>
+      </c>
+      <c r="E137" t="s">
+        <v>37</v>
+      </c>
+      <c r="F137" t="s">
+        <v>31</v>
+      </c>
+      <c r="J137">
+        <v>3</v>
+      </c>
+      <c r="K137">
+        <v>3.25</v>
+      </c>
+      <c r="L137">
+        <v>2.1</v>
+      </c>
+      <c r="M137">
+        <v>3.5</v>
+      </c>
+      <c r="N137">
+        <v>3.3</v>
+      </c>
+      <c r="O137">
+        <v>1.909</v>
+      </c>
+      <c r="P137">
+        <v>0.5</v>
+      </c>
+      <c r="Q137">
+        <v>1.825</v>
+      </c>
+      <c r="R137">
+        <v>1.975</v>
+      </c>
+      <c r="S137">
+        <v>2.25</v>
+      </c>
+      <c r="T137">
+        <v>1.95</v>
+      </c>
+      <c r="U137">
         <v>1.85</v>
       </c>
-      <c r="R135">
-        <v>1.95</v>
-      </c>
-      <c r="S135">
-        <v>2.75</v>
-      </c>
-      <c r="T135">
-        <v>1.875</v>
-      </c>
-      <c r="U135">
-        <v>1.925</v>
-      </c>
-      <c r="V135">
-        <v>0</v>
-      </c>
-      <c r="W135">
-        <v>0</v>
-      </c>
-      <c r="X135">
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
         <v>0</v>
       </c>
     </row>

--- a/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
+++ b/Kazakhstan Premier League/Kazakhstan Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -97,12 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7871218</t>
-  </si>
-  <si>
-    <t>7874807</t>
-  </si>
-  <si>
     <t>7874808</t>
   </si>
   <si>
@@ -112,10 +106,10 @@
     <t>Kairat Almaty</t>
   </si>
   <si>
-    <t>Tobol Kostanay</t>
+    <t>FC Astana</t>
   </si>
   <si>
-    <t>FC Astana</t>
+    <t>Tobol Kostanay</t>
   </si>
   <si>
     <t>FK Aktobe</t>
@@ -528,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB137"/>
+  <dimension ref="A1:AB136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,16 +619,16 @@
         <v>6221787</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45080.41666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -643,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J2">
         <v>2.1</v>
@@ -708,19 +702,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6726053</v>
+        <v>6221684</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45080.45833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -729,46 +723,46 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J3">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="K3">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L3">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="M3">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="P3">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="Q3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T3">
+        <v>1.925</v>
+      </c>
+      <c r="U3">
         <v>1.875</v>
       </c>
-      <c r="U3">
-        <v>1.925</v>
-      </c>
       <c r="V3">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -777,16 +771,16 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -794,19 +788,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6221684</v>
+        <v>6726053</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45080.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -815,46 +809,46 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J4">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="K4">
+        <v>3.2</v>
+      </c>
+      <c r="L4">
+        <v>2.5</v>
+      </c>
+      <c r="M4">
+        <v>1.8</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
         <v>4.2</v>
       </c>
-      <c r="L4">
-        <v>4.5</v>
-      </c>
-      <c r="M4">
-        <v>1.222</v>
-      </c>
-      <c r="N4">
-        <v>5.5</v>
-      </c>
-      <c r="O4">
-        <v>9</v>
-      </c>
       <c r="P4">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q4">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T4">
+        <v>1.875</v>
+      </c>
+      <c r="U4">
         <v>1.925</v>
       </c>
-      <c r="U4">
-        <v>1.875</v>
-      </c>
       <c r="V4">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -863,16 +857,16 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -883,16 +877,16 @@
         <v>6726054</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45080.5</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -901,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J5">
         <v>1.727</v>
@@ -969,16 +963,16 @@
         <v>6221786</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45080.5</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -987,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1055,16 +1049,16 @@
         <v>6221683</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45081.375</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1073,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>2.4</v>
@@ -1141,16 +1135,16 @@
         <v>6221686</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45081.45833333334</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1159,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>1.55</v>
@@ -1224,67 +1218,67 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6221789</v>
+        <v>6221694</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45101.375</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J9">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="K9">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="L9">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="M9">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="N9">
+        <v>5.5</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+      <c r="P9">
+        <v>-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.975</v>
+      </c>
+      <c r="R9">
+        <v>1.825</v>
+      </c>
+      <c r="S9">
         <v>3</v>
       </c>
-      <c r="O9">
-        <v>3.2</v>
-      </c>
-      <c r="P9">
-        <v>-0.25</v>
-      </c>
-      <c r="Q9">
-        <v>1.875</v>
-      </c>
-      <c r="R9">
-        <v>1.925</v>
-      </c>
-      <c r="S9">
-        <v>2.25</v>
-      </c>
       <c r="T9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1293,13 +1287,13 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.875</v>
+        <v>0</